--- a/AAII_Financials/Quarterly/PSO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PSO_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="92">
   <si>
     <t>PSO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,170 +665,183 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43646</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43465</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43281</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43100</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42916</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42735</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42551</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42369</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>42185</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2364500</v>
+        <v>2512500</v>
       </c>
       <c r="E8" s="3">
-        <v>2926900</v>
+        <v>2252600</v>
       </c>
       <c r="F8" s="3">
-        <v>2411100</v>
+        <v>2788300</v>
       </c>
       <c r="G8" s="3">
-        <v>3188100</v>
+        <v>2296900</v>
       </c>
       <c r="H8" s="3">
-        <v>2646400</v>
+        <v>3037100</v>
       </c>
       <c r="I8" s="3">
-        <v>3472500</v>
+        <v>2521100</v>
       </c>
       <c r="J8" s="3">
+        <v>3308100</v>
+      </c>
+      <c r="K8" s="3">
         <v>2412400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3223000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2629600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3282800</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1168700</v>
+        <v>1174900</v>
       </c>
       <c r="E9" s="3">
-        <v>1332900</v>
+        <v>1113400</v>
       </c>
       <c r="F9" s="3">
+        <v>1269800</v>
+      </c>
+      <c r="G9" s="3">
+        <v>1123200</v>
+      </c>
+      <c r="H9" s="3">
+        <v>1321500</v>
+      </c>
+      <c r="I9" s="3">
+        <v>1223000</v>
+      </c>
+      <c r="J9" s="3">
+        <v>1454500</v>
+      </c>
+      <c r="K9" s="3">
         <v>1179000</v>
       </c>
-      <c r="G9" s="3">
-        <v>1387200</v>
-      </c>
-      <c r="H9" s="3">
-        <v>1283800</v>
-      </c>
-      <c r="I9" s="3">
-        <v>1526800</v>
-      </c>
-      <c r="J9" s="3">
-        <v>1179000</v>
-      </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1322600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1273300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1370800</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1195800</v>
+        <v>1337500</v>
       </c>
       <c r="E10" s="3">
-        <v>1594000</v>
+        <v>1139200</v>
       </c>
       <c r="F10" s="3">
-        <v>1232000</v>
+        <v>1518600</v>
       </c>
       <c r="G10" s="3">
-        <v>1800900</v>
+        <v>1173700</v>
       </c>
       <c r="H10" s="3">
-        <v>1362600</v>
+        <v>1715600</v>
       </c>
       <c r="I10" s="3">
-        <v>1945700</v>
+        <v>1298100</v>
       </c>
       <c r="J10" s="3">
+        <v>1853600</v>
+      </c>
+      <c r="K10" s="3">
         <v>1233300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1900400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1356300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1912000</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -842,8 +855,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -877,8 +891,11 @@
       <c r="M12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -912,43 +929,49 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-7800</v>
+        <v>-12300</v>
       </c>
       <c r="E14" s="3">
-        <v>-29700</v>
+        <v>-7400</v>
       </c>
       <c r="F14" s="3">
-        <v>-267600</v>
+        <v>-28300</v>
       </c>
       <c r="G14" s="3">
-        <v>-165500</v>
+        <v>-254900</v>
       </c>
       <c r="H14" s="3">
-        <v>0</v>
+        <v>-157600</v>
       </c>
       <c r="I14" s="3">
-        <v>3294100</v>
+        <v>0</v>
       </c>
       <c r="J14" s="3">
-        <v>0</v>
+        <v>3138100</v>
       </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>1107400</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>101400</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -982,8 +1005,11 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -994,78 +1020,85 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2316700</v>
+        <v>2219300</v>
       </c>
       <c r="E17" s="3">
-        <v>2513200</v>
+        <v>2207000</v>
       </c>
       <c r="F17" s="3">
-        <v>2109900</v>
+        <v>2394200</v>
       </c>
       <c r="G17" s="3">
-        <v>2625700</v>
+        <v>2010000</v>
       </c>
       <c r="H17" s="3">
-        <v>2625700</v>
+        <v>2501400</v>
       </c>
       <c r="I17" s="3">
-        <v>6330900</v>
+        <v>2501400</v>
       </c>
       <c r="J17" s="3">
+        <v>6031100</v>
+      </c>
+      <c r="K17" s="3">
         <v>2782100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3581600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2799500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2775800</v>
       </c>
     </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>47800</v>
+        <v>293100</v>
       </c>
       <c r="E18" s="3">
-        <v>413700</v>
+        <v>45600</v>
       </c>
       <c r="F18" s="3">
-        <v>301200</v>
+        <v>394100</v>
       </c>
       <c r="G18" s="3">
-        <v>562400</v>
+        <v>287000</v>
       </c>
       <c r="H18" s="3">
-        <v>20700</v>
+        <v>535700</v>
       </c>
       <c r="I18" s="3">
-        <v>-2858400</v>
+        <v>19700</v>
       </c>
       <c r="J18" s="3">
+        <v>-2723100</v>
+      </c>
+      <c r="K18" s="3">
         <v>-369700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-358700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-169900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>507000</v>
       </c>
     </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1079,78 +1112,85 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-31000</v>
+        <v>-23400</v>
       </c>
       <c r="E20" s="3">
-        <v>-31000</v>
+        <v>-29600</v>
       </c>
       <c r="F20" s="3">
-        <v>-40100</v>
+        <v>-29600</v>
       </c>
       <c r="G20" s="3">
-        <v>-5200</v>
+        <v>-38200</v>
       </c>
       <c r="H20" s="3">
-        <v>-33600</v>
+        <v>-4900</v>
       </c>
       <c r="I20" s="3">
-        <v>-51700</v>
+        <v>-32000</v>
       </c>
       <c r="J20" s="3">
+        <v>-49300</v>
+      </c>
+      <c r="K20" s="3">
         <v>-25900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-33900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-4000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-123800</v>
       </c>
     </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>221100</v>
+        <v>474200</v>
       </c>
       <c r="E21" s="3">
-        <v>550700</v>
+        <v>210600</v>
       </c>
       <c r="F21" s="3">
-        <v>420200</v>
+        <v>524700</v>
       </c>
       <c r="G21" s="3">
-        <v>761500</v>
+        <v>400300</v>
       </c>
       <c r="H21" s="3">
-        <v>187500</v>
+        <v>725400</v>
       </c>
       <c r="I21" s="3">
-        <v>-2677400</v>
+        <v>178600</v>
       </c>
       <c r="J21" s="3">
+        <v>-2550600</v>
+      </c>
+      <c r="K21" s="3">
         <v>-157700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>954800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>46100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>722900</v>
       </c>
     </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1184,78 +1224,87 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>16800</v>
+        <v>269700</v>
       </c>
       <c r="E23" s="3">
-        <v>382700</v>
+        <v>16000</v>
       </c>
       <c r="F23" s="3">
-        <v>261100</v>
+        <v>364600</v>
       </c>
       <c r="G23" s="3">
-        <v>557200</v>
+        <v>248800</v>
       </c>
       <c r="H23" s="3">
-        <v>-12900</v>
+        <v>530800</v>
       </c>
       <c r="I23" s="3">
-        <v>-2910100</v>
+        <v>-12300</v>
       </c>
       <c r="J23" s="3">
+        <v>-2772300</v>
+      </c>
+      <c r="K23" s="3">
         <v>-395600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-392600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-173800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>383200</v>
       </c>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-45200</v>
+        <v>1200</v>
       </c>
       <c r="E24" s="3">
-        <v>-135700</v>
+        <v>-43100</v>
       </c>
       <c r="F24" s="3">
-        <v>16800</v>
+        <v>-129300</v>
       </c>
       <c r="G24" s="3">
-        <v>15500</v>
+        <v>16000</v>
       </c>
       <c r="H24" s="3">
-        <v>7800</v>
+        <v>14800</v>
       </c>
       <c r="I24" s="3">
-        <v>-175800</v>
+        <v>7400</v>
       </c>
       <c r="J24" s="3">
+        <v>-167500</v>
+      </c>
+      <c r="K24" s="3">
         <v>-111200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-53500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-52700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>86900</v>
       </c>
     </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1289,78 +1338,87 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>62100</v>
+        <v>268500</v>
       </c>
       <c r="E26" s="3">
-        <v>518400</v>
+        <v>59100</v>
       </c>
       <c r="F26" s="3">
-        <v>244300</v>
+        <v>493900</v>
       </c>
       <c r="G26" s="3">
-        <v>541700</v>
+        <v>232800</v>
       </c>
       <c r="H26" s="3">
-        <v>-20700</v>
+        <v>516000</v>
       </c>
       <c r="I26" s="3">
-        <v>-2734300</v>
+        <v>-19700</v>
       </c>
       <c r="J26" s="3">
+        <v>-2604800</v>
+      </c>
+      <c r="K26" s="3">
         <v>-284400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-339100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-121100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>296300</v>
       </c>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>60800</v>
+        <v>267300</v>
       </c>
       <c r="E27" s="3">
-        <v>517100</v>
+        <v>57900</v>
       </c>
       <c r="F27" s="3">
-        <v>243000</v>
+        <v>492600</v>
       </c>
       <c r="G27" s="3">
-        <v>540400</v>
+        <v>231500</v>
       </c>
       <c r="H27" s="3">
-        <v>-22000</v>
+        <v>514800</v>
       </c>
       <c r="I27" s="3">
-        <v>-2735600</v>
+        <v>-20900</v>
       </c>
       <c r="J27" s="3">
+        <v>-2606100</v>
+      </c>
+      <c r="K27" s="3">
         <v>-285700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-339100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-121100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>297600</v>
       </c>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1394,43 +1452,49 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
+      <c r="E29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F29" s="3">
         <v>0</v>
       </c>
       <c r="G29" s="3">
-        <v>6500</v>
-      </c>
-      <c r="H29" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>6200</v>
+      </c>
+      <c r="I29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
       <c r="J29" s="3">
         <v>0</v>
       </c>
       <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
         <v>1515600</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>17100</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>23700</v>
       </c>
     </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1464,8 +1528,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1499,78 +1566,87 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>31000</v>
+        <v>23400</v>
       </c>
       <c r="E32" s="3">
-        <v>31000</v>
+        <v>29600</v>
       </c>
       <c r="F32" s="3">
-        <v>40100</v>
+        <v>29600</v>
       </c>
       <c r="G32" s="3">
-        <v>5200</v>
+        <v>38200</v>
       </c>
       <c r="H32" s="3">
-        <v>33600</v>
+        <v>4900</v>
       </c>
       <c r="I32" s="3">
-        <v>51700</v>
+        <v>32000</v>
       </c>
       <c r="J32" s="3">
+        <v>49300</v>
+      </c>
+      <c r="K32" s="3">
         <v>25900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>33900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>4000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>123800</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>60800</v>
+        <v>267300</v>
       </c>
       <c r="E33" s="3">
-        <v>517100</v>
+        <v>57900</v>
       </c>
       <c r="F33" s="3">
-        <v>243000</v>
+        <v>492600</v>
       </c>
       <c r="G33" s="3">
-        <v>546900</v>
+        <v>231500</v>
       </c>
       <c r="H33" s="3">
-        <v>-22000</v>
+        <v>521000</v>
       </c>
       <c r="I33" s="3">
-        <v>-2735600</v>
+        <v>-20900</v>
       </c>
       <c r="J33" s="3">
+        <v>-2606100</v>
+      </c>
+      <c r="K33" s="3">
         <v>-285700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1176500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-104000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>321300</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1604,83 +1680,92 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>60800</v>
+        <v>267300</v>
       </c>
       <c r="E35" s="3">
-        <v>517100</v>
+        <v>57900</v>
       </c>
       <c r="F35" s="3">
-        <v>243000</v>
+        <v>492600</v>
       </c>
       <c r="G35" s="3">
-        <v>546900</v>
+        <v>231500</v>
       </c>
       <c r="H35" s="3">
-        <v>-22000</v>
+        <v>521000</v>
       </c>
       <c r="I35" s="3">
-        <v>-2735600</v>
+        <v>-20900</v>
       </c>
       <c r="J35" s="3">
+        <v>-2606100</v>
+      </c>
+      <c r="K35" s="3">
         <v>-285700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1176500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-104000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>321300</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43646</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43465</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43281</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43100</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42916</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42735</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42551</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42369</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>42185</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1694,8 +1779,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1709,323 +1795,351 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>539100</v>
+        <v>538200</v>
       </c>
       <c r="E41" s="3">
-        <v>734300</v>
+        <v>513600</v>
       </c>
       <c r="F41" s="3">
-        <v>426600</v>
+        <v>699500</v>
       </c>
       <c r="G41" s="3">
-        <v>669700</v>
+        <v>406400</v>
       </c>
       <c r="H41" s="3">
-        <v>592100</v>
+        <v>638000</v>
       </c>
       <c r="I41" s="3">
-        <v>1886200</v>
+        <v>564100</v>
       </c>
       <c r="J41" s="3">
+        <v>1796900</v>
+      </c>
+      <c r="K41" s="3">
         <v>1267000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2221200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>475400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>697900</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E42" s="3">
-        <v>0</v>
+      <c r="E42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F42" s="3">
         <v>0</v>
       </c>
       <c r="G42" s="3">
-        <v>10300</v>
+        <v>0</v>
       </c>
       <c r="H42" s="3">
-        <v>14200</v>
+        <v>9900</v>
       </c>
       <c r="I42" s="3">
-        <v>12900</v>
+        <v>13500</v>
       </c>
       <c r="J42" s="3">
+        <v>12300</v>
+      </c>
+      <c r="K42" s="3">
         <v>40100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>36500</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>34200</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>21100</v>
       </c>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1645700</v>
+        <v>1570300</v>
       </c>
       <c r="E43" s="3">
-        <v>1522900</v>
+        <v>1567800</v>
       </c>
       <c r="F43" s="3">
-        <v>1369100</v>
+        <v>1450800</v>
       </c>
       <c r="G43" s="3">
-        <v>1435000</v>
+        <v>1304300</v>
       </c>
       <c r="H43" s="3">
-        <v>1595300</v>
+        <v>1367100</v>
       </c>
       <c r="I43" s="3">
-        <v>1754300</v>
+        <v>1519800</v>
       </c>
       <c r="J43" s="3">
+        <v>1671300</v>
+      </c>
+      <c r="K43" s="3">
         <v>1736200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1674700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1677600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1725000</v>
       </c>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>274100</v>
+        <v>208100</v>
       </c>
       <c r="E44" s="3">
-        <v>212000</v>
+        <v>261100</v>
       </c>
       <c r="F44" s="3">
-        <v>215900</v>
+        <v>202000</v>
       </c>
       <c r="G44" s="3">
-        <v>191300</v>
+        <v>205700</v>
       </c>
       <c r="H44" s="3">
-        <v>307700</v>
+        <v>182300</v>
       </c>
       <c r="I44" s="3">
-        <v>303800</v>
+        <v>293100</v>
       </c>
       <c r="J44" s="3">
+        <v>289400</v>
+      </c>
+      <c r="K44" s="3">
         <v>354200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>275200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>330500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>295000</v>
       </c>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1080800</v>
+        <v>1102300</v>
       </c>
       <c r="E45" s="3">
-        <v>1057500</v>
+        <v>1029600</v>
       </c>
       <c r="F45" s="3">
-        <v>996800</v>
+        <v>1007400</v>
       </c>
       <c r="G45" s="3">
-        <v>958000</v>
+        <v>949600</v>
       </c>
       <c r="H45" s="3">
-        <v>1281200</v>
+        <v>912600</v>
       </c>
       <c r="I45" s="3">
-        <v>1323800</v>
+        <v>1220500</v>
       </c>
       <c r="J45" s="3">
+        <v>1261200</v>
+      </c>
+      <c r="K45" s="3">
         <v>1221700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1138700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1114000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1111400</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3539700</v>
+        <v>3418900</v>
       </c>
       <c r="E46" s="3">
-        <v>3526800</v>
+        <v>3372100</v>
       </c>
       <c r="F46" s="3">
-        <v>3008400</v>
+        <v>3359800</v>
       </c>
       <c r="G46" s="3">
-        <v>3264300</v>
+        <v>2865900</v>
       </c>
       <c r="H46" s="3">
-        <v>3790500</v>
+        <v>3109800</v>
       </c>
       <c r="I46" s="3">
-        <v>5281100</v>
+        <v>3611100</v>
       </c>
       <c r="J46" s="3">
+        <v>5031100</v>
+      </c>
+      <c r="K46" s="3">
         <v>4619200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>5346400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3631700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3850300</v>
       </c>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1248900</v>
+        <v>544400</v>
       </c>
       <c r="E47" s="3">
-        <v>756300</v>
+        <v>1189700</v>
       </c>
       <c r="F47" s="3">
-        <v>742100</v>
+        <v>720500</v>
       </c>
       <c r="G47" s="3">
-        <v>747200</v>
+        <v>706900</v>
       </c>
       <c r="H47" s="3">
-        <v>1107900</v>
+        <v>711900</v>
       </c>
       <c r="I47" s="3">
-        <v>1830600</v>
+        <v>1055500</v>
       </c>
       <c r="J47" s="3">
+        <v>1743900</v>
+      </c>
+      <c r="K47" s="3">
         <v>1772400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1775200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1603900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1651300</v>
       </c>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>830000</v>
+        <v>761100</v>
       </c>
       <c r="E48" s="3">
-        <v>306400</v>
+        <v>790700</v>
       </c>
       <c r="F48" s="3">
-        <v>346500</v>
+        <v>291900</v>
       </c>
       <c r="G48" s="3">
-        <v>363300</v>
+        <v>330100</v>
       </c>
       <c r="H48" s="3">
-        <v>395600</v>
+        <v>346100</v>
       </c>
       <c r="I48" s="3">
-        <v>443400</v>
+        <v>376900</v>
       </c>
       <c r="J48" s="3">
+        <v>422400</v>
+      </c>
+      <c r="K48" s="3">
         <v>438300</v>
-      </c>
-      <c r="K48" s="3">
-        <v>417400</v>
       </c>
       <c r="L48" s="3">
         <v>417400</v>
       </c>
       <c r="M48" s="3">
+        <v>417400</v>
+      </c>
+      <c r="N48" s="3">
         <v>439800</v>
       </c>
     </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3958600</v>
+        <v>3571600</v>
       </c>
       <c r="E49" s="3">
-        <v>3890100</v>
+        <v>3771200</v>
       </c>
       <c r="F49" s="3">
-        <v>3965000</v>
+        <v>3705900</v>
       </c>
       <c r="G49" s="3">
-        <v>3831900</v>
+        <v>3777300</v>
       </c>
       <c r="H49" s="3">
-        <v>4222300</v>
+        <v>3650500</v>
       </c>
       <c r="I49" s="3">
-        <v>4449900</v>
+        <v>4022400</v>
       </c>
       <c r="J49" s="3">
+        <v>4239200</v>
+      </c>
+      <c r="K49" s="3">
         <v>7260400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>6735500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>7816500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>8308900</v>
       </c>
     </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2059,8 +2173,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2094,43 +2211,49 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>720100</v>
+        <v>1125700</v>
       </c>
       <c r="E52" s="3">
-        <v>1740100</v>
+        <v>686000</v>
       </c>
       <c r="F52" s="3">
-        <v>1809900</v>
+        <v>1657700</v>
       </c>
       <c r="G52" s="3">
-        <v>1990900</v>
+        <v>1724200</v>
       </c>
       <c r="H52" s="3">
-        <v>1921100</v>
+        <v>1896700</v>
       </c>
       <c r="I52" s="3">
-        <v>1008400</v>
+        <v>1830200</v>
       </c>
       <c r="J52" s="3">
+        <v>960600</v>
+      </c>
+      <c r="K52" s="3">
         <v>1199700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>901300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>886200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>757200</v>
       </c>
     </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2164,43 +2287,49 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>10297200</v>
+        <v>9421700</v>
       </c>
       <c r="E54" s="3">
-        <v>10219700</v>
+        <v>9809700</v>
       </c>
       <c r="F54" s="3">
-        <v>9871900</v>
+        <v>9735800</v>
       </c>
       <c r="G54" s="3">
-        <v>10197700</v>
+        <v>9404500</v>
       </c>
       <c r="H54" s="3">
-        <v>11437500</v>
+        <v>9714900</v>
       </c>
       <c r="I54" s="3">
-        <v>13013400</v>
+        <v>10896000</v>
       </c>
       <c r="J54" s="3">
+        <v>12397300</v>
+      </c>
+      <c r="K54" s="3">
         <v>15290100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>15175600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>14355600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>15007500</v>
       </c>
     </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2214,8 +2343,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2229,218 +2359,237 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1563000</v>
+        <v>1574000</v>
       </c>
       <c r="E57" s="3">
-        <v>1809900</v>
+        <v>1489000</v>
       </c>
       <c r="F57" s="3">
-        <v>1516500</v>
+        <v>1724200</v>
       </c>
       <c r="G57" s="3">
-        <v>1735000</v>
+        <v>1444700</v>
       </c>
       <c r="H57" s="3">
-        <v>1720700</v>
+        <v>1652800</v>
       </c>
       <c r="I57" s="3">
-        <v>2106000</v>
+        <v>1639300</v>
       </c>
       <c r="J57" s="3">
+        <v>2006300</v>
+      </c>
+      <c r="K57" s="3">
         <v>1891400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1813000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1721000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2108200</v>
       </c>
     </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>182300</v>
+        <v>113300</v>
       </c>
       <c r="E58" s="3">
-        <v>59500</v>
+        <v>173700</v>
       </c>
       <c r="F58" s="3">
-        <v>42700</v>
+        <v>56700</v>
       </c>
       <c r="G58" s="3">
-        <v>24600</v>
+        <v>40600</v>
       </c>
       <c r="H58" s="3">
-        <v>343900</v>
+        <v>23400</v>
       </c>
       <c r="I58" s="3">
-        <v>56900</v>
+        <v>327600</v>
       </c>
       <c r="J58" s="3">
+        <v>54200</v>
+      </c>
+      <c r="K58" s="3">
         <v>148700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>367800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>965200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>450300</v>
       </c>
     </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>69800</v>
+        <v>150300</v>
       </c>
       <c r="E59" s="3">
-        <v>148700</v>
+        <v>66500</v>
       </c>
       <c r="F59" s="3">
-        <v>363300</v>
+        <v>141600</v>
       </c>
       <c r="G59" s="3">
-        <v>331000</v>
+        <v>346100</v>
       </c>
       <c r="H59" s="3">
-        <v>271500</v>
+        <v>315300</v>
       </c>
       <c r="I59" s="3">
-        <v>324500</v>
+        <v>258600</v>
       </c>
       <c r="J59" s="3">
+        <v>309100</v>
+      </c>
+      <c r="K59" s="3">
         <v>181000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>306500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>221200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>321300</v>
       </c>
     </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1815100</v>
+        <v>1837500</v>
       </c>
       <c r="E60" s="3">
-        <v>2018100</v>
+        <v>1729200</v>
       </c>
       <c r="F60" s="3">
-        <v>1922400</v>
+        <v>1922500</v>
       </c>
       <c r="G60" s="3">
-        <v>2090500</v>
+        <v>1831400</v>
       </c>
       <c r="H60" s="3">
-        <v>2336100</v>
+        <v>1991500</v>
       </c>
       <c r="I60" s="3">
-        <v>2487400</v>
+        <v>2225500</v>
       </c>
       <c r="J60" s="3">
+        <v>2369600</v>
+      </c>
+      <c r="K60" s="3">
         <v>2221000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2487300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2907500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2879800</v>
       </c>
     </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2416300</v>
+        <v>1936100</v>
       </c>
       <c r="E61" s="3">
-        <v>871400</v>
+        <v>2301900</v>
       </c>
       <c r="F61" s="3">
-        <v>1382000</v>
+        <v>830100</v>
       </c>
       <c r="G61" s="3">
-        <v>1378100</v>
+        <v>1316600</v>
       </c>
       <c r="H61" s="3">
-        <v>2347700</v>
+        <v>1312900</v>
       </c>
       <c r="I61" s="3">
-        <v>3133800</v>
+        <v>2236600</v>
       </c>
       <c r="J61" s="3">
+        <v>2985400</v>
+      </c>
+      <c r="K61" s="3">
         <v>3004500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2671200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2532200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2479500</v>
       </c>
     </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>517100</v>
+        <v>323900</v>
       </c>
       <c r="E62" s="3">
-        <v>1480300</v>
+        <v>492600</v>
       </c>
       <c r="F62" s="3">
-        <v>1270800</v>
+        <v>1410200</v>
       </c>
       <c r="G62" s="3">
-        <v>1530700</v>
+        <v>1210700</v>
       </c>
       <c r="H62" s="3">
-        <v>1631500</v>
+        <v>1458200</v>
       </c>
       <c r="I62" s="3">
-        <v>1771100</v>
+        <v>1554300</v>
       </c>
       <c r="J62" s="3">
+        <v>1687300</v>
+      </c>
+      <c r="K62" s="3">
         <v>1713000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1646000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1800100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1767100</v>
       </c>
     </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2474,8 +2623,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2509,8 +2661,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2544,43 +2699,49 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>4761400</v>
+        <v>4109800</v>
       </c>
       <c r="E66" s="3">
-        <v>4381300</v>
+        <v>4536000</v>
       </c>
       <c r="F66" s="3">
-        <v>4586900</v>
+        <v>4173900</v>
       </c>
       <c r="G66" s="3">
-        <v>5009600</v>
+        <v>4369700</v>
       </c>
       <c r="H66" s="3">
-        <v>6321800</v>
+        <v>4772500</v>
       </c>
       <c r="I66" s="3">
-        <v>7397500</v>
+        <v>6022500</v>
       </c>
       <c r="J66" s="3">
+        <v>7047200</v>
+      </c>
+      <c r="K66" s="3">
         <v>6942400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>6809800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>7247600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>7134400</v>
       </c>
     </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2594,8 +2755,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2629,8 +2791,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2664,8 +2829,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2699,8 +2867,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2734,43 +2905,49 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1022600</v>
+        <v>1135500</v>
       </c>
       <c r="E72" s="3">
-        <v>1357500</v>
+        <v>974200</v>
       </c>
       <c r="F72" s="3">
-        <v>982500</v>
+        <v>1293200</v>
       </c>
       <c r="G72" s="3">
-        <v>862300</v>
+        <v>936000</v>
       </c>
       <c r="H72" s="3">
-        <v>539100</v>
+        <v>821500</v>
       </c>
       <c r="I72" s="3">
-        <v>925700</v>
+        <v>513600</v>
       </c>
       <c r="J72" s="3">
+        <v>881800</v>
+      </c>
+      <c r="K72" s="3">
         <v>4151200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>4823300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>3531600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>4213700</v>
       </c>
     </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2804,8 +2981,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2839,8 +3019,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2874,43 +3057,49 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>5535800</v>
+        <v>5311900</v>
       </c>
       <c r="E76" s="3">
-        <v>5838300</v>
+        <v>5273700</v>
       </c>
       <c r="F76" s="3">
-        <v>5285000</v>
+        <v>5561900</v>
       </c>
       <c r="G76" s="3">
-        <v>5188000</v>
+        <v>5034800</v>
       </c>
       <c r="H76" s="3">
-        <v>5115600</v>
+        <v>4942400</v>
       </c>
       <c r="I76" s="3">
-        <v>5616000</v>
+        <v>4873400</v>
       </c>
       <c r="J76" s="3">
+        <v>5350100</v>
+      </c>
+      <c r="K76" s="3">
         <v>8347700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>8365800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>7108000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>7873100</v>
       </c>
     </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2944,83 +3133,92 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43646</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43465</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43281</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43100</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42916</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42735</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42551</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42369</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>42185</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>60800</v>
+        <v>267300</v>
       </c>
       <c r="E81" s="3">
-        <v>517100</v>
+        <v>57900</v>
       </c>
       <c r="F81" s="3">
-        <v>243000</v>
+        <v>492600</v>
       </c>
       <c r="G81" s="3">
-        <v>546900</v>
+        <v>231500</v>
       </c>
       <c r="H81" s="3">
-        <v>-22000</v>
+        <v>521000</v>
       </c>
       <c r="I81" s="3">
-        <v>-2735600</v>
+        <v>-20900</v>
       </c>
       <c r="J81" s="3">
+        <v>-2606100</v>
+      </c>
+      <c r="K81" s="3">
         <v>-285700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1176500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-104000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>321300</v>
       </c>
     </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3034,43 +3232,47 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>204300</v>
+        <v>204400</v>
       </c>
       <c r="E83" s="3">
-        <v>168100</v>
+        <v>194600</v>
       </c>
       <c r="F83" s="3">
-        <v>159000</v>
+        <v>160100</v>
       </c>
       <c r="G83" s="3">
-        <v>94400</v>
+        <v>151500</v>
       </c>
       <c r="H83" s="3">
-        <v>200400</v>
+        <v>89900</v>
       </c>
       <c r="I83" s="3">
-        <v>124100</v>
+        <v>190900</v>
       </c>
       <c r="J83" s="3">
+        <v>118200</v>
+      </c>
+      <c r="K83" s="3">
         <v>237900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1250800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>219900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>256800</v>
       </c>
     </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3104,8 +3306,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3139,8 +3344,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3174,8 +3382,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3209,8 +3420,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3244,43 +3458,49 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-215900</v>
+        <v>660100</v>
       </c>
       <c r="E89" s="3">
-        <v>820900</v>
+        <v>-205700</v>
       </c>
       <c r="F89" s="3">
-        <v>-223700</v>
+        <v>782100</v>
       </c>
       <c r="G89" s="3">
-        <v>773100</v>
+        <v>-213100</v>
       </c>
       <c r="H89" s="3">
-        <v>-387800</v>
+        <v>736500</v>
       </c>
       <c r="I89" s="3">
-        <v>947600</v>
+        <v>-369500</v>
       </c>
       <c r="J89" s="3">
+        <v>902800</v>
+      </c>
+      <c r="K89" s="3">
         <v>-417600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>763000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-492500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>999400</v>
       </c>
     </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3294,43 +3514,47 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-49100</v>
+        <v>-20900</v>
       </c>
       <c r="E91" s="3">
-        <v>-49100</v>
+        <v>-46800</v>
       </c>
       <c r="F91" s="3">
-        <v>-41400</v>
+        <v>-46800</v>
       </c>
       <c r="G91" s="3">
-        <v>-64600</v>
+        <v>-39400</v>
       </c>
       <c r="H91" s="3">
-        <v>-41400</v>
+        <v>-61600</v>
       </c>
       <c r="I91" s="3">
-        <v>-55600</v>
+        <v>-39400</v>
       </c>
       <c r="J91" s="3">
+        <v>-53000</v>
+      </c>
+      <c r="K91" s="3">
         <v>-58200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-65200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-125100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-160600</v>
       </c>
     </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3364,8 +3588,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3399,43 +3626,49 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-281800</v>
+        <v>-131800</v>
       </c>
       <c r="E94" s="3">
-        <v>120200</v>
+        <v>-268500</v>
       </c>
       <c r="F94" s="3">
-        <v>152600</v>
+        <v>114500</v>
       </c>
       <c r="G94" s="3">
-        <v>928200</v>
+        <v>145300</v>
       </c>
       <c r="H94" s="3">
-        <v>-86600</v>
+        <v>884300</v>
       </c>
       <c r="I94" s="3">
-        <v>-25900</v>
+        <v>-82500</v>
       </c>
       <c r="J94" s="3">
+        <v>-24600</v>
+      </c>
+      <c r="K94" s="3">
         <v>-27100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>1753000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-15800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-92200</v>
       </c>
     </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3449,43 +3682,47 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-130600</v>
+        <v>-56700</v>
       </c>
       <c r="E96" s="3">
-        <v>-55600</v>
+        <v>-124400</v>
       </c>
       <c r="F96" s="3">
-        <v>-120200</v>
+        <v>-53000</v>
       </c>
       <c r="G96" s="3">
-        <v>-53000</v>
+        <v>-114500</v>
       </c>
       <c r="H96" s="3">
+        <v>-50500</v>
+      </c>
+      <c r="I96" s="3">
+        <v>-341200</v>
+      </c>
+      <c r="J96" s="3">
+        <v>-181000</v>
+      </c>
+      <c r="K96" s="3">
         <v>-358100</v>
       </c>
-      <c r="I96" s="3">
-        <v>-190000</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-358100</v>
-      </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-190400</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-364800</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-181700</v>
       </c>
     </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3519,8 +3756,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3554,8 +3794,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3589,109 +3832,121 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>342600</v>
+        <v>-452000</v>
       </c>
       <c r="E100" s="3">
-        <v>-590800</v>
+        <v>326400</v>
       </c>
       <c r="F100" s="3">
-        <v>-351600</v>
+        <v>-562800</v>
       </c>
       <c r="G100" s="3">
-        <v>-1517800</v>
+        <v>-335000</v>
       </c>
       <c r="H100" s="3">
-        <v>-756300</v>
+        <v>-1445900</v>
       </c>
       <c r="I100" s="3">
-        <v>-230100</v>
+        <v>-720500</v>
       </c>
       <c r="J100" s="3">
+        <v>-219200</v>
+      </c>
+      <c r="K100" s="3">
         <v>-671000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-811300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>339700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-809800</v>
       </c>
     </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-2600</v>
+        <v>-38200</v>
       </c>
       <c r="E101" s="3">
-        <v>-59500</v>
+        <v>-2500</v>
       </c>
       <c r="F101" s="3">
-        <v>-3900</v>
+        <v>-56700</v>
       </c>
       <c r="G101" s="3">
-        <v>37500</v>
+        <v>-3700</v>
       </c>
       <c r="H101" s="3">
-        <v>-16800</v>
+        <v>35700</v>
       </c>
       <c r="I101" s="3">
-        <v>15500</v>
+        <v>-16000</v>
       </c>
       <c r="J101" s="3">
+        <v>14800</v>
+      </c>
+      <c r="K101" s="3">
         <v>89200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>17000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-42100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-157700</v>
+        <v>38200</v>
       </c>
       <c r="E102" s="3">
-        <v>290900</v>
+        <v>-150300</v>
       </c>
       <c r="F102" s="3">
-        <v>-426600</v>
+        <v>277100</v>
       </c>
       <c r="G102" s="3">
-        <v>221100</v>
+        <v>-406400</v>
       </c>
       <c r="H102" s="3">
-        <v>-1247600</v>
+        <v>210600</v>
       </c>
       <c r="I102" s="3">
-        <v>707200</v>
+        <v>-1188500</v>
       </c>
       <c r="J102" s="3">
+        <v>673700</v>
+      </c>
+      <c r="K102" s="3">
         <v>-1026500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1721700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-210700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>102700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PSO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PSO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
   <si>
     <t>PSO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,183 +665,196 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43281</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42916</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42735</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42551</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>42369</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42185</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2512500</v>
+        <v>1970600</v>
       </c>
       <c r="E8" s="3">
-        <v>2252600</v>
+        <v>2694400</v>
       </c>
       <c r="F8" s="3">
-        <v>2788300</v>
+        <v>2415700</v>
       </c>
       <c r="G8" s="3">
-        <v>2296900</v>
+        <v>2990300</v>
       </c>
       <c r="H8" s="3">
-        <v>3037100</v>
+        <v>2463300</v>
       </c>
       <c r="I8" s="3">
-        <v>2521100</v>
+        <v>3257100</v>
       </c>
       <c r="J8" s="3">
+        <v>2703700</v>
+      </c>
+      <c r="K8" s="3">
         <v>3308100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2412400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3223000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2629600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3282800</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1174900</v>
+        <v>1120000</v>
       </c>
       <c r="E9" s="3">
-        <v>1113400</v>
+        <v>1260000</v>
       </c>
       <c r="F9" s="3">
-        <v>1269800</v>
+        <v>1194000</v>
       </c>
       <c r="G9" s="3">
-        <v>1123200</v>
+        <v>1361700</v>
       </c>
       <c r="H9" s="3">
-        <v>1321500</v>
+        <v>1204600</v>
       </c>
       <c r="I9" s="3">
-        <v>1223000</v>
+        <v>1417200</v>
       </c>
       <c r="J9" s="3">
+        <v>1311500</v>
+      </c>
+      <c r="K9" s="3">
         <v>1454500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1179000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1322600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1273300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1370800</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1337500</v>
+        <v>850600</v>
       </c>
       <c r="E10" s="3">
-        <v>1139200</v>
+        <v>1434400</v>
       </c>
       <c r="F10" s="3">
-        <v>1518600</v>
+        <v>1221700</v>
       </c>
       <c r="G10" s="3">
-        <v>1173700</v>
+        <v>1628500</v>
       </c>
       <c r="H10" s="3">
-        <v>1715600</v>
+        <v>1258700</v>
       </c>
       <c r="I10" s="3">
-        <v>1298100</v>
+        <v>1839900</v>
       </c>
       <c r="J10" s="3">
+        <v>1392100</v>
+      </c>
+      <c r="K10" s="3">
         <v>1853600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1233300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1900400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1356300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1912000</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -856,8 +869,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -894,8 +908,11 @@
       <c r="N12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -932,46 +949,52 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-12300</v>
+        <v>-239100</v>
       </c>
       <c r="E14" s="3">
-        <v>-7400</v>
+        <v>-13200</v>
       </c>
       <c r="F14" s="3">
-        <v>-28300</v>
+        <v>-7900</v>
       </c>
       <c r="G14" s="3">
-        <v>-254900</v>
+        <v>-30400</v>
       </c>
       <c r="H14" s="3">
-        <v>-157600</v>
+        <v>-273400</v>
       </c>
       <c r="I14" s="3">
-        <v>0</v>
+        <v>-169100</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>3138100</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>1107400</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>101400</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1008,8 +1031,11 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1021,84 +1047,91 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2219300</v>
+        <v>1829300</v>
       </c>
       <c r="E17" s="3">
-        <v>2207000</v>
+        <v>2380100</v>
       </c>
       <c r="F17" s="3">
-        <v>2394200</v>
+        <v>2366900</v>
       </c>
       <c r="G17" s="3">
-        <v>2010000</v>
+        <v>2567600</v>
       </c>
       <c r="H17" s="3">
-        <v>2501400</v>
+        <v>2155500</v>
       </c>
       <c r="I17" s="3">
-        <v>2501400</v>
+        <v>2682500</v>
       </c>
       <c r="J17" s="3">
+        <v>2682500</v>
+      </c>
+      <c r="K17" s="3">
         <v>6031100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2782100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3581600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2799500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2775800</v>
       </c>
     </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>293100</v>
+        <v>141300</v>
       </c>
       <c r="E18" s="3">
-        <v>45600</v>
+        <v>314300</v>
       </c>
       <c r="F18" s="3">
-        <v>394100</v>
+        <v>48900</v>
       </c>
       <c r="G18" s="3">
-        <v>287000</v>
+        <v>422700</v>
       </c>
       <c r="H18" s="3">
-        <v>535700</v>
+        <v>307700</v>
       </c>
       <c r="I18" s="3">
-        <v>19700</v>
+        <v>574500</v>
       </c>
       <c r="J18" s="3">
+        <v>21100</v>
+      </c>
+      <c r="K18" s="3">
         <v>-2723100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-369700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-358700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-169900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>507000</v>
       </c>
     </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1113,84 +1146,91 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-23400</v>
+        <v>-95100</v>
       </c>
       <c r="E20" s="3">
-        <v>-29600</v>
+        <v>-25100</v>
       </c>
       <c r="F20" s="3">
-        <v>-29600</v>
+        <v>-31700</v>
       </c>
       <c r="G20" s="3">
-        <v>-38200</v>
+        <v>-31700</v>
       </c>
       <c r="H20" s="3">
-        <v>-4900</v>
+        <v>-40900</v>
       </c>
       <c r="I20" s="3">
-        <v>-32000</v>
+        <v>-5300</v>
       </c>
       <c r="J20" s="3">
+        <v>-34300</v>
+      </c>
+      <c r="K20" s="3">
         <v>-49300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-25900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-33900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-4000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-123800</v>
       </c>
     </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>474200</v>
+        <v>264200</v>
       </c>
       <c r="E21" s="3">
-        <v>210600</v>
+        <v>508500</v>
       </c>
       <c r="F21" s="3">
-        <v>524700</v>
+        <v>225900</v>
       </c>
       <c r="G21" s="3">
-        <v>400300</v>
+        <v>562700</v>
       </c>
       <c r="H21" s="3">
-        <v>725400</v>
+        <v>429300</v>
       </c>
       <c r="I21" s="3">
-        <v>178600</v>
+        <v>777900</v>
       </c>
       <c r="J21" s="3">
+        <v>191500</v>
+      </c>
+      <c r="K21" s="3">
         <v>-2550600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-157700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>954800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>46100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>722900</v>
       </c>
     </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1227,84 +1267,93 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>269700</v>
+        <v>46200</v>
       </c>
       <c r="E23" s="3">
-        <v>16000</v>
+        <v>289300</v>
       </c>
       <c r="F23" s="3">
-        <v>364600</v>
+        <v>17200</v>
       </c>
       <c r="G23" s="3">
-        <v>248800</v>
+        <v>391000</v>
       </c>
       <c r="H23" s="3">
-        <v>530800</v>
+        <v>266800</v>
       </c>
       <c r="I23" s="3">
-        <v>-12300</v>
+        <v>569300</v>
       </c>
       <c r="J23" s="3">
+        <v>-13200</v>
+      </c>
+      <c r="K23" s="3">
         <v>-2772300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-395600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-392600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-173800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>383200</v>
       </c>
     </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1200</v>
+        <v>-17200</v>
       </c>
       <c r="E24" s="3">
-        <v>-43100</v>
+        <v>1300</v>
       </c>
       <c r="F24" s="3">
-        <v>-129300</v>
+        <v>-46200</v>
       </c>
       <c r="G24" s="3">
-        <v>16000</v>
+        <v>-138700</v>
       </c>
       <c r="H24" s="3">
-        <v>14800</v>
+        <v>17200</v>
       </c>
       <c r="I24" s="3">
-        <v>7400</v>
+        <v>15800</v>
       </c>
       <c r="J24" s="3">
+        <v>7900</v>
+      </c>
+      <c r="K24" s="3">
         <v>-167500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-111200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-53500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-52700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>86900</v>
       </c>
     </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1341,84 +1390,93 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>268500</v>
+        <v>63400</v>
       </c>
       <c r="E26" s="3">
-        <v>59100</v>
+        <v>287900</v>
       </c>
       <c r="F26" s="3">
-        <v>493900</v>
+        <v>63400</v>
       </c>
       <c r="G26" s="3">
-        <v>232800</v>
+        <v>529600</v>
       </c>
       <c r="H26" s="3">
-        <v>516000</v>
+        <v>249600</v>
       </c>
       <c r="I26" s="3">
-        <v>-19700</v>
+        <v>553400</v>
       </c>
       <c r="J26" s="3">
+        <v>-21100</v>
+      </c>
+      <c r="K26" s="3">
         <v>-2604800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-284400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-339100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-121100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>296300</v>
       </c>
     </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>267300</v>
+        <v>63400</v>
       </c>
       <c r="E27" s="3">
-        <v>57900</v>
+        <v>286600</v>
       </c>
       <c r="F27" s="3">
-        <v>492600</v>
+        <v>62100</v>
       </c>
       <c r="G27" s="3">
-        <v>231500</v>
+        <v>528300</v>
       </c>
       <c r="H27" s="3">
-        <v>514800</v>
+        <v>248300</v>
       </c>
       <c r="I27" s="3">
-        <v>-20900</v>
+        <v>552100</v>
       </c>
       <c r="J27" s="3">
+        <v>-22500</v>
+      </c>
+      <c r="K27" s="3">
         <v>-2606100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-285700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-339100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-121100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>297600</v>
       </c>
     </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1455,8 +1513,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1466,35 +1527,38 @@
       <c r="E29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
+      <c r="F29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G29" s="3">
         <v>0</v>
       </c>
       <c r="H29" s="3">
-        <v>6200</v>
-      </c>
-      <c r="I29" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>6600</v>
+      </c>
+      <c r="J29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
-      </c>
       <c r="K29" s="3">
         <v>0</v>
       </c>
       <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
         <v>1515600</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>17100</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>23700</v>
       </c>
     </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1531,8 +1595,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1569,84 +1636,93 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>23400</v>
+        <v>95100</v>
       </c>
       <c r="E32" s="3">
-        <v>29600</v>
+        <v>25100</v>
       </c>
       <c r="F32" s="3">
-        <v>29600</v>
+        <v>31700</v>
       </c>
       <c r="G32" s="3">
-        <v>38200</v>
+        <v>31700</v>
       </c>
       <c r="H32" s="3">
-        <v>4900</v>
+        <v>40900</v>
       </c>
       <c r="I32" s="3">
-        <v>32000</v>
+        <v>5300</v>
       </c>
       <c r="J32" s="3">
+        <v>34300</v>
+      </c>
+      <c r="K32" s="3">
         <v>49300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>25900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>33900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>4000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>123800</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>267300</v>
+        <v>63400</v>
       </c>
       <c r="E33" s="3">
-        <v>57900</v>
+        <v>286600</v>
       </c>
       <c r="F33" s="3">
-        <v>492600</v>
+        <v>62100</v>
       </c>
       <c r="G33" s="3">
-        <v>231500</v>
+        <v>528300</v>
       </c>
       <c r="H33" s="3">
-        <v>521000</v>
+        <v>248300</v>
       </c>
       <c r="I33" s="3">
-        <v>-20900</v>
+        <v>558700</v>
       </c>
       <c r="J33" s="3">
+        <v>-22500</v>
+      </c>
+      <c r="K33" s="3">
         <v>-2606100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-285700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1176500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-104000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>321300</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1683,89 +1759,98 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>267300</v>
+        <v>63400</v>
       </c>
       <c r="E35" s="3">
-        <v>57900</v>
+        <v>286600</v>
       </c>
       <c r="F35" s="3">
-        <v>492600</v>
+        <v>62100</v>
       </c>
       <c r="G35" s="3">
-        <v>231500</v>
+        <v>528300</v>
       </c>
       <c r="H35" s="3">
-        <v>521000</v>
+        <v>248300</v>
       </c>
       <c r="I35" s="3">
-        <v>-20900</v>
+        <v>558700</v>
       </c>
       <c r="J35" s="3">
+        <v>-22500</v>
+      </c>
+      <c r="K35" s="3">
         <v>-2606100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-285700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1176500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-104000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>321300</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43281</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42916</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42735</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42551</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>42369</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42185</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1780,8 +1865,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1796,46 +1882,50 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>538200</v>
+        <v>907400</v>
       </c>
       <c r="E41" s="3">
-        <v>513600</v>
+        <v>577200</v>
       </c>
       <c r="F41" s="3">
-        <v>699500</v>
+        <v>550800</v>
       </c>
       <c r="G41" s="3">
-        <v>406400</v>
+        <v>750200</v>
       </c>
       <c r="H41" s="3">
-        <v>638000</v>
+        <v>435900</v>
       </c>
       <c r="I41" s="3">
-        <v>564100</v>
+        <v>684200</v>
       </c>
       <c r="J41" s="3">
+        <v>604900</v>
+      </c>
+      <c r="K41" s="3">
         <v>1796900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1267000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2221200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>475400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>697900</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1845,301 +1935,325 @@
       <c r="E42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F42" s="3">
-        <v>0</v>
+      <c r="F42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G42" s="3">
         <v>0</v>
       </c>
       <c r="H42" s="3">
-        <v>9900</v>
+        <v>0</v>
       </c>
       <c r="I42" s="3">
-        <v>13500</v>
+        <v>10600</v>
       </c>
       <c r="J42" s="3">
+        <v>14500</v>
+      </c>
+      <c r="K42" s="3">
         <v>12300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>40100</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>36500</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>34200</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>21100</v>
       </c>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1570300</v>
+        <v>1435700</v>
       </c>
       <c r="E43" s="3">
-        <v>1567800</v>
+        <v>1684000</v>
       </c>
       <c r="F43" s="3">
-        <v>1450800</v>
+        <v>1681400</v>
       </c>
       <c r="G43" s="3">
-        <v>1304300</v>
+        <v>1555900</v>
       </c>
       <c r="H43" s="3">
-        <v>1367100</v>
+        <v>1398700</v>
       </c>
       <c r="I43" s="3">
-        <v>1519800</v>
+        <v>1466100</v>
       </c>
       <c r="J43" s="3">
+        <v>1629900</v>
+      </c>
+      <c r="K43" s="3">
         <v>1671300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1736200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1674700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1677600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1725000</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>208100</v>
+        <v>229800</v>
       </c>
       <c r="E44" s="3">
-        <v>261100</v>
+        <v>223200</v>
       </c>
       <c r="F44" s="3">
-        <v>202000</v>
+        <v>280000</v>
       </c>
       <c r="G44" s="3">
-        <v>205700</v>
+        <v>216600</v>
       </c>
       <c r="H44" s="3">
-        <v>182300</v>
+        <v>220600</v>
       </c>
       <c r="I44" s="3">
-        <v>293100</v>
+        <v>195500</v>
       </c>
       <c r="J44" s="3">
+        <v>314300</v>
+      </c>
+      <c r="K44" s="3">
         <v>289400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>354200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>275200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>330500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>295000</v>
       </c>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1102300</v>
+        <v>1231000</v>
       </c>
       <c r="E45" s="3">
-        <v>1029600</v>
+        <v>1182100</v>
       </c>
       <c r="F45" s="3">
-        <v>1007400</v>
+        <v>1104200</v>
       </c>
       <c r="G45" s="3">
-        <v>949600</v>
+        <v>1080400</v>
       </c>
       <c r="H45" s="3">
-        <v>912600</v>
+        <v>1018300</v>
       </c>
       <c r="I45" s="3">
-        <v>1220500</v>
+        <v>978700</v>
       </c>
       <c r="J45" s="3">
+        <v>1308900</v>
+      </c>
+      <c r="K45" s="3">
         <v>1261200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1221700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1138700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1114000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1111400</v>
       </c>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3418900</v>
+        <v>3803900</v>
       </c>
       <c r="E46" s="3">
-        <v>3372100</v>
+        <v>3666500</v>
       </c>
       <c r="F46" s="3">
-        <v>3359800</v>
+        <v>3616300</v>
       </c>
       <c r="G46" s="3">
-        <v>2865900</v>
+        <v>3603100</v>
       </c>
       <c r="H46" s="3">
-        <v>3109800</v>
+        <v>3073500</v>
       </c>
       <c r="I46" s="3">
-        <v>3611100</v>
+        <v>3335000</v>
       </c>
       <c r="J46" s="3">
+        <v>3872600</v>
+      </c>
+      <c r="K46" s="3">
         <v>5031100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>4619200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>5346400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3631700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>3850300</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>544400</v>
+        <v>595700</v>
       </c>
       <c r="E47" s="3">
-        <v>1189700</v>
+        <v>583800</v>
       </c>
       <c r="F47" s="3">
-        <v>720500</v>
+        <v>1275900</v>
       </c>
       <c r="G47" s="3">
-        <v>706900</v>
+        <v>772700</v>
       </c>
       <c r="H47" s="3">
-        <v>711900</v>
+        <v>758100</v>
       </c>
       <c r="I47" s="3">
-        <v>1055500</v>
+        <v>763400</v>
       </c>
       <c r="J47" s="3">
+        <v>1131900</v>
+      </c>
+      <c r="K47" s="3">
         <v>1743900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1772400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1775200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1603900</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>1651300</v>
       </c>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>761100</v>
+        <v>841300</v>
       </c>
       <c r="E48" s="3">
-        <v>790700</v>
+        <v>816200</v>
       </c>
       <c r="F48" s="3">
-        <v>291900</v>
+        <v>847900</v>
       </c>
       <c r="G48" s="3">
-        <v>330100</v>
+        <v>313000</v>
       </c>
       <c r="H48" s="3">
-        <v>346100</v>
+        <v>354000</v>
       </c>
       <c r="I48" s="3">
-        <v>376900</v>
+        <v>371100</v>
       </c>
       <c r="J48" s="3">
+        <v>404200</v>
+      </c>
+      <c r="K48" s="3">
         <v>422400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>438300</v>
-      </c>
-      <c r="L48" s="3">
-        <v>417400</v>
       </c>
       <c r="M48" s="3">
         <v>417400</v>
       </c>
       <c r="N48" s="3">
+        <v>417400</v>
+      </c>
+      <c r="O48" s="3">
         <v>439800</v>
       </c>
     </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3571600</v>
+        <v>3972900</v>
       </c>
       <c r="E49" s="3">
-        <v>3771200</v>
+        <v>3830300</v>
       </c>
       <c r="F49" s="3">
-        <v>3705900</v>
+        <v>4044300</v>
       </c>
       <c r="G49" s="3">
-        <v>3777300</v>
+        <v>3974300</v>
       </c>
       <c r="H49" s="3">
-        <v>3650500</v>
+        <v>4050900</v>
       </c>
       <c r="I49" s="3">
-        <v>4022400</v>
+        <v>3914800</v>
       </c>
       <c r="J49" s="3">
+        <v>4313700</v>
+      </c>
+      <c r="K49" s="3">
         <v>4239200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>7260400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>6735500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>7816500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>8308900</v>
       </c>
     </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2176,8 +2290,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2214,46 +2331,52 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1125700</v>
+        <v>714500</v>
       </c>
       <c r="E52" s="3">
-        <v>686000</v>
+        <v>1207200</v>
       </c>
       <c r="F52" s="3">
-        <v>1657700</v>
+        <v>735700</v>
       </c>
       <c r="G52" s="3">
-        <v>1724200</v>
+        <v>1777800</v>
       </c>
       <c r="H52" s="3">
-        <v>1896700</v>
+        <v>1849100</v>
       </c>
       <c r="I52" s="3">
-        <v>1830200</v>
+        <v>2034000</v>
       </c>
       <c r="J52" s="3">
+        <v>1962700</v>
+      </c>
+      <c r="K52" s="3">
         <v>960600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1199700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>901300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>886200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>757200</v>
       </c>
     </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2290,46 +2413,52 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>9421700</v>
+        <v>9928400</v>
       </c>
       <c r="E54" s="3">
-        <v>9809700</v>
+        <v>10104000</v>
       </c>
       <c r="F54" s="3">
-        <v>9735800</v>
+        <v>10520100</v>
       </c>
       <c r="G54" s="3">
-        <v>9404500</v>
+        <v>10440800</v>
       </c>
       <c r="H54" s="3">
-        <v>9714900</v>
+        <v>10085600</v>
       </c>
       <c r="I54" s="3">
-        <v>10896000</v>
+        <v>10418400</v>
       </c>
       <c r="J54" s="3">
+        <v>11685000</v>
+      </c>
+      <c r="K54" s="3">
         <v>12397300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>15290100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>15175600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>14355600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>15007500</v>
       </c>
     </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2344,8 +2473,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2360,236 +2490,255 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1574000</v>
+        <v>1384200</v>
       </c>
       <c r="E57" s="3">
-        <v>1489000</v>
+        <v>1688000</v>
       </c>
       <c r="F57" s="3">
-        <v>1724200</v>
+        <v>1596800</v>
       </c>
       <c r="G57" s="3">
-        <v>1444700</v>
+        <v>1849100</v>
       </c>
       <c r="H57" s="3">
-        <v>1652800</v>
+        <v>1549300</v>
       </c>
       <c r="I57" s="3">
-        <v>1639300</v>
+        <v>1772500</v>
       </c>
       <c r="J57" s="3">
+        <v>1758000</v>
+      </c>
+      <c r="K57" s="3">
         <v>2006300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1891400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1813000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1721000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2108200</v>
       </c>
     </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>113300</v>
+        <v>385700</v>
       </c>
       <c r="E58" s="3">
-        <v>173700</v>
+        <v>121500</v>
       </c>
       <c r="F58" s="3">
-        <v>56700</v>
+        <v>186200</v>
       </c>
       <c r="G58" s="3">
-        <v>40600</v>
+        <v>60800</v>
       </c>
       <c r="H58" s="3">
-        <v>23400</v>
+        <v>43600</v>
       </c>
       <c r="I58" s="3">
-        <v>327600</v>
+        <v>25100</v>
       </c>
       <c r="J58" s="3">
+        <v>351300</v>
+      </c>
+      <c r="K58" s="3">
         <v>54200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>148700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>367800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>965200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>450300</v>
       </c>
     </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>150300</v>
+        <v>190200</v>
       </c>
       <c r="E59" s="3">
-        <v>66500</v>
+        <v>161100</v>
       </c>
       <c r="F59" s="3">
-        <v>141600</v>
+        <v>71300</v>
       </c>
       <c r="G59" s="3">
-        <v>346100</v>
+        <v>151900</v>
       </c>
       <c r="H59" s="3">
-        <v>315300</v>
+        <v>371100</v>
       </c>
       <c r="I59" s="3">
-        <v>258600</v>
+        <v>338100</v>
       </c>
       <c r="J59" s="3">
+        <v>277400</v>
+      </c>
+      <c r="K59" s="3">
         <v>309100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>181000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>306500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>221200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>321300</v>
       </c>
     </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1837500</v>
+        <v>1960100</v>
       </c>
       <c r="E60" s="3">
-        <v>1729200</v>
+        <v>1970600</v>
       </c>
       <c r="F60" s="3">
-        <v>1922500</v>
+        <v>1854400</v>
       </c>
       <c r="G60" s="3">
-        <v>1831400</v>
+        <v>2061800</v>
       </c>
       <c r="H60" s="3">
-        <v>1991500</v>
+        <v>1964000</v>
       </c>
       <c r="I60" s="3">
-        <v>2225500</v>
+        <v>2135700</v>
       </c>
       <c r="J60" s="3">
+        <v>2386700</v>
+      </c>
+      <c r="K60" s="3">
         <v>2369600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2221000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2487300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2907500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2879800</v>
       </c>
     </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1936100</v>
+        <v>2047200</v>
       </c>
       <c r="E61" s="3">
-        <v>2301900</v>
+        <v>2076300</v>
       </c>
       <c r="F61" s="3">
-        <v>830100</v>
+        <v>2468600</v>
       </c>
       <c r="G61" s="3">
-        <v>1316600</v>
+        <v>890200</v>
       </c>
       <c r="H61" s="3">
-        <v>1312900</v>
+        <v>1411900</v>
       </c>
       <c r="I61" s="3">
-        <v>2236600</v>
+        <v>1408000</v>
       </c>
       <c r="J61" s="3">
+        <v>2398600</v>
+      </c>
+      <c r="K61" s="3">
         <v>2985400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>3004500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2671200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2532200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2479500</v>
       </c>
     </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>323900</v>
+        <v>383000</v>
       </c>
       <c r="E62" s="3">
-        <v>492600</v>
+        <v>347400</v>
       </c>
       <c r="F62" s="3">
-        <v>1410200</v>
+        <v>528300</v>
       </c>
       <c r="G62" s="3">
-        <v>1210700</v>
+        <v>1512300</v>
       </c>
       <c r="H62" s="3">
-        <v>1458200</v>
+        <v>1298300</v>
       </c>
       <c r="I62" s="3">
-        <v>1554300</v>
+        <v>1563800</v>
       </c>
       <c r="J62" s="3">
+        <v>1666800</v>
+      </c>
+      <c r="K62" s="3">
         <v>1687300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1713000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1646000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1800100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1767100</v>
       </c>
     </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2626,8 +2775,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2664,8 +2816,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2702,46 +2857,52 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>4109800</v>
+        <v>4403500</v>
       </c>
       <c r="E66" s="3">
-        <v>4536000</v>
+        <v>4407500</v>
       </c>
       <c r="F66" s="3">
-        <v>4173900</v>
+        <v>4864500</v>
       </c>
       <c r="G66" s="3">
-        <v>4369700</v>
+        <v>4476200</v>
       </c>
       <c r="H66" s="3">
-        <v>4772500</v>
+        <v>4686200</v>
       </c>
       <c r="I66" s="3">
-        <v>6022500</v>
+        <v>5118100</v>
       </c>
       <c r="J66" s="3">
+        <v>6458700</v>
+      </c>
+      <c r="K66" s="3">
         <v>7047200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>6942400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>6809800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>7247600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>7134400</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2756,8 +2917,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2794,8 +2956,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2832,8 +2997,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2870,8 +3038,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2908,46 +3079,52 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1135500</v>
+        <v>932500</v>
       </c>
       <c r="E72" s="3">
-        <v>974200</v>
+        <v>1217800</v>
       </c>
       <c r="F72" s="3">
-        <v>1293200</v>
+        <v>1044700</v>
       </c>
       <c r="G72" s="3">
-        <v>936000</v>
+        <v>1386800</v>
       </c>
       <c r="H72" s="3">
-        <v>821500</v>
+        <v>1003800</v>
       </c>
       <c r="I72" s="3">
-        <v>513600</v>
+        <v>881000</v>
       </c>
       <c r="J72" s="3">
+        <v>550800</v>
+      </c>
+      <c r="K72" s="3">
         <v>881800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>4151200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>4823300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>3531600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>4213700</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2984,8 +3161,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3022,8 +3202,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3060,46 +3243,52 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>5311900</v>
+        <v>5524900</v>
       </c>
       <c r="E76" s="3">
-        <v>5273700</v>
+        <v>5696600</v>
       </c>
       <c r="F76" s="3">
-        <v>5561900</v>
+        <v>5655600</v>
       </c>
       <c r="G76" s="3">
-        <v>5034800</v>
+        <v>5964700</v>
       </c>
       <c r="H76" s="3">
-        <v>4942400</v>
+        <v>5399400</v>
       </c>
       <c r="I76" s="3">
-        <v>4873400</v>
+        <v>5300300</v>
       </c>
       <c r="J76" s="3">
+        <v>5226400</v>
+      </c>
+      <c r="K76" s="3">
         <v>5350100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>8347700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>8365800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>7108000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>7873100</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3136,89 +3325,98 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43281</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42916</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42735</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42551</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>42369</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42185</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>267300</v>
+        <v>63400</v>
       </c>
       <c r="E81" s="3">
-        <v>57900</v>
+        <v>286600</v>
       </c>
       <c r="F81" s="3">
-        <v>492600</v>
+        <v>62100</v>
       </c>
       <c r="G81" s="3">
-        <v>231500</v>
+        <v>528300</v>
       </c>
       <c r="H81" s="3">
-        <v>521000</v>
+        <v>248300</v>
       </c>
       <c r="I81" s="3">
-        <v>-20900</v>
+        <v>558700</v>
       </c>
       <c r="J81" s="3">
+        <v>-22500</v>
+      </c>
+      <c r="K81" s="3">
         <v>-2606100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-285700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1176500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-104000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>321300</v>
       </c>
     </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3233,46 +3431,50 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>204400</v>
+        <v>217900</v>
       </c>
       <c r="E83" s="3">
-        <v>194600</v>
+        <v>219300</v>
       </c>
       <c r="F83" s="3">
-        <v>160100</v>
+        <v>208700</v>
       </c>
       <c r="G83" s="3">
-        <v>151500</v>
+        <v>171700</v>
       </c>
       <c r="H83" s="3">
-        <v>89900</v>
+        <v>162500</v>
       </c>
       <c r="I83" s="3">
-        <v>190900</v>
+        <v>96400</v>
       </c>
       <c r="J83" s="3">
+        <v>204700</v>
+      </c>
+      <c r="K83" s="3">
         <v>118200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>237900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>1250800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>219900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>256800</v>
       </c>
     </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3309,8 +3511,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3347,8 +3552,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3385,8 +3593,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3423,8 +3634,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3461,46 +3675,52 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>660100</v>
+        <v>-188900</v>
       </c>
       <c r="E89" s="3">
-        <v>-205700</v>
+        <v>707900</v>
       </c>
       <c r="F89" s="3">
-        <v>782100</v>
+        <v>-220600</v>
       </c>
       <c r="G89" s="3">
-        <v>-213100</v>
+        <v>838700</v>
       </c>
       <c r="H89" s="3">
-        <v>736500</v>
+        <v>-228500</v>
       </c>
       <c r="I89" s="3">
-        <v>-369500</v>
+        <v>789800</v>
       </c>
       <c r="J89" s="3">
+        <v>-396200</v>
+      </c>
+      <c r="K89" s="3">
         <v>902800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-417600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>763000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-492500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>999400</v>
       </c>
     </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3515,46 +3735,50 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-20900</v>
+        <v>-39600</v>
       </c>
       <c r="E91" s="3">
-        <v>-46800</v>
+        <v>-22500</v>
       </c>
       <c r="F91" s="3">
-        <v>-46800</v>
+        <v>-50200</v>
       </c>
       <c r="G91" s="3">
-        <v>-39400</v>
+        <v>-50200</v>
       </c>
       <c r="H91" s="3">
-        <v>-61600</v>
+        <v>-42300</v>
       </c>
       <c r="I91" s="3">
-        <v>-39400</v>
+        <v>-66000</v>
       </c>
       <c r="J91" s="3">
+        <v>-42300</v>
+      </c>
+      <c r="K91" s="3">
         <v>-53000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-58200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-65200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-125100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-160600</v>
       </c>
     </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3591,8 +3815,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3629,46 +3856,52 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-131800</v>
+        <v>764700</v>
       </c>
       <c r="E94" s="3">
-        <v>-268500</v>
+        <v>-141300</v>
       </c>
       <c r="F94" s="3">
-        <v>114500</v>
+        <v>-287900</v>
       </c>
       <c r="G94" s="3">
-        <v>145300</v>
+        <v>122800</v>
       </c>
       <c r="H94" s="3">
-        <v>884300</v>
+        <v>155900</v>
       </c>
       <c r="I94" s="3">
-        <v>-82500</v>
+        <v>948300</v>
       </c>
       <c r="J94" s="3">
+        <v>-88500</v>
+      </c>
+      <c r="K94" s="3">
         <v>-24600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-27100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>1753000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-15800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-92200</v>
       </c>
     </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3683,46 +3916,50 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-56700</v>
+        <v>-133400</v>
       </c>
       <c r="E96" s="3">
-        <v>-124400</v>
+        <v>-60800</v>
       </c>
       <c r="F96" s="3">
-        <v>-53000</v>
+        <v>-133400</v>
       </c>
       <c r="G96" s="3">
-        <v>-114500</v>
+        <v>-56800</v>
       </c>
       <c r="H96" s="3">
-        <v>-50500</v>
+        <v>-122800</v>
       </c>
       <c r="I96" s="3">
-        <v>-341200</v>
+        <v>-54200</v>
       </c>
       <c r="J96" s="3">
+        <v>-365900</v>
+      </c>
+      <c r="K96" s="3">
         <v>-181000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-358100</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-190400</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-364800</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-181700</v>
       </c>
     </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3759,8 +3996,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3797,8 +4037,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3835,118 +4078,130 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-452000</v>
+        <v>-261500</v>
       </c>
       <c r="E100" s="3">
-        <v>326400</v>
+        <v>-484700</v>
       </c>
       <c r="F100" s="3">
-        <v>-562800</v>
+        <v>350000</v>
       </c>
       <c r="G100" s="3">
-        <v>-335000</v>
+        <v>-603600</v>
       </c>
       <c r="H100" s="3">
-        <v>-1445900</v>
+        <v>-359300</v>
       </c>
       <c r="I100" s="3">
-        <v>-720500</v>
+        <v>-1550600</v>
       </c>
       <c r="J100" s="3">
+        <v>-772700</v>
+      </c>
+      <c r="K100" s="3">
         <v>-219200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-671000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-811300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>339700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-809800</v>
       </c>
     </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-38200</v>
+        <v>15800</v>
       </c>
       <c r="E101" s="3">
-        <v>-2500</v>
+        <v>-40900</v>
       </c>
       <c r="F101" s="3">
-        <v>-56700</v>
+        <v>-2600</v>
       </c>
       <c r="G101" s="3">
-        <v>-3700</v>
+        <v>-60800</v>
       </c>
       <c r="H101" s="3">
-        <v>35700</v>
+        <v>-4000</v>
       </c>
       <c r="I101" s="3">
-        <v>-16000</v>
+        <v>38300</v>
       </c>
       <c r="J101" s="3">
+        <v>-17200</v>
+      </c>
+      <c r="K101" s="3">
         <v>14800</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>89200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>17000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-42100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>38200</v>
+        <v>330200</v>
       </c>
       <c r="E102" s="3">
-        <v>-150300</v>
+        <v>40900</v>
       </c>
       <c r="F102" s="3">
-        <v>277100</v>
+        <v>-161100</v>
       </c>
       <c r="G102" s="3">
-        <v>-406400</v>
+        <v>297200</v>
       </c>
       <c r="H102" s="3">
-        <v>210600</v>
+        <v>-435900</v>
       </c>
       <c r="I102" s="3">
-        <v>-1188500</v>
+        <v>225900</v>
       </c>
       <c r="J102" s="3">
+        <v>-1274600</v>
+      </c>
+      <c r="K102" s="3">
         <v>673700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1026500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1721700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-210700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>102700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PSO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PSO_QTR_FIN.xlsx
@@ -665,7 +665,7 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
@@ -736,25 +736,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1970600</v>
+        <v>1986400</v>
       </c>
       <c r="E8" s="3">
-        <v>2694400</v>
+        <v>2716100</v>
       </c>
       <c r="F8" s="3">
-        <v>2415700</v>
+        <v>2435100</v>
       </c>
       <c r="G8" s="3">
-        <v>2990300</v>
+        <v>3014300</v>
       </c>
       <c r="H8" s="3">
-        <v>2463300</v>
+        <v>2483100</v>
       </c>
       <c r="I8" s="3">
-        <v>3257100</v>
+        <v>3283200</v>
       </c>
       <c r="J8" s="3">
-        <v>2703700</v>
+        <v>2725400</v>
       </c>
       <c r="K8" s="3">
         <v>3308100</v>
@@ -777,25 +777,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1120000</v>
+        <v>1129000</v>
       </c>
       <c r="E9" s="3">
-        <v>1260000</v>
+        <v>1270200</v>
       </c>
       <c r="F9" s="3">
-        <v>1194000</v>
+        <v>1203600</v>
       </c>
       <c r="G9" s="3">
-        <v>1361700</v>
+        <v>1372700</v>
       </c>
       <c r="H9" s="3">
-        <v>1204600</v>
+        <v>1214200</v>
       </c>
       <c r="I9" s="3">
-        <v>1417200</v>
+        <v>1428600</v>
       </c>
       <c r="J9" s="3">
-        <v>1311500</v>
+        <v>1322100</v>
       </c>
       <c r="K9" s="3">
         <v>1454500</v>
@@ -818,25 +818,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>850600</v>
+        <v>857400</v>
       </c>
       <c r="E10" s="3">
-        <v>1434400</v>
+        <v>1445900</v>
       </c>
       <c r="F10" s="3">
-        <v>1221700</v>
+        <v>1231500</v>
       </c>
       <c r="G10" s="3">
-        <v>1628500</v>
+        <v>1641600</v>
       </c>
       <c r="H10" s="3">
-        <v>1258700</v>
+        <v>1268800</v>
       </c>
       <c r="I10" s="3">
-        <v>1839900</v>
+        <v>1854600</v>
       </c>
       <c r="J10" s="3">
-        <v>1392100</v>
+        <v>1403300</v>
       </c>
       <c r="K10" s="3">
         <v>1853600</v>
@@ -958,22 +958,22 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-239100</v>
+        <v>-241000</v>
       </c>
       <c r="E14" s="3">
-        <v>-13200</v>
+        <v>-13300</v>
       </c>
       <c r="F14" s="3">
-        <v>-7900</v>
+        <v>-8000</v>
       </c>
       <c r="G14" s="3">
-        <v>-30400</v>
+        <v>-30600</v>
       </c>
       <c r="H14" s="3">
-        <v>-273400</v>
+        <v>-275600</v>
       </c>
       <c r="I14" s="3">
-        <v>-169100</v>
+        <v>-170400</v>
       </c>
       <c r="J14" s="3">
         <v>0</v>
@@ -1054,25 +1054,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1829300</v>
+        <v>1844000</v>
       </c>
       <c r="E17" s="3">
-        <v>2380100</v>
+        <v>2399200</v>
       </c>
       <c r="F17" s="3">
-        <v>2366900</v>
+        <v>2385900</v>
       </c>
       <c r="G17" s="3">
-        <v>2567600</v>
+        <v>2588200</v>
       </c>
       <c r="H17" s="3">
-        <v>2155500</v>
+        <v>2172800</v>
       </c>
       <c r="I17" s="3">
-        <v>2682500</v>
+        <v>2704100</v>
       </c>
       <c r="J17" s="3">
-        <v>2682500</v>
+        <v>2704100</v>
       </c>
       <c r="K17" s="3">
         <v>6031100</v>
@@ -1095,25 +1095,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>141300</v>
+        <v>142500</v>
       </c>
       <c r="E18" s="3">
-        <v>314300</v>
+        <v>316900</v>
       </c>
       <c r="F18" s="3">
-        <v>48900</v>
+        <v>49300</v>
       </c>
       <c r="G18" s="3">
-        <v>422700</v>
+        <v>426000</v>
       </c>
       <c r="H18" s="3">
-        <v>307700</v>
+        <v>310200</v>
       </c>
       <c r="I18" s="3">
-        <v>574500</v>
+        <v>579200</v>
       </c>
       <c r="J18" s="3">
-        <v>21100</v>
+        <v>21300</v>
       </c>
       <c r="K18" s="3">
         <v>-2723100</v>
@@ -1153,25 +1153,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-95100</v>
+        <v>-95900</v>
       </c>
       <c r="E20" s="3">
-        <v>-25100</v>
+        <v>-25300</v>
       </c>
       <c r="F20" s="3">
-        <v>-31700</v>
+        <v>-32000</v>
       </c>
       <c r="G20" s="3">
-        <v>-31700</v>
+        <v>-32000</v>
       </c>
       <c r="H20" s="3">
-        <v>-40900</v>
+        <v>-41300</v>
       </c>
       <c r="I20" s="3">
         <v>-5300</v>
       </c>
       <c r="J20" s="3">
-        <v>-34300</v>
+        <v>-34600</v>
       </c>
       <c r="K20" s="3">
         <v>-49300</v>
@@ -1194,25 +1194,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>264200</v>
+        <v>266300</v>
       </c>
       <c r="E21" s="3">
-        <v>508500</v>
+        <v>512600</v>
       </c>
       <c r="F21" s="3">
-        <v>225900</v>
+        <v>227700</v>
       </c>
       <c r="G21" s="3">
-        <v>562700</v>
+        <v>567200</v>
       </c>
       <c r="H21" s="3">
-        <v>429300</v>
+        <v>432700</v>
       </c>
       <c r="I21" s="3">
-        <v>777900</v>
+        <v>784200</v>
       </c>
       <c r="J21" s="3">
-        <v>191500</v>
+        <v>193100</v>
       </c>
       <c r="K21" s="3">
         <v>-2550600</v>
@@ -1276,25 +1276,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>46200</v>
+        <v>46600</v>
       </c>
       <c r="E23" s="3">
-        <v>289300</v>
+        <v>291600</v>
       </c>
       <c r="F23" s="3">
-        <v>17200</v>
+        <v>17300</v>
       </c>
       <c r="G23" s="3">
-        <v>391000</v>
+        <v>394100</v>
       </c>
       <c r="H23" s="3">
-        <v>266800</v>
+        <v>268900</v>
       </c>
       <c r="I23" s="3">
-        <v>569300</v>
+        <v>573800</v>
       </c>
       <c r="J23" s="3">
-        <v>-13200</v>
+        <v>-13300</v>
       </c>
       <c r="K23" s="3">
         <v>-2772300</v>
@@ -1317,25 +1317,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-17200</v>
+        <v>-17300</v>
       </c>
       <c r="E24" s="3">
         <v>1300</v>
       </c>
       <c r="F24" s="3">
-        <v>-46200</v>
+        <v>-46600</v>
       </c>
       <c r="G24" s="3">
-        <v>-138700</v>
+        <v>-139800</v>
       </c>
       <c r="H24" s="3">
-        <v>17200</v>
+        <v>17300</v>
       </c>
       <c r="I24" s="3">
-        <v>15800</v>
+        <v>16000</v>
       </c>
       <c r="J24" s="3">
-        <v>7900</v>
+        <v>8000</v>
       </c>
       <c r="K24" s="3">
         <v>-167500</v>
@@ -1399,25 +1399,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>63400</v>
+        <v>63900</v>
       </c>
       <c r="E26" s="3">
-        <v>287900</v>
+        <v>290200</v>
       </c>
       <c r="F26" s="3">
-        <v>63400</v>
+        <v>63900</v>
       </c>
       <c r="G26" s="3">
-        <v>529600</v>
+        <v>533900</v>
       </c>
       <c r="H26" s="3">
-        <v>249600</v>
+        <v>251600</v>
       </c>
       <c r="I26" s="3">
-        <v>553400</v>
+        <v>557900</v>
       </c>
       <c r="J26" s="3">
-        <v>-21100</v>
+        <v>-21300</v>
       </c>
       <c r="K26" s="3">
         <v>-2604800</v>
@@ -1440,25 +1440,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>63400</v>
+        <v>63900</v>
       </c>
       <c r="E27" s="3">
-        <v>286600</v>
+        <v>288900</v>
       </c>
       <c r="F27" s="3">
-        <v>62100</v>
+        <v>62600</v>
       </c>
       <c r="G27" s="3">
-        <v>528300</v>
+        <v>532600</v>
       </c>
       <c r="H27" s="3">
-        <v>248300</v>
+        <v>250300</v>
       </c>
       <c r="I27" s="3">
-        <v>552100</v>
+        <v>556500</v>
       </c>
       <c r="J27" s="3">
-        <v>-22500</v>
+        <v>-22600</v>
       </c>
       <c r="K27" s="3">
         <v>-2606100</v>
@@ -1537,7 +1537,7 @@
         <v>0</v>
       </c>
       <c r="I29" s="3">
-        <v>6600</v>
+        <v>6700</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>8</v>
@@ -1645,25 +1645,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>95100</v>
+        <v>95900</v>
       </c>
       <c r="E32" s="3">
-        <v>25100</v>
+        <v>25300</v>
       </c>
       <c r="F32" s="3">
-        <v>31700</v>
+        <v>32000</v>
       </c>
       <c r="G32" s="3">
-        <v>31700</v>
+        <v>32000</v>
       </c>
       <c r="H32" s="3">
-        <v>40900</v>
+        <v>41300</v>
       </c>
       <c r="I32" s="3">
         <v>5300</v>
       </c>
       <c r="J32" s="3">
-        <v>34300</v>
+        <v>34600</v>
       </c>
       <c r="K32" s="3">
         <v>49300</v>
@@ -1686,25 +1686,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>63400</v>
+        <v>63900</v>
       </c>
       <c r="E33" s="3">
-        <v>286600</v>
+        <v>288900</v>
       </c>
       <c r="F33" s="3">
-        <v>62100</v>
+        <v>62600</v>
       </c>
       <c r="G33" s="3">
-        <v>528300</v>
+        <v>532600</v>
       </c>
       <c r="H33" s="3">
-        <v>248300</v>
+        <v>250300</v>
       </c>
       <c r="I33" s="3">
-        <v>558700</v>
+        <v>563200</v>
       </c>
       <c r="J33" s="3">
-        <v>-22500</v>
+        <v>-22600</v>
       </c>
       <c r="K33" s="3">
         <v>-2606100</v>
@@ -1768,25 +1768,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>63400</v>
+        <v>63900</v>
       </c>
       <c r="E35" s="3">
-        <v>286600</v>
+        <v>288900</v>
       </c>
       <c r="F35" s="3">
-        <v>62100</v>
+        <v>62600</v>
       </c>
       <c r="G35" s="3">
-        <v>528300</v>
+        <v>532600</v>
       </c>
       <c r="H35" s="3">
-        <v>248300</v>
+        <v>250300</v>
       </c>
       <c r="I35" s="3">
-        <v>558700</v>
+        <v>563200</v>
       </c>
       <c r="J35" s="3">
-        <v>-22500</v>
+        <v>-22600</v>
       </c>
       <c r="K35" s="3">
         <v>-2606100</v>
@@ -1889,25 +1889,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>907400</v>
+        <v>914700</v>
       </c>
       <c r="E41" s="3">
-        <v>577200</v>
+        <v>581800</v>
       </c>
       <c r="F41" s="3">
-        <v>550800</v>
+        <v>555200</v>
       </c>
       <c r="G41" s="3">
-        <v>750200</v>
+        <v>756200</v>
       </c>
       <c r="H41" s="3">
-        <v>435900</v>
+        <v>439400</v>
       </c>
       <c r="I41" s="3">
-        <v>684200</v>
+        <v>689700</v>
       </c>
       <c r="J41" s="3">
-        <v>604900</v>
+        <v>609800</v>
       </c>
       <c r="K41" s="3">
         <v>1796900</v>
@@ -1945,10 +1945,10 @@
         <v>0</v>
       </c>
       <c r="I42" s="3">
-        <v>10600</v>
+        <v>10700</v>
       </c>
       <c r="J42" s="3">
-        <v>14500</v>
+        <v>14600</v>
       </c>
       <c r="K42" s="3">
         <v>12300</v>
@@ -1971,25 +1971,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1435700</v>
+        <v>1447200</v>
       </c>
       <c r="E43" s="3">
-        <v>1684000</v>
+        <v>1697500</v>
       </c>
       <c r="F43" s="3">
-        <v>1681400</v>
+        <v>1694900</v>
       </c>
       <c r="G43" s="3">
-        <v>1555900</v>
+        <v>1568400</v>
       </c>
       <c r="H43" s="3">
-        <v>1398700</v>
+        <v>1410000</v>
       </c>
       <c r="I43" s="3">
-        <v>1466100</v>
+        <v>1477900</v>
       </c>
       <c r="J43" s="3">
-        <v>1629900</v>
+        <v>1642900</v>
       </c>
       <c r="K43" s="3">
         <v>1671300</v>
@@ -2012,25 +2012,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>229800</v>
+        <v>231700</v>
       </c>
       <c r="E44" s="3">
-        <v>223200</v>
+        <v>225000</v>
       </c>
       <c r="F44" s="3">
-        <v>280000</v>
+        <v>282300</v>
       </c>
       <c r="G44" s="3">
-        <v>216600</v>
+        <v>218300</v>
       </c>
       <c r="H44" s="3">
-        <v>220600</v>
+        <v>222300</v>
       </c>
       <c r="I44" s="3">
-        <v>195500</v>
+        <v>197000</v>
       </c>
       <c r="J44" s="3">
-        <v>314300</v>
+        <v>316900</v>
       </c>
       <c r="K44" s="3">
         <v>289400</v>
@@ -2053,25 +2053,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1231000</v>
+        <v>1240900</v>
       </c>
       <c r="E45" s="3">
-        <v>1182100</v>
+        <v>1191600</v>
       </c>
       <c r="F45" s="3">
-        <v>1104200</v>
+        <v>1113100</v>
       </c>
       <c r="G45" s="3">
-        <v>1080400</v>
+        <v>1089100</v>
       </c>
       <c r="H45" s="3">
-        <v>1018300</v>
+        <v>1026500</v>
       </c>
       <c r="I45" s="3">
-        <v>978700</v>
+        <v>986600</v>
       </c>
       <c r="J45" s="3">
-        <v>1308900</v>
+        <v>1319400</v>
       </c>
       <c r="K45" s="3">
         <v>1261200</v>
@@ -2094,25 +2094,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3803900</v>
+        <v>3834400</v>
       </c>
       <c r="E46" s="3">
-        <v>3666500</v>
+        <v>3696000</v>
       </c>
       <c r="F46" s="3">
-        <v>3616300</v>
+        <v>3645400</v>
       </c>
       <c r="G46" s="3">
-        <v>3603100</v>
+        <v>3632100</v>
       </c>
       <c r="H46" s="3">
-        <v>3073500</v>
+        <v>3098200</v>
       </c>
       <c r="I46" s="3">
-        <v>3335000</v>
+        <v>3361800</v>
       </c>
       <c r="J46" s="3">
-        <v>3872600</v>
+        <v>3903700</v>
       </c>
       <c r="K46" s="3">
         <v>5031100</v>
@@ -2135,25 +2135,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>595700</v>
+        <v>600500</v>
       </c>
       <c r="E47" s="3">
-        <v>583800</v>
+        <v>588500</v>
       </c>
       <c r="F47" s="3">
-        <v>1275900</v>
+        <v>1286100</v>
       </c>
       <c r="G47" s="3">
-        <v>772700</v>
+        <v>778900</v>
       </c>
       <c r="H47" s="3">
-        <v>758100</v>
+        <v>764200</v>
       </c>
       <c r="I47" s="3">
-        <v>763400</v>
+        <v>769500</v>
       </c>
       <c r="J47" s="3">
-        <v>1131900</v>
+        <v>1141000</v>
       </c>
       <c r="K47" s="3">
         <v>1743900</v>
@@ -2176,25 +2176,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>841300</v>
+        <v>848100</v>
       </c>
       <c r="E48" s="3">
-        <v>816200</v>
+        <v>822800</v>
       </c>
       <c r="F48" s="3">
-        <v>847900</v>
+        <v>854800</v>
       </c>
       <c r="G48" s="3">
-        <v>313000</v>
+        <v>315500</v>
       </c>
       <c r="H48" s="3">
-        <v>354000</v>
+        <v>356800</v>
       </c>
       <c r="I48" s="3">
-        <v>371100</v>
+        <v>374100</v>
       </c>
       <c r="J48" s="3">
-        <v>404200</v>
+        <v>407400</v>
       </c>
       <c r="K48" s="3">
         <v>422400</v>
@@ -2217,25 +2217,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3972900</v>
+        <v>4004900</v>
       </c>
       <c r="E49" s="3">
-        <v>3830300</v>
+        <v>3861100</v>
       </c>
       <c r="F49" s="3">
-        <v>4044300</v>
+        <v>4076700</v>
       </c>
       <c r="G49" s="3">
-        <v>3974300</v>
+        <v>4006200</v>
       </c>
       <c r="H49" s="3">
-        <v>4050900</v>
+        <v>4083400</v>
       </c>
       <c r="I49" s="3">
-        <v>3914800</v>
+        <v>3946300</v>
       </c>
       <c r="J49" s="3">
-        <v>4313700</v>
+        <v>4348400</v>
       </c>
       <c r="K49" s="3">
         <v>4239200</v>
@@ -2340,25 +2340,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>714500</v>
+        <v>720300</v>
       </c>
       <c r="E52" s="3">
-        <v>1207200</v>
+        <v>1216900</v>
       </c>
       <c r="F52" s="3">
-        <v>735700</v>
+        <v>741600</v>
       </c>
       <c r="G52" s="3">
-        <v>1777800</v>
+        <v>1792100</v>
       </c>
       <c r="H52" s="3">
-        <v>1849100</v>
+        <v>1864000</v>
       </c>
       <c r="I52" s="3">
-        <v>2034000</v>
+        <v>2050400</v>
       </c>
       <c r="J52" s="3">
-        <v>1962700</v>
+        <v>1978500</v>
       </c>
       <c r="K52" s="3">
         <v>960600</v>
@@ -2422,25 +2422,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>9928400</v>
+        <v>10008100</v>
       </c>
       <c r="E54" s="3">
-        <v>10104000</v>
+        <v>10185200</v>
       </c>
       <c r="F54" s="3">
-        <v>10520100</v>
+        <v>10604600</v>
       </c>
       <c r="G54" s="3">
-        <v>10440800</v>
+        <v>10524700</v>
       </c>
       <c r="H54" s="3">
-        <v>10085600</v>
+        <v>10166600</v>
       </c>
       <c r="I54" s="3">
-        <v>10418400</v>
+        <v>10502100</v>
       </c>
       <c r="J54" s="3">
-        <v>11685000</v>
+        <v>11778900</v>
       </c>
       <c r="K54" s="3">
         <v>12397300</v>
@@ -2497,25 +2497,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1384200</v>
+        <v>1395300</v>
       </c>
       <c r="E57" s="3">
-        <v>1688000</v>
+        <v>1701500</v>
       </c>
       <c r="F57" s="3">
-        <v>1596800</v>
+        <v>1609700</v>
       </c>
       <c r="G57" s="3">
-        <v>1849100</v>
+        <v>1864000</v>
       </c>
       <c r="H57" s="3">
-        <v>1549300</v>
+        <v>1561700</v>
       </c>
       <c r="I57" s="3">
-        <v>1772500</v>
+        <v>1786700</v>
       </c>
       <c r="J57" s="3">
-        <v>1758000</v>
+        <v>1772100</v>
       </c>
       <c r="K57" s="3">
         <v>2006300</v>
@@ -2538,25 +2538,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>385700</v>
+        <v>388800</v>
       </c>
       <c r="E58" s="3">
-        <v>121500</v>
+        <v>122500</v>
       </c>
       <c r="F58" s="3">
-        <v>186200</v>
+        <v>187700</v>
       </c>
       <c r="G58" s="3">
-        <v>60800</v>
+        <v>61200</v>
       </c>
       <c r="H58" s="3">
-        <v>43600</v>
+        <v>43900</v>
       </c>
       <c r="I58" s="3">
-        <v>25100</v>
+        <v>25300</v>
       </c>
       <c r="J58" s="3">
-        <v>351300</v>
+        <v>354200</v>
       </c>
       <c r="K58" s="3">
         <v>54200</v>
@@ -2579,25 +2579,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>190200</v>
+        <v>191700</v>
       </c>
       <c r="E59" s="3">
-        <v>161100</v>
+        <v>162400</v>
       </c>
       <c r="F59" s="3">
-        <v>71300</v>
+        <v>71900</v>
       </c>
       <c r="G59" s="3">
-        <v>151900</v>
+        <v>153100</v>
       </c>
       <c r="H59" s="3">
-        <v>371100</v>
+        <v>374100</v>
       </c>
       <c r="I59" s="3">
-        <v>338100</v>
+        <v>340800</v>
       </c>
       <c r="J59" s="3">
-        <v>277400</v>
+        <v>279600</v>
       </c>
       <c r="K59" s="3">
         <v>309100</v>
@@ -2620,25 +2620,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1960100</v>
+        <v>1975800</v>
       </c>
       <c r="E60" s="3">
-        <v>1970600</v>
+        <v>1986400</v>
       </c>
       <c r="F60" s="3">
-        <v>1854400</v>
+        <v>1869300</v>
       </c>
       <c r="G60" s="3">
-        <v>2061800</v>
+        <v>2078300</v>
       </c>
       <c r="H60" s="3">
-        <v>1964000</v>
+        <v>1979800</v>
       </c>
       <c r="I60" s="3">
-        <v>2135700</v>
+        <v>2152900</v>
       </c>
       <c r="J60" s="3">
-        <v>2386700</v>
+        <v>2405800</v>
       </c>
       <c r="K60" s="3">
         <v>2369600</v>
@@ -2661,25 +2661,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2047200</v>
+        <v>2063700</v>
       </c>
       <c r="E61" s="3">
-        <v>2076300</v>
+        <v>2093000</v>
       </c>
       <c r="F61" s="3">
-        <v>2468600</v>
+        <v>2488400</v>
       </c>
       <c r="G61" s="3">
-        <v>890200</v>
+        <v>897400</v>
       </c>
       <c r="H61" s="3">
-        <v>1411900</v>
+        <v>1423300</v>
       </c>
       <c r="I61" s="3">
-        <v>1408000</v>
+        <v>1419300</v>
       </c>
       <c r="J61" s="3">
-        <v>2398600</v>
+        <v>2417800</v>
       </c>
       <c r="K61" s="3">
         <v>2985400</v>
@@ -2702,25 +2702,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>383000</v>
+        <v>386100</v>
       </c>
       <c r="E62" s="3">
-        <v>347400</v>
+        <v>350200</v>
       </c>
       <c r="F62" s="3">
-        <v>528300</v>
+        <v>532600</v>
       </c>
       <c r="G62" s="3">
-        <v>1512300</v>
+        <v>1524500</v>
       </c>
       <c r="H62" s="3">
-        <v>1298300</v>
+        <v>1308800</v>
       </c>
       <c r="I62" s="3">
-        <v>1563800</v>
+        <v>1576400</v>
       </c>
       <c r="J62" s="3">
-        <v>1666800</v>
+        <v>1680200</v>
       </c>
       <c r="K62" s="3">
         <v>1687300</v>
@@ -2866,25 +2866,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>4403500</v>
+        <v>4438900</v>
       </c>
       <c r="E66" s="3">
-        <v>4407500</v>
+        <v>4442900</v>
       </c>
       <c r="F66" s="3">
-        <v>4864500</v>
+        <v>4903500</v>
       </c>
       <c r="G66" s="3">
-        <v>4476200</v>
+        <v>4512100</v>
       </c>
       <c r="H66" s="3">
-        <v>4686200</v>
+        <v>4723800</v>
       </c>
       <c r="I66" s="3">
-        <v>5118100</v>
+        <v>5159200</v>
       </c>
       <c r="J66" s="3">
-        <v>6458700</v>
+        <v>6510500</v>
       </c>
       <c r="K66" s="3">
         <v>7047200</v>
@@ -3088,25 +3088,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>932500</v>
+        <v>940000</v>
       </c>
       <c r="E72" s="3">
-        <v>1217800</v>
+        <v>1227600</v>
       </c>
       <c r="F72" s="3">
-        <v>1044700</v>
+        <v>1053100</v>
       </c>
       <c r="G72" s="3">
-        <v>1386800</v>
+        <v>1398000</v>
       </c>
       <c r="H72" s="3">
-        <v>1003800</v>
+        <v>1011900</v>
       </c>
       <c r="I72" s="3">
-        <v>881000</v>
+        <v>888000</v>
       </c>
       <c r="J72" s="3">
-        <v>550800</v>
+        <v>555200</v>
       </c>
       <c r="K72" s="3">
         <v>881800</v>
@@ -3252,25 +3252,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>5524900</v>
+        <v>5569200</v>
       </c>
       <c r="E76" s="3">
-        <v>5696600</v>
+        <v>5742300</v>
       </c>
       <c r="F76" s="3">
-        <v>5655600</v>
+        <v>5701100</v>
       </c>
       <c r="G76" s="3">
-        <v>5964700</v>
+        <v>6012600</v>
       </c>
       <c r="H76" s="3">
-        <v>5399400</v>
+        <v>5442800</v>
       </c>
       <c r="I76" s="3">
-        <v>5300300</v>
+        <v>5342900</v>
       </c>
       <c r="J76" s="3">
-        <v>5226400</v>
+        <v>5268300</v>
       </c>
       <c r="K76" s="3">
         <v>5350100</v>
@@ -3380,25 +3380,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>63400</v>
+        <v>63900</v>
       </c>
       <c r="E81" s="3">
-        <v>286600</v>
+        <v>288900</v>
       </c>
       <c r="F81" s="3">
-        <v>62100</v>
+        <v>62600</v>
       </c>
       <c r="G81" s="3">
-        <v>528300</v>
+        <v>532600</v>
       </c>
       <c r="H81" s="3">
-        <v>248300</v>
+        <v>250300</v>
       </c>
       <c r="I81" s="3">
-        <v>558700</v>
+        <v>563200</v>
       </c>
       <c r="J81" s="3">
-        <v>-22500</v>
+        <v>-22600</v>
       </c>
       <c r="K81" s="3">
         <v>-2606100</v>
@@ -3438,25 +3438,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>217900</v>
+        <v>219700</v>
       </c>
       <c r="E83" s="3">
-        <v>219300</v>
+        <v>221000</v>
       </c>
       <c r="F83" s="3">
-        <v>208700</v>
+        <v>210400</v>
       </c>
       <c r="G83" s="3">
-        <v>171700</v>
+        <v>173100</v>
       </c>
       <c r="H83" s="3">
-        <v>162500</v>
+        <v>163800</v>
       </c>
       <c r="I83" s="3">
-        <v>96400</v>
+        <v>97200</v>
       </c>
       <c r="J83" s="3">
-        <v>204700</v>
+        <v>206400</v>
       </c>
       <c r="K83" s="3">
         <v>118200</v>
@@ -3684,25 +3684,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-188900</v>
+        <v>-190400</v>
       </c>
       <c r="E89" s="3">
-        <v>707900</v>
+        <v>713600</v>
       </c>
       <c r="F89" s="3">
-        <v>-220600</v>
+        <v>-222300</v>
       </c>
       <c r="G89" s="3">
-        <v>838700</v>
+        <v>845400</v>
       </c>
       <c r="H89" s="3">
-        <v>-228500</v>
+        <v>-230300</v>
       </c>
       <c r="I89" s="3">
-        <v>789800</v>
+        <v>796200</v>
       </c>
       <c r="J89" s="3">
-        <v>-396200</v>
+        <v>-399400</v>
       </c>
       <c r="K89" s="3">
         <v>902800</v>
@@ -3742,25 +3742,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-39600</v>
+        <v>-39900</v>
       </c>
       <c r="E91" s="3">
-        <v>-22500</v>
+        <v>-22600</v>
       </c>
       <c r="F91" s="3">
-        <v>-50200</v>
+        <v>-50600</v>
       </c>
       <c r="G91" s="3">
-        <v>-50200</v>
+        <v>-50600</v>
       </c>
       <c r="H91" s="3">
-        <v>-42300</v>
+        <v>-42600</v>
       </c>
       <c r="I91" s="3">
-        <v>-66000</v>
+        <v>-66600</v>
       </c>
       <c r="J91" s="3">
-        <v>-42300</v>
+        <v>-42600</v>
       </c>
       <c r="K91" s="3">
         <v>-53000</v>
@@ -3865,25 +3865,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>764700</v>
+        <v>770900</v>
       </c>
       <c r="E94" s="3">
-        <v>-141300</v>
+        <v>-142500</v>
       </c>
       <c r="F94" s="3">
-        <v>-287900</v>
+        <v>-290200</v>
       </c>
       <c r="G94" s="3">
-        <v>122800</v>
+        <v>123800</v>
       </c>
       <c r="H94" s="3">
-        <v>155900</v>
+        <v>157100</v>
       </c>
       <c r="I94" s="3">
-        <v>948300</v>
+        <v>955900</v>
       </c>
       <c r="J94" s="3">
-        <v>-88500</v>
+        <v>-89200</v>
       </c>
       <c r="K94" s="3">
         <v>-24600</v>
@@ -3923,25 +3923,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-133400</v>
+        <v>-134500</v>
       </c>
       <c r="E96" s="3">
-        <v>-60800</v>
+        <v>-61200</v>
       </c>
       <c r="F96" s="3">
-        <v>-133400</v>
+        <v>-134500</v>
       </c>
       <c r="G96" s="3">
-        <v>-56800</v>
+        <v>-57300</v>
       </c>
       <c r="H96" s="3">
-        <v>-122800</v>
+        <v>-123800</v>
       </c>
       <c r="I96" s="3">
-        <v>-54200</v>
+        <v>-54600</v>
       </c>
       <c r="J96" s="3">
-        <v>-365900</v>
+        <v>-368800</v>
       </c>
       <c r="K96" s="3">
         <v>-181000</v>
@@ -4087,25 +4087,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-261500</v>
+        <v>-263600</v>
       </c>
       <c r="E100" s="3">
-        <v>-484700</v>
+        <v>-488600</v>
       </c>
       <c r="F100" s="3">
-        <v>350000</v>
+        <v>352800</v>
       </c>
       <c r="G100" s="3">
-        <v>-603600</v>
+        <v>-608400</v>
       </c>
       <c r="H100" s="3">
-        <v>-359300</v>
+        <v>-362100</v>
       </c>
       <c r="I100" s="3">
-        <v>-1550600</v>
+        <v>-1563100</v>
       </c>
       <c r="J100" s="3">
-        <v>-772700</v>
+        <v>-778900</v>
       </c>
       <c r="K100" s="3">
         <v>-219200</v>
@@ -4128,25 +4128,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>15800</v>
+        <v>16000</v>
       </c>
       <c r="E101" s="3">
-        <v>-40900</v>
+        <v>-41300</v>
       </c>
       <c r="F101" s="3">
-        <v>-2600</v>
+        <v>-2700</v>
       </c>
       <c r="G101" s="3">
-        <v>-60800</v>
+        <v>-61200</v>
       </c>
       <c r="H101" s="3">
         <v>-4000</v>
       </c>
       <c r="I101" s="3">
-        <v>38300</v>
+        <v>38600</v>
       </c>
       <c r="J101" s="3">
-        <v>-17200</v>
+        <v>-17300</v>
       </c>
       <c r="K101" s="3">
         <v>14800</v>
@@ -4169,25 +4169,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>330200</v>
+        <v>332900</v>
       </c>
       <c r="E102" s="3">
-        <v>40900</v>
+        <v>41300</v>
       </c>
       <c r="F102" s="3">
-        <v>-161100</v>
+        <v>-162400</v>
       </c>
       <c r="G102" s="3">
-        <v>297200</v>
+        <v>299600</v>
       </c>
       <c r="H102" s="3">
-        <v>-435900</v>
+        <v>-439400</v>
       </c>
       <c r="I102" s="3">
-        <v>225900</v>
+        <v>227700</v>
       </c>
       <c r="J102" s="3">
-        <v>-1274600</v>
+        <v>-1284800</v>
       </c>
       <c r="K102" s="3">
         <v>673700</v>

--- a/AAII_Financials/Quarterly/PSO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PSO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
   <si>
     <t>PSO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,196 +665,209 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43281</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43100</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42916</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42735</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>42551</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42369</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42185</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1986400</v>
+        <v>2615900</v>
       </c>
       <c r="E8" s="3">
-        <v>2716100</v>
+        <v>2048800</v>
       </c>
       <c r="F8" s="3">
-        <v>2435100</v>
+        <v>2801300</v>
       </c>
       <c r="G8" s="3">
-        <v>3014300</v>
+        <v>2511600</v>
       </c>
       <c r="H8" s="3">
-        <v>2483100</v>
+        <v>3108900</v>
       </c>
       <c r="I8" s="3">
-        <v>3283200</v>
+        <v>2561000</v>
       </c>
       <c r="J8" s="3">
+        <v>3386300</v>
+      </c>
+      <c r="K8" s="3">
         <v>2725400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3308100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2412400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3223000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2629600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3282800</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1129000</v>
+        <v>1262000</v>
       </c>
       <c r="E9" s="3">
-        <v>1270200</v>
+        <v>1164500</v>
       </c>
       <c r="F9" s="3">
-        <v>1203600</v>
+        <v>1310000</v>
       </c>
       <c r="G9" s="3">
-        <v>1372700</v>
+        <v>1241400</v>
       </c>
       <c r="H9" s="3">
-        <v>1214200</v>
+        <v>1415800</v>
       </c>
       <c r="I9" s="3">
-        <v>1428600</v>
+        <v>1252300</v>
       </c>
       <c r="J9" s="3">
+        <v>1473400</v>
+      </c>
+      <c r="K9" s="3">
         <v>1322100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1454500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1179000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1322600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1273300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1370800</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>857400</v>
+        <v>1354000</v>
       </c>
       <c r="E10" s="3">
-        <v>1445900</v>
+        <v>884300</v>
       </c>
       <c r="F10" s="3">
-        <v>1231500</v>
+        <v>1491300</v>
       </c>
       <c r="G10" s="3">
-        <v>1641600</v>
+        <v>1270200</v>
       </c>
       <c r="H10" s="3">
-        <v>1268800</v>
+        <v>1693100</v>
       </c>
       <c r="I10" s="3">
-        <v>1854600</v>
+        <v>1308700</v>
       </c>
       <c r="J10" s="3">
+        <v>1912900</v>
+      </c>
+      <c r="K10" s="3">
         <v>1403300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1853600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1233300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1900400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1356300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1912000</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -870,8 +883,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -911,8 +925,11 @@
       <c r="O12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -952,49 +969,55 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-241000</v>
+        <v>4100</v>
       </c>
       <c r="E14" s="3">
-        <v>-13300</v>
+        <v>-248500</v>
       </c>
       <c r="F14" s="3">
-        <v>-8000</v>
+        <v>-13700</v>
       </c>
       <c r="G14" s="3">
-        <v>-30600</v>
+        <v>-8200</v>
       </c>
       <c r="H14" s="3">
-        <v>-275600</v>
+        <v>-31600</v>
       </c>
       <c r="I14" s="3">
-        <v>-170400</v>
+        <v>-284300</v>
       </c>
       <c r="J14" s="3">
-        <v>0</v>
+        <v>-175800</v>
       </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>3138100</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>1107400</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>101400</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1034,8 +1057,11 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1048,90 +1074,97 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1844000</v>
+        <v>2198500</v>
       </c>
       <c r="E17" s="3">
-        <v>2399200</v>
+        <v>1901900</v>
       </c>
       <c r="F17" s="3">
-        <v>2385900</v>
+        <v>2474500</v>
       </c>
       <c r="G17" s="3">
-        <v>2588200</v>
+        <v>2460800</v>
       </c>
       <c r="H17" s="3">
-        <v>2172800</v>
+        <v>2669500</v>
       </c>
       <c r="I17" s="3">
+        <v>2241000</v>
+      </c>
+      <c r="J17" s="3">
+        <v>2788900</v>
+      </c>
+      <c r="K17" s="3">
         <v>2704100</v>
       </c>
-      <c r="J17" s="3">
-        <v>2704100</v>
-      </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>6031100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2782100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3581600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2799500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2775800</v>
       </c>
     </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>142500</v>
+        <v>417400</v>
       </c>
       <c r="E18" s="3">
-        <v>316900</v>
+        <v>146900</v>
       </c>
       <c r="F18" s="3">
-        <v>49300</v>
+        <v>326800</v>
       </c>
       <c r="G18" s="3">
-        <v>426000</v>
+        <v>50800</v>
       </c>
       <c r="H18" s="3">
-        <v>310200</v>
+        <v>439400</v>
       </c>
       <c r="I18" s="3">
-        <v>579200</v>
+        <v>320000</v>
       </c>
       <c r="J18" s="3">
+        <v>597300</v>
+      </c>
+      <c r="K18" s="3">
         <v>21300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-2723100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-369700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-358700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-169900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>507000</v>
       </c>
     </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1147,90 +1180,97 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-95900</v>
+        <v>20600</v>
       </c>
       <c r="E20" s="3">
-        <v>-25300</v>
+        <v>-98900</v>
       </c>
       <c r="F20" s="3">
-        <v>-32000</v>
+        <v>-26100</v>
       </c>
       <c r="G20" s="3">
-        <v>-32000</v>
+        <v>-33000</v>
       </c>
       <c r="H20" s="3">
-        <v>-41300</v>
+        <v>-33000</v>
       </c>
       <c r="I20" s="3">
-        <v>-5300</v>
+        <v>-42600</v>
       </c>
       <c r="J20" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="K20" s="3">
         <v>-34600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-49300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-25900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-33900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-4000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-123800</v>
       </c>
     </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>266300</v>
+        <v>630300</v>
       </c>
       <c r="E21" s="3">
-        <v>512600</v>
+        <v>274600</v>
       </c>
       <c r="F21" s="3">
-        <v>227700</v>
+        <v>528700</v>
       </c>
       <c r="G21" s="3">
-        <v>567200</v>
+        <v>234800</v>
       </c>
       <c r="H21" s="3">
-        <v>432700</v>
+        <v>585000</v>
       </c>
       <c r="I21" s="3">
-        <v>784200</v>
+        <v>446300</v>
       </c>
       <c r="J21" s="3">
+        <v>808800</v>
+      </c>
+      <c r="K21" s="3">
         <v>193100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-2550600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-157700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>954800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>46100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>722900</v>
       </c>
     </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1270,90 +1310,99 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>46600</v>
+        <v>438000</v>
       </c>
       <c r="E23" s="3">
-        <v>291600</v>
+        <v>48100</v>
       </c>
       <c r="F23" s="3">
-        <v>17300</v>
+        <v>300700</v>
       </c>
       <c r="G23" s="3">
-        <v>394100</v>
+        <v>17900</v>
       </c>
       <c r="H23" s="3">
-        <v>268900</v>
+        <v>406500</v>
       </c>
       <c r="I23" s="3">
-        <v>573800</v>
+        <v>277400</v>
       </c>
       <c r="J23" s="3">
+        <v>591800</v>
+      </c>
+      <c r="K23" s="3">
         <v>-13300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-2772300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-395600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-392600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-173800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>383200</v>
       </c>
     </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-17300</v>
+        <v>78300</v>
       </c>
       <c r="E24" s="3">
-        <v>1300</v>
+        <v>-17900</v>
       </c>
       <c r="F24" s="3">
-        <v>-46600</v>
+        <v>1400</v>
       </c>
       <c r="G24" s="3">
-        <v>-139800</v>
+        <v>-48100</v>
       </c>
       <c r="H24" s="3">
-        <v>17300</v>
+        <v>-144200</v>
       </c>
       <c r="I24" s="3">
-        <v>16000</v>
+        <v>17900</v>
       </c>
       <c r="J24" s="3">
+        <v>16500</v>
+      </c>
+      <c r="K24" s="3">
         <v>8000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-167500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-111200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-53500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-52700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>86900</v>
       </c>
     </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1393,90 +1442,99 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>63900</v>
+        <v>359800</v>
       </c>
       <c r="E26" s="3">
-        <v>290200</v>
+        <v>65900</v>
       </c>
       <c r="F26" s="3">
-        <v>63900</v>
+        <v>299400</v>
       </c>
       <c r="G26" s="3">
-        <v>533900</v>
+        <v>65900</v>
       </c>
       <c r="H26" s="3">
-        <v>251600</v>
+        <v>550600</v>
       </c>
       <c r="I26" s="3">
-        <v>557900</v>
+        <v>259500</v>
       </c>
       <c r="J26" s="3">
+        <v>575400</v>
+      </c>
+      <c r="K26" s="3">
         <v>-21300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-2604800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-284400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-339100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-121100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>296300</v>
       </c>
     </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>63900</v>
+        <v>359800</v>
       </c>
       <c r="E27" s="3">
-        <v>288900</v>
+        <v>65900</v>
       </c>
       <c r="F27" s="3">
-        <v>62600</v>
+        <v>298000</v>
       </c>
       <c r="G27" s="3">
-        <v>532600</v>
+        <v>64500</v>
       </c>
       <c r="H27" s="3">
-        <v>250300</v>
+        <v>549300</v>
       </c>
       <c r="I27" s="3">
-        <v>556500</v>
+        <v>258200</v>
       </c>
       <c r="J27" s="3">
+        <v>574000</v>
+      </c>
+      <c r="K27" s="3">
         <v>-22600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-2606100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-285700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-339100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-121100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>297600</v>
       </c>
     </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1516,8 +1574,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1530,35 +1591,38 @@
       <c r="F29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
+      <c r="G29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H29" s="3">
         <v>0</v>
       </c>
       <c r="I29" s="3">
-        <v>6700</v>
-      </c>
-      <c r="J29" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>6900</v>
+      </c>
+      <c r="K29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
       <c r="L29" s="3">
         <v>0</v>
       </c>
       <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
         <v>1515600</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>17100</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>23700</v>
       </c>
     </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1598,8 +1662,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1639,90 +1706,99 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>95900</v>
+        <v>-20600</v>
       </c>
       <c r="E32" s="3">
-        <v>25300</v>
+        <v>98900</v>
       </c>
       <c r="F32" s="3">
-        <v>32000</v>
+        <v>26100</v>
       </c>
       <c r="G32" s="3">
-        <v>32000</v>
+        <v>33000</v>
       </c>
       <c r="H32" s="3">
-        <v>41300</v>
+        <v>33000</v>
       </c>
       <c r="I32" s="3">
-        <v>5300</v>
+        <v>42600</v>
       </c>
       <c r="J32" s="3">
+        <v>5500</v>
+      </c>
+      <c r="K32" s="3">
         <v>34600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>49300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>25900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>33900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>4000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>123800</v>
       </c>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>63900</v>
+        <v>359800</v>
       </c>
       <c r="E33" s="3">
-        <v>288900</v>
+        <v>65900</v>
       </c>
       <c r="F33" s="3">
-        <v>62600</v>
+        <v>298000</v>
       </c>
       <c r="G33" s="3">
-        <v>532600</v>
+        <v>64500</v>
       </c>
       <c r="H33" s="3">
-        <v>250300</v>
+        <v>549300</v>
       </c>
       <c r="I33" s="3">
-        <v>563200</v>
+        <v>258200</v>
       </c>
       <c r="J33" s="3">
+        <v>580900</v>
+      </c>
+      <c r="K33" s="3">
         <v>-22600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-2606100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-285700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1176500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-104000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>321300</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1762,95 +1838,104 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>63900</v>
+        <v>359800</v>
       </c>
       <c r="E35" s="3">
-        <v>288900</v>
+        <v>65900</v>
       </c>
       <c r="F35" s="3">
-        <v>62600</v>
+        <v>298000</v>
       </c>
       <c r="G35" s="3">
-        <v>532600</v>
+        <v>64500</v>
       </c>
       <c r="H35" s="3">
-        <v>250300</v>
+        <v>549300</v>
       </c>
       <c r="I35" s="3">
-        <v>563200</v>
+        <v>258200</v>
       </c>
       <c r="J35" s="3">
+        <v>580900</v>
+      </c>
+      <c r="K35" s="3">
         <v>-22600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-2606100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-285700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1176500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-104000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>321300</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43281</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43100</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42916</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42735</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>42551</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42369</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42185</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1866,8 +1951,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1883,49 +1969,53 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>914700</v>
+        <v>1506400</v>
       </c>
       <c r="E41" s="3">
-        <v>581800</v>
+        <v>943400</v>
       </c>
       <c r="F41" s="3">
-        <v>555200</v>
+        <v>600100</v>
       </c>
       <c r="G41" s="3">
-        <v>756200</v>
+        <v>572600</v>
       </c>
       <c r="H41" s="3">
-        <v>439400</v>
+        <v>780000</v>
       </c>
       <c r="I41" s="3">
-        <v>689700</v>
+        <v>453200</v>
       </c>
       <c r="J41" s="3">
+        <v>711300</v>
+      </c>
+      <c r="K41" s="3">
         <v>609800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1796900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1267000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2221200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>475400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>697900</v>
       </c>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1938,322 +2028,346 @@
       <c r="F42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G42" s="3">
-        <v>0</v>
+      <c r="G42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H42" s="3">
         <v>0</v>
       </c>
       <c r="I42" s="3">
-        <v>10700</v>
+        <v>0</v>
       </c>
       <c r="J42" s="3">
+        <v>11000</v>
+      </c>
+      <c r="K42" s="3">
         <v>14600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>12300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>40100</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>36500</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>34200</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>21100</v>
       </c>
     </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1447200</v>
+        <v>1535200</v>
       </c>
       <c r="E43" s="3">
-        <v>1697500</v>
+        <v>1492700</v>
       </c>
       <c r="F43" s="3">
-        <v>1694900</v>
+        <v>1750800</v>
       </c>
       <c r="G43" s="3">
-        <v>1568400</v>
+        <v>1748100</v>
       </c>
       <c r="H43" s="3">
-        <v>1410000</v>
+        <v>1617600</v>
       </c>
       <c r="I43" s="3">
-        <v>1477900</v>
+        <v>1454200</v>
       </c>
       <c r="J43" s="3">
+        <v>1524200</v>
+      </c>
+      <c r="K43" s="3">
         <v>1642900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1671300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1736200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1674700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1677600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1725000</v>
       </c>
     </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>231700</v>
+        <v>177100</v>
       </c>
       <c r="E44" s="3">
-        <v>225000</v>
+        <v>238900</v>
       </c>
       <c r="F44" s="3">
-        <v>282300</v>
+        <v>232100</v>
       </c>
       <c r="G44" s="3">
-        <v>218300</v>
+        <v>291100</v>
       </c>
       <c r="H44" s="3">
-        <v>222300</v>
+        <v>225200</v>
       </c>
       <c r="I44" s="3">
-        <v>197000</v>
+        <v>229300</v>
       </c>
       <c r="J44" s="3">
+        <v>203200</v>
+      </c>
+      <c r="K44" s="3">
         <v>316900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>289400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>354200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>275200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>330500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>295000</v>
       </c>
     </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1240900</v>
+        <v>1267500</v>
       </c>
       <c r="E45" s="3">
-        <v>1191600</v>
+        <v>1279800</v>
       </c>
       <c r="F45" s="3">
-        <v>1113100</v>
+        <v>1229000</v>
       </c>
       <c r="G45" s="3">
-        <v>1089100</v>
+        <v>1148000</v>
       </c>
       <c r="H45" s="3">
-        <v>1026500</v>
+        <v>1123300</v>
       </c>
       <c r="I45" s="3">
-        <v>986600</v>
+        <v>1058700</v>
       </c>
       <c r="J45" s="3">
+        <v>1017500</v>
+      </c>
+      <c r="K45" s="3">
         <v>1319400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1261200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1221700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1138700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1114000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1111400</v>
       </c>
     </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3834400</v>
+        <v>4486200</v>
       </c>
       <c r="E46" s="3">
-        <v>3696000</v>
+        <v>3954800</v>
       </c>
       <c r="F46" s="3">
-        <v>3645400</v>
+        <v>3812000</v>
       </c>
       <c r="G46" s="3">
-        <v>3632100</v>
+        <v>3759800</v>
       </c>
       <c r="H46" s="3">
-        <v>3098200</v>
+        <v>3746100</v>
       </c>
       <c r="I46" s="3">
-        <v>3361800</v>
+        <v>3195400</v>
       </c>
       <c r="J46" s="3">
+        <v>3467300</v>
+      </c>
+      <c r="K46" s="3">
         <v>3903700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>5031100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>4619200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>5346400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>3631700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>3850300</v>
       </c>
     </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>600500</v>
+        <v>504000</v>
       </c>
       <c r="E47" s="3">
-        <v>588500</v>
+        <v>619300</v>
       </c>
       <c r="F47" s="3">
-        <v>1286100</v>
+        <v>606900</v>
       </c>
       <c r="G47" s="3">
-        <v>778900</v>
+        <v>1326500</v>
       </c>
       <c r="H47" s="3">
-        <v>764200</v>
+        <v>803300</v>
       </c>
       <c r="I47" s="3">
-        <v>769500</v>
+        <v>788200</v>
       </c>
       <c r="J47" s="3">
+        <v>793700</v>
+      </c>
+      <c r="K47" s="3">
         <v>1141000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1743900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1772400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1775200</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>1603900</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>1651300</v>
       </c>
     </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>848100</v>
+        <v>707200</v>
       </c>
       <c r="E48" s="3">
-        <v>822800</v>
+        <v>874700</v>
       </c>
       <c r="F48" s="3">
-        <v>854800</v>
+        <v>848600</v>
       </c>
       <c r="G48" s="3">
-        <v>315500</v>
+        <v>881600</v>
       </c>
       <c r="H48" s="3">
-        <v>356800</v>
+        <v>325400</v>
       </c>
       <c r="I48" s="3">
-        <v>374100</v>
+        <v>368000</v>
       </c>
       <c r="J48" s="3">
+        <v>385900</v>
+      </c>
+      <c r="K48" s="3">
         <v>407400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>422400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>438300</v>
-      </c>
-      <c r="M48" s="3">
-        <v>417400</v>
       </c>
       <c r="N48" s="3">
         <v>417400</v>
       </c>
       <c r="O48" s="3">
+        <v>417400</v>
+      </c>
+      <c r="P48" s="3">
         <v>439800</v>
       </c>
     </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>4004900</v>
+        <v>3765300</v>
       </c>
       <c r="E49" s="3">
-        <v>3861100</v>
+        <v>4130600</v>
       </c>
       <c r="F49" s="3">
-        <v>4076700</v>
+        <v>3982300</v>
       </c>
       <c r="G49" s="3">
-        <v>4006200</v>
+        <v>4204700</v>
       </c>
       <c r="H49" s="3">
-        <v>4083400</v>
+        <v>4131900</v>
       </c>
       <c r="I49" s="3">
-        <v>3946300</v>
+        <v>4211600</v>
       </c>
       <c r="J49" s="3">
+        <v>4070100</v>
+      </c>
+      <c r="K49" s="3">
         <v>4348400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>4239200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>7260400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>6735500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>7816500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>8308900</v>
       </c>
     </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2293,8 +2407,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2334,49 +2451,55 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>720300</v>
+        <v>769000</v>
       </c>
       <c r="E52" s="3">
-        <v>1216900</v>
+        <v>742900</v>
       </c>
       <c r="F52" s="3">
-        <v>741600</v>
+        <v>1255100</v>
       </c>
       <c r="G52" s="3">
-        <v>1792100</v>
+        <v>764900</v>
       </c>
       <c r="H52" s="3">
-        <v>1864000</v>
+        <v>1848300</v>
       </c>
       <c r="I52" s="3">
-        <v>2050400</v>
+        <v>1922500</v>
       </c>
       <c r="J52" s="3">
+        <v>2114700</v>
+      </c>
+      <c r="K52" s="3">
         <v>1978500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>960600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1199700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>901300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>886200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>757200</v>
       </c>
     </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2416,49 +2539,55 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>10008100</v>
+        <v>10231600</v>
       </c>
       <c r="E54" s="3">
-        <v>10185200</v>
+        <v>10322300</v>
       </c>
       <c r="F54" s="3">
-        <v>10604600</v>
+        <v>10504900</v>
       </c>
       <c r="G54" s="3">
-        <v>10524700</v>
+        <v>10937500</v>
       </c>
       <c r="H54" s="3">
-        <v>10166600</v>
+        <v>10855100</v>
       </c>
       <c r="I54" s="3">
-        <v>10502100</v>
+        <v>10485700</v>
       </c>
       <c r="J54" s="3">
+        <v>10831700</v>
+      </c>
+      <c r="K54" s="3">
         <v>11778900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>12397300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>15290100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>15175600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>14355600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>15007500</v>
       </c>
     </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2474,8 +2603,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2491,254 +2621,273 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1395300</v>
+        <v>1642300</v>
       </c>
       <c r="E57" s="3">
-        <v>1701500</v>
+        <v>1439100</v>
       </c>
       <c r="F57" s="3">
-        <v>1609700</v>
+        <v>1754900</v>
       </c>
       <c r="G57" s="3">
-        <v>1864000</v>
+        <v>1660200</v>
       </c>
       <c r="H57" s="3">
-        <v>1561700</v>
+        <v>1922500</v>
       </c>
       <c r="I57" s="3">
-        <v>1786700</v>
+        <v>1610800</v>
       </c>
       <c r="J57" s="3">
+        <v>1842800</v>
+      </c>
+      <c r="K57" s="3">
         <v>1772100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2006300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1891400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1813000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1721000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2108200</v>
       </c>
     </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>388800</v>
+        <v>348800</v>
       </c>
       <c r="E58" s="3">
-        <v>122500</v>
+        <v>401000</v>
       </c>
       <c r="F58" s="3">
-        <v>187700</v>
+        <v>126300</v>
       </c>
       <c r="G58" s="3">
-        <v>61200</v>
+        <v>193600</v>
       </c>
       <c r="H58" s="3">
-        <v>43900</v>
+        <v>63200</v>
       </c>
       <c r="I58" s="3">
-        <v>25300</v>
+        <v>45300</v>
       </c>
       <c r="J58" s="3">
+        <v>26100</v>
+      </c>
+      <c r="K58" s="3">
         <v>354200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>54200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>148700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>367800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>965200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>450300</v>
       </c>
     </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>191700</v>
+        <v>166200</v>
       </c>
       <c r="E59" s="3">
-        <v>162400</v>
+        <v>197700</v>
       </c>
       <c r="F59" s="3">
-        <v>71900</v>
+        <v>167500</v>
       </c>
       <c r="G59" s="3">
-        <v>153100</v>
+        <v>74200</v>
       </c>
       <c r="H59" s="3">
-        <v>374100</v>
+        <v>157900</v>
       </c>
       <c r="I59" s="3">
-        <v>340800</v>
+        <v>385900</v>
       </c>
       <c r="J59" s="3">
+        <v>351500</v>
+      </c>
+      <c r="K59" s="3">
         <v>279600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>309100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>181000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>306500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>221200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>321300</v>
       </c>
     </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1975800</v>
+        <v>2157300</v>
       </c>
       <c r="E60" s="3">
-        <v>1986400</v>
+        <v>2037800</v>
       </c>
       <c r="F60" s="3">
-        <v>1869300</v>
+        <v>2048800</v>
       </c>
       <c r="G60" s="3">
-        <v>2078300</v>
+        <v>1928000</v>
       </c>
       <c r="H60" s="3">
-        <v>1979800</v>
+        <v>2143500</v>
       </c>
       <c r="I60" s="3">
-        <v>2152900</v>
+        <v>2041900</v>
       </c>
       <c r="J60" s="3">
+        <v>2220400</v>
+      </c>
+      <c r="K60" s="3">
         <v>2405800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2369600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2221000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2487300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2907500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2879800</v>
       </c>
     </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2063700</v>
+        <v>1918300</v>
       </c>
       <c r="E61" s="3">
-        <v>2093000</v>
+        <v>2128400</v>
       </c>
       <c r="F61" s="3">
-        <v>2488400</v>
+        <v>2158700</v>
       </c>
       <c r="G61" s="3">
-        <v>897400</v>
+        <v>2566500</v>
       </c>
       <c r="H61" s="3">
-        <v>1423300</v>
+        <v>925500</v>
       </c>
       <c r="I61" s="3">
-        <v>1419300</v>
+        <v>1467900</v>
       </c>
       <c r="J61" s="3">
+        <v>1463800</v>
+      </c>
+      <c r="K61" s="3">
         <v>2417800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2985400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>3004500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2671200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2532200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2479500</v>
       </c>
     </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>386100</v>
+        <v>479200</v>
       </c>
       <c r="E62" s="3">
-        <v>350200</v>
+        <v>398200</v>
       </c>
       <c r="F62" s="3">
-        <v>532600</v>
+        <v>361100</v>
       </c>
       <c r="G62" s="3">
-        <v>1524500</v>
+        <v>549300</v>
       </c>
       <c r="H62" s="3">
-        <v>1308800</v>
+        <v>1572300</v>
       </c>
       <c r="I62" s="3">
-        <v>1576400</v>
+        <v>1349800</v>
       </c>
       <c r="J62" s="3">
+        <v>1625900</v>
+      </c>
+      <c r="K62" s="3">
         <v>1680200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1687300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1713000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1646000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1800100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1767100</v>
       </c>
     </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2778,8 +2927,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2819,8 +2971,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2860,49 +3015,55 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>4438900</v>
+        <v>4567200</v>
       </c>
       <c r="E66" s="3">
-        <v>4442900</v>
+        <v>4578200</v>
       </c>
       <c r="F66" s="3">
-        <v>4903500</v>
+        <v>4582300</v>
       </c>
       <c r="G66" s="3">
-        <v>4512100</v>
+        <v>5057500</v>
       </c>
       <c r="H66" s="3">
-        <v>4723800</v>
+        <v>4653700</v>
       </c>
       <c r="I66" s="3">
-        <v>5159200</v>
+        <v>4872100</v>
       </c>
       <c r="J66" s="3">
+        <v>5321100</v>
+      </c>
+      <c r="K66" s="3">
         <v>6510500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>7047200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>6942400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>6809800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>7247600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>7134400</v>
       </c>
     </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2918,8 +3079,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2959,8 +3121,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3000,8 +3165,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3041,8 +3209,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3082,49 +3253,55 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>940000</v>
+        <v>1212500</v>
       </c>
       <c r="E72" s="3">
-        <v>1227600</v>
+        <v>969500</v>
       </c>
       <c r="F72" s="3">
-        <v>1053100</v>
+        <v>1266100</v>
       </c>
       <c r="G72" s="3">
-        <v>1398000</v>
+        <v>1086200</v>
       </c>
       <c r="H72" s="3">
-        <v>1011900</v>
+        <v>1441800</v>
       </c>
       <c r="I72" s="3">
-        <v>888000</v>
+        <v>1043600</v>
       </c>
       <c r="J72" s="3">
+        <v>915900</v>
+      </c>
+      <c r="K72" s="3">
         <v>555200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>881800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>4151200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>4823300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>3531600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>4213700</v>
       </c>
     </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3164,8 +3341,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3205,8 +3385,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3246,49 +3429,55 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>5569200</v>
+        <v>5664400</v>
       </c>
       <c r="E76" s="3">
-        <v>5742300</v>
+        <v>5744100</v>
       </c>
       <c r="F76" s="3">
-        <v>5701100</v>
+        <v>5922600</v>
       </c>
       <c r="G76" s="3">
-        <v>6012600</v>
+        <v>5880000</v>
       </c>
       <c r="H76" s="3">
-        <v>5442800</v>
+        <v>6201300</v>
       </c>
       <c r="I76" s="3">
-        <v>5342900</v>
+        <v>5613600</v>
       </c>
       <c r="J76" s="3">
+        <v>5510600</v>
+      </c>
+      <c r="K76" s="3">
         <v>5268300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>5350100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>8347700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>8365800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>7108000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>7873100</v>
       </c>
     </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3328,95 +3517,104 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43281</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43100</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42916</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42735</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>42551</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42369</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42185</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>63900</v>
+        <v>359800</v>
       </c>
       <c r="E81" s="3">
-        <v>288900</v>
+        <v>65900</v>
       </c>
       <c r="F81" s="3">
-        <v>62600</v>
+        <v>298000</v>
       </c>
       <c r="G81" s="3">
-        <v>532600</v>
+        <v>64500</v>
       </c>
       <c r="H81" s="3">
-        <v>250300</v>
+        <v>549300</v>
       </c>
       <c r="I81" s="3">
-        <v>563200</v>
+        <v>258200</v>
       </c>
       <c r="J81" s="3">
+        <v>580900</v>
+      </c>
+      <c r="K81" s="3">
         <v>-22600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-2606100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-285700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1176500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-104000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>321300</v>
       </c>
     </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3432,49 +3630,53 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>219700</v>
+        <v>192200</v>
       </c>
       <c r="E83" s="3">
-        <v>221000</v>
+        <v>226600</v>
       </c>
       <c r="F83" s="3">
-        <v>210400</v>
+        <v>227900</v>
       </c>
       <c r="G83" s="3">
-        <v>173100</v>
+        <v>217000</v>
       </c>
       <c r="H83" s="3">
-        <v>163800</v>
+        <v>178500</v>
       </c>
       <c r="I83" s="3">
-        <v>97200</v>
+        <v>168900</v>
       </c>
       <c r="J83" s="3">
+        <v>100200</v>
+      </c>
+      <c r="K83" s="3">
         <v>206400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>118200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>237900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>1250800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>219900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>256800</v>
       </c>
     </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3514,8 +3716,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3555,8 +3760,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3596,8 +3804,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3637,8 +3848,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3678,49 +3892,55 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-190400</v>
+        <v>730500</v>
       </c>
       <c r="E89" s="3">
-        <v>713600</v>
+        <v>-196400</v>
       </c>
       <c r="F89" s="3">
-        <v>-222300</v>
+        <v>736000</v>
       </c>
       <c r="G89" s="3">
-        <v>845400</v>
+        <v>-229300</v>
       </c>
       <c r="H89" s="3">
-        <v>-230300</v>
+        <v>872000</v>
       </c>
       <c r="I89" s="3">
-        <v>796200</v>
+        <v>-237600</v>
       </c>
       <c r="J89" s="3">
+        <v>821200</v>
+      </c>
+      <c r="K89" s="3">
         <v>-399400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>902800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-417600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>763000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-492500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>999400</v>
       </c>
     </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3736,49 +3956,53 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-39900</v>
+        <v>-31600</v>
       </c>
       <c r="E91" s="3">
-        <v>-22600</v>
+        <v>-41200</v>
       </c>
       <c r="F91" s="3">
-        <v>-50600</v>
+        <v>-23300</v>
       </c>
       <c r="G91" s="3">
-        <v>-50600</v>
+        <v>-52200</v>
       </c>
       <c r="H91" s="3">
+        <v>-52200</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-43900</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-68700</v>
+      </c>
+      <c r="K91" s="3">
         <v>-42600</v>
       </c>
-      <c r="I91" s="3">
-        <v>-66600</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-42600</v>
-      </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-53000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-58200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-65200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-125100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-160600</v>
       </c>
     </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3818,8 +4042,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3859,49 +4086,55 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>770900</v>
+        <v>16500</v>
       </c>
       <c r="E94" s="3">
-        <v>-142500</v>
+        <v>795100</v>
       </c>
       <c r="F94" s="3">
-        <v>-290200</v>
+        <v>-146900</v>
       </c>
       <c r="G94" s="3">
-        <v>123800</v>
+        <v>-299400</v>
       </c>
       <c r="H94" s="3">
-        <v>157100</v>
+        <v>127700</v>
       </c>
       <c r="I94" s="3">
-        <v>955900</v>
+        <v>162000</v>
       </c>
       <c r="J94" s="3">
+        <v>986000</v>
+      </c>
+      <c r="K94" s="3">
         <v>-89200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-24600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-27100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>1753000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-15800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-92200</v>
       </c>
     </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3917,49 +4150,53 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-134500</v>
+        <v>-61800</v>
       </c>
       <c r="E96" s="3">
-        <v>-61200</v>
+        <v>-138700</v>
       </c>
       <c r="F96" s="3">
-        <v>-134500</v>
+        <v>-63200</v>
       </c>
       <c r="G96" s="3">
-        <v>-57300</v>
+        <v>-138700</v>
       </c>
       <c r="H96" s="3">
-        <v>-123800</v>
+        <v>-59000</v>
       </c>
       <c r="I96" s="3">
-        <v>-54600</v>
+        <v>-127700</v>
       </c>
       <c r="J96" s="3">
+        <v>-56300</v>
+      </c>
+      <c r="K96" s="3">
         <v>-368800</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-181000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-358100</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-190400</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-364800</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-181700</v>
       </c>
     </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3999,8 +4236,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4040,8 +4280,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4081,127 +4324,139 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-263600</v>
+        <v>-138700</v>
       </c>
       <c r="E100" s="3">
-        <v>-488600</v>
+        <v>-271900</v>
       </c>
       <c r="F100" s="3">
-        <v>352800</v>
+        <v>-504000</v>
       </c>
       <c r="G100" s="3">
-        <v>-608400</v>
+        <v>363900</v>
       </c>
       <c r="H100" s="3">
-        <v>-362100</v>
+        <v>-627500</v>
       </c>
       <c r="I100" s="3">
-        <v>-1563100</v>
+        <v>-373500</v>
       </c>
       <c r="J100" s="3">
+        <v>-1612100</v>
+      </c>
+      <c r="K100" s="3">
         <v>-778900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-219200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-671000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-811300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>339700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-809800</v>
       </c>
     </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>16000</v>
+        <v>-19200</v>
       </c>
       <c r="E101" s="3">
-        <v>-41300</v>
+        <v>16500</v>
       </c>
       <c r="F101" s="3">
+        <v>-42600</v>
+      </c>
+      <c r="G101" s="3">
         <v>-2700</v>
       </c>
-      <c r="G101" s="3">
-        <v>-61200</v>
-      </c>
       <c r="H101" s="3">
-        <v>-4000</v>
+        <v>-63200</v>
       </c>
       <c r="I101" s="3">
-        <v>38600</v>
+        <v>-4100</v>
       </c>
       <c r="J101" s="3">
+        <v>39800</v>
+      </c>
+      <c r="K101" s="3">
         <v>-17300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>14800</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>89200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>17000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-42100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>332900</v>
+        <v>589100</v>
       </c>
       <c r="E102" s="3">
-        <v>41300</v>
+        <v>343300</v>
       </c>
       <c r="F102" s="3">
-        <v>-162400</v>
+        <v>42600</v>
       </c>
       <c r="G102" s="3">
-        <v>299600</v>
+        <v>-167500</v>
       </c>
       <c r="H102" s="3">
-        <v>-439400</v>
+        <v>309000</v>
       </c>
       <c r="I102" s="3">
-        <v>227700</v>
+        <v>-453200</v>
       </c>
       <c r="J102" s="3">
+        <v>234800</v>
+      </c>
+      <c r="K102" s="3">
         <v>-1284800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>673700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1026500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1721700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-210700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>102700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PSO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PSO_QTR_FIN.xlsx
@@ -740,25 +740,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2615900</v>
+        <v>2695800</v>
       </c>
       <c r="E8" s="3">
-        <v>2048800</v>
+        <v>2111300</v>
       </c>
       <c r="F8" s="3">
-        <v>2801300</v>
+        <v>2886800</v>
       </c>
       <c r="G8" s="3">
-        <v>2511600</v>
+        <v>2588200</v>
       </c>
       <c r="H8" s="3">
-        <v>3108900</v>
+        <v>3203800</v>
       </c>
       <c r="I8" s="3">
-        <v>2561000</v>
+        <v>2639200</v>
       </c>
       <c r="J8" s="3">
-        <v>3386300</v>
+        <v>3489700</v>
       </c>
       <c r="K8" s="3">
         <v>2725400</v>
@@ -784,25 +784,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1262000</v>
+        <v>1300500</v>
       </c>
       <c r="E9" s="3">
-        <v>1164500</v>
+        <v>1200000</v>
       </c>
       <c r="F9" s="3">
-        <v>1310000</v>
+        <v>1350000</v>
       </c>
       <c r="G9" s="3">
-        <v>1241400</v>
+        <v>1279300</v>
       </c>
       <c r="H9" s="3">
-        <v>1415800</v>
+        <v>1459000</v>
       </c>
       <c r="I9" s="3">
-        <v>1252300</v>
+        <v>1290600</v>
       </c>
       <c r="J9" s="3">
-        <v>1473400</v>
+        <v>1518400</v>
       </c>
       <c r="K9" s="3">
         <v>1322100</v>
@@ -828,25 +828,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1354000</v>
+        <v>1395300</v>
       </c>
       <c r="E10" s="3">
-        <v>884300</v>
+        <v>911300</v>
       </c>
       <c r="F10" s="3">
-        <v>1491300</v>
+        <v>1536800</v>
       </c>
       <c r="G10" s="3">
-        <v>1270200</v>
+        <v>1309000</v>
       </c>
       <c r="H10" s="3">
-        <v>1693100</v>
+        <v>1744800</v>
       </c>
       <c r="I10" s="3">
-        <v>1308700</v>
+        <v>1348600</v>
       </c>
       <c r="J10" s="3">
-        <v>1912900</v>
+        <v>1971200</v>
       </c>
       <c r="K10" s="3">
         <v>1403300</v>
@@ -978,25 +978,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>4100</v>
+        <v>4200</v>
       </c>
       <c r="E14" s="3">
-        <v>-248500</v>
+        <v>-256100</v>
       </c>
       <c r="F14" s="3">
-        <v>-13700</v>
+        <v>-14200</v>
       </c>
       <c r="G14" s="3">
-        <v>-8200</v>
+        <v>-8500</v>
       </c>
       <c r="H14" s="3">
-        <v>-31600</v>
+        <v>-32500</v>
       </c>
       <c r="I14" s="3">
-        <v>-284300</v>
+        <v>-292900</v>
       </c>
       <c r="J14" s="3">
-        <v>-175800</v>
+        <v>-181100</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -1081,25 +1081,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2198500</v>
+        <v>2265600</v>
       </c>
       <c r="E17" s="3">
-        <v>1901900</v>
+        <v>1959900</v>
       </c>
       <c r="F17" s="3">
-        <v>2474500</v>
+        <v>2550000</v>
       </c>
       <c r="G17" s="3">
-        <v>2460800</v>
+        <v>2535900</v>
       </c>
       <c r="H17" s="3">
-        <v>2669500</v>
+        <v>2751000</v>
       </c>
       <c r="I17" s="3">
-        <v>2241000</v>
+        <v>2309500</v>
       </c>
       <c r="J17" s="3">
-        <v>2788900</v>
+        <v>2874100</v>
       </c>
       <c r="K17" s="3">
         <v>2704100</v>
@@ -1125,25 +1125,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>417400</v>
+        <v>430200</v>
       </c>
       <c r="E18" s="3">
-        <v>146900</v>
+        <v>151400</v>
       </c>
       <c r="F18" s="3">
-        <v>326800</v>
+        <v>336800</v>
       </c>
       <c r="G18" s="3">
-        <v>50800</v>
+        <v>52400</v>
       </c>
       <c r="H18" s="3">
-        <v>439400</v>
+        <v>452800</v>
       </c>
       <c r="I18" s="3">
-        <v>320000</v>
+        <v>329700</v>
       </c>
       <c r="J18" s="3">
-        <v>597300</v>
+        <v>615600</v>
       </c>
       <c r="K18" s="3">
         <v>21300</v>
@@ -1187,25 +1187,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>20600</v>
+        <v>21200</v>
       </c>
       <c r="E20" s="3">
-        <v>-98900</v>
+        <v>-101900</v>
       </c>
       <c r="F20" s="3">
-        <v>-26100</v>
+        <v>-26900</v>
       </c>
       <c r="G20" s="3">
-        <v>-33000</v>
+        <v>-34000</v>
       </c>
       <c r="H20" s="3">
-        <v>-33000</v>
+        <v>-34000</v>
       </c>
       <c r="I20" s="3">
-        <v>-42600</v>
+        <v>-43900</v>
       </c>
       <c r="J20" s="3">
-        <v>-5500</v>
+        <v>-5700</v>
       </c>
       <c r="K20" s="3">
         <v>-34600</v>
@@ -1231,25 +1231,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>630300</v>
+        <v>649500</v>
       </c>
       <c r="E21" s="3">
-        <v>274600</v>
+        <v>283000</v>
       </c>
       <c r="F21" s="3">
-        <v>528700</v>
+        <v>544800</v>
       </c>
       <c r="G21" s="3">
-        <v>234800</v>
+        <v>242000</v>
       </c>
       <c r="H21" s="3">
-        <v>585000</v>
+        <v>602800</v>
       </c>
       <c r="I21" s="3">
-        <v>446300</v>
+        <v>459900</v>
       </c>
       <c r="J21" s="3">
-        <v>808800</v>
+        <v>833500</v>
       </c>
       <c r="K21" s="3">
         <v>193100</v>
@@ -1319,25 +1319,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>438000</v>
+        <v>451400</v>
       </c>
       <c r="E23" s="3">
-        <v>48100</v>
+        <v>49500</v>
       </c>
       <c r="F23" s="3">
-        <v>300700</v>
+        <v>309900</v>
       </c>
       <c r="G23" s="3">
-        <v>17900</v>
+        <v>18400</v>
       </c>
       <c r="H23" s="3">
-        <v>406500</v>
+        <v>418900</v>
       </c>
       <c r="I23" s="3">
-        <v>277400</v>
+        <v>285900</v>
       </c>
       <c r="J23" s="3">
-        <v>591800</v>
+        <v>609900</v>
       </c>
       <c r="K23" s="3">
         <v>-13300</v>
@@ -1363,25 +1363,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>78300</v>
+        <v>80700</v>
       </c>
       <c r="E24" s="3">
-        <v>-17900</v>
+        <v>-18400</v>
       </c>
       <c r="F24" s="3">
         <v>1400</v>
       </c>
       <c r="G24" s="3">
-        <v>-48100</v>
+        <v>-49500</v>
       </c>
       <c r="H24" s="3">
-        <v>-144200</v>
+        <v>-148600</v>
       </c>
       <c r="I24" s="3">
-        <v>17900</v>
+        <v>18400</v>
       </c>
       <c r="J24" s="3">
-        <v>16500</v>
+        <v>17000</v>
       </c>
       <c r="K24" s="3">
         <v>8000</v>
@@ -1451,25 +1451,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>359800</v>
+        <v>370800</v>
       </c>
       <c r="E26" s="3">
-        <v>65900</v>
+        <v>67900</v>
       </c>
       <c r="F26" s="3">
-        <v>299400</v>
+        <v>308500</v>
       </c>
       <c r="G26" s="3">
-        <v>65900</v>
+        <v>67900</v>
       </c>
       <c r="H26" s="3">
-        <v>550600</v>
+        <v>567500</v>
       </c>
       <c r="I26" s="3">
-        <v>259500</v>
+        <v>267500</v>
       </c>
       <c r="J26" s="3">
-        <v>575400</v>
+        <v>592900</v>
       </c>
       <c r="K26" s="3">
         <v>-21300</v>
@@ -1495,25 +1495,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>359800</v>
+        <v>370800</v>
       </c>
       <c r="E27" s="3">
-        <v>65900</v>
+        <v>67900</v>
       </c>
       <c r="F27" s="3">
-        <v>298000</v>
+        <v>307100</v>
       </c>
       <c r="G27" s="3">
-        <v>64500</v>
+        <v>66500</v>
       </c>
       <c r="H27" s="3">
-        <v>549300</v>
+        <v>566000</v>
       </c>
       <c r="I27" s="3">
-        <v>258200</v>
+        <v>266000</v>
       </c>
       <c r="J27" s="3">
-        <v>574000</v>
+        <v>591500</v>
       </c>
       <c r="K27" s="3">
         <v>-22600</v>
@@ -1601,7 +1601,7 @@
         <v>0</v>
       </c>
       <c r="J29" s="3">
-        <v>6900</v>
+        <v>7100</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>8</v>
@@ -1715,25 +1715,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-20600</v>
+        <v>-21200</v>
       </c>
       <c r="E32" s="3">
-        <v>98900</v>
+        <v>101900</v>
       </c>
       <c r="F32" s="3">
-        <v>26100</v>
+        <v>26900</v>
       </c>
       <c r="G32" s="3">
-        <v>33000</v>
+        <v>34000</v>
       </c>
       <c r="H32" s="3">
-        <v>33000</v>
+        <v>34000</v>
       </c>
       <c r="I32" s="3">
-        <v>42600</v>
+        <v>43900</v>
       </c>
       <c r="J32" s="3">
-        <v>5500</v>
+        <v>5700</v>
       </c>
       <c r="K32" s="3">
         <v>34600</v>
@@ -1759,25 +1759,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>359800</v>
+        <v>370800</v>
       </c>
       <c r="E33" s="3">
-        <v>65900</v>
+        <v>67900</v>
       </c>
       <c r="F33" s="3">
-        <v>298000</v>
+        <v>307100</v>
       </c>
       <c r="G33" s="3">
-        <v>64500</v>
+        <v>66500</v>
       </c>
       <c r="H33" s="3">
-        <v>549300</v>
+        <v>566000</v>
       </c>
       <c r="I33" s="3">
-        <v>258200</v>
+        <v>266000</v>
       </c>
       <c r="J33" s="3">
-        <v>580900</v>
+        <v>598600</v>
       </c>
       <c r="K33" s="3">
         <v>-22600</v>
@@ -1847,25 +1847,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>359800</v>
+        <v>370800</v>
       </c>
       <c r="E35" s="3">
-        <v>65900</v>
+        <v>67900</v>
       </c>
       <c r="F35" s="3">
-        <v>298000</v>
+        <v>307100</v>
       </c>
       <c r="G35" s="3">
-        <v>64500</v>
+        <v>66500</v>
       </c>
       <c r="H35" s="3">
-        <v>549300</v>
+        <v>566000</v>
       </c>
       <c r="I35" s="3">
-        <v>258200</v>
+        <v>266000</v>
       </c>
       <c r="J35" s="3">
-        <v>580900</v>
+        <v>598600</v>
       </c>
       <c r="K35" s="3">
         <v>-22600</v>
@@ -1976,25 +1976,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1506400</v>
+        <v>1552400</v>
       </c>
       <c r="E41" s="3">
-        <v>943400</v>
+        <v>972200</v>
       </c>
       <c r="F41" s="3">
-        <v>600100</v>
+        <v>618400</v>
       </c>
       <c r="G41" s="3">
-        <v>572600</v>
+        <v>590100</v>
       </c>
       <c r="H41" s="3">
-        <v>780000</v>
+        <v>803800</v>
       </c>
       <c r="I41" s="3">
-        <v>453200</v>
+        <v>467000</v>
       </c>
       <c r="J41" s="3">
-        <v>711300</v>
+        <v>733000</v>
       </c>
       <c r="K41" s="3">
         <v>609800</v>
@@ -2038,7 +2038,7 @@
         <v>0</v>
       </c>
       <c r="J42" s="3">
-        <v>11000</v>
+        <v>11300</v>
       </c>
       <c r="K42" s="3">
         <v>14600</v>
@@ -2064,25 +2064,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1535200</v>
+        <v>1582100</v>
       </c>
       <c r="E43" s="3">
-        <v>1492700</v>
+        <v>1538200</v>
       </c>
       <c r="F43" s="3">
-        <v>1750800</v>
+        <v>1804300</v>
       </c>
       <c r="G43" s="3">
-        <v>1748100</v>
+        <v>1801400</v>
       </c>
       <c r="H43" s="3">
-        <v>1617600</v>
+        <v>1667000</v>
       </c>
       <c r="I43" s="3">
-        <v>1454200</v>
+        <v>1498600</v>
       </c>
       <c r="J43" s="3">
-        <v>1524200</v>
+        <v>1570800</v>
       </c>
       <c r="K43" s="3">
         <v>1642900</v>
@@ -2108,25 +2108,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>177100</v>
+        <v>182500</v>
       </c>
       <c r="E44" s="3">
-        <v>238900</v>
+        <v>246200</v>
       </c>
       <c r="F44" s="3">
+        <v>239200</v>
+      </c>
+      <c r="G44" s="3">
+        <v>300000</v>
+      </c>
+      <c r="H44" s="3">
         <v>232100</v>
       </c>
-      <c r="G44" s="3">
-        <v>291100</v>
-      </c>
-      <c r="H44" s="3">
-        <v>225200</v>
-      </c>
       <c r="I44" s="3">
-        <v>229300</v>
+        <v>236300</v>
       </c>
       <c r="J44" s="3">
-        <v>203200</v>
+        <v>209400</v>
       </c>
       <c r="K44" s="3">
         <v>316900</v>
@@ -2152,25 +2152,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1267500</v>
+        <v>1306100</v>
       </c>
       <c r="E45" s="3">
-        <v>1279800</v>
+        <v>1318900</v>
       </c>
       <c r="F45" s="3">
-        <v>1229000</v>
+        <v>1266500</v>
       </c>
       <c r="G45" s="3">
-        <v>1148000</v>
+        <v>1183000</v>
       </c>
       <c r="H45" s="3">
-        <v>1123300</v>
+        <v>1157600</v>
       </c>
       <c r="I45" s="3">
-        <v>1058700</v>
+        <v>1091000</v>
       </c>
       <c r="J45" s="3">
-        <v>1017500</v>
+        <v>1048600</v>
       </c>
       <c r="K45" s="3">
         <v>1319400</v>
@@ -2196,25 +2196,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>4486200</v>
+        <v>4623200</v>
       </c>
       <c r="E46" s="3">
-        <v>3954800</v>
+        <v>4075500</v>
       </c>
       <c r="F46" s="3">
-        <v>3812000</v>
+        <v>3928300</v>
       </c>
       <c r="G46" s="3">
-        <v>3759800</v>
+        <v>3874600</v>
       </c>
       <c r="H46" s="3">
-        <v>3746100</v>
+        <v>3860400</v>
       </c>
       <c r="I46" s="3">
-        <v>3195400</v>
+        <v>3293000</v>
       </c>
       <c r="J46" s="3">
-        <v>3467300</v>
+        <v>3573200</v>
       </c>
       <c r="K46" s="3">
         <v>3903700</v>
@@ -2240,25 +2240,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>504000</v>
+        <v>519300</v>
       </c>
       <c r="E47" s="3">
-        <v>619300</v>
+        <v>638200</v>
       </c>
       <c r="F47" s="3">
-        <v>606900</v>
+        <v>625500</v>
       </c>
       <c r="G47" s="3">
-        <v>1326500</v>
+        <v>1367000</v>
       </c>
       <c r="H47" s="3">
-        <v>803300</v>
+        <v>827800</v>
       </c>
       <c r="I47" s="3">
-        <v>788200</v>
+        <v>812300</v>
       </c>
       <c r="J47" s="3">
-        <v>793700</v>
+        <v>817900</v>
       </c>
       <c r="K47" s="3">
         <v>1141000</v>
@@ -2284,25 +2284,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>707200</v>
+        <v>728800</v>
       </c>
       <c r="E48" s="3">
-        <v>874700</v>
+        <v>901400</v>
       </c>
       <c r="F48" s="3">
-        <v>848600</v>
+        <v>874500</v>
       </c>
       <c r="G48" s="3">
-        <v>881600</v>
+        <v>908500</v>
       </c>
       <c r="H48" s="3">
-        <v>325400</v>
+        <v>335400</v>
       </c>
       <c r="I48" s="3">
-        <v>368000</v>
+        <v>379200</v>
       </c>
       <c r="J48" s="3">
-        <v>385900</v>
+        <v>397600</v>
       </c>
       <c r="K48" s="3">
         <v>407400</v>
@@ -2328,25 +2328,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3765300</v>
+        <v>3880200</v>
       </c>
       <c r="E49" s="3">
-        <v>4130600</v>
+        <v>4256700</v>
       </c>
       <c r="F49" s="3">
-        <v>3982300</v>
+        <v>4103800</v>
       </c>
       <c r="G49" s="3">
-        <v>4204700</v>
+        <v>4333100</v>
       </c>
       <c r="H49" s="3">
-        <v>4131900</v>
+        <v>4258100</v>
       </c>
       <c r="I49" s="3">
-        <v>4211600</v>
+        <v>4340100</v>
       </c>
       <c r="J49" s="3">
-        <v>4070100</v>
+        <v>4194400</v>
       </c>
       <c r="K49" s="3">
         <v>4348400</v>
@@ -2460,25 +2460,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>769000</v>
+        <v>792500</v>
       </c>
       <c r="E52" s="3">
-        <v>742900</v>
+        <v>765600</v>
       </c>
       <c r="F52" s="3">
-        <v>1255100</v>
+        <v>1293400</v>
       </c>
       <c r="G52" s="3">
-        <v>764900</v>
+        <v>788200</v>
       </c>
       <c r="H52" s="3">
-        <v>1848300</v>
+        <v>1904700</v>
       </c>
       <c r="I52" s="3">
-        <v>1922500</v>
+        <v>1981200</v>
       </c>
       <c r="J52" s="3">
-        <v>2114700</v>
+        <v>2179300</v>
       </c>
       <c r="K52" s="3">
         <v>1978500</v>
@@ -2548,25 +2548,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>10231600</v>
+        <v>10544000</v>
       </c>
       <c r="E54" s="3">
-        <v>10322300</v>
+        <v>10637400</v>
       </c>
       <c r="F54" s="3">
-        <v>10504900</v>
+        <v>10825600</v>
       </c>
       <c r="G54" s="3">
-        <v>10937500</v>
+        <v>11271400</v>
       </c>
       <c r="H54" s="3">
-        <v>10855100</v>
+        <v>11186400</v>
       </c>
       <c r="I54" s="3">
-        <v>10485700</v>
+        <v>10805800</v>
       </c>
       <c r="J54" s="3">
-        <v>10831700</v>
+        <v>11162400</v>
       </c>
       <c r="K54" s="3">
         <v>11778900</v>
@@ -2628,25 +2628,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1642300</v>
+        <v>1692500</v>
       </c>
       <c r="E57" s="3">
-        <v>1439100</v>
+        <v>1483000</v>
       </c>
       <c r="F57" s="3">
-        <v>1754900</v>
+        <v>1808500</v>
       </c>
       <c r="G57" s="3">
-        <v>1660200</v>
+        <v>1710900</v>
       </c>
       <c r="H57" s="3">
-        <v>1922500</v>
+        <v>1981200</v>
       </c>
       <c r="I57" s="3">
-        <v>1610800</v>
+        <v>1659900</v>
       </c>
       <c r="J57" s="3">
-        <v>1842800</v>
+        <v>1899100</v>
       </c>
       <c r="K57" s="3">
         <v>1772100</v>
@@ -2672,25 +2672,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>348800</v>
+        <v>359400</v>
       </c>
       <c r="E58" s="3">
-        <v>401000</v>
+        <v>413200</v>
       </c>
       <c r="F58" s="3">
-        <v>126300</v>
+        <v>130200</v>
       </c>
       <c r="G58" s="3">
-        <v>193600</v>
+        <v>199500</v>
       </c>
       <c r="H58" s="3">
-        <v>63200</v>
+        <v>65100</v>
       </c>
       <c r="I58" s="3">
-        <v>45300</v>
+        <v>46700</v>
       </c>
       <c r="J58" s="3">
-        <v>26100</v>
+        <v>26900</v>
       </c>
       <c r="K58" s="3">
         <v>354200</v>
@@ -2716,25 +2716,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>166200</v>
+        <v>171200</v>
       </c>
       <c r="E59" s="3">
-        <v>197700</v>
+        <v>203800</v>
       </c>
       <c r="F59" s="3">
-        <v>167500</v>
+        <v>172600</v>
       </c>
       <c r="G59" s="3">
-        <v>74200</v>
+        <v>76400</v>
       </c>
       <c r="H59" s="3">
-        <v>157900</v>
+        <v>162700</v>
       </c>
       <c r="I59" s="3">
-        <v>385900</v>
+        <v>397600</v>
       </c>
       <c r="J59" s="3">
-        <v>351500</v>
+        <v>362300</v>
       </c>
       <c r="K59" s="3">
         <v>279600</v>
@@ -2760,25 +2760,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2157300</v>
+        <v>2223100</v>
       </c>
       <c r="E60" s="3">
-        <v>2037800</v>
+        <v>2100000</v>
       </c>
       <c r="F60" s="3">
-        <v>2048800</v>
+        <v>2111300</v>
       </c>
       <c r="G60" s="3">
-        <v>1928000</v>
+        <v>1986800</v>
       </c>
       <c r="H60" s="3">
-        <v>2143500</v>
+        <v>2209000</v>
       </c>
       <c r="I60" s="3">
-        <v>2041900</v>
+        <v>2104300</v>
       </c>
       <c r="J60" s="3">
-        <v>2220400</v>
+        <v>2288200</v>
       </c>
       <c r="K60" s="3">
         <v>2405800</v>
@@ -2804,25 +2804,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1918300</v>
+        <v>1976900</v>
       </c>
       <c r="E61" s="3">
-        <v>2128400</v>
+        <v>2193400</v>
       </c>
       <c r="F61" s="3">
-        <v>2158700</v>
+        <v>2224600</v>
       </c>
       <c r="G61" s="3">
-        <v>2566500</v>
+        <v>2644800</v>
       </c>
       <c r="H61" s="3">
-        <v>925500</v>
+        <v>953800</v>
       </c>
       <c r="I61" s="3">
-        <v>1467900</v>
+        <v>1512800</v>
       </c>
       <c r="J61" s="3">
-        <v>1463800</v>
+        <v>1508500</v>
       </c>
       <c r="K61" s="3">
         <v>2417800</v>
@@ -2848,25 +2848,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>479200</v>
+        <v>493900</v>
       </c>
       <c r="E62" s="3">
-        <v>398200</v>
+        <v>410400</v>
       </c>
       <c r="F62" s="3">
-        <v>361100</v>
+        <v>372200</v>
       </c>
       <c r="G62" s="3">
-        <v>549300</v>
+        <v>566000</v>
       </c>
       <c r="H62" s="3">
-        <v>1572300</v>
+        <v>1620300</v>
       </c>
       <c r="I62" s="3">
-        <v>1349800</v>
+        <v>1391100</v>
       </c>
       <c r="J62" s="3">
-        <v>1625900</v>
+        <v>1675500</v>
       </c>
       <c r="K62" s="3">
         <v>1680200</v>
@@ -3024,25 +3024,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>4567200</v>
+        <v>4706700</v>
       </c>
       <c r="E66" s="3">
-        <v>4578200</v>
+        <v>4718000</v>
       </c>
       <c r="F66" s="3">
-        <v>4582300</v>
+        <v>4722200</v>
       </c>
       <c r="G66" s="3">
-        <v>5057500</v>
+        <v>5211900</v>
       </c>
       <c r="H66" s="3">
-        <v>4653700</v>
+        <v>4795800</v>
       </c>
       <c r="I66" s="3">
-        <v>4872100</v>
+        <v>5020800</v>
       </c>
       <c r="J66" s="3">
-        <v>5321100</v>
+        <v>5483600</v>
       </c>
       <c r="K66" s="3">
         <v>6510500</v>
@@ -3262,25 +3262,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1212500</v>
+        <v>1249500</v>
       </c>
       <c r="E72" s="3">
-        <v>969500</v>
+        <v>999100</v>
       </c>
       <c r="F72" s="3">
-        <v>1266100</v>
+        <v>1304700</v>
       </c>
       <c r="G72" s="3">
-        <v>1086200</v>
+        <v>1119400</v>
       </c>
       <c r="H72" s="3">
-        <v>1441800</v>
+        <v>1485900</v>
       </c>
       <c r="I72" s="3">
-        <v>1043600</v>
+        <v>1075500</v>
       </c>
       <c r="J72" s="3">
-        <v>915900</v>
+        <v>943900</v>
       </c>
       <c r="K72" s="3">
         <v>555200</v>
@@ -3438,25 +3438,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>5664400</v>
+        <v>5837300</v>
       </c>
       <c r="E76" s="3">
-        <v>5744100</v>
+        <v>5919400</v>
       </c>
       <c r="F76" s="3">
-        <v>5922600</v>
+        <v>6103400</v>
       </c>
       <c r="G76" s="3">
-        <v>5880000</v>
+        <v>6059500</v>
       </c>
       <c r="H76" s="3">
-        <v>6201300</v>
+        <v>6390600</v>
       </c>
       <c r="I76" s="3">
-        <v>5613600</v>
+        <v>5785000</v>
       </c>
       <c r="J76" s="3">
-        <v>5510600</v>
+        <v>5678800</v>
       </c>
       <c r="K76" s="3">
         <v>5268300</v>
@@ -3575,25 +3575,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>359800</v>
+        <v>370800</v>
       </c>
       <c r="E81" s="3">
-        <v>65900</v>
+        <v>67900</v>
       </c>
       <c r="F81" s="3">
-        <v>298000</v>
+        <v>307100</v>
       </c>
       <c r="G81" s="3">
-        <v>64500</v>
+        <v>66500</v>
       </c>
       <c r="H81" s="3">
-        <v>549300</v>
+        <v>566000</v>
       </c>
       <c r="I81" s="3">
-        <v>258200</v>
+        <v>266000</v>
       </c>
       <c r="J81" s="3">
-        <v>580900</v>
+        <v>598600</v>
       </c>
       <c r="K81" s="3">
         <v>-22600</v>
@@ -3637,25 +3637,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>192200</v>
+        <v>198100</v>
       </c>
       <c r="E83" s="3">
-        <v>226600</v>
+        <v>233500</v>
       </c>
       <c r="F83" s="3">
-        <v>227900</v>
+        <v>234900</v>
       </c>
       <c r="G83" s="3">
-        <v>217000</v>
+        <v>223600</v>
       </c>
       <c r="H83" s="3">
-        <v>178500</v>
+        <v>184000</v>
       </c>
       <c r="I83" s="3">
-        <v>168900</v>
+        <v>174100</v>
       </c>
       <c r="J83" s="3">
-        <v>100200</v>
+        <v>103300</v>
       </c>
       <c r="K83" s="3">
         <v>206400</v>
@@ -3901,25 +3901,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>730500</v>
+        <v>752800</v>
       </c>
       <c r="E89" s="3">
-        <v>-196400</v>
+        <v>-202400</v>
       </c>
       <c r="F89" s="3">
-        <v>736000</v>
+        <v>758500</v>
       </c>
       <c r="G89" s="3">
-        <v>-229300</v>
+        <v>-236300</v>
       </c>
       <c r="H89" s="3">
-        <v>872000</v>
+        <v>898600</v>
       </c>
       <c r="I89" s="3">
-        <v>-237600</v>
+        <v>-244800</v>
       </c>
       <c r="J89" s="3">
-        <v>821200</v>
+        <v>846200</v>
       </c>
       <c r="K89" s="3">
         <v>-399400</v>
@@ -3963,25 +3963,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-31600</v>
+        <v>-32500</v>
       </c>
       <c r="E91" s="3">
-        <v>-41200</v>
+        <v>-42500</v>
       </c>
       <c r="F91" s="3">
-        <v>-23300</v>
+        <v>-24100</v>
       </c>
       <c r="G91" s="3">
-        <v>-52200</v>
+        <v>-53800</v>
       </c>
       <c r="H91" s="3">
-        <v>-52200</v>
+        <v>-53800</v>
       </c>
       <c r="I91" s="3">
-        <v>-43900</v>
+        <v>-45300</v>
       </c>
       <c r="J91" s="3">
-        <v>-68700</v>
+        <v>-70800</v>
       </c>
       <c r="K91" s="3">
         <v>-42600</v>
@@ -4095,25 +4095,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>16500</v>
+        <v>17000</v>
       </c>
       <c r="E94" s="3">
-        <v>795100</v>
+        <v>819300</v>
       </c>
       <c r="F94" s="3">
-        <v>-146900</v>
+        <v>-151400</v>
       </c>
       <c r="G94" s="3">
-        <v>-299400</v>
+        <v>-308500</v>
       </c>
       <c r="H94" s="3">
-        <v>127700</v>
+        <v>131600</v>
       </c>
       <c r="I94" s="3">
-        <v>162000</v>
+        <v>167000</v>
       </c>
       <c r="J94" s="3">
-        <v>986000</v>
+        <v>1016000</v>
       </c>
       <c r="K94" s="3">
         <v>-89200</v>
@@ -4157,25 +4157,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-61800</v>
+        <v>-63700</v>
       </c>
       <c r="E96" s="3">
-        <v>-138700</v>
+        <v>-142900</v>
       </c>
       <c r="F96" s="3">
-        <v>-63200</v>
+        <v>-65100</v>
       </c>
       <c r="G96" s="3">
-        <v>-138700</v>
+        <v>-142900</v>
       </c>
       <c r="H96" s="3">
-        <v>-59000</v>
+        <v>-60800</v>
       </c>
       <c r="I96" s="3">
-        <v>-127700</v>
+        <v>-131600</v>
       </c>
       <c r="J96" s="3">
-        <v>-56300</v>
+        <v>-58000</v>
       </c>
       <c r="K96" s="3">
         <v>-368800</v>
@@ -4333,25 +4333,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-138700</v>
+        <v>-142900</v>
       </c>
       <c r="E100" s="3">
-        <v>-271900</v>
+        <v>-280200</v>
       </c>
       <c r="F100" s="3">
-        <v>-504000</v>
+        <v>-519300</v>
       </c>
       <c r="G100" s="3">
-        <v>363900</v>
+        <v>375000</v>
       </c>
       <c r="H100" s="3">
-        <v>-627500</v>
+        <v>-646700</v>
       </c>
       <c r="I100" s="3">
-        <v>-373500</v>
+        <v>-384900</v>
       </c>
       <c r="J100" s="3">
-        <v>-1612100</v>
+        <v>-1661300</v>
       </c>
       <c r="K100" s="3">
         <v>-778900</v>
@@ -4377,25 +4377,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-19200</v>
+        <v>-19800</v>
       </c>
       <c r="E101" s="3">
-        <v>16500</v>
+        <v>17000</v>
       </c>
       <c r="F101" s="3">
-        <v>-42600</v>
+        <v>-43900</v>
       </c>
       <c r="G101" s="3">
-        <v>-2700</v>
+        <v>-2800</v>
       </c>
       <c r="H101" s="3">
-        <v>-63200</v>
+        <v>-65100</v>
       </c>
       <c r="I101" s="3">
-        <v>-4100</v>
+        <v>-4200</v>
       </c>
       <c r="J101" s="3">
-        <v>39800</v>
+        <v>41000</v>
       </c>
       <c r="K101" s="3">
         <v>-17300</v>
@@ -4421,25 +4421,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>589100</v>
+        <v>607100</v>
       </c>
       <c r="E102" s="3">
-        <v>343300</v>
+        <v>353800</v>
       </c>
       <c r="F102" s="3">
-        <v>42600</v>
+        <v>43900</v>
       </c>
       <c r="G102" s="3">
-        <v>-167500</v>
+        <v>-172600</v>
       </c>
       <c r="H102" s="3">
-        <v>309000</v>
+        <v>318400</v>
       </c>
       <c r="I102" s="3">
-        <v>-453200</v>
+        <v>-467000</v>
       </c>
       <c r="J102" s="3">
-        <v>234800</v>
+        <v>242000</v>
       </c>
       <c r="K102" s="3">
         <v>-1284800</v>

--- a/AAII_Financials/Quarterly/PSO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PSO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
   <si>
     <t>PSO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,209 +665,222 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43100</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42916</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>42735</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42551</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42369</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42185</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2695800</v>
+        <v>2178000</v>
       </c>
       <c r="E8" s="3">
-        <v>2111300</v>
+        <v>2598000</v>
       </c>
       <c r="F8" s="3">
-        <v>2886800</v>
+        <v>2034800</v>
       </c>
       <c r="G8" s="3">
-        <v>2588200</v>
+        <v>2782100</v>
       </c>
       <c r="H8" s="3">
-        <v>3203800</v>
+        <v>2494400</v>
       </c>
       <c r="I8" s="3">
-        <v>2639200</v>
+        <v>3087600</v>
       </c>
       <c r="J8" s="3">
+        <v>2543500</v>
+      </c>
+      <c r="K8" s="3">
         <v>3489700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2725400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3308100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2412400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3223000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2629600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3282800</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1300500</v>
+        <v>1142900</v>
       </c>
       <c r="E9" s="3">
-        <v>1200000</v>
+        <v>1253300</v>
       </c>
       <c r="F9" s="3">
-        <v>1350000</v>
+        <v>1156500</v>
       </c>
       <c r="G9" s="3">
-        <v>1279300</v>
+        <v>1301100</v>
       </c>
       <c r="H9" s="3">
-        <v>1459000</v>
+        <v>1232900</v>
       </c>
       <c r="I9" s="3">
-        <v>1290600</v>
+        <v>1406100</v>
       </c>
       <c r="J9" s="3">
+        <v>1243800</v>
+      </c>
+      <c r="K9" s="3">
         <v>1518400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1322100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1454500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1179000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1322600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1273300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1370800</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1395300</v>
+        <v>1035100</v>
       </c>
       <c r="E10" s="3">
-        <v>911300</v>
+        <v>1344700</v>
       </c>
       <c r="F10" s="3">
-        <v>1536800</v>
+        <v>878300</v>
       </c>
       <c r="G10" s="3">
-        <v>1309000</v>
+        <v>1481100</v>
       </c>
       <c r="H10" s="3">
-        <v>1744800</v>
+        <v>1261500</v>
       </c>
       <c r="I10" s="3">
-        <v>1348600</v>
+        <v>1681600</v>
       </c>
       <c r="J10" s="3">
+        <v>1299700</v>
+      </c>
+      <c r="K10" s="3">
         <v>1971200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1403300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1853600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1233300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1900400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1356300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1912000</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -884,8 +897,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -928,8 +942,11 @@
       <c r="P12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -972,52 +989,58 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>4200</v>
+        <v>8200</v>
       </c>
       <c r="E14" s="3">
-        <v>-256100</v>
+        <v>4100</v>
       </c>
       <c r="F14" s="3">
-        <v>-14200</v>
+        <v>-246800</v>
       </c>
       <c r="G14" s="3">
-        <v>-8500</v>
+        <v>-13600</v>
       </c>
       <c r="H14" s="3">
-        <v>-32500</v>
+        <v>-8200</v>
       </c>
       <c r="I14" s="3">
-        <v>-292900</v>
+        <v>-31400</v>
       </c>
       <c r="J14" s="3">
+        <v>-282300</v>
+      </c>
+      <c r="K14" s="3">
         <v>-181100</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>3138100</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>1107400</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
       <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>101400</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1060,8 +1083,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1075,96 +1101,103 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2265600</v>
+        <v>2165700</v>
       </c>
       <c r="E17" s="3">
-        <v>1959900</v>
+        <v>2183400</v>
       </c>
       <c r="F17" s="3">
-        <v>2550000</v>
+        <v>1888800</v>
       </c>
       <c r="G17" s="3">
-        <v>2535900</v>
+        <v>2457500</v>
       </c>
       <c r="H17" s="3">
-        <v>2751000</v>
+        <v>2443900</v>
       </c>
       <c r="I17" s="3">
-        <v>2309500</v>
+        <v>2651200</v>
       </c>
       <c r="J17" s="3">
+        <v>2225700</v>
+      </c>
+      <c r="K17" s="3">
         <v>2874100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2704100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>6031100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2782100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3581600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2799500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2775800</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>430200</v>
+        <v>12300</v>
       </c>
       <c r="E18" s="3">
-        <v>151400</v>
+        <v>414600</v>
       </c>
       <c r="F18" s="3">
-        <v>336800</v>
+        <v>145900</v>
       </c>
       <c r="G18" s="3">
-        <v>52400</v>
+        <v>324600</v>
       </c>
       <c r="H18" s="3">
-        <v>452800</v>
+        <v>50500</v>
       </c>
       <c r="I18" s="3">
-        <v>329700</v>
+        <v>436400</v>
       </c>
       <c r="J18" s="3">
+        <v>317800</v>
+      </c>
+      <c r="K18" s="3">
         <v>615600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>21300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-2723100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-369700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-358700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-169900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>507000</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1181,96 +1214,103 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>21200</v>
+        <v>-6800</v>
       </c>
       <c r="E20" s="3">
-        <v>-101900</v>
+        <v>20500</v>
       </c>
       <c r="F20" s="3">
-        <v>-26900</v>
+        <v>-98200</v>
       </c>
       <c r="G20" s="3">
-        <v>-34000</v>
+        <v>-25900</v>
       </c>
       <c r="H20" s="3">
-        <v>-34000</v>
+        <v>-32700</v>
       </c>
       <c r="I20" s="3">
-        <v>-43900</v>
+        <v>-32700</v>
       </c>
       <c r="J20" s="3">
+        <v>-42300</v>
+      </c>
+      <c r="K20" s="3">
         <v>-5700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-34600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-49300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-25900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-33900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-4000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-123800</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>649500</v>
+        <v>260500</v>
       </c>
       <c r="E21" s="3">
-        <v>283000</v>
+        <v>626000</v>
       </c>
       <c r="F21" s="3">
-        <v>544800</v>
+        <v>272800</v>
       </c>
       <c r="G21" s="3">
-        <v>242000</v>
+        <v>525100</v>
       </c>
       <c r="H21" s="3">
-        <v>602800</v>
+        <v>233200</v>
       </c>
       <c r="I21" s="3">
-        <v>459900</v>
+        <v>581000</v>
       </c>
       <c r="J21" s="3">
+        <v>443200</v>
+      </c>
+      <c r="K21" s="3">
         <v>833500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>193100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-2550600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-157700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>954800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>46100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>722900</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1313,96 +1353,105 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>451400</v>
+        <v>5500</v>
       </c>
       <c r="E23" s="3">
-        <v>49500</v>
+        <v>435000</v>
       </c>
       <c r="F23" s="3">
-        <v>309900</v>
+        <v>47700</v>
       </c>
       <c r="G23" s="3">
-        <v>18400</v>
+        <v>298700</v>
       </c>
       <c r="H23" s="3">
-        <v>418900</v>
+        <v>17700</v>
       </c>
       <c r="I23" s="3">
-        <v>285900</v>
+        <v>403700</v>
       </c>
       <c r="J23" s="3">
+        <v>275500</v>
+      </c>
+      <c r="K23" s="3">
         <v>609900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-13300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-2772300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-395600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-392600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-173800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>383200</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>80700</v>
+        <v>-19100</v>
       </c>
       <c r="E24" s="3">
-        <v>-18400</v>
+        <v>77700</v>
       </c>
       <c r="F24" s="3">
+        <v>-17700</v>
+      </c>
+      <c r="G24" s="3">
         <v>1400</v>
       </c>
-      <c r="G24" s="3">
-        <v>-49500</v>
-      </c>
       <c r="H24" s="3">
-        <v>-148600</v>
+        <v>-47700</v>
       </c>
       <c r="I24" s="3">
-        <v>18400</v>
+        <v>-143200</v>
       </c>
       <c r="J24" s="3">
+        <v>17700</v>
+      </c>
+      <c r="K24" s="3">
         <v>17000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>8000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-167500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-111200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-53500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-52700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>86900</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1445,96 +1494,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>370800</v>
+        <v>24500</v>
       </c>
       <c r="E26" s="3">
-        <v>67900</v>
+        <v>357300</v>
       </c>
       <c r="F26" s="3">
-        <v>308500</v>
+        <v>65500</v>
       </c>
       <c r="G26" s="3">
-        <v>67900</v>
+        <v>297300</v>
       </c>
       <c r="H26" s="3">
-        <v>567500</v>
+        <v>65500</v>
       </c>
       <c r="I26" s="3">
-        <v>267500</v>
+        <v>546900</v>
       </c>
       <c r="J26" s="3">
+        <v>257800</v>
+      </c>
+      <c r="K26" s="3">
         <v>592900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-21300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-2604800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-284400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-339100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-121100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>296300</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>370800</v>
+        <v>23200</v>
       </c>
       <c r="E27" s="3">
-        <v>67900</v>
+        <v>357300</v>
       </c>
       <c r="F27" s="3">
-        <v>307100</v>
+        <v>65500</v>
       </c>
       <c r="G27" s="3">
-        <v>66500</v>
+        <v>295900</v>
       </c>
       <c r="H27" s="3">
-        <v>566000</v>
+        <v>64100</v>
       </c>
       <c r="I27" s="3">
-        <v>266000</v>
+        <v>545500</v>
       </c>
       <c r="J27" s="3">
+        <v>256400</v>
+      </c>
+      <c r="K27" s="3">
         <v>591500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-22600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-2606100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-285700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-339100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-121100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>297600</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1577,8 +1635,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1594,35 +1655,38 @@
       <c r="G29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H29" s="3">
-        <v>0</v>
+      <c r="H29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I29" s="3">
         <v>0</v>
       </c>
       <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
         <v>7100</v>
       </c>
-      <c r="K29" s="3" t="s">
+      <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
       <c r="M29" s="3">
         <v>0</v>
       </c>
       <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
         <v>1515600</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>17100</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>23700</v>
       </c>
     </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1665,8 +1729,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1709,96 +1776,105 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-21200</v>
+        <v>6800</v>
       </c>
       <c r="E32" s="3">
-        <v>101900</v>
+        <v>-20500</v>
       </c>
       <c r="F32" s="3">
-        <v>26900</v>
+        <v>98200</v>
       </c>
       <c r="G32" s="3">
-        <v>34000</v>
+        <v>25900</v>
       </c>
       <c r="H32" s="3">
-        <v>34000</v>
+        <v>32700</v>
       </c>
       <c r="I32" s="3">
-        <v>43900</v>
+        <v>32700</v>
       </c>
       <c r="J32" s="3">
+        <v>42300</v>
+      </c>
+      <c r="K32" s="3">
         <v>5700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>34600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>49300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>25900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>33900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>4000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>123800</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>370800</v>
+        <v>23200</v>
       </c>
       <c r="E33" s="3">
-        <v>67900</v>
+        <v>357300</v>
       </c>
       <c r="F33" s="3">
-        <v>307100</v>
+        <v>65500</v>
       </c>
       <c r="G33" s="3">
-        <v>66500</v>
+        <v>295900</v>
       </c>
       <c r="H33" s="3">
-        <v>566000</v>
+        <v>64100</v>
       </c>
       <c r="I33" s="3">
-        <v>266000</v>
+        <v>545500</v>
       </c>
       <c r="J33" s="3">
+        <v>256400</v>
+      </c>
+      <c r="K33" s="3">
         <v>598600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-22600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-2606100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-285700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1176500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-104000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>321300</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1841,101 +1917,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>370800</v>
+        <v>23200</v>
       </c>
       <c r="E35" s="3">
-        <v>67900</v>
+        <v>357300</v>
       </c>
       <c r="F35" s="3">
-        <v>307100</v>
+        <v>65500</v>
       </c>
       <c r="G35" s="3">
-        <v>66500</v>
+        <v>295900</v>
       </c>
       <c r="H35" s="3">
-        <v>566000</v>
+        <v>64100</v>
       </c>
       <c r="I35" s="3">
-        <v>266000</v>
+        <v>545500</v>
       </c>
       <c r="J35" s="3">
+        <v>256400</v>
+      </c>
+      <c r="K35" s="3">
         <v>598600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-22600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-2606100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-285700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1176500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-104000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>321300</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43100</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42916</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>42735</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42551</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42369</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42185</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1952,8 +2037,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1970,52 +2056,56 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1552400</v>
+        <v>883700</v>
       </c>
       <c r="E41" s="3">
-        <v>972200</v>
+        <v>1496100</v>
       </c>
       <c r="F41" s="3">
-        <v>618400</v>
+        <v>936900</v>
       </c>
       <c r="G41" s="3">
-        <v>590100</v>
+        <v>596000</v>
       </c>
       <c r="H41" s="3">
-        <v>803800</v>
+        <v>568700</v>
       </c>
       <c r="I41" s="3">
-        <v>467000</v>
+        <v>774600</v>
       </c>
       <c r="J41" s="3">
+        <v>450100</v>
+      </c>
+      <c r="K41" s="3">
         <v>733000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>609800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1796900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1267000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2221200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>475400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>697900</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2031,343 +2121,367 @@
       <c r="G42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H42" s="3">
-        <v>0</v>
+      <c r="H42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I42" s="3">
         <v>0</v>
       </c>
       <c r="J42" s="3">
+        <v>0</v>
+      </c>
+      <c r="K42" s="3">
         <v>11300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>14600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>12300</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>40100</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>36500</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>34200</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>21100</v>
       </c>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1582100</v>
+        <v>1747000</v>
       </c>
       <c r="E43" s="3">
-        <v>1538200</v>
+        <v>1524700</v>
       </c>
       <c r="F43" s="3">
-        <v>1804300</v>
+        <v>1482400</v>
       </c>
       <c r="G43" s="3">
-        <v>1801400</v>
+        <v>1738800</v>
       </c>
       <c r="H43" s="3">
-        <v>1667000</v>
+        <v>1736100</v>
       </c>
       <c r="I43" s="3">
-        <v>1498600</v>
+        <v>1606500</v>
       </c>
       <c r="J43" s="3">
+        <v>1444300</v>
+      </c>
+      <c r="K43" s="3">
         <v>1570800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1642900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1671300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1736200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1674700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1677600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1725000</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>182500</v>
+        <v>171800</v>
       </c>
       <c r="E44" s="3">
-        <v>246200</v>
+        <v>175900</v>
       </c>
       <c r="F44" s="3">
-        <v>239200</v>
+        <v>237300</v>
       </c>
       <c r="G44" s="3">
-        <v>300000</v>
+        <v>230500</v>
       </c>
       <c r="H44" s="3">
-        <v>232100</v>
+        <v>289100</v>
       </c>
       <c r="I44" s="3">
-        <v>236300</v>
+        <v>223700</v>
       </c>
       <c r="J44" s="3">
+        <v>227800</v>
+      </c>
+      <c r="K44" s="3">
         <v>209400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>316900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>289400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>354200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>275200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>330500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>295000</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1306100</v>
+        <v>1200100</v>
       </c>
       <c r="E45" s="3">
-        <v>1318900</v>
+        <v>1258800</v>
       </c>
       <c r="F45" s="3">
-        <v>1266500</v>
+        <v>1271100</v>
       </c>
       <c r="G45" s="3">
-        <v>1183000</v>
+        <v>1220600</v>
       </c>
       <c r="H45" s="3">
-        <v>1157600</v>
+        <v>1140100</v>
       </c>
       <c r="I45" s="3">
-        <v>1091000</v>
+        <v>1115600</v>
       </c>
       <c r="J45" s="3">
+        <v>1051500</v>
+      </c>
+      <c r="K45" s="3">
         <v>1048600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1319400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1261200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1221700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1138700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1114000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1111400</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>4623200</v>
+        <v>4002700</v>
       </c>
       <c r="E46" s="3">
-        <v>4075500</v>
+        <v>4455500</v>
       </c>
       <c r="F46" s="3">
-        <v>3928300</v>
+        <v>3927700</v>
       </c>
       <c r="G46" s="3">
-        <v>3874600</v>
+        <v>3785900</v>
       </c>
       <c r="H46" s="3">
-        <v>3860400</v>
+        <v>3734100</v>
       </c>
       <c r="I46" s="3">
-        <v>3293000</v>
+        <v>3720400</v>
       </c>
       <c r="J46" s="3">
+        <v>3173500</v>
+      </c>
+      <c r="K46" s="3">
         <v>3573200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3903700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>5031100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>4619200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>5346400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>3631700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>3850300</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>519300</v>
+        <v>421400</v>
       </c>
       <c r="E47" s="3">
-        <v>638200</v>
+        <v>500500</v>
       </c>
       <c r="F47" s="3">
-        <v>625500</v>
+        <v>615100</v>
       </c>
       <c r="G47" s="3">
-        <v>1367000</v>
+        <v>602800</v>
       </c>
       <c r="H47" s="3">
-        <v>827800</v>
+        <v>1317400</v>
       </c>
       <c r="I47" s="3">
-        <v>812300</v>
+        <v>797800</v>
       </c>
       <c r="J47" s="3">
+        <v>782800</v>
+      </c>
+      <c r="K47" s="3">
         <v>817900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1141000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1743900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1772400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>1775200</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>1603900</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>1651300</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>728800</v>
+        <v>617800</v>
       </c>
       <c r="E48" s="3">
-        <v>901400</v>
+        <v>702400</v>
       </c>
       <c r="F48" s="3">
-        <v>874500</v>
+        <v>868700</v>
       </c>
       <c r="G48" s="3">
-        <v>908500</v>
+        <v>842800</v>
       </c>
       <c r="H48" s="3">
-        <v>335400</v>
+        <v>875600</v>
       </c>
       <c r="I48" s="3">
-        <v>379200</v>
+        <v>323200</v>
       </c>
       <c r="J48" s="3">
+        <v>365500</v>
+      </c>
+      <c r="K48" s="3">
         <v>397600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>407400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>422400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>438300</v>
-      </c>
-      <c r="N48" s="3">
-        <v>417400</v>
       </c>
       <c r="O48" s="3">
         <v>417400</v>
       </c>
       <c r="P48" s="3">
+        <v>417400</v>
+      </c>
+      <c r="Q48" s="3">
         <v>439800</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3880200</v>
+        <v>3663100</v>
       </c>
       <c r="E49" s="3">
-        <v>4256700</v>
+        <v>3739500</v>
       </c>
       <c r="F49" s="3">
-        <v>4103800</v>
+        <v>4102300</v>
       </c>
       <c r="G49" s="3">
-        <v>4333100</v>
+        <v>3955000</v>
       </c>
       <c r="H49" s="3">
-        <v>4258100</v>
+        <v>4175900</v>
       </c>
       <c r="I49" s="3">
-        <v>4340100</v>
+        <v>4103600</v>
       </c>
       <c r="J49" s="3">
+        <v>4182700</v>
+      </c>
+      <c r="K49" s="3">
         <v>4194400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>4348400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>4239200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>7260400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>6735500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>7816500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>8308900</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2410,8 +2524,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2454,52 +2571,58 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>792500</v>
+        <v>728300</v>
       </c>
       <c r="E52" s="3">
-        <v>765600</v>
+        <v>763700</v>
       </c>
       <c r="F52" s="3">
-        <v>1293400</v>
+        <v>737800</v>
       </c>
       <c r="G52" s="3">
-        <v>788200</v>
+        <v>1246500</v>
       </c>
       <c r="H52" s="3">
-        <v>1904700</v>
+        <v>759600</v>
       </c>
       <c r="I52" s="3">
-        <v>1981200</v>
+        <v>1835700</v>
       </c>
       <c r="J52" s="3">
+        <v>1909300</v>
+      </c>
+      <c r="K52" s="3">
         <v>2179300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1978500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>960600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1199700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>901300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>886200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>757200</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2542,52 +2665,58 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>10544000</v>
+        <v>9433300</v>
       </c>
       <c r="E54" s="3">
-        <v>10637400</v>
+        <v>10161600</v>
       </c>
       <c r="F54" s="3">
-        <v>10825600</v>
+        <v>10251600</v>
       </c>
       <c r="G54" s="3">
-        <v>11271400</v>
+        <v>10433000</v>
       </c>
       <c r="H54" s="3">
-        <v>11186400</v>
+        <v>10862600</v>
       </c>
       <c r="I54" s="3">
-        <v>10805800</v>
+        <v>10780800</v>
       </c>
       <c r="J54" s="3">
+        <v>10413900</v>
+      </c>
+      <c r="K54" s="3">
         <v>11162400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>11778900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>12397300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>15290100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>15175600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>14355600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>15007500</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2604,8 +2733,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2622,272 +2752,291 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1692500</v>
+        <v>1430600</v>
       </c>
       <c r="E57" s="3">
-        <v>1483000</v>
+        <v>1631100</v>
       </c>
       <c r="F57" s="3">
-        <v>1808500</v>
+        <v>1429300</v>
       </c>
       <c r="G57" s="3">
-        <v>1710900</v>
+        <v>1742900</v>
       </c>
       <c r="H57" s="3">
-        <v>1981200</v>
+        <v>1648800</v>
       </c>
       <c r="I57" s="3">
-        <v>1659900</v>
+        <v>1909300</v>
       </c>
       <c r="J57" s="3">
+        <v>1599700</v>
+      </c>
+      <c r="K57" s="3">
         <v>1899100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1772100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2006300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1891400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1813000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1721000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2108200</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>359400</v>
+        <v>212800</v>
       </c>
       <c r="E58" s="3">
-        <v>413200</v>
+        <v>346400</v>
       </c>
       <c r="F58" s="3">
-        <v>130200</v>
+        <v>398200</v>
       </c>
       <c r="G58" s="3">
-        <v>199500</v>
+        <v>125500</v>
       </c>
       <c r="H58" s="3">
-        <v>65100</v>
+        <v>192300</v>
       </c>
       <c r="I58" s="3">
-        <v>46700</v>
+        <v>62700</v>
       </c>
       <c r="J58" s="3">
+        <v>45000</v>
+      </c>
+      <c r="K58" s="3">
         <v>26900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>354200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>54200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>148700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>367800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>965200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>450300</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>171200</v>
+        <v>175900</v>
       </c>
       <c r="E59" s="3">
-        <v>203800</v>
+        <v>165000</v>
       </c>
       <c r="F59" s="3">
-        <v>172600</v>
+        <v>196400</v>
       </c>
       <c r="G59" s="3">
-        <v>76400</v>
+        <v>166400</v>
       </c>
       <c r="H59" s="3">
-        <v>162700</v>
+        <v>73600</v>
       </c>
       <c r="I59" s="3">
-        <v>397600</v>
+        <v>156800</v>
       </c>
       <c r="J59" s="3">
+        <v>383200</v>
+      </c>
+      <c r="K59" s="3">
         <v>362300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>279600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>309100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>181000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>306500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>221200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>321300</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2223100</v>
+        <v>1819300</v>
       </c>
       <c r="E60" s="3">
-        <v>2100000</v>
+        <v>2142500</v>
       </c>
       <c r="F60" s="3">
-        <v>2111300</v>
+        <v>2023900</v>
       </c>
       <c r="G60" s="3">
-        <v>1986800</v>
+        <v>2034800</v>
       </c>
       <c r="H60" s="3">
-        <v>2209000</v>
+        <v>1914800</v>
       </c>
       <c r="I60" s="3">
-        <v>2104300</v>
+        <v>2128900</v>
       </c>
       <c r="J60" s="3">
+        <v>2028000</v>
+      </c>
+      <c r="K60" s="3">
         <v>2288200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2405800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2369600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2221000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2487300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2907500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2879800</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1976900</v>
+        <v>1717000</v>
       </c>
       <c r="E61" s="3">
-        <v>2193400</v>
+        <v>1905200</v>
       </c>
       <c r="F61" s="3">
-        <v>2224600</v>
+        <v>2113900</v>
       </c>
       <c r="G61" s="3">
-        <v>2644800</v>
+        <v>2143900</v>
       </c>
       <c r="H61" s="3">
-        <v>953800</v>
+        <v>2548900</v>
       </c>
       <c r="I61" s="3">
-        <v>1512800</v>
+        <v>919200</v>
       </c>
       <c r="J61" s="3">
+        <v>1457900</v>
+      </c>
+      <c r="K61" s="3">
         <v>1508500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2417800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2985400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>3004500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2671200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2532200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2479500</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>493900</v>
+        <v>388700</v>
       </c>
       <c r="E62" s="3">
-        <v>410400</v>
+        <v>476000</v>
       </c>
       <c r="F62" s="3">
-        <v>372200</v>
+        <v>395500</v>
       </c>
       <c r="G62" s="3">
-        <v>566000</v>
+        <v>358700</v>
       </c>
       <c r="H62" s="3">
-        <v>1620300</v>
+        <v>545500</v>
       </c>
       <c r="I62" s="3">
-        <v>1391100</v>
+        <v>1561500</v>
       </c>
       <c r="J62" s="3">
+        <v>1340600</v>
+      </c>
+      <c r="K62" s="3">
         <v>1675500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1680200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1687300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1713000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1646000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1800100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1767100</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2930,8 +3079,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2974,8 +3126,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3018,52 +3173,58 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>4706700</v>
+        <v>3938600</v>
       </c>
       <c r="E66" s="3">
-        <v>4718000</v>
+        <v>4536000</v>
       </c>
       <c r="F66" s="3">
-        <v>4722200</v>
+        <v>4546900</v>
       </c>
       <c r="G66" s="3">
-        <v>5211900</v>
+        <v>4551000</v>
       </c>
       <c r="H66" s="3">
-        <v>4795800</v>
+        <v>5022800</v>
       </c>
       <c r="I66" s="3">
-        <v>5020800</v>
+        <v>4621900</v>
       </c>
       <c r="J66" s="3">
+        <v>4838700</v>
+      </c>
+      <c r="K66" s="3">
         <v>5483600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>6510500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>7047200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>6942400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>6809800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>7247600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>7134400</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3080,8 +3241,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3124,8 +3286,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3168,8 +3333,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3212,8 +3380,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3256,52 +3427,58 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1249500</v>
+        <v>1089700</v>
       </c>
       <c r="E72" s="3">
-        <v>999100</v>
+        <v>1204200</v>
       </c>
       <c r="F72" s="3">
-        <v>1304700</v>
+        <v>962800</v>
       </c>
       <c r="G72" s="3">
-        <v>1119400</v>
+        <v>1257400</v>
       </c>
       <c r="H72" s="3">
-        <v>1485900</v>
+        <v>1078800</v>
       </c>
       <c r="I72" s="3">
-        <v>1075500</v>
+        <v>1432000</v>
       </c>
       <c r="J72" s="3">
+        <v>1036500</v>
+      </c>
+      <c r="K72" s="3">
         <v>943900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>555200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>881800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>4151200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>4823300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>3531600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>4213700</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3344,8 +3521,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3388,8 +3568,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3432,52 +3615,58 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>5837300</v>
+        <v>5494700</v>
       </c>
       <c r="E76" s="3">
-        <v>5919400</v>
+        <v>5625600</v>
       </c>
       <c r="F76" s="3">
-        <v>6103400</v>
+        <v>5704700</v>
       </c>
       <c r="G76" s="3">
-        <v>6059500</v>
+        <v>5882000</v>
       </c>
       <c r="H76" s="3">
-        <v>6390600</v>
+        <v>5839700</v>
       </c>
       <c r="I76" s="3">
-        <v>5785000</v>
+        <v>6158900</v>
       </c>
       <c r="J76" s="3">
+        <v>5575200</v>
+      </c>
+      <c r="K76" s="3">
         <v>5678800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>5268300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>5350100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>8347700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>8365800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>7108000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>7873100</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3520,101 +3709,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43100</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42916</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>42735</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42551</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42369</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42185</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>370800</v>
+        <v>23200</v>
       </c>
       <c r="E81" s="3">
-        <v>67900</v>
+        <v>357300</v>
       </c>
       <c r="F81" s="3">
-        <v>307100</v>
+        <v>65500</v>
       </c>
       <c r="G81" s="3">
-        <v>66500</v>
+        <v>295900</v>
       </c>
       <c r="H81" s="3">
-        <v>566000</v>
+        <v>64100</v>
       </c>
       <c r="I81" s="3">
-        <v>266000</v>
+        <v>545500</v>
       </c>
       <c r="J81" s="3">
+        <v>256400</v>
+      </c>
+      <c r="K81" s="3">
         <v>598600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-22600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-2606100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-285700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1176500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-104000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>321300</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3631,52 +3829,56 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>198100</v>
+        <v>255000</v>
       </c>
       <c r="E83" s="3">
-        <v>233500</v>
+        <v>190900</v>
       </c>
       <c r="F83" s="3">
-        <v>234900</v>
+        <v>225000</v>
       </c>
       <c r="G83" s="3">
-        <v>223600</v>
+        <v>226400</v>
       </c>
       <c r="H83" s="3">
-        <v>184000</v>
+        <v>215500</v>
       </c>
       <c r="I83" s="3">
-        <v>174100</v>
+        <v>177300</v>
       </c>
       <c r="J83" s="3">
+        <v>167700</v>
+      </c>
+      <c r="K83" s="3">
         <v>103300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>206400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>118200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>237900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>1250800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>219900</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>256800</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3719,8 +3921,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3763,8 +3968,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3807,8 +4015,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3851,8 +4062,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3895,52 +4109,58 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>752800</v>
+        <v>-102300</v>
       </c>
       <c r="E89" s="3">
-        <v>-202400</v>
+        <v>725500</v>
       </c>
       <c r="F89" s="3">
-        <v>758500</v>
+        <v>-195000</v>
       </c>
       <c r="G89" s="3">
-        <v>-236300</v>
+        <v>731000</v>
       </c>
       <c r="H89" s="3">
-        <v>898600</v>
+        <v>-227800</v>
       </c>
       <c r="I89" s="3">
-        <v>-244800</v>
+        <v>866000</v>
       </c>
       <c r="J89" s="3">
+        <v>-235900</v>
+      </c>
+      <c r="K89" s="3">
         <v>846200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-399400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>902800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-417600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>763000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-492500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>999400</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3957,52 +4177,56 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-32500</v>
+        <v>-42300</v>
       </c>
       <c r="E91" s="3">
-        <v>-42500</v>
+        <v>-31400</v>
       </c>
       <c r="F91" s="3">
-        <v>-24100</v>
+        <v>-40900</v>
       </c>
       <c r="G91" s="3">
-        <v>-53800</v>
+        <v>-23200</v>
       </c>
       <c r="H91" s="3">
-        <v>-53800</v>
+        <v>-51800</v>
       </c>
       <c r="I91" s="3">
-        <v>-45300</v>
+        <v>-51800</v>
       </c>
       <c r="J91" s="3">
+        <v>-43600</v>
+      </c>
+      <c r="K91" s="3">
         <v>-70800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-42600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-53000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-58200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-65200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-125100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-160600</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4045,8 +4269,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4089,52 +4316,58 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>17000</v>
+        <v>-109100</v>
       </c>
       <c r="E94" s="3">
-        <v>819300</v>
+        <v>16400</v>
       </c>
       <c r="F94" s="3">
-        <v>-151400</v>
+        <v>789600</v>
       </c>
       <c r="G94" s="3">
-        <v>-308500</v>
+        <v>-145900</v>
       </c>
       <c r="H94" s="3">
-        <v>131600</v>
+        <v>-297300</v>
       </c>
       <c r="I94" s="3">
-        <v>167000</v>
+        <v>126800</v>
       </c>
       <c r="J94" s="3">
+        <v>160900</v>
+      </c>
+      <c r="K94" s="3">
         <v>1016000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-89200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-24600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-27100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>1753000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-15800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-92200</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4151,52 +4384,56 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-63700</v>
+        <v>-139100</v>
       </c>
       <c r="E96" s="3">
-        <v>-142900</v>
+        <v>-61400</v>
       </c>
       <c r="F96" s="3">
-        <v>-65100</v>
+        <v>-137700</v>
       </c>
       <c r="G96" s="3">
-        <v>-142900</v>
+        <v>-62700</v>
       </c>
       <c r="H96" s="3">
-        <v>-60800</v>
+        <v>-137700</v>
       </c>
       <c r="I96" s="3">
-        <v>-131600</v>
+        <v>-58600</v>
       </c>
       <c r="J96" s="3">
+        <v>-126800</v>
+      </c>
+      <c r="K96" s="3">
         <v>-58000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-368800</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-181000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-358100</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-190400</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-364800</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-181700</v>
       </c>
     </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4239,8 +4476,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4283,8 +4523,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4327,136 +4570,148 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-142900</v>
+        <v>-421400</v>
       </c>
       <c r="E100" s="3">
-        <v>-280200</v>
+        <v>-137700</v>
       </c>
       <c r="F100" s="3">
-        <v>-519300</v>
+        <v>-270000</v>
       </c>
       <c r="G100" s="3">
-        <v>375000</v>
+        <v>-500500</v>
       </c>
       <c r="H100" s="3">
-        <v>-646700</v>
+        <v>361400</v>
       </c>
       <c r="I100" s="3">
-        <v>-384900</v>
+        <v>-623300</v>
       </c>
       <c r="J100" s="3">
+        <v>-371000</v>
+      </c>
+      <c r="K100" s="3">
         <v>-1661300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-778900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-219200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-671000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-811300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>339700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-809800</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-19800</v>
+        <v>-1400</v>
       </c>
       <c r="E101" s="3">
+        <v>-19100</v>
+      </c>
+      <c r="F101" s="3">
+        <v>16400</v>
+      </c>
+      <c r="G101" s="3">
+        <v>-42300</v>
+      </c>
+      <c r="H101" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="I101" s="3">
+        <v>-62700</v>
+      </c>
+      <c r="J101" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="K101" s="3">
+        <v>41000</v>
+      </c>
+      <c r="L101" s="3">
+        <v>-17300</v>
+      </c>
+      <c r="M101" s="3">
+        <v>14800</v>
+      </c>
+      <c r="N101" s="3">
+        <v>89200</v>
+      </c>
+      <c r="O101" s="3">
         <v>17000</v>
       </c>
-      <c r="F101" s="3">
-        <v>-43900</v>
-      </c>
-      <c r="G101" s="3">
-        <v>-2800</v>
-      </c>
-      <c r="H101" s="3">
-        <v>-65100</v>
-      </c>
-      <c r="I101" s="3">
-        <v>-4200</v>
-      </c>
-      <c r="J101" s="3">
-        <v>41000</v>
-      </c>
-      <c r="K101" s="3">
-        <v>-17300</v>
-      </c>
-      <c r="L101" s="3">
-        <v>14800</v>
-      </c>
-      <c r="M101" s="3">
-        <v>89200</v>
-      </c>
-      <c r="N101" s="3">
-        <v>17000</v>
-      </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-42100</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>607100</v>
+        <v>-634200</v>
       </c>
       <c r="E102" s="3">
-        <v>353800</v>
+        <v>585100</v>
       </c>
       <c r="F102" s="3">
-        <v>43900</v>
+        <v>340900</v>
       </c>
       <c r="G102" s="3">
-        <v>-172600</v>
+        <v>42300</v>
       </c>
       <c r="H102" s="3">
-        <v>318400</v>
+        <v>-166400</v>
       </c>
       <c r="I102" s="3">
-        <v>-467000</v>
+        <v>306900</v>
       </c>
       <c r="J102" s="3">
+        <v>-450100</v>
+      </c>
+      <c r="K102" s="3">
         <v>242000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1284800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>673700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-1026500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>1721700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-210700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>102700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PSO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PSO_QTR_FIN.xlsx
@@ -744,25 +744,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2178000</v>
+        <v>2125800</v>
       </c>
       <c r="E8" s="3">
-        <v>2598000</v>
+        <v>2535700</v>
       </c>
       <c r="F8" s="3">
-        <v>2034800</v>
+        <v>1986000</v>
       </c>
       <c r="G8" s="3">
-        <v>2782100</v>
+        <v>2715400</v>
       </c>
       <c r="H8" s="3">
-        <v>2494400</v>
+        <v>2434600</v>
       </c>
       <c r="I8" s="3">
-        <v>3087600</v>
+        <v>3013600</v>
       </c>
       <c r="J8" s="3">
-        <v>2543500</v>
+        <v>2482500</v>
       </c>
       <c r="K8" s="3">
         <v>3489700</v>
@@ -791,25 +791,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1142900</v>
+        <v>1115500</v>
       </c>
       <c r="E9" s="3">
-        <v>1253300</v>
+        <v>1223300</v>
       </c>
       <c r="F9" s="3">
-        <v>1156500</v>
+        <v>1128800</v>
       </c>
       <c r="G9" s="3">
-        <v>1301100</v>
+        <v>1269900</v>
       </c>
       <c r="H9" s="3">
-        <v>1232900</v>
+        <v>1203300</v>
       </c>
       <c r="I9" s="3">
-        <v>1406100</v>
+        <v>1372400</v>
       </c>
       <c r="J9" s="3">
-        <v>1243800</v>
+        <v>1214000</v>
       </c>
       <c r="K9" s="3">
         <v>1518400</v>
@@ -838,25 +838,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1035100</v>
+        <v>1010300</v>
       </c>
       <c r="E10" s="3">
-        <v>1344700</v>
+        <v>1312500</v>
       </c>
       <c r="F10" s="3">
-        <v>878300</v>
+        <v>857200</v>
       </c>
       <c r="G10" s="3">
-        <v>1481100</v>
+        <v>1445600</v>
       </c>
       <c r="H10" s="3">
-        <v>1261500</v>
+        <v>1231300</v>
       </c>
       <c r="I10" s="3">
-        <v>1681600</v>
+        <v>1641200</v>
       </c>
       <c r="J10" s="3">
-        <v>1299700</v>
+        <v>1268500</v>
       </c>
       <c r="K10" s="3">
         <v>1971200</v>
@@ -998,25 +998,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>8200</v>
+        <v>8000</v>
       </c>
       <c r="E14" s="3">
-        <v>4100</v>
+        <v>4000</v>
       </c>
       <c r="F14" s="3">
-        <v>-246800</v>
+        <v>-240900</v>
       </c>
       <c r="G14" s="3">
-        <v>-13600</v>
+        <v>-13300</v>
       </c>
       <c r="H14" s="3">
-        <v>-8200</v>
+        <v>-8000</v>
       </c>
       <c r="I14" s="3">
-        <v>-31400</v>
+        <v>-30600</v>
       </c>
       <c r="J14" s="3">
-        <v>-282300</v>
+        <v>-275500</v>
       </c>
       <c r="K14" s="3">
         <v>-181100</v>
@@ -1108,25 +1108,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2165700</v>
+        <v>2113800</v>
       </c>
       <c r="E17" s="3">
-        <v>2183400</v>
+        <v>2131100</v>
       </c>
       <c r="F17" s="3">
-        <v>1888800</v>
+        <v>1843600</v>
       </c>
       <c r="G17" s="3">
-        <v>2457500</v>
+        <v>2398600</v>
       </c>
       <c r="H17" s="3">
-        <v>2443900</v>
+        <v>2385300</v>
       </c>
       <c r="I17" s="3">
-        <v>2651200</v>
+        <v>2587700</v>
       </c>
       <c r="J17" s="3">
-        <v>2225700</v>
+        <v>2172400</v>
       </c>
       <c r="K17" s="3">
         <v>2874100</v>
@@ -1155,25 +1155,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>12300</v>
+        <v>12000</v>
       </c>
       <c r="E18" s="3">
-        <v>414600</v>
+        <v>404700</v>
       </c>
       <c r="F18" s="3">
-        <v>145900</v>
+        <v>142400</v>
       </c>
       <c r="G18" s="3">
-        <v>324600</v>
+        <v>316800</v>
       </c>
       <c r="H18" s="3">
-        <v>50500</v>
+        <v>49300</v>
       </c>
       <c r="I18" s="3">
-        <v>436400</v>
+        <v>426000</v>
       </c>
       <c r="J18" s="3">
-        <v>317800</v>
+        <v>310100</v>
       </c>
       <c r="K18" s="3">
         <v>615600</v>
@@ -1221,25 +1221,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-6800</v>
+        <v>-6700</v>
       </c>
       <c r="E20" s="3">
-        <v>20500</v>
+        <v>20000</v>
       </c>
       <c r="F20" s="3">
-        <v>-98200</v>
+        <v>-95800</v>
       </c>
       <c r="G20" s="3">
-        <v>-25900</v>
+        <v>-25300</v>
       </c>
       <c r="H20" s="3">
-        <v>-32700</v>
+        <v>-31900</v>
       </c>
       <c r="I20" s="3">
-        <v>-32700</v>
+        <v>-31900</v>
       </c>
       <c r="J20" s="3">
-        <v>-42300</v>
+        <v>-41300</v>
       </c>
       <c r="K20" s="3">
         <v>-5700</v>
@@ -1268,25 +1268,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>260500</v>
+        <v>254200</v>
       </c>
       <c r="E21" s="3">
-        <v>626000</v>
+        <v>611000</v>
       </c>
       <c r="F21" s="3">
-        <v>272800</v>
+        <v>266200</v>
       </c>
       <c r="G21" s="3">
-        <v>525100</v>
+        <v>512500</v>
       </c>
       <c r="H21" s="3">
-        <v>233200</v>
+        <v>227600</v>
       </c>
       <c r="I21" s="3">
-        <v>581000</v>
+        <v>567000</v>
       </c>
       <c r="J21" s="3">
-        <v>443200</v>
+        <v>432600</v>
       </c>
       <c r="K21" s="3">
         <v>833500</v>
@@ -1362,25 +1362,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>5500</v>
+        <v>5300</v>
       </c>
       <c r="E23" s="3">
-        <v>435000</v>
+        <v>424600</v>
       </c>
       <c r="F23" s="3">
-        <v>47700</v>
+        <v>46600</v>
       </c>
       <c r="G23" s="3">
-        <v>298700</v>
+        <v>291500</v>
       </c>
       <c r="H23" s="3">
-        <v>17700</v>
+        <v>17300</v>
       </c>
       <c r="I23" s="3">
-        <v>403700</v>
+        <v>394000</v>
       </c>
       <c r="J23" s="3">
-        <v>275500</v>
+        <v>268900</v>
       </c>
       <c r="K23" s="3">
         <v>609900</v>
@@ -1409,25 +1409,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-19100</v>
+        <v>-18600</v>
       </c>
       <c r="E24" s="3">
-        <v>77700</v>
+        <v>75900</v>
       </c>
       <c r="F24" s="3">
-        <v>-17700</v>
+        <v>-17300</v>
       </c>
       <c r="G24" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="H24" s="3">
-        <v>-47700</v>
+        <v>-46600</v>
       </c>
       <c r="I24" s="3">
-        <v>-143200</v>
+        <v>-139800</v>
       </c>
       <c r="J24" s="3">
-        <v>17700</v>
+        <v>17300</v>
       </c>
       <c r="K24" s="3">
         <v>17000</v>
@@ -1503,25 +1503,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>24500</v>
+        <v>24000</v>
       </c>
       <c r="E26" s="3">
-        <v>357300</v>
+        <v>348700</v>
       </c>
       <c r="F26" s="3">
-        <v>65500</v>
+        <v>63900</v>
       </c>
       <c r="G26" s="3">
-        <v>297300</v>
+        <v>290200</v>
       </c>
       <c r="H26" s="3">
-        <v>65500</v>
+        <v>63900</v>
       </c>
       <c r="I26" s="3">
-        <v>546900</v>
+        <v>533800</v>
       </c>
       <c r="J26" s="3">
-        <v>257800</v>
+        <v>251600</v>
       </c>
       <c r="K26" s="3">
         <v>592900</v>
@@ -1550,25 +1550,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>23200</v>
+        <v>22600</v>
       </c>
       <c r="E27" s="3">
-        <v>357300</v>
+        <v>348700</v>
       </c>
       <c r="F27" s="3">
-        <v>65500</v>
+        <v>63900</v>
       </c>
       <c r="G27" s="3">
-        <v>295900</v>
+        <v>288800</v>
       </c>
       <c r="H27" s="3">
-        <v>64100</v>
+        <v>62600</v>
       </c>
       <c r="I27" s="3">
-        <v>545500</v>
+        <v>532400</v>
       </c>
       <c r="J27" s="3">
-        <v>256400</v>
+        <v>250200</v>
       </c>
       <c r="K27" s="3">
         <v>591500</v>
@@ -1785,25 +1785,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>6800</v>
+        <v>6700</v>
       </c>
       <c r="E32" s="3">
-        <v>-20500</v>
+        <v>-20000</v>
       </c>
       <c r="F32" s="3">
-        <v>98200</v>
+        <v>95800</v>
       </c>
       <c r="G32" s="3">
-        <v>25900</v>
+        <v>25300</v>
       </c>
       <c r="H32" s="3">
-        <v>32700</v>
+        <v>31900</v>
       </c>
       <c r="I32" s="3">
-        <v>32700</v>
+        <v>31900</v>
       </c>
       <c r="J32" s="3">
-        <v>42300</v>
+        <v>41300</v>
       </c>
       <c r="K32" s="3">
         <v>5700</v>
@@ -1832,25 +1832,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>23200</v>
+        <v>22600</v>
       </c>
       <c r="E33" s="3">
-        <v>357300</v>
+        <v>348700</v>
       </c>
       <c r="F33" s="3">
-        <v>65500</v>
+        <v>63900</v>
       </c>
       <c r="G33" s="3">
-        <v>295900</v>
+        <v>288800</v>
       </c>
       <c r="H33" s="3">
-        <v>64100</v>
+        <v>62600</v>
       </c>
       <c r="I33" s="3">
-        <v>545500</v>
+        <v>532400</v>
       </c>
       <c r="J33" s="3">
-        <v>256400</v>
+        <v>250200</v>
       </c>
       <c r="K33" s="3">
         <v>598600</v>
@@ -1926,25 +1926,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>23200</v>
+        <v>22600</v>
       </c>
       <c r="E35" s="3">
-        <v>357300</v>
+        <v>348700</v>
       </c>
       <c r="F35" s="3">
-        <v>65500</v>
+        <v>63900</v>
       </c>
       <c r="G35" s="3">
-        <v>295900</v>
+        <v>288800</v>
       </c>
       <c r="H35" s="3">
-        <v>64100</v>
+        <v>62600</v>
       </c>
       <c r="I35" s="3">
-        <v>545500</v>
+        <v>532400</v>
       </c>
       <c r="J35" s="3">
-        <v>256400</v>
+        <v>250200</v>
       </c>
       <c r="K35" s="3">
         <v>598600</v>
@@ -2063,25 +2063,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>883700</v>
+        <v>862600</v>
       </c>
       <c r="E41" s="3">
-        <v>1496100</v>
+        <v>1460200</v>
       </c>
       <c r="F41" s="3">
-        <v>936900</v>
+        <v>914500</v>
       </c>
       <c r="G41" s="3">
-        <v>596000</v>
+        <v>581700</v>
       </c>
       <c r="H41" s="3">
-        <v>568700</v>
+        <v>555100</v>
       </c>
       <c r="I41" s="3">
-        <v>774600</v>
+        <v>756100</v>
       </c>
       <c r="J41" s="3">
-        <v>450100</v>
+        <v>439300</v>
       </c>
       <c r="K41" s="3">
         <v>733000</v>
@@ -2157,25 +2157,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1747000</v>
+        <v>1705100</v>
       </c>
       <c r="E43" s="3">
-        <v>1524700</v>
+        <v>1488200</v>
       </c>
       <c r="F43" s="3">
-        <v>1482400</v>
+        <v>1446900</v>
       </c>
       <c r="G43" s="3">
-        <v>1738800</v>
+        <v>1697200</v>
       </c>
       <c r="H43" s="3">
-        <v>1736100</v>
+        <v>1694500</v>
       </c>
       <c r="I43" s="3">
-        <v>1606500</v>
+        <v>1568000</v>
       </c>
       <c r="J43" s="3">
-        <v>1444300</v>
+        <v>1409600</v>
       </c>
       <c r="K43" s="3">
         <v>1570800</v>
@@ -2204,25 +2204,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>171800</v>
+        <v>167700</v>
       </c>
       <c r="E44" s="3">
-        <v>175900</v>
+        <v>171700</v>
       </c>
       <c r="F44" s="3">
-        <v>237300</v>
+        <v>231600</v>
       </c>
       <c r="G44" s="3">
-        <v>230500</v>
+        <v>225000</v>
       </c>
       <c r="H44" s="3">
-        <v>289100</v>
+        <v>282200</v>
       </c>
       <c r="I44" s="3">
-        <v>223700</v>
+        <v>218300</v>
       </c>
       <c r="J44" s="3">
-        <v>227800</v>
+        <v>222300</v>
       </c>
       <c r="K44" s="3">
         <v>209400</v>
@@ -2251,25 +2251,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1200100</v>
+        <v>1171400</v>
       </c>
       <c r="E45" s="3">
-        <v>1258800</v>
+        <v>1228600</v>
       </c>
       <c r="F45" s="3">
-        <v>1271100</v>
+        <v>1240600</v>
       </c>
       <c r="G45" s="3">
-        <v>1220600</v>
+        <v>1191300</v>
       </c>
       <c r="H45" s="3">
-        <v>1140100</v>
+        <v>1112800</v>
       </c>
       <c r="I45" s="3">
-        <v>1115600</v>
+        <v>1088800</v>
       </c>
       <c r="J45" s="3">
-        <v>1051500</v>
+        <v>1026300</v>
       </c>
       <c r="K45" s="3">
         <v>1048600</v>
@@ -2298,25 +2298,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>4002700</v>
+        <v>3906800</v>
       </c>
       <c r="E46" s="3">
-        <v>4455500</v>
+        <v>4348700</v>
       </c>
       <c r="F46" s="3">
-        <v>3927700</v>
+        <v>3833600</v>
       </c>
       <c r="G46" s="3">
-        <v>3785900</v>
+        <v>3695100</v>
       </c>
       <c r="H46" s="3">
-        <v>3734100</v>
+        <v>3644600</v>
       </c>
       <c r="I46" s="3">
-        <v>3720400</v>
+        <v>3631200</v>
       </c>
       <c r="J46" s="3">
-        <v>3173500</v>
+        <v>3097500</v>
       </c>
       <c r="K46" s="3">
         <v>3573200</v>
@@ -2345,25 +2345,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>421400</v>
+        <v>411300</v>
       </c>
       <c r="E47" s="3">
-        <v>500500</v>
+        <v>488500</v>
       </c>
       <c r="F47" s="3">
-        <v>615100</v>
+        <v>600300</v>
       </c>
       <c r="G47" s="3">
-        <v>602800</v>
+        <v>588300</v>
       </c>
       <c r="H47" s="3">
-        <v>1317400</v>
+        <v>1285800</v>
       </c>
       <c r="I47" s="3">
-        <v>797800</v>
+        <v>778700</v>
       </c>
       <c r="J47" s="3">
-        <v>782800</v>
+        <v>764100</v>
       </c>
       <c r="K47" s="3">
         <v>817900</v>
@@ -2392,25 +2392,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>617800</v>
+        <v>603000</v>
       </c>
       <c r="E48" s="3">
-        <v>702400</v>
+        <v>685500</v>
       </c>
       <c r="F48" s="3">
-        <v>868700</v>
+        <v>847900</v>
       </c>
       <c r="G48" s="3">
-        <v>842800</v>
+        <v>822600</v>
       </c>
       <c r="H48" s="3">
-        <v>875600</v>
+        <v>854600</v>
       </c>
       <c r="I48" s="3">
-        <v>323200</v>
+        <v>315500</v>
       </c>
       <c r="J48" s="3">
-        <v>365500</v>
+        <v>356700</v>
       </c>
       <c r="K48" s="3">
         <v>397600</v>
@@ -2439,25 +2439,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3663100</v>
+        <v>3575300</v>
       </c>
       <c r="E49" s="3">
-        <v>3739500</v>
+        <v>3649900</v>
       </c>
       <c r="F49" s="3">
-        <v>4102300</v>
+        <v>4003900</v>
       </c>
       <c r="G49" s="3">
-        <v>3955000</v>
+        <v>3860200</v>
       </c>
       <c r="H49" s="3">
-        <v>4175900</v>
+        <v>4075800</v>
       </c>
       <c r="I49" s="3">
-        <v>4103600</v>
+        <v>4005300</v>
       </c>
       <c r="J49" s="3">
-        <v>4182700</v>
+        <v>4082500</v>
       </c>
       <c r="K49" s="3">
         <v>4194400</v>
@@ -2580,25 +2580,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>728300</v>
+        <v>710800</v>
       </c>
       <c r="E52" s="3">
-        <v>763700</v>
+        <v>745400</v>
       </c>
       <c r="F52" s="3">
-        <v>737800</v>
+        <v>720100</v>
       </c>
       <c r="G52" s="3">
-        <v>1246500</v>
+        <v>1216600</v>
       </c>
       <c r="H52" s="3">
-        <v>759600</v>
+        <v>741400</v>
       </c>
       <c r="I52" s="3">
-        <v>1835700</v>
+        <v>1791700</v>
       </c>
       <c r="J52" s="3">
-        <v>1909300</v>
+        <v>1863500</v>
       </c>
       <c r="K52" s="3">
         <v>2179300</v>
@@ -2674,25 +2674,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>9433300</v>
+        <v>9207200</v>
       </c>
       <c r="E54" s="3">
-        <v>10161600</v>
+        <v>9918000</v>
       </c>
       <c r="F54" s="3">
-        <v>10251600</v>
+        <v>10005900</v>
       </c>
       <c r="G54" s="3">
-        <v>10433000</v>
+        <v>10182900</v>
       </c>
       <c r="H54" s="3">
-        <v>10862600</v>
+        <v>10602200</v>
       </c>
       <c r="I54" s="3">
-        <v>10780800</v>
+        <v>10522300</v>
       </c>
       <c r="J54" s="3">
-        <v>10413900</v>
+        <v>10164300</v>
       </c>
       <c r="K54" s="3">
         <v>11162400</v>
@@ -2759,25 +2759,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1430600</v>
+        <v>1396300</v>
       </c>
       <c r="E57" s="3">
-        <v>1631100</v>
+        <v>1592000</v>
       </c>
       <c r="F57" s="3">
-        <v>1429300</v>
+        <v>1395000</v>
       </c>
       <c r="G57" s="3">
-        <v>1742900</v>
+        <v>1701100</v>
       </c>
       <c r="H57" s="3">
-        <v>1648800</v>
+        <v>1609300</v>
       </c>
       <c r="I57" s="3">
-        <v>1909300</v>
+        <v>1863500</v>
       </c>
       <c r="J57" s="3">
-        <v>1599700</v>
+        <v>1561400</v>
       </c>
       <c r="K57" s="3">
         <v>1899100</v>
@@ -2806,25 +2806,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>212800</v>
+        <v>207700</v>
       </c>
       <c r="E58" s="3">
-        <v>346400</v>
+        <v>338100</v>
       </c>
       <c r="F58" s="3">
-        <v>398200</v>
+        <v>388700</v>
       </c>
       <c r="G58" s="3">
-        <v>125500</v>
+        <v>122500</v>
       </c>
       <c r="H58" s="3">
-        <v>192300</v>
+        <v>187700</v>
       </c>
       <c r="I58" s="3">
-        <v>62700</v>
+        <v>61200</v>
       </c>
       <c r="J58" s="3">
-        <v>45000</v>
+        <v>43900</v>
       </c>
       <c r="K58" s="3">
         <v>26900</v>
@@ -2853,25 +2853,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>175900</v>
+        <v>171700</v>
       </c>
       <c r="E59" s="3">
-        <v>165000</v>
+        <v>161100</v>
       </c>
       <c r="F59" s="3">
-        <v>196400</v>
+        <v>191700</v>
       </c>
       <c r="G59" s="3">
-        <v>166400</v>
+        <v>162400</v>
       </c>
       <c r="H59" s="3">
-        <v>73600</v>
+        <v>71900</v>
       </c>
       <c r="I59" s="3">
-        <v>156800</v>
+        <v>153100</v>
       </c>
       <c r="J59" s="3">
-        <v>383200</v>
+        <v>374000</v>
       </c>
       <c r="K59" s="3">
         <v>362300</v>
@@ -2900,25 +2900,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1819300</v>
+        <v>1775700</v>
       </c>
       <c r="E60" s="3">
-        <v>2142500</v>
+        <v>2091200</v>
       </c>
       <c r="F60" s="3">
-        <v>2023900</v>
+        <v>1975400</v>
       </c>
       <c r="G60" s="3">
-        <v>2034800</v>
+        <v>1986000</v>
       </c>
       <c r="H60" s="3">
-        <v>1914800</v>
+        <v>1868900</v>
       </c>
       <c r="I60" s="3">
-        <v>2128900</v>
+        <v>2077800</v>
       </c>
       <c r="J60" s="3">
-        <v>2028000</v>
+        <v>1979300</v>
       </c>
       <c r="K60" s="3">
         <v>2288200</v>
@@ -2947,25 +2947,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1717000</v>
+        <v>1675900</v>
       </c>
       <c r="E61" s="3">
-        <v>1905200</v>
+        <v>1859500</v>
       </c>
       <c r="F61" s="3">
-        <v>2113900</v>
+        <v>2063200</v>
       </c>
       <c r="G61" s="3">
-        <v>2143900</v>
+        <v>2092500</v>
       </c>
       <c r="H61" s="3">
-        <v>2548900</v>
+        <v>2487800</v>
       </c>
       <c r="I61" s="3">
-        <v>919200</v>
+        <v>897200</v>
       </c>
       <c r="J61" s="3">
-        <v>1457900</v>
+        <v>1422900</v>
       </c>
       <c r="K61" s="3">
         <v>1508500</v>
@@ -2994,25 +2994,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>388700</v>
+        <v>379400</v>
       </c>
       <c r="E62" s="3">
-        <v>476000</v>
+        <v>464600</v>
       </c>
       <c r="F62" s="3">
-        <v>395500</v>
+        <v>386000</v>
       </c>
       <c r="G62" s="3">
-        <v>358700</v>
+        <v>350100</v>
       </c>
       <c r="H62" s="3">
-        <v>545500</v>
+        <v>532400</v>
       </c>
       <c r="I62" s="3">
-        <v>1561500</v>
+        <v>1524100</v>
       </c>
       <c r="J62" s="3">
-        <v>1340600</v>
+        <v>1308500</v>
       </c>
       <c r="K62" s="3">
         <v>1675500</v>
@@ -3182,25 +3182,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>3938600</v>
+        <v>3844200</v>
       </c>
       <c r="E66" s="3">
-        <v>4536000</v>
+        <v>4427200</v>
       </c>
       <c r="F66" s="3">
-        <v>4546900</v>
+        <v>4437900</v>
       </c>
       <c r="G66" s="3">
-        <v>4551000</v>
+        <v>4441900</v>
       </c>
       <c r="H66" s="3">
-        <v>5022800</v>
+        <v>4902400</v>
       </c>
       <c r="I66" s="3">
-        <v>4621900</v>
+        <v>4511100</v>
       </c>
       <c r="J66" s="3">
-        <v>4838700</v>
+        <v>4722700</v>
       </c>
       <c r="K66" s="3">
         <v>5483600</v>
@@ -3436,25 +3436,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1089700</v>
+        <v>1063500</v>
       </c>
       <c r="E72" s="3">
-        <v>1204200</v>
+        <v>1175400</v>
       </c>
       <c r="F72" s="3">
-        <v>962800</v>
+        <v>939800</v>
       </c>
       <c r="G72" s="3">
-        <v>1257400</v>
+        <v>1227300</v>
       </c>
       <c r="H72" s="3">
-        <v>1078800</v>
+        <v>1052900</v>
       </c>
       <c r="I72" s="3">
-        <v>1432000</v>
+        <v>1397700</v>
       </c>
       <c r="J72" s="3">
-        <v>1036500</v>
+        <v>1011600</v>
       </c>
       <c r="K72" s="3">
         <v>943900</v>
@@ -3624,25 +3624,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>5494700</v>
+        <v>5363000</v>
       </c>
       <c r="E76" s="3">
-        <v>5625600</v>
+        <v>5490800</v>
       </c>
       <c r="F76" s="3">
-        <v>5704700</v>
+        <v>5568000</v>
       </c>
       <c r="G76" s="3">
-        <v>5882000</v>
+        <v>5741000</v>
       </c>
       <c r="H76" s="3">
-        <v>5839700</v>
+        <v>5699800</v>
       </c>
       <c r="I76" s="3">
-        <v>6158900</v>
+        <v>6011200</v>
       </c>
       <c r="J76" s="3">
-        <v>5575200</v>
+        <v>5441500</v>
       </c>
       <c r="K76" s="3">
         <v>5678800</v>
@@ -3770,25 +3770,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>23200</v>
+        <v>22600</v>
       </c>
       <c r="E81" s="3">
-        <v>357300</v>
+        <v>348700</v>
       </c>
       <c r="F81" s="3">
-        <v>65500</v>
+        <v>63900</v>
       </c>
       <c r="G81" s="3">
-        <v>295900</v>
+        <v>288800</v>
       </c>
       <c r="H81" s="3">
-        <v>64100</v>
+        <v>62600</v>
       </c>
       <c r="I81" s="3">
-        <v>545500</v>
+        <v>532400</v>
       </c>
       <c r="J81" s="3">
-        <v>256400</v>
+        <v>250200</v>
       </c>
       <c r="K81" s="3">
         <v>598600</v>
@@ -3836,25 +3836,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>255000</v>
+        <v>248900</v>
       </c>
       <c r="E83" s="3">
-        <v>190900</v>
+        <v>186400</v>
       </c>
       <c r="F83" s="3">
-        <v>225000</v>
+        <v>219600</v>
       </c>
       <c r="G83" s="3">
-        <v>226400</v>
+        <v>221000</v>
       </c>
       <c r="H83" s="3">
-        <v>215500</v>
+        <v>210300</v>
       </c>
       <c r="I83" s="3">
-        <v>177300</v>
+        <v>173000</v>
       </c>
       <c r="J83" s="3">
-        <v>167700</v>
+        <v>163700</v>
       </c>
       <c r="K83" s="3">
         <v>103300</v>
@@ -4118,25 +4118,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-102300</v>
+        <v>-99800</v>
       </c>
       <c r="E89" s="3">
-        <v>725500</v>
+        <v>708100</v>
       </c>
       <c r="F89" s="3">
-        <v>-195000</v>
+        <v>-190300</v>
       </c>
       <c r="G89" s="3">
-        <v>731000</v>
+        <v>713500</v>
       </c>
       <c r="H89" s="3">
-        <v>-227800</v>
+        <v>-222300</v>
       </c>
       <c r="I89" s="3">
-        <v>866000</v>
+        <v>845200</v>
       </c>
       <c r="J89" s="3">
-        <v>-235900</v>
+        <v>-230300</v>
       </c>
       <c r="K89" s="3">
         <v>846200</v>
@@ -4184,25 +4184,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-42300</v>
+        <v>-41300</v>
       </c>
       <c r="E91" s="3">
-        <v>-31400</v>
+        <v>-30600</v>
       </c>
       <c r="F91" s="3">
-        <v>-40900</v>
+        <v>-39900</v>
       </c>
       <c r="G91" s="3">
-        <v>-23200</v>
+        <v>-22600</v>
       </c>
       <c r="H91" s="3">
-        <v>-51800</v>
+        <v>-50600</v>
       </c>
       <c r="I91" s="3">
-        <v>-51800</v>
+        <v>-50600</v>
       </c>
       <c r="J91" s="3">
-        <v>-43600</v>
+        <v>-42600</v>
       </c>
       <c r="K91" s="3">
         <v>-70800</v>
@@ -4325,25 +4325,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-109100</v>
+        <v>-106500</v>
       </c>
       <c r="E94" s="3">
-        <v>16400</v>
+        <v>16000</v>
       </c>
       <c r="F94" s="3">
-        <v>789600</v>
+        <v>770700</v>
       </c>
       <c r="G94" s="3">
-        <v>-145900</v>
+        <v>-142400</v>
       </c>
       <c r="H94" s="3">
-        <v>-297300</v>
+        <v>-290200</v>
       </c>
       <c r="I94" s="3">
-        <v>126800</v>
+        <v>123800</v>
       </c>
       <c r="J94" s="3">
-        <v>160900</v>
+        <v>157100</v>
       </c>
       <c r="K94" s="3">
         <v>1016000</v>
@@ -4391,25 +4391,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-139100</v>
+        <v>-135800</v>
       </c>
       <c r="E96" s="3">
-        <v>-61400</v>
+        <v>-59900</v>
       </c>
       <c r="F96" s="3">
-        <v>-137700</v>
+        <v>-134400</v>
       </c>
       <c r="G96" s="3">
-        <v>-62700</v>
+        <v>-61200</v>
       </c>
       <c r="H96" s="3">
-        <v>-137700</v>
+        <v>-134400</v>
       </c>
       <c r="I96" s="3">
-        <v>-58600</v>
+        <v>-57200</v>
       </c>
       <c r="J96" s="3">
-        <v>-126800</v>
+        <v>-123800</v>
       </c>
       <c r="K96" s="3">
         <v>-58000</v>
@@ -4579,25 +4579,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-421400</v>
+        <v>-411300</v>
       </c>
       <c r="E100" s="3">
-        <v>-137700</v>
+        <v>-134400</v>
       </c>
       <c r="F100" s="3">
-        <v>-270000</v>
+        <v>-263600</v>
       </c>
       <c r="G100" s="3">
-        <v>-500500</v>
+        <v>-488500</v>
       </c>
       <c r="H100" s="3">
-        <v>361400</v>
+        <v>352700</v>
       </c>
       <c r="I100" s="3">
-        <v>-623300</v>
+        <v>-608300</v>
       </c>
       <c r="J100" s="3">
-        <v>-371000</v>
+        <v>-362100</v>
       </c>
       <c r="K100" s="3">
         <v>-1661300</v>
@@ -4626,25 +4626,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-1400</v>
+        <v>-1300</v>
       </c>
       <c r="E101" s="3">
-        <v>-19100</v>
+        <v>-18600</v>
       </c>
       <c r="F101" s="3">
-        <v>16400</v>
+        <v>16000</v>
       </c>
       <c r="G101" s="3">
-        <v>-42300</v>
+        <v>-41300</v>
       </c>
       <c r="H101" s="3">
         <v>-2700</v>
       </c>
       <c r="I101" s="3">
-        <v>-62700</v>
+        <v>-61200</v>
       </c>
       <c r="J101" s="3">
-        <v>-4100</v>
+        <v>-4000</v>
       </c>
       <c r="K101" s="3">
         <v>41000</v>
@@ -4673,25 +4673,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-634200</v>
+        <v>-619000</v>
       </c>
       <c r="E102" s="3">
-        <v>585100</v>
+        <v>571000</v>
       </c>
       <c r="F102" s="3">
-        <v>340900</v>
+        <v>332800</v>
       </c>
       <c r="G102" s="3">
-        <v>42300</v>
+        <v>41300</v>
       </c>
       <c r="H102" s="3">
-        <v>-166400</v>
+        <v>-162400</v>
       </c>
       <c r="I102" s="3">
-        <v>306900</v>
+        <v>299500</v>
       </c>
       <c r="J102" s="3">
-        <v>-450100</v>
+        <v>-439300</v>
       </c>
       <c r="K102" s="3">
         <v>242000</v>

--- a/AAII_Financials/Quarterly/PSO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PSO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
   <si>
     <t>PSO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,222 +665,235 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>42916</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42735</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42551</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42369</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42185</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2125800</v>
+        <v>2386900</v>
       </c>
       <c r="E8" s="3">
-        <v>2535700</v>
+        <v>2081800</v>
       </c>
       <c r="F8" s="3">
-        <v>1986000</v>
+        <v>2483300</v>
       </c>
       <c r="G8" s="3">
-        <v>2715400</v>
+        <v>1945000</v>
       </c>
       <c r="H8" s="3">
-        <v>2434600</v>
+        <v>2659300</v>
       </c>
       <c r="I8" s="3">
-        <v>3013600</v>
+        <v>2384300</v>
       </c>
       <c r="J8" s="3">
+        <v>2951300</v>
+      </c>
+      <c r="K8" s="3">
         <v>2482500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3489700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2725400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3308100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2412400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3223000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2629600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>3282800</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1115500</v>
+        <v>1185000</v>
       </c>
       <c r="E9" s="3">
-        <v>1223300</v>
+        <v>1092400</v>
       </c>
       <c r="F9" s="3">
-        <v>1128800</v>
+        <v>1198000</v>
       </c>
       <c r="G9" s="3">
-        <v>1269900</v>
+        <v>1105400</v>
       </c>
       <c r="H9" s="3">
-        <v>1203300</v>
+        <v>1243600</v>
       </c>
       <c r="I9" s="3">
-        <v>1372400</v>
+        <v>1178400</v>
       </c>
       <c r="J9" s="3">
+        <v>1344000</v>
+      </c>
+      <c r="K9" s="3">
         <v>1214000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1518400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1322100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1454500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1179000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1322600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1273300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1370800</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1010300</v>
+        <v>1201900</v>
       </c>
       <c r="E10" s="3">
-        <v>1312500</v>
+        <v>989400</v>
       </c>
       <c r="F10" s="3">
-        <v>857200</v>
+        <v>1285300</v>
       </c>
       <c r="G10" s="3">
-        <v>1445600</v>
+        <v>839500</v>
       </c>
       <c r="H10" s="3">
-        <v>1231300</v>
+        <v>1415700</v>
       </c>
       <c r="I10" s="3">
-        <v>1641200</v>
+        <v>1205800</v>
       </c>
       <c r="J10" s="3">
+        <v>1607300</v>
+      </c>
+      <c r="K10" s="3">
         <v>1268500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1971200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1403300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1853600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1233300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1900400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1356300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1912000</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -898,8 +911,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -945,8 +959,11 @@
       <c r="Q12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -992,55 +1009,61 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>8000</v>
+        <v>-89900</v>
       </c>
       <c r="E14" s="3">
-        <v>4000</v>
+        <v>7800</v>
       </c>
       <c r="F14" s="3">
-        <v>-240900</v>
+        <v>3900</v>
       </c>
       <c r="G14" s="3">
-        <v>-13300</v>
+        <v>-235900</v>
       </c>
       <c r="H14" s="3">
-        <v>-8000</v>
+        <v>-13000</v>
       </c>
       <c r="I14" s="3">
-        <v>-30600</v>
+        <v>-7800</v>
       </c>
       <c r="J14" s="3">
+        <v>-30000</v>
+      </c>
+      <c r="K14" s="3">
         <v>-275500</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-181100</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>3138100</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>1107400</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
       <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>101400</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1086,8 +1109,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1102,102 +1128,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2113800</v>
+        <v>2160000</v>
       </c>
       <c r="E17" s="3">
-        <v>2131100</v>
+        <v>2070100</v>
       </c>
       <c r="F17" s="3">
-        <v>1843600</v>
+        <v>2087000</v>
       </c>
       <c r="G17" s="3">
-        <v>2398600</v>
+        <v>1805500</v>
       </c>
       <c r="H17" s="3">
-        <v>2385300</v>
+        <v>2349100</v>
       </c>
       <c r="I17" s="3">
-        <v>2587700</v>
+        <v>2336000</v>
       </c>
       <c r="J17" s="3">
+        <v>2534200</v>
+      </c>
+      <c r="K17" s="3">
         <v>2172400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2874100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2704100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>6031100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2782100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3581600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2799500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2775800</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>12000</v>
+        <v>226800</v>
       </c>
       <c r="E18" s="3">
-        <v>404700</v>
+        <v>11700</v>
       </c>
       <c r="F18" s="3">
-        <v>142400</v>
+        <v>396300</v>
       </c>
       <c r="G18" s="3">
-        <v>316800</v>
+        <v>139500</v>
       </c>
       <c r="H18" s="3">
-        <v>49300</v>
+        <v>310300</v>
       </c>
       <c r="I18" s="3">
-        <v>426000</v>
+        <v>48200</v>
       </c>
       <c r="J18" s="3">
+        <v>417100</v>
+      </c>
+      <c r="K18" s="3">
         <v>310100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>615600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>21300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-2723100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-369700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-358700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-169900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>507000</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1215,102 +1248,109 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-6700</v>
+        <v>-27400</v>
       </c>
       <c r="E20" s="3">
-        <v>20000</v>
+        <v>-6500</v>
       </c>
       <c r="F20" s="3">
-        <v>-95800</v>
+        <v>19600</v>
       </c>
       <c r="G20" s="3">
-        <v>-25300</v>
+        <v>-93900</v>
       </c>
       <c r="H20" s="3">
-        <v>-31900</v>
+        <v>-24800</v>
       </c>
       <c r="I20" s="3">
-        <v>-31900</v>
+        <v>-31300</v>
       </c>
       <c r="J20" s="3">
+        <v>-31300</v>
+      </c>
+      <c r="K20" s="3">
         <v>-41300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-5700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-34600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-49300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-25900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-33900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-4000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-123800</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>254200</v>
+        <v>487500</v>
       </c>
       <c r="E21" s="3">
-        <v>611000</v>
+        <v>249000</v>
       </c>
       <c r="F21" s="3">
-        <v>266200</v>
+        <v>598300</v>
       </c>
       <c r="G21" s="3">
-        <v>512500</v>
+        <v>260700</v>
       </c>
       <c r="H21" s="3">
-        <v>227600</v>
+        <v>501900</v>
       </c>
       <c r="I21" s="3">
-        <v>567000</v>
+        <v>222900</v>
       </c>
       <c r="J21" s="3">
+        <v>555300</v>
+      </c>
+      <c r="K21" s="3">
         <v>432600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>833500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>193100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-2550600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-157700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>954800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>46100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>722900</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1356,102 +1396,111 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>5300</v>
+        <v>199400</v>
       </c>
       <c r="E23" s="3">
-        <v>424600</v>
+        <v>5200</v>
       </c>
       <c r="F23" s="3">
-        <v>46600</v>
+        <v>415800</v>
       </c>
       <c r="G23" s="3">
-        <v>291500</v>
+        <v>45600</v>
       </c>
       <c r="H23" s="3">
-        <v>17300</v>
+        <v>285500</v>
       </c>
       <c r="I23" s="3">
-        <v>394000</v>
+        <v>16900</v>
       </c>
       <c r="J23" s="3">
+        <v>385900</v>
+      </c>
+      <c r="K23" s="3">
         <v>268900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>609900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-13300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-2772300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-395600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-392600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-173800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>383200</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-18600</v>
+        <v>14300</v>
       </c>
       <c r="E24" s="3">
-        <v>75900</v>
+        <v>-18300</v>
       </c>
       <c r="F24" s="3">
-        <v>-17300</v>
+        <v>74300</v>
       </c>
       <c r="G24" s="3">
+        <v>-16900</v>
+      </c>
+      <c r="H24" s="3">
         <v>1300</v>
       </c>
-      <c r="H24" s="3">
-        <v>-46600</v>
-      </c>
       <c r="I24" s="3">
-        <v>-139800</v>
+        <v>-45600</v>
       </c>
       <c r="J24" s="3">
+        <v>-136900</v>
+      </c>
+      <c r="K24" s="3">
         <v>17300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>17000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>8000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-167500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-111200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-53500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-52700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>86900</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1497,102 +1546,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>24000</v>
+        <v>185100</v>
       </c>
       <c r="E26" s="3">
-        <v>348700</v>
+        <v>23500</v>
       </c>
       <c r="F26" s="3">
-        <v>63900</v>
+        <v>341500</v>
       </c>
       <c r="G26" s="3">
-        <v>290200</v>
+        <v>62600</v>
       </c>
       <c r="H26" s="3">
-        <v>63900</v>
+        <v>284200</v>
       </c>
       <c r="I26" s="3">
-        <v>533800</v>
+        <v>62600</v>
       </c>
       <c r="J26" s="3">
+        <v>522700</v>
+      </c>
+      <c r="K26" s="3">
         <v>251600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>592900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-21300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-2604800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-284400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-339100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-121100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>296300</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>22600</v>
+        <v>185100</v>
       </c>
       <c r="E27" s="3">
-        <v>348700</v>
+        <v>22200</v>
       </c>
       <c r="F27" s="3">
-        <v>63900</v>
+        <v>341500</v>
       </c>
       <c r="G27" s="3">
-        <v>288800</v>
+        <v>62600</v>
       </c>
       <c r="H27" s="3">
-        <v>62600</v>
+        <v>282900</v>
       </c>
       <c r="I27" s="3">
-        <v>532400</v>
+        <v>61300</v>
       </c>
       <c r="J27" s="3">
+        <v>521400</v>
+      </c>
+      <c r="K27" s="3">
         <v>250200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>591500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-22600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-2606100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-285700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-339100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-121100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>297600</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1638,8 +1696,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1658,35 +1719,38 @@
       <c r="H29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
+      <c r="I29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J29" s="3">
         <v>0</v>
       </c>
       <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
         <v>7100</v>
       </c>
-      <c r="L29" s="3" t="s">
+      <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
       <c r="N29" s="3">
         <v>0</v>
       </c>
       <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
         <v>1515600</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>17100</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>23700</v>
       </c>
     </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1732,8 +1796,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1779,102 +1846,111 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>6700</v>
+        <v>27400</v>
       </c>
       <c r="E32" s="3">
-        <v>-20000</v>
+        <v>6500</v>
       </c>
       <c r="F32" s="3">
-        <v>95800</v>
+        <v>-19600</v>
       </c>
       <c r="G32" s="3">
-        <v>25300</v>
+        <v>93900</v>
       </c>
       <c r="H32" s="3">
-        <v>31900</v>
+        <v>24800</v>
       </c>
       <c r="I32" s="3">
-        <v>31900</v>
+        <v>31300</v>
       </c>
       <c r="J32" s="3">
+        <v>31300</v>
+      </c>
+      <c r="K32" s="3">
         <v>41300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>5700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>34600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>49300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>25900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>33900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>4000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>123800</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>22600</v>
+        <v>185100</v>
       </c>
       <c r="E33" s="3">
-        <v>348700</v>
+        <v>22200</v>
       </c>
       <c r="F33" s="3">
-        <v>63900</v>
+        <v>341500</v>
       </c>
       <c r="G33" s="3">
-        <v>288800</v>
+        <v>62600</v>
       </c>
       <c r="H33" s="3">
-        <v>62600</v>
+        <v>282900</v>
       </c>
       <c r="I33" s="3">
-        <v>532400</v>
+        <v>61300</v>
       </c>
       <c r="J33" s="3">
+        <v>521400</v>
+      </c>
+      <c r="K33" s="3">
         <v>250200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>598600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-22600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-2606100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-285700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1176500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-104000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>321300</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1920,107 +1996,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>22600</v>
+        <v>185100</v>
       </c>
       <c r="E35" s="3">
-        <v>348700</v>
+        <v>22200</v>
       </c>
       <c r="F35" s="3">
-        <v>63900</v>
+        <v>341500</v>
       </c>
       <c r="G35" s="3">
-        <v>288800</v>
+        <v>62600</v>
       </c>
       <c r="H35" s="3">
-        <v>62600</v>
+        <v>282900</v>
       </c>
       <c r="I35" s="3">
-        <v>532400</v>
+        <v>61300</v>
       </c>
       <c r="J35" s="3">
+        <v>521400</v>
+      </c>
+      <c r="K35" s="3">
         <v>250200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>598600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-22600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-2606100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-285700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1176500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-104000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>321300</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>42916</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42735</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42551</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42369</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42185</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2038,8 +2123,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2057,72 +2143,76 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>862600</v>
+        <v>1221500</v>
       </c>
       <c r="E41" s="3">
-        <v>1460200</v>
+        <v>844700</v>
       </c>
       <c r="F41" s="3">
-        <v>914500</v>
+        <v>1430000</v>
       </c>
       <c r="G41" s="3">
-        <v>581700</v>
+        <v>895600</v>
       </c>
       <c r="H41" s="3">
-        <v>555100</v>
+        <v>569700</v>
       </c>
       <c r="I41" s="3">
-        <v>756100</v>
+        <v>543600</v>
       </c>
       <c r="J41" s="3">
+        <v>740400</v>
+      </c>
+      <c r="K41" s="3">
         <v>439300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>733000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>609800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1796900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1267000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2221200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>475400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>697900</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>8</v>
+      <c r="D42" s="3">
+        <v>0</v>
+      </c>
+      <c r="E42" s="3">
+        <v>0</v>
+      </c>
+      <c r="F42" s="3">
+        <v>0</v>
+      </c>
+      <c r="G42" s="3">
+        <v>0</v>
+      </c>
+      <c r="H42" s="3">
+        <v>0</v>
       </c>
       <c r="I42" s="3">
         <v>0</v>
@@ -2131,357 +2221,381 @@
         <v>0</v>
       </c>
       <c r="K42" s="3">
+        <v>0</v>
+      </c>
+      <c r="L42" s="3">
         <v>11300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>14600</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>12300</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>40100</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>36500</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>34200</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>21100</v>
       </c>
     </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1705100</v>
+        <v>1672500</v>
       </c>
       <c r="E43" s="3">
-        <v>1488200</v>
+        <v>1669900</v>
       </c>
       <c r="F43" s="3">
-        <v>1446900</v>
+        <v>1457400</v>
       </c>
       <c r="G43" s="3">
-        <v>1697200</v>
+        <v>1417000</v>
       </c>
       <c r="H43" s="3">
-        <v>1694500</v>
+        <v>1662100</v>
       </c>
       <c r="I43" s="3">
-        <v>1568000</v>
+        <v>1659500</v>
       </c>
       <c r="J43" s="3">
+        <v>1535600</v>
+      </c>
+      <c r="K43" s="3">
         <v>1409600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1570800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1642900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1671300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1736200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1674700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1677600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1725000</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>167700</v>
+        <v>127800</v>
       </c>
       <c r="E44" s="3">
-        <v>171700</v>
+        <v>164300</v>
       </c>
       <c r="F44" s="3">
-        <v>231600</v>
+        <v>168200</v>
       </c>
       <c r="G44" s="3">
-        <v>225000</v>
+        <v>226800</v>
       </c>
       <c r="H44" s="3">
-        <v>282200</v>
+        <v>220300</v>
       </c>
       <c r="I44" s="3">
-        <v>218300</v>
+        <v>276400</v>
       </c>
       <c r="J44" s="3">
+        <v>213800</v>
+      </c>
+      <c r="K44" s="3">
         <v>222300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>209400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>316900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>289400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>354200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>275200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>330500</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>295000</v>
       </c>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1171400</v>
+        <v>1168000</v>
       </c>
       <c r="E45" s="3">
-        <v>1228600</v>
+        <v>1147200</v>
       </c>
       <c r="F45" s="3">
-        <v>1240600</v>
+        <v>1203200</v>
       </c>
       <c r="G45" s="3">
-        <v>1191300</v>
+        <v>1214900</v>
       </c>
       <c r="H45" s="3">
-        <v>1112800</v>
+        <v>1166700</v>
       </c>
       <c r="I45" s="3">
-        <v>1088800</v>
+        <v>1089800</v>
       </c>
       <c r="J45" s="3">
+        <v>1066300</v>
+      </c>
+      <c r="K45" s="3">
         <v>1026300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1048600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1319400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1261200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1221700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1138700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1114000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1111400</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3906800</v>
+        <v>4189700</v>
       </c>
       <c r="E46" s="3">
-        <v>4348700</v>
+        <v>3826000</v>
       </c>
       <c r="F46" s="3">
-        <v>3833600</v>
+        <v>4258800</v>
       </c>
       <c r="G46" s="3">
-        <v>3695100</v>
+        <v>3754300</v>
       </c>
       <c r="H46" s="3">
-        <v>3644600</v>
+        <v>3618800</v>
       </c>
       <c r="I46" s="3">
-        <v>3631200</v>
+        <v>3569200</v>
       </c>
       <c r="J46" s="3">
+        <v>3556200</v>
+      </c>
+      <c r="K46" s="3">
         <v>3097500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3573200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3903700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>5031100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>4619200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>5346400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>3631700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>3850300</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>411300</v>
+        <v>473200</v>
       </c>
       <c r="E47" s="3">
-        <v>488500</v>
+        <v>402800</v>
       </c>
       <c r="F47" s="3">
-        <v>600300</v>
+        <v>478400</v>
       </c>
       <c r="G47" s="3">
-        <v>588300</v>
+        <v>587900</v>
       </c>
       <c r="H47" s="3">
-        <v>1285800</v>
+        <v>576200</v>
       </c>
       <c r="I47" s="3">
-        <v>778700</v>
+        <v>1259300</v>
       </c>
       <c r="J47" s="3">
+        <v>762600</v>
+      </c>
+      <c r="K47" s="3">
         <v>764100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>817900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1141000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1743900</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>1772400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>1775200</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>1603900</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>1651300</v>
       </c>
     </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>603000</v>
+        <v>477100</v>
       </c>
       <c r="E48" s="3">
-        <v>685500</v>
+        <v>590500</v>
       </c>
       <c r="F48" s="3">
-        <v>847900</v>
+        <v>671300</v>
       </c>
       <c r="G48" s="3">
-        <v>822600</v>
+        <v>830400</v>
       </c>
       <c r="H48" s="3">
-        <v>854600</v>
+        <v>805600</v>
       </c>
       <c r="I48" s="3">
-        <v>315500</v>
+        <v>836900</v>
       </c>
       <c r="J48" s="3">
+        <v>309000</v>
+      </c>
+      <c r="K48" s="3">
         <v>356700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>397600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>407400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>422400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>438300</v>
-      </c>
-      <c r="O48" s="3">
-        <v>417400</v>
       </c>
       <c r="P48" s="3">
         <v>417400</v>
       </c>
       <c r="Q48" s="3">
+        <v>417400</v>
+      </c>
+      <c r="R48" s="3">
         <v>439800</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3575300</v>
+        <v>3609600</v>
       </c>
       <c r="E49" s="3">
-        <v>3649900</v>
+        <v>3501400</v>
       </c>
       <c r="F49" s="3">
-        <v>4003900</v>
+        <v>3574400</v>
       </c>
       <c r="G49" s="3">
-        <v>3860200</v>
+        <v>3921200</v>
       </c>
       <c r="H49" s="3">
-        <v>4075800</v>
+        <v>3780400</v>
       </c>
       <c r="I49" s="3">
-        <v>4005300</v>
+        <v>3991600</v>
       </c>
       <c r="J49" s="3">
+        <v>3922500</v>
+      </c>
+      <c r="K49" s="3">
         <v>4082500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>4194400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>4348400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>4239200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>7260400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>6735500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>7816500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>8308900</v>
       </c>
     </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2527,8 +2641,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2574,55 +2691,61 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>710800</v>
+        <v>822600</v>
       </c>
       <c r="E52" s="3">
-        <v>745400</v>
+        <v>696100</v>
       </c>
       <c r="F52" s="3">
-        <v>720100</v>
+        <v>730000</v>
       </c>
       <c r="G52" s="3">
-        <v>1216600</v>
+        <v>705200</v>
       </c>
       <c r="H52" s="3">
-        <v>741400</v>
+        <v>1191500</v>
       </c>
       <c r="I52" s="3">
-        <v>1791700</v>
+        <v>726100</v>
       </c>
       <c r="J52" s="3">
+        <v>1754600</v>
+      </c>
+      <c r="K52" s="3">
         <v>1863500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>2179300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1978500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>960600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1199700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>901300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>886200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>757200</v>
       </c>
     </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2668,55 +2791,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>9207200</v>
+        <v>9572300</v>
       </c>
       <c r="E54" s="3">
-        <v>9918000</v>
+        <v>9016900</v>
       </c>
       <c r="F54" s="3">
-        <v>10005900</v>
+        <v>9713000</v>
       </c>
       <c r="G54" s="3">
-        <v>10182900</v>
+        <v>9799100</v>
       </c>
       <c r="H54" s="3">
-        <v>10602200</v>
+        <v>9972500</v>
       </c>
       <c r="I54" s="3">
-        <v>10522300</v>
+        <v>10383100</v>
       </c>
       <c r="J54" s="3">
+        <v>10304900</v>
+      </c>
+      <c r="K54" s="3">
         <v>10164300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>11162400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>11778900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>12397300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>15290100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>15175600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>14355600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>15007500</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2734,8 +2863,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2753,290 +2883,309 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1396300</v>
+        <v>1637300</v>
       </c>
       <c r="E57" s="3">
-        <v>1592000</v>
+        <v>1367500</v>
       </c>
       <c r="F57" s="3">
-        <v>1395000</v>
+        <v>1559100</v>
       </c>
       <c r="G57" s="3">
-        <v>1701100</v>
+        <v>1366200</v>
       </c>
       <c r="H57" s="3">
-        <v>1609300</v>
+        <v>1666000</v>
       </c>
       <c r="I57" s="3">
-        <v>1863500</v>
+        <v>1576000</v>
       </c>
       <c r="J57" s="3">
+        <v>1825000</v>
+      </c>
+      <c r="K57" s="3">
         <v>1561400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1899100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1772100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2006300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1891400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1813000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1721000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2108200</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>207700</v>
+        <v>202100</v>
       </c>
       <c r="E58" s="3">
-        <v>338100</v>
+        <v>203400</v>
       </c>
       <c r="F58" s="3">
-        <v>388700</v>
+        <v>331100</v>
       </c>
       <c r="G58" s="3">
-        <v>122500</v>
+        <v>380600</v>
       </c>
       <c r="H58" s="3">
-        <v>187700</v>
+        <v>119900</v>
       </c>
       <c r="I58" s="3">
-        <v>61200</v>
+        <v>183800</v>
       </c>
       <c r="J58" s="3">
+        <v>60000</v>
+      </c>
+      <c r="K58" s="3">
         <v>43900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>26900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>354200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>54200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>148700</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>367800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>965200</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>450300</v>
       </c>
     </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>171700</v>
+        <v>220300</v>
       </c>
       <c r="E59" s="3">
-        <v>161100</v>
+        <v>168200</v>
       </c>
       <c r="F59" s="3">
-        <v>191700</v>
+        <v>157700</v>
       </c>
       <c r="G59" s="3">
-        <v>162400</v>
+        <v>187700</v>
       </c>
       <c r="H59" s="3">
-        <v>71900</v>
+        <v>159000</v>
       </c>
       <c r="I59" s="3">
-        <v>153100</v>
+        <v>70400</v>
       </c>
       <c r="J59" s="3">
+        <v>149900</v>
+      </c>
+      <c r="K59" s="3">
         <v>374000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>362300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>279600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>309100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>181000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>306500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>221200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>321300</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1775700</v>
+        <v>2059700</v>
       </c>
       <c r="E60" s="3">
-        <v>2091200</v>
+        <v>1739000</v>
       </c>
       <c r="F60" s="3">
-        <v>1975400</v>
+        <v>2047900</v>
       </c>
       <c r="G60" s="3">
-        <v>1986000</v>
+        <v>1934500</v>
       </c>
       <c r="H60" s="3">
-        <v>1868900</v>
+        <v>1945000</v>
       </c>
       <c r="I60" s="3">
-        <v>2077800</v>
+        <v>1830200</v>
       </c>
       <c r="J60" s="3">
+        <v>2034900</v>
+      </c>
+      <c r="K60" s="3">
         <v>1979300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2288200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2405800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2369600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2221000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2487300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2907500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2879800</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1675900</v>
+        <v>1623000</v>
       </c>
       <c r="E61" s="3">
-        <v>1859500</v>
+        <v>1641200</v>
       </c>
       <c r="F61" s="3">
-        <v>2063200</v>
+        <v>1821100</v>
       </c>
       <c r="G61" s="3">
-        <v>2092500</v>
+        <v>2020600</v>
       </c>
       <c r="H61" s="3">
-        <v>2487800</v>
+        <v>2049200</v>
       </c>
       <c r="I61" s="3">
-        <v>897200</v>
+        <v>2436400</v>
       </c>
       <c r="J61" s="3">
+        <v>878600</v>
+      </c>
+      <c r="K61" s="3">
         <v>1422900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1508500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2417800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2985400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>3004500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2671200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2532200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2479500</v>
       </c>
     </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>379400</v>
+        <v>310300</v>
       </c>
       <c r="E62" s="3">
-        <v>464600</v>
+        <v>371500</v>
       </c>
       <c r="F62" s="3">
-        <v>386000</v>
+        <v>455000</v>
       </c>
       <c r="G62" s="3">
-        <v>350100</v>
+        <v>378000</v>
       </c>
       <c r="H62" s="3">
-        <v>532400</v>
+        <v>342800</v>
       </c>
       <c r="I62" s="3">
-        <v>1524100</v>
+        <v>521400</v>
       </c>
       <c r="J62" s="3">
+        <v>1492600</v>
+      </c>
+      <c r="K62" s="3">
         <v>1308500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1675500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1680200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1687300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1713000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1646000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1800100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1767100</v>
       </c>
     </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3082,8 +3231,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3129,8 +3281,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3176,55 +3331,61 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>3844200</v>
+        <v>4005900</v>
       </c>
       <c r="E66" s="3">
-        <v>4427200</v>
+        <v>3764800</v>
       </c>
       <c r="F66" s="3">
-        <v>4437900</v>
+        <v>4335700</v>
       </c>
       <c r="G66" s="3">
-        <v>4441900</v>
+        <v>4346200</v>
       </c>
       <c r="H66" s="3">
-        <v>4902400</v>
+        <v>4350100</v>
       </c>
       <c r="I66" s="3">
-        <v>4511100</v>
+        <v>4801100</v>
       </c>
       <c r="J66" s="3">
+        <v>4417900</v>
+      </c>
+      <c r="K66" s="3">
         <v>4722700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>5483600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>6510500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>7047200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>6942400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>6809800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>7247600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>7134400</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3242,8 +3403,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3289,8 +3451,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3336,8 +3501,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3383,8 +3551,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3430,55 +3601,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1063500</v>
+        <v>1366200</v>
       </c>
       <c r="E72" s="3">
-        <v>1175400</v>
+        <v>1041600</v>
       </c>
       <c r="F72" s="3">
-        <v>939800</v>
+        <v>1151100</v>
       </c>
       <c r="G72" s="3">
-        <v>1227300</v>
+        <v>920300</v>
       </c>
       <c r="H72" s="3">
-        <v>1052900</v>
+        <v>1201900</v>
       </c>
       <c r="I72" s="3">
-        <v>1397700</v>
+        <v>1031100</v>
       </c>
       <c r="J72" s="3">
+        <v>1368800</v>
+      </c>
+      <c r="K72" s="3">
         <v>1011600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>943900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>555200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>881800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>4151200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>4823300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>3531600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>4213700</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3524,8 +3701,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3571,8 +3751,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3618,55 +3801,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>5363000</v>
+        <v>5566300</v>
       </c>
       <c r="E76" s="3">
-        <v>5490800</v>
+        <v>5252200</v>
       </c>
       <c r="F76" s="3">
-        <v>5568000</v>
+        <v>5377300</v>
       </c>
       <c r="G76" s="3">
-        <v>5741000</v>
+        <v>5452900</v>
       </c>
       <c r="H76" s="3">
-        <v>5699800</v>
+        <v>5622400</v>
       </c>
       <c r="I76" s="3">
-        <v>6011200</v>
+        <v>5582000</v>
       </c>
       <c r="J76" s="3">
+        <v>5887000</v>
+      </c>
+      <c r="K76" s="3">
         <v>5441500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>5678800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>5268300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>5350100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>8347700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>8365800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>7108000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>7873100</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3712,107 +3901,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>42916</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42735</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42551</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42369</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42185</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>22600</v>
+        <v>185100</v>
       </c>
       <c r="E81" s="3">
-        <v>348700</v>
+        <v>22200</v>
       </c>
       <c r="F81" s="3">
-        <v>63900</v>
+        <v>341500</v>
       </c>
       <c r="G81" s="3">
-        <v>288800</v>
+        <v>62600</v>
       </c>
       <c r="H81" s="3">
-        <v>62600</v>
+        <v>282900</v>
       </c>
       <c r="I81" s="3">
-        <v>532400</v>
+        <v>61300</v>
       </c>
       <c r="J81" s="3">
+        <v>521400</v>
+      </c>
+      <c r="K81" s="3">
         <v>250200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>598600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-22600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-2606100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-285700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1176500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-104000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>321300</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3830,55 +4028,59 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>248900</v>
+        <v>288100</v>
       </c>
       <c r="E83" s="3">
-        <v>186400</v>
+        <v>243800</v>
       </c>
       <c r="F83" s="3">
-        <v>219600</v>
+        <v>182500</v>
       </c>
       <c r="G83" s="3">
-        <v>221000</v>
+        <v>215100</v>
       </c>
       <c r="H83" s="3">
-        <v>210300</v>
+        <v>216400</v>
       </c>
       <c r="I83" s="3">
-        <v>173000</v>
+        <v>206000</v>
       </c>
       <c r="J83" s="3">
+        <v>169500</v>
+      </c>
+      <c r="K83" s="3">
         <v>163700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>103300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>206400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>118200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>237900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>1250800</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>219900</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>256800</v>
       </c>
     </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3924,8 +4126,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3971,8 +4176,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4018,8 +4226,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4065,8 +4276,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4112,55 +4326,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-99800</v>
+        <v>522700</v>
       </c>
       <c r="E89" s="3">
-        <v>708100</v>
+        <v>-97800</v>
       </c>
       <c r="F89" s="3">
-        <v>-190300</v>
+        <v>693500</v>
       </c>
       <c r="G89" s="3">
-        <v>713500</v>
+        <v>-186400</v>
       </c>
       <c r="H89" s="3">
-        <v>-222300</v>
+        <v>698700</v>
       </c>
       <c r="I89" s="3">
-        <v>845200</v>
+        <v>-217700</v>
       </c>
       <c r="J89" s="3">
+        <v>827800</v>
+      </c>
+      <c r="K89" s="3">
         <v>-230300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>846200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-399400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>902800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-417600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>763000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-492500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>999400</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4178,55 +4398,59 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-41300</v>
+        <v>-43000</v>
       </c>
       <c r="E91" s="3">
-        <v>-30600</v>
+        <v>-40400</v>
       </c>
       <c r="F91" s="3">
-        <v>-39900</v>
+        <v>-30000</v>
       </c>
       <c r="G91" s="3">
-        <v>-22600</v>
+        <v>-39100</v>
       </c>
       <c r="H91" s="3">
-        <v>-50600</v>
+        <v>-22200</v>
       </c>
       <c r="I91" s="3">
-        <v>-50600</v>
+        <v>-49500</v>
       </c>
       <c r="J91" s="3">
+        <v>-49500</v>
+      </c>
+      <c r="K91" s="3">
         <v>-42600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-70800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-42600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-53000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-58200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-65200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-125100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-160600</v>
       </c>
     </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4272,8 +4496,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4319,55 +4546,61 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-106500</v>
+        <v>0</v>
       </c>
       <c r="E94" s="3">
-        <v>16000</v>
+        <v>-104300</v>
       </c>
       <c r="F94" s="3">
-        <v>770700</v>
+        <v>15600</v>
       </c>
       <c r="G94" s="3">
-        <v>-142400</v>
+        <v>754800</v>
       </c>
       <c r="H94" s="3">
-        <v>-290200</v>
+        <v>-139500</v>
       </c>
       <c r="I94" s="3">
-        <v>123800</v>
+        <v>-284200</v>
       </c>
       <c r="J94" s="3">
+        <v>121200</v>
+      </c>
+      <c r="K94" s="3">
         <v>157100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>1016000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-89200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-24600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-27100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>1753000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-15800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-92200</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4385,55 +4618,59 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-135800</v>
+        <v>-61300</v>
       </c>
       <c r="E96" s="3">
-        <v>-59900</v>
+        <v>-133000</v>
       </c>
       <c r="F96" s="3">
-        <v>-134400</v>
+        <v>-58700</v>
       </c>
       <c r="G96" s="3">
-        <v>-61200</v>
+        <v>-131700</v>
       </c>
       <c r="H96" s="3">
-        <v>-134400</v>
+        <v>-60000</v>
       </c>
       <c r="I96" s="3">
-        <v>-57200</v>
+        <v>-131700</v>
       </c>
       <c r="J96" s="3">
+        <v>-56100</v>
+      </c>
+      <c r="K96" s="3">
         <v>-123800</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-58000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-368800</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-181000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-358100</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-190400</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-364800</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-181700</v>
       </c>
     </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4479,8 +4716,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4526,8 +4766,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4573,145 +4816,157 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-411300</v>
+        <v>-136900</v>
       </c>
       <c r="E100" s="3">
-        <v>-134400</v>
+        <v>-402800</v>
       </c>
       <c r="F100" s="3">
-        <v>-263600</v>
+        <v>-131700</v>
       </c>
       <c r="G100" s="3">
-        <v>-488500</v>
+        <v>-258100</v>
       </c>
       <c r="H100" s="3">
-        <v>352700</v>
+        <v>-478400</v>
       </c>
       <c r="I100" s="3">
-        <v>-608300</v>
+        <v>345500</v>
       </c>
       <c r="J100" s="3">
+        <v>-595700</v>
+      </c>
+      <c r="K100" s="3">
         <v>-362100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1661300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-778900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-219200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-671000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-811300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>339700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-809800</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-9100</v>
+      </c>
+      <c r="E101" s="3">
         <v>-1300</v>
       </c>
-      <c r="E101" s="3">
-        <v>-18600</v>
-      </c>
       <c r="F101" s="3">
-        <v>16000</v>
+        <v>-18300</v>
       </c>
       <c r="G101" s="3">
-        <v>-41300</v>
+        <v>15600</v>
       </c>
       <c r="H101" s="3">
-        <v>-2700</v>
+        <v>-40400</v>
       </c>
       <c r="I101" s="3">
-        <v>-61200</v>
+        <v>-2600</v>
       </c>
       <c r="J101" s="3">
+        <v>-60000</v>
+      </c>
+      <c r="K101" s="3">
         <v>-4000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>41000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-17300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>14800</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>89200</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>17000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-42100</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-619000</v>
+        <v>376700</v>
       </c>
       <c r="E102" s="3">
-        <v>571000</v>
+        <v>-606200</v>
       </c>
       <c r="F102" s="3">
-        <v>332800</v>
+        <v>559200</v>
       </c>
       <c r="G102" s="3">
-        <v>41300</v>
+        <v>325900</v>
       </c>
       <c r="H102" s="3">
-        <v>-162400</v>
+        <v>40400</v>
       </c>
       <c r="I102" s="3">
-        <v>299500</v>
+        <v>-159000</v>
       </c>
       <c r="J102" s="3">
+        <v>293300</v>
+      </c>
+      <c r="K102" s="3">
         <v>-439300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>242000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1284800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>673700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-1026500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>1721700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-210700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>102700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PSO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PSO_QTR_FIN.xlsx
@@ -670,7 +670,7 @@
     <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
@@ -748,25 +748,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2386900</v>
+        <v>2233600</v>
       </c>
       <c r="E8" s="3">
-        <v>2081800</v>
+        <v>1948200</v>
       </c>
       <c r="F8" s="3">
-        <v>2483300</v>
+        <v>2323900</v>
       </c>
       <c r="G8" s="3">
-        <v>1945000</v>
+        <v>1820100</v>
       </c>
       <c r="H8" s="3">
-        <v>2659300</v>
+        <v>2488600</v>
       </c>
       <c r="I8" s="3">
-        <v>2384300</v>
+        <v>2231200</v>
       </c>
       <c r="J8" s="3">
-        <v>2951300</v>
+        <v>2761900</v>
       </c>
       <c r="K8" s="3">
         <v>2482500</v>
@@ -798,25 +798,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1185000</v>
+        <v>1108900</v>
       </c>
       <c r="E9" s="3">
-        <v>1092400</v>
+        <v>1022300</v>
       </c>
       <c r="F9" s="3">
-        <v>1198000</v>
+        <v>1121100</v>
       </c>
       <c r="G9" s="3">
-        <v>1105400</v>
+        <v>1034500</v>
       </c>
       <c r="H9" s="3">
-        <v>1243600</v>
+        <v>1163800</v>
       </c>
       <c r="I9" s="3">
-        <v>1178400</v>
+        <v>1102800</v>
       </c>
       <c r="J9" s="3">
-        <v>1344000</v>
+        <v>1257700</v>
       </c>
       <c r="K9" s="3">
         <v>1214000</v>
@@ -848,25 +848,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1201900</v>
+        <v>1124700</v>
       </c>
       <c r="E10" s="3">
-        <v>989400</v>
+        <v>925900</v>
       </c>
       <c r="F10" s="3">
-        <v>1285300</v>
+        <v>1202800</v>
       </c>
       <c r="G10" s="3">
-        <v>839500</v>
+        <v>785600</v>
       </c>
       <c r="H10" s="3">
-        <v>1415700</v>
+        <v>1324800</v>
       </c>
       <c r="I10" s="3">
-        <v>1205800</v>
+        <v>1128400</v>
       </c>
       <c r="J10" s="3">
-        <v>1607300</v>
+        <v>1504100</v>
       </c>
       <c r="K10" s="3">
         <v>1268500</v>
@@ -1018,25 +1018,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-89900</v>
+        <v>-84200</v>
       </c>
       <c r="E14" s="3">
-        <v>7800</v>
+        <v>7300</v>
       </c>
       <c r="F14" s="3">
-        <v>3900</v>
+        <v>3700</v>
       </c>
       <c r="G14" s="3">
-        <v>-235900</v>
+        <v>-220800</v>
       </c>
       <c r="H14" s="3">
-        <v>-13000</v>
+        <v>-12200</v>
       </c>
       <c r="I14" s="3">
-        <v>-7800</v>
+        <v>-7300</v>
       </c>
       <c r="J14" s="3">
-        <v>-30000</v>
+        <v>-28100</v>
       </c>
       <c r="K14" s="3">
         <v>-275500</v>
@@ -1135,25 +1135,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2160000</v>
+        <v>2021400</v>
       </c>
       <c r="E17" s="3">
-        <v>2070100</v>
+        <v>1937200</v>
       </c>
       <c r="F17" s="3">
-        <v>2087000</v>
+        <v>1953100</v>
       </c>
       <c r="G17" s="3">
-        <v>1805500</v>
+        <v>1689600</v>
       </c>
       <c r="H17" s="3">
-        <v>2349100</v>
+        <v>2198300</v>
       </c>
       <c r="I17" s="3">
-        <v>2336000</v>
+        <v>2186100</v>
       </c>
       <c r="J17" s="3">
-        <v>2534200</v>
+        <v>2371500</v>
       </c>
       <c r="K17" s="3">
         <v>2172400</v>
@@ -1185,25 +1185,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>226800</v>
+        <v>212300</v>
       </c>
       <c r="E18" s="3">
-        <v>11700</v>
+        <v>11000</v>
       </c>
       <c r="F18" s="3">
-        <v>396300</v>
+        <v>370800</v>
       </c>
       <c r="G18" s="3">
-        <v>139500</v>
+        <v>130500</v>
       </c>
       <c r="H18" s="3">
-        <v>310300</v>
+        <v>290300</v>
       </c>
       <c r="I18" s="3">
-        <v>48200</v>
+        <v>45100</v>
       </c>
       <c r="J18" s="3">
-        <v>417100</v>
+        <v>390400</v>
       </c>
       <c r="K18" s="3">
         <v>310100</v>
@@ -1255,25 +1255,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-27400</v>
+        <v>-25600</v>
       </c>
       <c r="E20" s="3">
-        <v>-6500</v>
+        <v>-6100</v>
       </c>
       <c r="F20" s="3">
-        <v>19600</v>
+        <v>18300</v>
       </c>
       <c r="G20" s="3">
-        <v>-93900</v>
+        <v>-87800</v>
       </c>
       <c r="H20" s="3">
-        <v>-24800</v>
+        <v>-23200</v>
       </c>
       <c r="I20" s="3">
-        <v>-31300</v>
+        <v>-29300</v>
       </c>
       <c r="J20" s="3">
-        <v>-31300</v>
+        <v>-29300</v>
       </c>
       <c r="K20" s="3">
         <v>-41300</v>
@@ -1305,25 +1305,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>487500</v>
+        <v>456200</v>
       </c>
       <c r="E21" s="3">
-        <v>249000</v>
+        <v>233000</v>
       </c>
       <c r="F21" s="3">
-        <v>598300</v>
+        <v>559900</v>
       </c>
       <c r="G21" s="3">
-        <v>260700</v>
+        <v>244000</v>
       </c>
       <c r="H21" s="3">
-        <v>501900</v>
+        <v>469700</v>
       </c>
       <c r="I21" s="3">
-        <v>222900</v>
+        <v>208600</v>
       </c>
       <c r="J21" s="3">
-        <v>555300</v>
+        <v>519700</v>
       </c>
       <c r="K21" s="3">
         <v>432600</v>
@@ -1405,25 +1405,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>199400</v>
+        <v>186600</v>
       </c>
       <c r="E23" s="3">
-        <v>5200</v>
+        <v>4900</v>
       </c>
       <c r="F23" s="3">
-        <v>415800</v>
+        <v>389100</v>
       </c>
       <c r="G23" s="3">
-        <v>45600</v>
+        <v>42700</v>
       </c>
       <c r="H23" s="3">
-        <v>285500</v>
+        <v>267200</v>
       </c>
       <c r="I23" s="3">
-        <v>16900</v>
+        <v>15900</v>
       </c>
       <c r="J23" s="3">
-        <v>385900</v>
+        <v>361100</v>
       </c>
       <c r="K23" s="3">
         <v>268900</v>
@@ -1455,25 +1455,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>14300</v>
+        <v>13400</v>
       </c>
       <c r="E24" s="3">
-        <v>-18300</v>
+        <v>-17100</v>
       </c>
       <c r="F24" s="3">
-        <v>74300</v>
+        <v>69500</v>
       </c>
       <c r="G24" s="3">
-        <v>-16900</v>
+        <v>-15900</v>
       </c>
       <c r="H24" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="I24" s="3">
-        <v>-45600</v>
+        <v>-42700</v>
       </c>
       <c r="J24" s="3">
-        <v>-136900</v>
+        <v>-128100</v>
       </c>
       <c r="K24" s="3">
         <v>17300</v>
@@ -1555,25 +1555,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>185100</v>
+        <v>173200</v>
       </c>
       <c r="E26" s="3">
-        <v>23500</v>
+        <v>22000</v>
       </c>
       <c r="F26" s="3">
-        <v>341500</v>
+        <v>319600</v>
       </c>
       <c r="G26" s="3">
-        <v>62600</v>
+        <v>58600</v>
       </c>
       <c r="H26" s="3">
-        <v>284200</v>
+        <v>265900</v>
       </c>
       <c r="I26" s="3">
-        <v>62600</v>
+        <v>58600</v>
       </c>
       <c r="J26" s="3">
-        <v>522700</v>
+        <v>489200</v>
       </c>
       <c r="K26" s="3">
         <v>251600</v>
@@ -1605,25 +1605,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>185100</v>
+        <v>173200</v>
       </c>
       <c r="E27" s="3">
-        <v>22200</v>
+        <v>20700</v>
       </c>
       <c r="F27" s="3">
-        <v>341500</v>
+        <v>319600</v>
       </c>
       <c r="G27" s="3">
-        <v>62600</v>
+        <v>58600</v>
       </c>
       <c r="H27" s="3">
-        <v>282900</v>
+        <v>264700</v>
       </c>
       <c r="I27" s="3">
-        <v>61300</v>
+        <v>57300</v>
       </c>
       <c r="J27" s="3">
-        <v>521400</v>
+        <v>488000</v>
       </c>
       <c r="K27" s="3">
         <v>250200</v>
@@ -1855,25 +1855,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>27400</v>
+        <v>25600</v>
       </c>
       <c r="E32" s="3">
-        <v>6500</v>
+        <v>6100</v>
       </c>
       <c r="F32" s="3">
-        <v>-19600</v>
+        <v>-18300</v>
       </c>
       <c r="G32" s="3">
-        <v>93900</v>
+        <v>87800</v>
       </c>
       <c r="H32" s="3">
-        <v>24800</v>
+        <v>23200</v>
       </c>
       <c r="I32" s="3">
-        <v>31300</v>
+        <v>29300</v>
       </c>
       <c r="J32" s="3">
-        <v>31300</v>
+        <v>29300</v>
       </c>
       <c r="K32" s="3">
         <v>41300</v>
@@ -1905,25 +1905,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>185100</v>
+        <v>173200</v>
       </c>
       <c r="E33" s="3">
-        <v>22200</v>
+        <v>20700</v>
       </c>
       <c r="F33" s="3">
-        <v>341500</v>
+        <v>319600</v>
       </c>
       <c r="G33" s="3">
-        <v>62600</v>
+        <v>58600</v>
       </c>
       <c r="H33" s="3">
-        <v>282900</v>
+        <v>264700</v>
       </c>
       <c r="I33" s="3">
-        <v>61300</v>
+        <v>57300</v>
       </c>
       <c r="J33" s="3">
-        <v>521400</v>
+        <v>488000</v>
       </c>
       <c r="K33" s="3">
         <v>250200</v>
@@ -2005,25 +2005,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>185100</v>
+        <v>173200</v>
       </c>
       <c r="E35" s="3">
-        <v>22200</v>
+        <v>20700</v>
       </c>
       <c r="F35" s="3">
-        <v>341500</v>
+        <v>319600</v>
       </c>
       <c r="G35" s="3">
-        <v>62600</v>
+        <v>58600</v>
       </c>
       <c r="H35" s="3">
-        <v>282900</v>
+        <v>264700</v>
       </c>
       <c r="I35" s="3">
-        <v>61300</v>
+        <v>57300</v>
       </c>
       <c r="J35" s="3">
-        <v>521400</v>
+        <v>488000</v>
       </c>
       <c r="K35" s="3">
         <v>250200</v>
@@ -2150,25 +2150,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1221500</v>
+        <v>1143000</v>
       </c>
       <c r="E41" s="3">
-        <v>844700</v>
+        <v>790500</v>
       </c>
       <c r="F41" s="3">
-        <v>1430000</v>
+        <v>1338200</v>
       </c>
       <c r="G41" s="3">
-        <v>895600</v>
+        <v>838100</v>
       </c>
       <c r="H41" s="3">
-        <v>569700</v>
+        <v>533100</v>
       </c>
       <c r="I41" s="3">
-        <v>543600</v>
+        <v>508700</v>
       </c>
       <c r="J41" s="3">
-        <v>740400</v>
+        <v>692900</v>
       </c>
       <c r="K41" s="3">
         <v>439300</v>
@@ -2250,25 +2250,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1672500</v>
+        <v>1565100</v>
       </c>
       <c r="E43" s="3">
-        <v>1669900</v>
+        <v>1562700</v>
       </c>
       <c r="F43" s="3">
-        <v>1457400</v>
+        <v>1363800</v>
       </c>
       <c r="G43" s="3">
-        <v>1417000</v>
+        <v>1326000</v>
       </c>
       <c r="H43" s="3">
-        <v>1662100</v>
+        <v>1555400</v>
       </c>
       <c r="I43" s="3">
-        <v>1659500</v>
+        <v>1552900</v>
       </c>
       <c r="J43" s="3">
-        <v>1535600</v>
+        <v>1437000</v>
       </c>
       <c r="K43" s="3">
         <v>1409600</v>
@@ -2300,25 +2300,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>127800</v>
+        <v>119600</v>
       </c>
       <c r="E44" s="3">
-        <v>164300</v>
+        <v>153700</v>
       </c>
       <c r="F44" s="3">
-        <v>168200</v>
+        <v>157400</v>
       </c>
       <c r="G44" s="3">
-        <v>226800</v>
+        <v>212300</v>
       </c>
       <c r="H44" s="3">
-        <v>220300</v>
+        <v>206200</v>
       </c>
       <c r="I44" s="3">
-        <v>276400</v>
+        <v>258600</v>
       </c>
       <c r="J44" s="3">
-        <v>213800</v>
+        <v>200100</v>
       </c>
       <c r="K44" s="3">
         <v>222300</v>
@@ -2350,25 +2350,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1168000</v>
+        <v>1093000</v>
       </c>
       <c r="E45" s="3">
-        <v>1147200</v>
+        <v>1073500</v>
       </c>
       <c r="F45" s="3">
-        <v>1203200</v>
+        <v>1126000</v>
       </c>
       <c r="G45" s="3">
-        <v>1214900</v>
+        <v>1136900</v>
       </c>
       <c r="H45" s="3">
-        <v>1166700</v>
+        <v>1091800</v>
       </c>
       <c r="I45" s="3">
-        <v>1089800</v>
+        <v>1019800</v>
       </c>
       <c r="J45" s="3">
-        <v>1066300</v>
+        <v>997900</v>
       </c>
       <c r="K45" s="3">
         <v>1026300</v>
@@ -2400,25 +2400,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>4189700</v>
+        <v>3920800</v>
       </c>
       <c r="E46" s="3">
-        <v>3826000</v>
+        <v>3580400</v>
       </c>
       <c r="F46" s="3">
-        <v>4258800</v>
+        <v>3985400</v>
       </c>
       <c r="G46" s="3">
-        <v>3754300</v>
+        <v>3513300</v>
       </c>
       <c r="H46" s="3">
-        <v>3618800</v>
+        <v>3386400</v>
       </c>
       <c r="I46" s="3">
-        <v>3569200</v>
+        <v>3340100</v>
       </c>
       <c r="J46" s="3">
-        <v>3556200</v>
+        <v>3327900</v>
       </c>
       <c r="K46" s="3">
         <v>3097500</v>
@@ -2450,25 +2450,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>473200</v>
+        <v>442800</v>
       </c>
       <c r="E47" s="3">
-        <v>402800</v>
+        <v>376900</v>
       </c>
       <c r="F47" s="3">
-        <v>478400</v>
+        <v>447700</v>
       </c>
       <c r="G47" s="3">
-        <v>587900</v>
+        <v>550200</v>
       </c>
       <c r="H47" s="3">
-        <v>576200</v>
+        <v>539200</v>
       </c>
       <c r="I47" s="3">
-        <v>1259300</v>
+        <v>1178400</v>
       </c>
       <c r="J47" s="3">
-        <v>762600</v>
+        <v>713600</v>
       </c>
       <c r="K47" s="3">
         <v>764100</v>
@@ -2500,25 +2500,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>477100</v>
+        <v>446500</v>
       </c>
       <c r="E48" s="3">
-        <v>590500</v>
+        <v>552600</v>
       </c>
       <c r="F48" s="3">
-        <v>671300</v>
+        <v>628200</v>
       </c>
       <c r="G48" s="3">
-        <v>830400</v>
+        <v>777100</v>
       </c>
       <c r="H48" s="3">
-        <v>805600</v>
+        <v>753900</v>
       </c>
       <c r="I48" s="3">
-        <v>836900</v>
+        <v>783200</v>
       </c>
       <c r="J48" s="3">
-        <v>309000</v>
+        <v>289100</v>
       </c>
       <c r="K48" s="3">
         <v>356700</v>
@@ -2550,25 +2550,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3609600</v>
+        <v>3377900</v>
       </c>
       <c r="E49" s="3">
-        <v>3501400</v>
+        <v>3276700</v>
       </c>
       <c r="F49" s="3">
-        <v>3574400</v>
+        <v>3345000</v>
       </c>
       <c r="G49" s="3">
-        <v>3921200</v>
+        <v>3669500</v>
       </c>
       <c r="H49" s="3">
-        <v>3780400</v>
+        <v>3537700</v>
       </c>
       <c r="I49" s="3">
-        <v>3991600</v>
+        <v>3735300</v>
       </c>
       <c r="J49" s="3">
-        <v>3922500</v>
+        <v>3670700</v>
       </c>
       <c r="K49" s="3">
         <v>4082500</v>
@@ -2700,25 +2700,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>822600</v>
+        <v>769800</v>
       </c>
       <c r="E52" s="3">
-        <v>696100</v>
+        <v>651400</v>
       </c>
       <c r="F52" s="3">
-        <v>730000</v>
+        <v>683100</v>
       </c>
       <c r="G52" s="3">
-        <v>705200</v>
+        <v>660000</v>
       </c>
       <c r="H52" s="3">
-        <v>1191500</v>
+        <v>1115000</v>
       </c>
       <c r="I52" s="3">
-        <v>726100</v>
+        <v>679500</v>
       </c>
       <c r="J52" s="3">
-        <v>1754600</v>
+        <v>1642000</v>
       </c>
       <c r="K52" s="3">
         <v>1863500</v>
@@ -2800,25 +2800,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>9572300</v>
+        <v>8957700</v>
       </c>
       <c r="E54" s="3">
-        <v>9016900</v>
+        <v>8438000</v>
       </c>
       <c r="F54" s="3">
-        <v>9713000</v>
+        <v>9089500</v>
       </c>
       <c r="G54" s="3">
-        <v>9799100</v>
+        <v>9170000</v>
       </c>
       <c r="H54" s="3">
-        <v>9972500</v>
+        <v>9332200</v>
       </c>
       <c r="I54" s="3">
-        <v>10383100</v>
+        <v>9716500</v>
       </c>
       <c r="J54" s="3">
-        <v>10304900</v>
+        <v>9643300</v>
       </c>
       <c r="K54" s="3">
         <v>10164300</v>
@@ -2890,25 +2890,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1637300</v>
+        <v>1532200</v>
       </c>
       <c r="E57" s="3">
-        <v>1367500</v>
+        <v>1279700</v>
       </c>
       <c r="F57" s="3">
-        <v>1559100</v>
+        <v>1459000</v>
       </c>
       <c r="G57" s="3">
-        <v>1366200</v>
+        <v>1278500</v>
       </c>
       <c r="H57" s="3">
-        <v>1666000</v>
+        <v>1559000</v>
       </c>
       <c r="I57" s="3">
-        <v>1576000</v>
+        <v>1474900</v>
       </c>
       <c r="J57" s="3">
-        <v>1825000</v>
+        <v>1707900</v>
       </c>
       <c r="K57" s="3">
         <v>1561400</v>
@@ -2940,25 +2940,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>202100</v>
+        <v>189100</v>
       </c>
       <c r="E58" s="3">
-        <v>203400</v>
+        <v>190300</v>
       </c>
       <c r="F58" s="3">
-        <v>331100</v>
+        <v>309900</v>
       </c>
       <c r="G58" s="3">
-        <v>380600</v>
+        <v>356200</v>
       </c>
       <c r="H58" s="3">
-        <v>119900</v>
+        <v>112200</v>
       </c>
       <c r="I58" s="3">
-        <v>183800</v>
+        <v>172000</v>
       </c>
       <c r="J58" s="3">
-        <v>60000</v>
+        <v>56100</v>
       </c>
       <c r="K58" s="3">
         <v>43900</v>
@@ -2990,25 +2990,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>220300</v>
+        <v>206200</v>
       </c>
       <c r="E59" s="3">
-        <v>168200</v>
+        <v>157400</v>
       </c>
       <c r="F59" s="3">
-        <v>157700</v>
+        <v>147600</v>
       </c>
       <c r="G59" s="3">
-        <v>187700</v>
+        <v>175700</v>
       </c>
       <c r="H59" s="3">
-        <v>159000</v>
+        <v>148800</v>
       </c>
       <c r="I59" s="3">
-        <v>70400</v>
+        <v>65900</v>
       </c>
       <c r="J59" s="3">
-        <v>149900</v>
+        <v>140300</v>
       </c>
       <c r="K59" s="3">
         <v>374000</v>
@@ -3040,25 +3040,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2059700</v>
+        <v>1927400</v>
       </c>
       <c r="E60" s="3">
-        <v>1739000</v>
+        <v>1627300</v>
       </c>
       <c r="F60" s="3">
-        <v>2047900</v>
+        <v>1916500</v>
       </c>
       <c r="G60" s="3">
-        <v>1934500</v>
+        <v>1810300</v>
       </c>
       <c r="H60" s="3">
-        <v>1945000</v>
+        <v>1820100</v>
       </c>
       <c r="I60" s="3">
-        <v>1830200</v>
+        <v>1712700</v>
       </c>
       <c r="J60" s="3">
-        <v>2034900</v>
+        <v>1904300</v>
       </c>
       <c r="K60" s="3">
         <v>1979300</v>
@@ -3090,25 +3090,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1623000</v>
+        <v>1518800</v>
       </c>
       <c r="E61" s="3">
-        <v>1641200</v>
+        <v>1535900</v>
       </c>
       <c r="F61" s="3">
-        <v>1821100</v>
+        <v>1704200</v>
       </c>
       <c r="G61" s="3">
-        <v>2020600</v>
+        <v>1890800</v>
       </c>
       <c r="H61" s="3">
-        <v>2049200</v>
+        <v>1917700</v>
       </c>
       <c r="I61" s="3">
-        <v>2436400</v>
+        <v>2280000</v>
       </c>
       <c r="J61" s="3">
-        <v>878600</v>
+        <v>822200</v>
       </c>
       <c r="K61" s="3">
         <v>1422900</v>
@@ -3140,25 +3140,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>310300</v>
+        <v>290300</v>
       </c>
       <c r="E62" s="3">
-        <v>371500</v>
+        <v>347700</v>
       </c>
       <c r="F62" s="3">
-        <v>455000</v>
+        <v>425700</v>
       </c>
       <c r="G62" s="3">
-        <v>378000</v>
+        <v>353800</v>
       </c>
       <c r="H62" s="3">
-        <v>342800</v>
+        <v>320800</v>
       </c>
       <c r="I62" s="3">
-        <v>521400</v>
+        <v>488000</v>
       </c>
       <c r="J62" s="3">
-        <v>1492600</v>
+        <v>1396800</v>
       </c>
       <c r="K62" s="3">
         <v>1308500</v>
@@ -3340,25 +3340,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>4005900</v>
+        <v>3748800</v>
       </c>
       <c r="E66" s="3">
-        <v>3764800</v>
+        <v>3523100</v>
       </c>
       <c r="F66" s="3">
-        <v>4335700</v>
+        <v>4057400</v>
       </c>
       <c r="G66" s="3">
-        <v>4346200</v>
+        <v>4067100</v>
       </c>
       <c r="H66" s="3">
-        <v>4350100</v>
+        <v>4070800</v>
       </c>
       <c r="I66" s="3">
-        <v>4801100</v>
+        <v>4492900</v>
       </c>
       <c r="J66" s="3">
-        <v>4417900</v>
+        <v>4134200</v>
       </c>
       <c r="K66" s="3">
         <v>4722700</v>
@@ -3610,25 +3610,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1366200</v>
+        <v>1278500</v>
       </c>
       <c r="E72" s="3">
-        <v>1041600</v>
+        <v>974700</v>
       </c>
       <c r="F72" s="3">
-        <v>1151100</v>
+        <v>1077200</v>
       </c>
       <c r="G72" s="3">
-        <v>920300</v>
+        <v>861200</v>
       </c>
       <c r="H72" s="3">
-        <v>1201900</v>
+        <v>1124700</v>
       </c>
       <c r="I72" s="3">
-        <v>1031100</v>
+        <v>964900</v>
       </c>
       <c r="J72" s="3">
-        <v>1368800</v>
+        <v>1280900</v>
       </c>
       <c r="K72" s="3">
         <v>1011600</v>
@@ -3810,25 +3810,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>5566300</v>
+        <v>5209000</v>
       </c>
       <c r="E76" s="3">
-        <v>5252200</v>
+        <v>4915000</v>
       </c>
       <c r="F76" s="3">
-        <v>5377300</v>
+        <v>5032100</v>
       </c>
       <c r="G76" s="3">
-        <v>5452900</v>
+        <v>5102800</v>
       </c>
       <c r="H76" s="3">
-        <v>5622400</v>
+        <v>5261400</v>
       </c>
       <c r="I76" s="3">
-        <v>5582000</v>
+        <v>5223600</v>
       </c>
       <c r="J76" s="3">
-        <v>5887000</v>
+        <v>5509100</v>
       </c>
       <c r="K76" s="3">
         <v>5441500</v>
@@ -3965,25 +3965,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>185100</v>
+        <v>173200</v>
       </c>
       <c r="E81" s="3">
-        <v>22200</v>
+        <v>20700</v>
       </c>
       <c r="F81" s="3">
-        <v>341500</v>
+        <v>319600</v>
       </c>
       <c r="G81" s="3">
-        <v>62600</v>
+        <v>58600</v>
       </c>
       <c r="H81" s="3">
-        <v>282900</v>
+        <v>264700</v>
       </c>
       <c r="I81" s="3">
-        <v>61300</v>
+        <v>57300</v>
       </c>
       <c r="J81" s="3">
-        <v>521400</v>
+        <v>488000</v>
       </c>
       <c r="K81" s="3">
         <v>250200</v>
@@ -4035,25 +4035,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>288100</v>
+        <v>269600</v>
       </c>
       <c r="E83" s="3">
-        <v>243800</v>
+        <v>228100</v>
       </c>
       <c r="F83" s="3">
-        <v>182500</v>
+        <v>170800</v>
       </c>
       <c r="G83" s="3">
-        <v>215100</v>
+        <v>201300</v>
       </c>
       <c r="H83" s="3">
-        <v>216400</v>
+        <v>202500</v>
       </c>
       <c r="I83" s="3">
-        <v>206000</v>
+        <v>192700</v>
       </c>
       <c r="J83" s="3">
-        <v>169500</v>
+        <v>158600</v>
       </c>
       <c r="K83" s="3">
         <v>163700</v>
@@ -4335,25 +4335,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>522700</v>
+        <v>489200</v>
       </c>
       <c r="E89" s="3">
-        <v>-97800</v>
+        <v>-91500</v>
       </c>
       <c r="F89" s="3">
-        <v>693500</v>
+        <v>649000</v>
       </c>
       <c r="G89" s="3">
-        <v>-186400</v>
+        <v>-174400</v>
       </c>
       <c r="H89" s="3">
-        <v>698700</v>
+        <v>653900</v>
       </c>
       <c r="I89" s="3">
-        <v>-217700</v>
+        <v>-203700</v>
       </c>
       <c r="J89" s="3">
-        <v>827800</v>
+        <v>774600</v>
       </c>
       <c r="K89" s="3">
         <v>-230300</v>
@@ -4405,25 +4405,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-43000</v>
+        <v>-40300</v>
       </c>
       <c r="E91" s="3">
-        <v>-40400</v>
+        <v>-37800</v>
       </c>
       <c r="F91" s="3">
-        <v>-30000</v>
+        <v>-28100</v>
       </c>
       <c r="G91" s="3">
-        <v>-39100</v>
+        <v>-36600</v>
       </c>
       <c r="H91" s="3">
-        <v>-22200</v>
+        <v>-20700</v>
       </c>
       <c r="I91" s="3">
-        <v>-49500</v>
+        <v>-46400</v>
       </c>
       <c r="J91" s="3">
-        <v>-49500</v>
+        <v>-46400</v>
       </c>
       <c r="K91" s="3">
         <v>-42600</v>
@@ -4558,22 +4558,22 @@
         <v>0</v>
       </c>
       <c r="E94" s="3">
-        <v>-104300</v>
+        <v>-97600</v>
       </c>
       <c r="F94" s="3">
-        <v>15600</v>
+        <v>14600</v>
       </c>
       <c r="G94" s="3">
-        <v>754800</v>
+        <v>706300</v>
       </c>
       <c r="H94" s="3">
-        <v>-139500</v>
+        <v>-130500</v>
       </c>
       <c r="I94" s="3">
-        <v>-284200</v>
+        <v>-265900</v>
       </c>
       <c r="J94" s="3">
-        <v>121200</v>
+        <v>113500</v>
       </c>
       <c r="K94" s="3">
         <v>157100</v>
@@ -4625,25 +4625,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-61300</v>
+        <v>-57300</v>
       </c>
       <c r="E96" s="3">
-        <v>-133000</v>
+        <v>-124400</v>
       </c>
       <c r="F96" s="3">
-        <v>-58700</v>
+        <v>-54900</v>
       </c>
       <c r="G96" s="3">
-        <v>-131700</v>
+        <v>-123200</v>
       </c>
       <c r="H96" s="3">
-        <v>-60000</v>
+        <v>-56100</v>
       </c>
       <c r="I96" s="3">
-        <v>-131700</v>
+        <v>-123200</v>
       </c>
       <c r="J96" s="3">
-        <v>-56100</v>
+        <v>-52500</v>
       </c>
       <c r="K96" s="3">
         <v>-123800</v>
@@ -4825,25 +4825,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-136900</v>
+        <v>-128100</v>
       </c>
       <c r="E100" s="3">
-        <v>-402800</v>
+        <v>-376900</v>
       </c>
       <c r="F100" s="3">
-        <v>-131700</v>
+        <v>-123200</v>
       </c>
       <c r="G100" s="3">
-        <v>-258100</v>
+        <v>-241500</v>
       </c>
       <c r="H100" s="3">
-        <v>-478400</v>
+        <v>-447700</v>
       </c>
       <c r="I100" s="3">
-        <v>345500</v>
+        <v>323300</v>
       </c>
       <c r="J100" s="3">
-        <v>-595700</v>
+        <v>-557500</v>
       </c>
       <c r="K100" s="3">
         <v>-362100</v>
@@ -4875,25 +4875,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-9100</v>
+        <v>-8500</v>
       </c>
       <c r="E101" s="3">
-        <v>-1300</v>
+        <v>-1200</v>
       </c>
       <c r="F101" s="3">
-        <v>-18300</v>
+        <v>-17100</v>
       </c>
       <c r="G101" s="3">
-        <v>15600</v>
+        <v>14600</v>
       </c>
       <c r="H101" s="3">
-        <v>-40400</v>
+        <v>-37800</v>
       </c>
       <c r="I101" s="3">
-        <v>-2600</v>
+        <v>-2400</v>
       </c>
       <c r="J101" s="3">
-        <v>-60000</v>
+        <v>-56100</v>
       </c>
       <c r="K101" s="3">
         <v>-4000</v>
@@ -4925,25 +4925,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>376700</v>
+        <v>352600</v>
       </c>
       <c r="E102" s="3">
-        <v>-606200</v>
+        <v>-567300</v>
       </c>
       <c r="F102" s="3">
-        <v>559200</v>
+        <v>523300</v>
       </c>
       <c r="G102" s="3">
-        <v>325900</v>
+        <v>305000</v>
       </c>
       <c r="H102" s="3">
-        <v>40400</v>
+        <v>37800</v>
       </c>
       <c r="I102" s="3">
-        <v>-159000</v>
+        <v>-148800</v>
       </c>
       <c r="J102" s="3">
-        <v>293300</v>
+        <v>274500</v>
       </c>
       <c r="K102" s="3">
         <v>-439300</v>

--- a/AAII_Financials/Quarterly/PSO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PSO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
   <si>
     <t>PSO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,235 +665,248 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42735</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42551</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42369</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42185</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2233600</v>
+        <v>2115000</v>
       </c>
       <c r="E8" s="3">
-        <v>1948200</v>
+        <v>2165900</v>
       </c>
       <c r="F8" s="3">
-        <v>2323900</v>
+        <v>1889100</v>
       </c>
       <c r="G8" s="3">
-        <v>1820100</v>
+        <v>2253400</v>
       </c>
       <c r="H8" s="3">
-        <v>2488600</v>
+        <v>1764900</v>
       </c>
       <c r="I8" s="3">
-        <v>2231200</v>
+        <v>2413100</v>
       </c>
       <c r="J8" s="3">
+        <v>2163500</v>
+      </c>
+      <c r="K8" s="3">
         <v>2761900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2482500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3489700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2725400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3308100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2412400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3223000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2629600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>3282800</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1108900</v>
+        <v>1139100</v>
       </c>
       <c r="E9" s="3">
-        <v>1022300</v>
+        <v>1075300</v>
       </c>
       <c r="F9" s="3">
-        <v>1121100</v>
+        <v>991300</v>
       </c>
       <c r="G9" s="3">
-        <v>1034500</v>
+        <v>1087100</v>
       </c>
       <c r="H9" s="3">
-        <v>1163800</v>
+        <v>1003100</v>
       </c>
       <c r="I9" s="3">
-        <v>1102800</v>
+        <v>1128500</v>
       </c>
       <c r="J9" s="3">
+        <v>1069300</v>
+      </c>
+      <c r="K9" s="3">
         <v>1257700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1214000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1518400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1322100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1454500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1179000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1322600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1273300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1370800</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1124700</v>
+        <v>975900</v>
       </c>
       <c r="E10" s="3">
-        <v>925900</v>
+        <v>1090600</v>
       </c>
       <c r="F10" s="3">
-        <v>1202800</v>
+        <v>897800</v>
       </c>
       <c r="G10" s="3">
-        <v>785600</v>
+        <v>1166300</v>
       </c>
       <c r="H10" s="3">
-        <v>1324800</v>
+        <v>761800</v>
       </c>
       <c r="I10" s="3">
-        <v>1128400</v>
+        <v>1284600</v>
       </c>
       <c r="J10" s="3">
+        <v>1094200</v>
+      </c>
+      <c r="K10" s="3">
         <v>1504100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1268500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1971200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1403300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1853600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1233300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1900400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1356300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1912000</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -912,8 +925,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -962,8 +976,11 @@
       <c r="R12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1012,58 +1029,64 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-84200</v>
+        <v>-16600</v>
       </c>
       <c r="E14" s="3">
-        <v>7300</v>
+        <v>-81600</v>
       </c>
       <c r="F14" s="3">
-        <v>3700</v>
+        <v>7100</v>
       </c>
       <c r="G14" s="3">
-        <v>-220800</v>
+        <v>3500</v>
       </c>
       <c r="H14" s="3">
-        <v>-12200</v>
+        <v>-214100</v>
       </c>
       <c r="I14" s="3">
-        <v>-7300</v>
+        <v>-11800</v>
       </c>
       <c r="J14" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="K14" s="3">
         <v>-28100</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-275500</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-181100</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>3138100</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
       <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>1107400</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
       <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
         <v>101400</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1112,8 +1135,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1129,108 +1155,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2021400</v>
+        <v>1940000</v>
       </c>
       <c r="E17" s="3">
-        <v>1937200</v>
+        <v>1960100</v>
       </c>
       <c r="F17" s="3">
-        <v>1953100</v>
+        <v>1878400</v>
       </c>
       <c r="G17" s="3">
-        <v>1689600</v>
+        <v>1893800</v>
       </c>
       <c r="H17" s="3">
-        <v>2198300</v>
+        <v>1638300</v>
       </c>
       <c r="I17" s="3">
-        <v>2186100</v>
+        <v>2131600</v>
       </c>
       <c r="J17" s="3">
+        <v>2119800</v>
+      </c>
+      <c r="K17" s="3">
         <v>2371500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2172400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2874100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2704100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>6031100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2782100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>3581600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2799500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2775800</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>212300</v>
+        <v>175100</v>
       </c>
       <c r="E18" s="3">
-        <v>11000</v>
+        <v>205800</v>
       </c>
       <c r="F18" s="3">
-        <v>370800</v>
+        <v>10600</v>
       </c>
       <c r="G18" s="3">
-        <v>130500</v>
+        <v>359600</v>
       </c>
       <c r="H18" s="3">
-        <v>290300</v>
+        <v>126600</v>
       </c>
       <c r="I18" s="3">
-        <v>45100</v>
+        <v>281500</v>
       </c>
       <c r="J18" s="3">
+        <v>43800</v>
+      </c>
+      <c r="K18" s="3">
         <v>390400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>310100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>615600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>21300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-2723100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-369700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-358700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-169900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>507000</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1249,108 +1282,115 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-25600</v>
+        <v>36700</v>
       </c>
       <c r="E20" s="3">
-        <v>-6100</v>
+        <v>-24800</v>
       </c>
       <c r="F20" s="3">
-        <v>18300</v>
+        <v>-5900</v>
       </c>
       <c r="G20" s="3">
-        <v>-87800</v>
+        <v>17700</v>
       </c>
       <c r="H20" s="3">
-        <v>-23200</v>
+        <v>-85200</v>
       </c>
       <c r="I20" s="3">
+        <v>-22500</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-28400</v>
+      </c>
+      <c r="K20" s="3">
         <v>-29300</v>
       </c>
-      <c r="J20" s="3">
-        <v>-29300</v>
-      </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-41300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-5700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-34600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-49300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-25900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-33900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-4000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-123800</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>456200</v>
+        <v>363200</v>
       </c>
       <c r="E21" s="3">
-        <v>233000</v>
+        <v>442400</v>
       </c>
       <c r="F21" s="3">
-        <v>559900</v>
+        <v>225900</v>
       </c>
       <c r="G21" s="3">
-        <v>244000</v>
+        <v>543000</v>
       </c>
       <c r="H21" s="3">
-        <v>469700</v>
+        <v>236600</v>
       </c>
       <c r="I21" s="3">
-        <v>208600</v>
+        <v>455400</v>
       </c>
       <c r="J21" s="3">
+        <v>202300</v>
+      </c>
+      <c r="K21" s="3">
         <v>519700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>432600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>833500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>193100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-2550600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-157700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>954800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>46100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>722900</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1399,108 +1439,117 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>186600</v>
+        <v>211700</v>
       </c>
       <c r="E23" s="3">
-        <v>4900</v>
+        <v>181000</v>
       </c>
       <c r="F23" s="3">
-        <v>389100</v>
+        <v>4700</v>
       </c>
       <c r="G23" s="3">
-        <v>42700</v>
+        <v>377300</v>
       </c>
       <c r="H23" s="3">
-        <v>267200</v>
+        <v>41400</v>
       </c>
       <c r="I23" s="3">
-        <v>15900</v>
+        <v>259100</v>
       </c>
       <c r="J23" s="3">
+        <v>15400</v>
+      </c>
+      <c r="K23" s="3">
         <v>361100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>268900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>609900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-13300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-2772300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-395600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-392600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-173800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>383200</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>13400</v>
+        <v>56800</v>
       </c>
       <c r="E24" s="3">
-        <v>-17100</v>
+        <v>13000</v>
       </c>
       <c r="F24" s="3">
-        <v>69500</v>
+        <v>-16600</v>
       </c>
       <c r="G24" s="3">
-        <v>-15900</v>
+        <v>67400</v>
       </c>
       <c r="H24" s="3">
+        <v>-15400</v>
+      </c>
+      <c r="I24" s="3">
         <v>1200</v>
       </c>
-      <c r="I24" s="3">
-        <v>-42700</v>
-      </c>
       <c r="J24" s="3">
+        <v>-41400</v>
+      </c>
+      <c r="K24" s="3">
         <v>-128100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>17300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>17000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>8000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-167500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-111200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-53500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-52700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>86900</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1549,108 +1598,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>173200</v>
+        <v>155000</v>
       </c>
       <c r="E26" s="3">
-        <v>22000</v>
+        <v>168000</v>
       </c>
       <c r="F26" s="3">
-        <v>319600</v>
+        <v>21300</v>
       </c>
       <c r="G26" s="3">
-        <v>58600</v>
+        <v>309900</v>
       </c>
       <c r="H26" s="3">
-        <v>265900</v>
+        <v>56800</v>
       </c>
       <c r="I26" s="3">
-        <v>58600</v>
+        <v>257900</v>
       </c>
       <c r="J26" s="3">
+        <v>56800</v>
+      </c>
+      <c r="K26" s="3">
         <v>489200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>251600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>592900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-21300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-2604800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-284400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-339100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-121100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>296300</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>173200</v>
+        <v>155000</v>
       </c>
       <c r="E27" s="3">
-        <v>20700</v>
+        <v>168000</v>
       </c>
       <c r="F27" s="3">
-        <v>319600</v>
+        <v>20100</v>
       </c>
       <c r="G27" s="3">
-        <v>58600</v>
+        <v>309900</v>
       </c>
       <c r="H27" s="3">
-        <v>264700</v>
+        <v>56800</v>
       </c>
       <c r="I27" s="3">
-        <v>57300</v>
+        <v>256700</v>
       </c>
       <c r="J27" s="3">
+        <v>55600</v>
+      </c>
+      <c r="K27" s="3">
         <v>488000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>250200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>591500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-22600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-2606100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-285700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-339100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-121100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>297600</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1699,8 +1757,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1722,35 +1783,38 @@
       <c r="I29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
+      <c r="J29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K29" s="3">
         <v>0</v>
       </c>
       <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
         <v>7100</v>
       </c>
-      <c r="M29" s="3" t="s">
+      <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
       <c r="O29" s="3">
         <v>0</v>
       </c>
       <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
         <v>1515600</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>17100</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>23700</v>
       </c>
     </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1799,8 +1863,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1849,108 +1916,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>25600</v>
+        <v>-36700</v>
       </c>
       <c r="E32" s="3">
-        <v>6100</v>
+        <v>24800</v>
       </c>
       <c r="F32" s="3">
-        <v>-18300</v>
+        <v>5900</v>
       </c>
       <c r="G32" s="3">
-        <v>87800</v>
+        <v>-17700</v>
       </c>
       <c r="H32" s="3">
-        <v>23200</v>
+        <v>85200</v>
       </c>
       <c r="I32" s="3">
+        <v>22500</v>
+      </c>
+      <c r="J32" s="3">
+        <v>28400</v>
+      </c>
+      <c r="K32" s="3">
         <v>29300</v>
       </c>
-      <c r="J32" s="3">
-        <v>29300</v>
-      </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>41300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>5700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>34600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>49300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>25900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>33900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>4000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>123800</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>173200</v>
+        <v>155000</v>
       </c>
       <c r="E33" s="3">
-        <v>20700</v>
+        <v>168000</v>
       </c>
       <c r="F33" s="3">
-        <v>319600</v>
+        <v>20100</v>
       </c>
       <c r="G33" s="3">
-        <v>58600</v>
+        <v>309900</v>
       </c>
       <c r="H33" s="3">
-        <v>264700</v>
+        <v>56800</v>
       </c>
       <c r="I33" s="3">
-        <v>57300</v>
+        <v>256700</v>
       </c>
       <c r="J33" s="3">
+        <v>55600</v>
+      </c>
+      <c r="K33" s="3">
         <v>488000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>250200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>598600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-22600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-2606100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-285700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1176500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-104000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>321300</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1999,113 +2075,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>173200</v>
+        <v>155000</v>
       </c>
       <c r="E35" s="3">
-        <v>20700</v>
+        <v>168000</v>
       </c>
       <c r="F35" s="3">
-        <v>319600</v>
+        <v>20100</v>
       </c>
       <c r="G35" s="3">
-        <v>58600</v>
+        <v>309900</v>
       </c>
       <c r="H35" s="3">
-        <v>264700</v>
+        <v>56800</v>
       </c>
       <c r="I35" s="3">
-        <v>57300</v>
+        <v>256700</v>
       </c>
       <c r="J35" s="3">
+        <v>55600</v>
+      </c>
+      <c r="K35" s="3">
         <v>488000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>250200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>598600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-22600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-2606100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-285700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1176500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-104000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>321300</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42735</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42551</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42369</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42185</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2124,8 +2209,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2144,58 +2230,62 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1143000</v>
+        <v>463700</v>
       </c>
       <c r="E41" s="3">
-        <v>790500</v>
+        <v>1108400</v>
       </c>
       <c r="F41" s="3">
-        <v>1338200</v>
+        <v>766500</v>
       </c>
       <c r="G41" s="3">
-        <v>838100</v>
+        <v>1297600</v>
       </c>
       <c r="H41" s="3">
-        <v>533100</v>
+        <v>812700</v>
       </c>
       <c r="I41" s="3">
-        <v>508700</v>
+        <v>516900</v>
       </c>
       <c r="J41" s="3">
+        <v>493300</v>
+      </c>
+      <c r="K41" s="3">
         <v>692900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>439300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>733000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>609800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1796900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1267000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2221200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>475400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>697900</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2224,378 +2314,402 @@
         <v>0</v>
       </c>
       <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
         <v>11300</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>14600</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>12300</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>40100</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>36500</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>34200</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>21100</v>
       </c>
     </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1565100</v>
+        <v>1430100</v>
       </c>
       <c r="E43" s="3">
-        <v>1562700</v>
+        <v>1517700</v>
       </c>
       <c r="F43" s="3">
-        <v>1363800</v>
+        <v>1515300</v>
       </c>
       <c r="G43" s="3">
-        <v>1326000</v>
+        <v>1322500</v>
       </c>
       <c r="H43" s="3">
-        <v>1555400</v>
+        <v>1285800</v>
       </c>
       <c r="I43" s="3">
-        <v>1552900</v>
+        <v>1508200</v>
       </c>
       <c r="J43" s="3">
+        <v>1505800</v>
+      </c>
+      <c r="K43" s="3">
         <v>1437000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1409600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1570800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1642900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1671300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1736200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1674700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1677600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1725000</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>119600</v>
+        <v>121800</v>
       </c>
       <c r="E44" s="3">
-        <v>153700</v>
+        <v>115900</v>
       </c>
       <c r="F44" s="3">
-        <v>157400</v>
+        <v>149000</v>
       </c>
       <c r="G44" s="3">
-        <v>212300</v>
+        <v>152600</v>
       </c>
       <c r="H44" s="3">
-        <v>206200</v>
+        <v>205800</v>
       </c>
       <c r="I44" s="3">
-        <v>258600</v>
+        <v>199900</v>
       </c>
       <c r="J44" s="3">
+        <v>250800</v>
+      </c>
+      <c r="K44" s="3">
         <v>200100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>222300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>209400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>316900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>289400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>354200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>275200</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>330500</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>295000</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1093000</v>
+        <v>1103600</v>
       </c>
       <c r="E45" s="3">
-        <v>1073500</v>
+        <v>1059900</v>
       </c>
       <c r="F45" s="3">
-        <v>1126000</v>
+        <v>1041000</v>
       </c>
       <c r="G45" s="3">
-        <v>1136900</v>
+        <v>1091800</v>
       </c>
       <c r="H45" s="3">
-        <v>1091800</v>
+        <v>1102500</v>
       </c>
       <c r="I45" s="3">
-        <v>1019800</v>
+        <v>1058700</v>
       </c>
       <c r="J45" s="3">
+        <v>988900</v>
+      </c>
+      <c r="K45" s="3">
         <v>997900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1026300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1048600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1319400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1261200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1221700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1138700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1114000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1111400</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3920800</v>
+        <v>3119300</v>
       </c>
       <c r="E46" s="3">
-        <v>3580400</v>
+        <v>3801800</v>
       </c>
       <c r="F46" s="3">
-        <v>3985400</v>
+        <v>3471800</v>
       </c>
       <c r="G46" s="3">
-        <v>3513300</v>
+        <v>3864500</v>
       </c>
       <c r="H46" s="3">
-        <v>3386400</v>
+        <v>3406800</v>
       </c>
       <c r="I46" s="3">
-        <v>3340100</v>
+        <v>3283700</v>
       </c>
       <c r="J46" s="3">
+        <v>3238800</v>
+      </c>
+      <c r="K46" s="3">
         <v>3327900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3097500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3573200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3903700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>5031100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>4619200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>5346400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>3631700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>3850300</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>442800</v>
+        <v>388000</v>
       </c>
       <c r="E47" s="3">
-        <v>376900</v>
+        <v>429400</v>
       </c>
       <c r="F47" s="3">
-        <v>447700</v>
+        <v>365500</v>
       </c>
       <c r="G47" s="3">
-        <v>550200</v>
+        <v>434100</v>
       </c>
       <c r="H47" s="3">
-        <v>539200</v>
+        <v>533500</v>
       </c>
       <c r="I47" s="3">
-        <v>1178400</v>
+        <v>522800</v>
       </c>
       <c r="J47" s="3">
+        <v>1142700</v>
+      </c>
+      <c r="K47" s="3">
         <v>713600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>764100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>817900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1141000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>1743900</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>1772400</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>1775200</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>1603900</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>1651300</v>
       </c>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>446500</v>
+        <v>430600</v>
       </c>
       <c r="E48" s="3">
-        <v>552600</v>
+        <v>432900</v>
       </c>
       <c r="F48" s="3">
-        <v>628200</v>
+        <v>535900</v>
       </c>
       <c r="G48" s="3">
-        <v>777100</v>
+        <v>609200</v>
       </c>
       <c r="H48" s="3">
-        <v>753900</v>
+        <v>753500</v>
       </c>
       <c r="I48" s="3">
-        <v>783200</v>
+        <v>731000</v>
       </c>
       <c r="J48" s="3">
+        <v>759400</v>
+      </c>
+      <c r="K48" s="3">
         <v>289100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>356700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>397600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>407400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>422400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>438300</v>
-      </c>
-      <c r="P48" s="3">
-        <v>417400</v>
       </c>
       <c r="Q48" s="3">
         <v>417400</v>
       </c>
       <c r="R48" s="3">
+        <v>417400</v>
+      </c>
+      <c r="S48" s="3">
         <v>439800</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3377900</v>
+        <v>3801800</v>
       </c>
       <c r="E49" s="3">
-        <v>3276700</v>
+        <v>3275500</v>
       </c>
       <c r="F49" s="3">
-        <v>3345000</v>
+        <v>3177300</v>
       </c>
       <c r="G49" s="3">
-        <v>3669500</v>
+        <v>3243500</v>
       </c>
       <c r="H49" s="3">
-        <v>3537700</v>
+        <v>3558200</v>
       </c>
       <c r="I49" s="3">
-        <v>3735300</v>
+        <v>3430400</v>
       </c>
       <c r="J49" s="3">
+        <v>3622000</v>
+      </c>
+      <c r="K49" s="3">
         <v>3670700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>4082500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>4194400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>4348400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>4239200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>7260400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>6735500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>7816500</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>8308900</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2644,8 +2758,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2694,58 +2811,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>769800</v>
+        <v>1096500</v>
       </c>
       <c r="E52" s="3">
-        <v>651400</v>
+        <v>746400</v>
       </c>
       <c r="F52" s="3">
-        <v>683100</v>
+        <v>631700</v>
       </c>
       <c r="G52" s="3">
-        <v>660000</v>
+        <v>662400</v>
       </c>
       <c r="H52" s="3">
-        <v>1115000</v>
+        <v>639900</v>
       </c>
       <c r="I52" s="3">
-        <v>679500</v>
+        <v>1081200</v>
       </c>
       <c r="J52" s="3">
+        <v>658900</v>
+      </c>
+      <c r="K52" s="3">
         <v>1642000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1863500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>2179300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1978500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>960600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1199700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>901300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>886200</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>757200</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2794,58 +2917,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>8957700</v>
+        <v>8836300</v>
       </c>
       <c r="E54" s="3">
-        <v>8438000</v>
+        <v>8686000</v>
       </c>
       <c r="F54" s="3">
-        <v>9089500</v>
+        <v>8182100</v>
       </c>
       <c r="G54" s="3">
-        <v>9170000</v>
+        <v>8813800</v>
       </c>
       <c r="H54" s="3">
-        <v>9332200</v>
+        <v>8891900</v>
       </c>
       <c r="I54" s="3">
-        <v>9716500</v>
+        <v>9049200</v>
       </c>
       <c r="J54" s="3">
+        <v>9421800</v>
+      </c>
+      <c r="K54" s="3">
         <v>9643300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>10164300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>11162400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>11778900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>12397300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>15290100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>15175600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>14355600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>15007500</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2864,8 +2993,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2884,308 +3014,327 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1532200</v>
+        <v>1459700</v>
       </c>
       <c r="E57" s="3">
-        <v>1279700</v>
+        <v>1485700</v>
       </c>
       <c r="F57" s="3">
-        <v>1459000</v>
+        <v>1240900</v>
       </c>
       <c r="G57" s="3">
-        <v>1278500</v>
+        <v>1414700</v>
       </c>
       <c r="H57" s="3">
-        <v>1559000</v>
+        <v>1239700</v>
       </c>
       <c r="I57" s="3">
-        <v>1474900</v>
+        <v>1511700</v>
       </c>
       <c r="J57" s="3">
+        <v>1430100</v>
+      </c>
+      <c r="K57" s="3">
         <v>1707900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1561400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1899100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1772100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2006300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1891400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1813000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1721000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2108200</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>189100</v>
+        <v>177400</v>
       </c>
       <c r="E58" s="3">
-        <v>190300</v>
+        <v>183300</v>
       </c>
       <c r="F58" s="3">
-        <v>309900</v>
+        <v>184500</v>
       </c>
       <c r="G58" s="3">
-        <v>356200</v>
+        <v>300500</v>
       </c>
       <c r="H58" s="3">
-        <v>112200</v>
+        <v>345400</v>
       </c>
       <c r="I58" s="3">
-        <v>172000</v>
+        <v>108800</v>
       </c>
       <c r="J58" s="3">
+        <v>166800</v>
+      </c>
+      <c r="K58" s="3">
         <v>56100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>43900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>26900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>354200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>54200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>148700</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>367800</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>965200</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>450300</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>206200</v>
+        <v>80400</v>
       </c>
       <c r="E59" s="3">
-        <v>157400</v>
+        <v>199900</v>
       </c>
       <c r="F59" s="3">
-        <v>147600</v>
+        <v>152600</v>
       </c>
       <c r="G59" s="3">
-        <v>175700</v>
+        <v>143100</v>
       </c>
       <c r="H59" s="3">
-        <v>148800</v>
+        <v>170300</v>
       </c>
       <c r="I59" s="3">
-        <v>65900</v>
+        <v>144300</v>
       </c>
       <c r="J59" s="3">
+        <v>63900</v>
+      </c>
+      <c r="K59" s="3">
         <v>140300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>374000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>362300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>279600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>309100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>181000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>306500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>221200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>321300</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1927400</v>
+        <v>1717600</v>
       </c>
       <c r="E60" s="3">
-        <v>1627300</v>
+        <v>1869000</v>
       </c>
       <c r="F60" s="3">
-        <v>1916500</v>
+        <v>1578000</v>
       </c>
       <c r="G60" s="3">
-        <v>1810300</v>
+        <v>1858300</v>
       </c>
       <c r="H60" s="3">
-        <v>1820100</v>
+        <v>1755400</v>
       </c>
       <c r="I60" s="3">
-        <v>1712700</v>
+        <v>1764900</v>
       </c>
       <c r="J60" s="3">
+        <v>1660800</v>
+      </c>
+      <c r="K60" s="3">
         <v>1904300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1979300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2288200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2405800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2369600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2221000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2487300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2907500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2879800</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1518800</v>
+        <v>1361500</v>
       </c>
       <c r="E61" s="3">
-        <v>1535900</v>
+        <v>1472700</v>
       </c>
       <c r="F61" s="3">
-        <v>1704200</v>
+        <v>1489300</v>
       </c>
       <c r="G61" s="3">
-        <v>1890800</v>
+        <v>1652500</v>
       </c>
       <c r="H61" s="3">
-        <v>1917700</v>
+        <v>1833500</v>
       </c>
       <c r="I61" s="3">
-        <v>2280000</v>
+        <v>1859500</v>
       </c>
       <c r="J61" s="3">
+        <v>2210800</v>
+      </c>
+      <c r="K61" s="3">
         <v>822200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1422900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1508500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2417800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2985400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>3004500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2671200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2532200</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>2479500</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>290300</v>
+        <v>443600</v>
       </c>
       <c r="E62" s="3">
-        <v>347700</v>
+        <v>281500</v>
       </c>
       <c r="F62" s="3">
-        <v>425700</v>
+        <v>337100</v>
       </c>
       <c r="G62" s="3">
-        <v>353800</v>
+        <v>412800</v>
       </c>
       <c r="H62" s="3">
-        <v>320800</v>
+        <v>343000</v>
       </c>
       <c r="I62" s="3">
-        <v>488000</v>
+        <v>311100</v>
       </c>
       <c r="J62" s="3">
+        <v>473200</v>
+      </c>
+      <c r="K62" s="3">
         <v>1396800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1308500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1675500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1680200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1687300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1713000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1646000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1800100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1767100</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3234,8 +3383,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3284,8 +3436,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3334,58 +3489,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>3748800</v>
+        <v>3535700</v>
       </c>
       <c r="E66" s="3">
-        <v>3523100</v>
+        <v>3635100</v>
       </c>
       <c r="F66" s="3">
-        <v>4057400</v>
+        <v>3416200</v>
       </c>
       <c r="G66" s="3">
-        <v>4067100</v>
+        <v>3934300</v>
       </c>
       <c r="H66" s="3">
-        <v>4070800</v>
+        <v>3943800</v>
       </c>
       <c r="I66" s="3">
-        <v>4492900</v>
+        <v>3947300</v>
       </c>
       <c r="J66" s="3">
+        <v>4356600</v>
+      </c>
+      <c r="K66" s="3">
         <v>4134200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4722700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>5483600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>6510500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>7047200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>6942400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>6809800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>7247600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>7134400</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3404,8 +3565,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3454,8 +3616,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3504,8 +3669,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3554,8 +3722,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3604,58 +3775,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1278500</v>
+        <v>1120200</v>
       </c>
       <c r="E72" s="3">
-        <v>974700</v>
+        <v>1239700</v>
       </c>
       <c r="F72" s="3">
-        <v>1077200</v>
+        <v>945100</v>
       </c>
       <c r="G72" s="3">
-        <v>861200</v>
+        <v>1044500</v>
       </c>
       <c r="H72" s="3">
-        <v>1124700</v>
+        <v>835100</v>
       </c>
       <c r="I72" s="3">
-        <v>964900</v>
+        <v>1090600</v>
       </c>
       <c r="J72" s="3">
+        <v>935700</v>
+      </c>
+      <c r="K72" s="3">
         <v>1280900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1011600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>943900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>555200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>881800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>4151200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>4823300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>3531600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>4213700</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3704,8 +3881,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3754,8 +3934,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3804,58 +3987,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>5209000</v>
+        <v>5300600</v>
       </c>
       <c r="E76" s="3">
-        <v>4915000</v>
+        <v>5051000</v>
       </c>
       <c r="F76" s="3">
-        <v>5032100</v>
+        <v>4765900</v>
       </c>
       <c r="G76" s="3">
-        <v>5102800</v>
+        <v>4879500</v>
       </c>
       <c r="H76" s="3">
-        <v>5261400</v>
+        <v>4948100</v>
       </c>
       <c r="I76" s="3">
-        <v>5223600</v>
+        <v>5101800</v>
       </c>
       <c r="J76" s="3">
+        <v>5065200</v>
+      </c>
+      <c r="K76" s="3">
         <v>5509100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>5441500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>5678800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>5268300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>5350100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>8347700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>8365800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>7108000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>7873100</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3904,113 +4093,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42735</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42551</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42369</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42185</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>173200</v>
+        <v>155000</v>
       </c>
       <c r="E81" s="3">
-        <v>20700</v>
+        <v>168000</v>
       </c>
       <c r="F81" s="3">
-        <v>319600</v>
+        <v>20100</v>
       </c>
       <c r="G81" s="3">
-        <v>58600</v>
+        <v>309900</v>
       </c>
       <c r="H81" s="3">
-        <v>264700</v>
+        <v>56800</v>
       </c>
       <c r="I81" s="3">
-        <v>57300</v>
+        <v>256700</v>
       </c>
       <c r="J81" s="3">
+        <v>55600</v>
+      </c>
+      <c r="K81" s="3">
         <v>488000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>250200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>598600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-22600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-2606100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-285700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1176500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-104000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>321300</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4029,58 +4227,62 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>269600</v>
+        <v>120700</v>
       </c>
       <c r="E83" s="3">
-        <v>228100</v>
+        <v>261400</v>
       </c>
       <c r="F83" s="3">
-        <v>170800</v>
+        <v>221200</v>
       </c>
       <c r="G83" s="3">
-        <v>201300</v>
+        <v>165600</v>
       </c>
       <c r="H83" s="3">
-        <v>202500</v>
+        <v>195200</v>
       </c>
       <c r="I83" s="3">
-        <v>192700</v>
+        <v>196400</v>
       </c>
       <c r="J83" s="3">
+        <v>186900</v>
+      </c>
+      <c r="K83" s="3">
         <v>158600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>163700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>103300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>206400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>118200</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>237900</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>1250800</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>219900</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>256800</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4129,8 +4331,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4179,8 +4384,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4229,8 +4437,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4279,8 +4490,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4329,58 +4543,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>489200</v>
+        <v>-39000</v>
       </c>
       <c r="E89" s="3">
-        <v>-91500</v>
+        <v>474300</v>
       </c>
       <c r="F89" s="3">
-        <v>649000</v>
+        <v>-88700</v>
       </c>
       <c r="G89" s="3">
-        <v>-174400</v>
+        <v>629300</v>
       </c>
       <c r="H89" s="3">
-        <v>653900</v>
+        <v>-169200</v>
       </c>
       <c r="I89" s="3">
-        <v>-203700</v>
+        <v>634000</v>
       </c>
       <c r="J89" s="3">
+        <v>-197500</v>
+      </c>
+      <c r="K89" s="3">
         <v>774600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-230300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>846200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-399400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>902800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-417600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>763000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-492500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>999400</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4399,58 +4619,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-40300</v>
+        <v>-24800</v>
       </c>
       <c r="E91" s="3">
-        <v>-37800</v>
+        <v>-39000</v>
       </c>
       <c r="F91" s="3">
-        <v>-28100</v>
+        <v>-36700</v>
       </c>
       <c r="G91" s="3">
-        <v>-36600</v>
+        <v>-27200</v>
       </c>
       <c r="H91" s="3">
-        <v>-20700</v>
+        <v>-35500</v>
       </c>
       <c r="I91" s="3">
+        <v>-20100</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-45000</v>
+      </c>
+      <c r="K91" s="3">
         <v>-46400</v>
       </c>
-      <c r="J91" s="3">
-        <v>-46400</v>
-      </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-42600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-70800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-42600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-53000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-58200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-65200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-125100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-160600</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4499,8 +4723,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4549,58 +4776,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-179800</v>
       </c>
       <c r="E94" s="3">
-        <v>-97600</v>
+        <v>0</v>
       </c>
       <c r="F94" s="3">
-        <v>14600</v>
+        <v>-94600</v>
       </c>
       <c r="G94" s="3">
-        <v>706300</v>
+        <v>14200</v>
       </c>
       <c r="H94" s="3">
-        <v>-130500</v>
+        <v>684900</v>
       </c>
       <c r="I94" s="3">
-        <v>-265900</v>
+        <v>-126600</v>
       </c>
       <c r="J94" s="3">
+        <v>-257900</v>
+      </c>
+      <c r="K94" s="3">
         <v>113500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>157100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>1016000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-89200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-24600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-27100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>1753000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-15800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-92200</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4619,58 +4852,62 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-57300</v>
+        <v>-126600</v>
       </c>
       <c r="E96" s="3">
-        <v>-124400</v>
+        <v>-55600</v>
       </c>
       <c r="F96" s="3">
-        <v>-54900</v>
+        <v>-120700</v>
       </c>
       <c r="G96" s="3">
-        <v>-123200</v>
+        <v>-53200</v>
       </c>
       <c r="H96" s="3">
-        <v>-56100</v>
+        <v>-119500</v>
       </c>
       <c r="I96" s="3">
-        <v>-123200</v>
+        <v>-54400</v>
       </c>
       <c r="J96" s="3">
+        <v>-119500</v>
+      </c>
+      <c r="K96" s="3">
         <v>-52500</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-123800</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-58000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-368800</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-181000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-358100</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-190400</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-364800</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-181700</v>
       </c>
     </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4719,8 +4956,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4769,8 +5009,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4819,154 +5062,166 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-128100</v>
+        <v>-488500</v>
       </c>
       <c r="E100" s="3">
-        <v>-376900</v>
+        <v>-124200</v>
       </c>
       <c r="F100" s="3">
-        <v>-123200</v>
+        <v>-365500</v>
       </c>
       <c r="G100" s="3">
-        <v>-241500</v>
+        <v>-119500</v>
       </c>
       <c r="H100" s="3">
-        <v>-447700</v>
+        <v>-234200</v>
       </c>
       <c r="I100" s="3">
-        <v>323300</v>
+        <v>-434100</v>
       </c>
       <c r="J100" s="3">
+        <v>313500</v>
+      </c>
+      <c r="K100" s="3">
         <v>-557500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-362100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1661300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-778900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-219200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-671000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-811300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>339700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-809800</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-8500</v>
+        <v>62700</v>
       </c>
       <c r="E101" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="F101" s="3">
         <v>-1200</v>
       </c>
-      <c r="F101" s="3">
-        <v>-17100</v>
-      </c>
       <c r="G101" s="3">
-        <v>14600</v>
+        <v>-16600</v>
       </c>
       <c r="H101" s="3">
-        <v>-37800</v>
+        <v>14200</v>
       </c>
       <c r="I101" s="3">
+        <v>-36700</v>
+      </c>
+      <c r="J101" s="3">
         <v>-2400</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-56100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-4000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>41000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-17300</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>14800</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>89200</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>17000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-42100</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>352600</v>
+        <v>-644700</v>
       </c>
       <c r="E102" s="3">
-        <v>-567300</v>
+        <v>341900</v>
       </c>
       <c r="F102" s="3">
-        <v>523300</v>
+        <v>-550000</v>
       </c>
       <c r="G102" s="3">
-        <v>305000</v>
+        <v>507500</v>
       </c>
       <c r="H102" s="3">
-        <v>37800</v>
+        <v>295700</v>
       </c>
       <c r="I102" s="3">
-        <v>-148800</v>
+        <v>36700</v>
       </c>
       <c r="J102" s="3">
+        <v>-144300</v>
+      </c>
+      <c r="K102" s="3">
         <v>274500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-439300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>242000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-1284800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>673700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-1026500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>1721700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-210700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>102700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PSO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PSO_QTR_FIN.xlsx
@@ -752,25 +752,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2115000</v>
+        <v>2094300</v>
       </c>
       <c r="E8" s="3">
-        <v>2165900</v>
+        <v>2144700</v>
       </c>
       <c r="F8" s="3">
-        <v>1889100</v>
+        <v>1870600</v>
       </c>
       <c r="G8" s="3">
-        <v>2253400</v>
+        <v>2231300</v>
       </c>
       <c r="H8" s="3">
-        <v>1764900</v>
+        <v>1747600</v>
       </c>
       <c r="I8" s="3">
-        <v>2413100</v>
+        <v>2389500</v>
       </c>
       <c r="J8" s="3">
-        <v>2163500</v>
+        <v>2142300</v>
       </c>
       <c r="K8" s="3">
         <v>2761900</v>
@@ -805,25 +805,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1139100</v>
+        <v>1128000</v>
       </c>
       <c r="E9" s="3">
-        <v>1075300</v>
+        <v>1064700</v>
       </c>
       <c r="F9" s="3">
-        <v>991300</v>
+        <v>981500</v>
       </c>
       <c r="G9" s="3">
-        <v>1087100</v>
+        <v>1076400</v>
       </c>
       <c r="H9" s="3">
-        <v>1003100</v>
+        <v>993300</v>
       </c>
       <c r="I9" s="3">
-        <v>1128500</v>
+        <v>1117400</v>
       </c>
       <c r="J9" s="3">
-        <v>1069300</v>
+        <v>1058900</v>
       </c>
       <c r="K9" s="3">
         <v>1257700</v>
@@ -858,25 +858,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>975900</v>
+        <v>966300</v>
       </c>
       <c r="E10" s="3">
-        <v>1090600</v>
+        <v>1079900</v>
       </c>
       <c r="F10" s="3">
-        <v>897800</v>
+        <v>889000</v>
       </c>
       <c r="G10" s="3">
-        <v>1166300</v>
+        <v>1154900</v>
       </c>
       <c r="H10" s="3">
-        <v>761800</v>
+        <v>754300</v>
       </c>
       <c r="I10" s="3">
-        <v>1284600</v>
+        <v>1272000</v>
       </c>
       <c r="J10" s="3">
-        <v>1094200</v>
+        <v>1083500</v>
       </c>
       <c r="K10" s="3">
         <v>1504100</v>
@@ -1038,25 +1038,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-16600</v>
+        <v>-16400</v>
       </c>
       <c r="E14" s="3">
-        <v>-81600</v>
+        <v>-80800</v>
       </c>
       <c r="F14" s="3">
-        <v>7100</v>
+        <v>7000</v>
       </c>
       <c r="G14" s="3">
         <v>3500</v>
       </c>
       <c r="H14" s="3">
-        <v>-214100</v>
+        <v>-212000</v>
       </c>
       <c r="I14" s="3">
-        <v>-11800</v>
+        <v>-11700</v>
       </c>
       <c r="J14" s="3">
-        <v>-7100</v>
+        <v>-7000</v>
       </c>
       <c r="K14" s="3">
         <v>-28100</v>
@@ -1162,25 +1162,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1940000</v>
+        <v>1920900</v>
       </c>
       <c r="E17" s="3">
-        <v>1960100</v>
+        <v>1940800</v>
       </c>
       <c r="F17" s="3">
-        <v>1878400</v>
+        <v>1860000</v>
       </c>
       <c r="G17" s="3">
-        <v>1893800</v>
+        <v>1875300</v>
       </c>
       <c r="H17" s="3">
-        <v>1638300</v>
+        <v>1622300</v>
       </c>
       <c r="I17" s="3">
-        <v>2131600</v>
+        <v>2110700</v>
       </c>
       <c r="J17" s="3">
-        <v>2119800</v>
+        <v>2099000</v>
       </c>
       <c r="K17" s="3">
         <v>2371500</v>
@@ -1215,25 +1215,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>175100</v>
+        <v>173400</v>
       </c>
       <c r="E18" s="3">
-        <v>205800</v>
+        <v>203800</v>
       </c>
       <c r="F18" s="3">
-        <v>10600</v>
+        <v>10500</v>
       </c>
       <c r="G18" s="3">
-        <v>359600</v>
+        <v>356100</v>
       </c>
       <c r="H18" s="3">
-        <v>126600</v>
+        <v>125300</v>
       </c>
       <c r="I18" s="3">
-        <v>281500</v>
+        <v>278800</v>
       </c>
       <c r="J18" s="3">
-        <v>43800</v>
+        <v>43300</v>
       </c>
       <c r="K18" s="3">
         <v>390400</v>
@@ -1289,25 +1289,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>36700</v>
+        <v>36300</v>
       </c>
       <c r="E20" s="3">
-        <v>-24800</v>
+        <v>-24600</v>
       </c>
       <c r="F20" s="3">
         <v>-5900</v>
       </c>
       <c r="G20" s="3">
-        <v>17700</v>
+        <v>17600</v>
       </c>
       <c r="H20" s="3">
-        <v>-85200</v>
+        <v>-84300</v>
       </c>
       <c r="I20" s="3">
-        <v>-22500</v>
+        <v>-22300</v>
       </c>
       <c r="J20" s="3">
-        <v>-28400</v>
+        <v>-28100</v>
       </c>
       <c r="K20" s="3">
         <v>-29300</v>
@@ -1342,25 +1342,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>363200</v>
+        <v>359600</v>
       </c>
       <c r="E21" s="3">
-        <v>442400</v>
+        <v>438100</v>
       </c>
       <c r="F21" s="3">
-        <v>225900</v>
+        <v>223700</v>
       </c>
       <c r="G21" s="3">
-        <v>543000</v>
+        <v>537600</v>
       </c>
       <c r="H21" s="3">
-        <v>236600</v>
+        <v>234300</v>
       </c>
       <c r="I21" s="3">
-        <v>455400</v>
+        <v>451000</v>
       </c>
       <c r="J21" s="3">
-        <v>202300</v>
+        <v>200300</v>
       </c>
       <c r="K21" s="3">
         <v>519700</v>
@@ -1448,25 +1448,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>211700</v>
+        <v>209700</v>
       </c>
       <c r="E23" s="3">
-        <v>181000</v>
+        <v>179200</v>
       </c>
       <c r="F23" s="3">
         <v>4700</v>
       </c>
       <c r="G23" s="3">
-        <v>377300</v>
+        <v>373600</v>
       </c>
       <c r="H23" s="3">
-        <v>41400</v>
+        <v>41000</v>
       </c>
       <c r="I23" s="3">
-        <v>259100</v>
+        <v>256500</v>
       </c>
       <c r="J23" s="3">
-        <v>15400</v>
+        <v>15200</v>
       </c>
       <c r="K23" s="3">
         <v>361100</v>
@@ -1501,25 +1501,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>56800</v>
+        <v>56200</v>
       </c>
       <c r="E24" s="3">
-        <v>13000</v>
+        <v>12900</v>
       </c>
       <c r="F24" s="3">
-        <v>-16600</v>
+        <v>-16400</v>
       </c>
       <c r="G24" s="3">
-        <v>67400</v>
+        <v>66800</v>
       </c>
       <c r="H24" s="3">
-        <v>-15400</v>
+        <v>-15200</v>
       </c>
       <c r="I24" s="3">
         <v>1200</v>
       </c>
       <c r="J24" s="3">
-        <v>-41400</v>
+        <v>-41000</v>
       </c>
       <c r="K24" s="3">
         <v>-128100</v>
@@ -1607,25 +1607,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>155000</v>
+        <v>153400</v>
       </c>
       <c r="E26" s="3">
-        <v>168000</v>
+        <v>166300</v>
       </c>
       <c r="F26" s="3">
-        <v>21300</v>
+        <v>21100</v>
       </c>
       <c r="G26" s="3">
-        <v>309900</v>
+        <v>306900</v>
       </c>
       <c r="H26" s="3">
-        <v>56800</v>
+        <v>56200</v>
       </c>
       <c r="I26" s="3">
-        <v>257900</v>
+        <v>255300</v>
       </c>
       <c r="J26" s="3">
-        <v>56800</v>
+        <v>56200</v>
       </c>
       <c r="K26" s="3">
         <v>489200</v>
@@ -1660,25 +1660,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>155000</v>
+        <v>153400</v>
       </c>
       <c r="E27" s="3">
-        <v>168000</v>
+        <v>166300</v>
       </c>
       <c r="F27" s="3">
-        <v>20100</v>
+        <v>19900</v>
       </c>
       <c r="G27" s="3">
-        <v>309900</v>
+        <v>306900</v>
       </c>
       <c r="H27" s="3">
-        <v>56800</v>
+        <v>56200</v>
       </c>
       <c r="I27" s="3">
-        <v>256700</v>
+        <v>254200</v>
       </c>
       <c r="J27" s="3">
-        <v>55600</v>
+        <v>55100</v>
       </c>
       <c r="K27" s="3">
         <v>488000</v>
@@ -1925,25 +1925,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-36700</v>
+        <v>-36300</v>
       </c>
       <c r="E32" s="3">
-        <v>24800</v>
+        <v>24600</v>
       </c>
       <c r="F32" s="3">
         <v>5900</v>
       </c>
       <c r="G32" s="3">
-        <v>-17700</v>
+        <v>-17600</v>
       </c>
       <c r="H32" s="3">
-        <v>85200</v>
+        <v>84300</v>
       </c>
       <c r="I32" s="3">
-        <v>22500</v>
+        <v>22300</v>
       </c>
       <c r="J32" s="3">
-        <v>28400</v>
+        <v>28100</v>
       </c>
       <c r="K32" s="3">
         <v>29300</v>
@@ -1978,25 +1978,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>155000</v>
+        <v>153400</v>
       </c>
       <c r="E33" s="3">
-        <v>168000</v>
+        <v>166300</v>
       </c>
       <c r="F33" s="3">
-        <v>20100</v>
+        <v>19900</v>
       </c>
       <c r="G33" s="3">
-        <v>309900</v>
+        <v>306900</v>
       </c>
       <c r="H33" s="3">
-        <v>56800</v>
+        <v>56200</v>
       </c>
       <c r="I33" s="3">
-        <v>256700</v>
+        <v>254200</v>
       </c>
       <c r="J33" s="3">
-        <v>55600</v>
+        <v>55100</v>
       </c>
       <c r="K33" s="3">
         <v>488000</v>
@@ -2084,25 +2084,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>155000</v>
+        <v>153400</v>
       </c>
       <c r="E35" s="3">
-        <v>168000</v>
+        <v>166300</v>
       </c>
       <c r="F35" s="3">
-        <v>20100</v>
+        <v>19900</v>
       </c>
       <c r="G35" s="3">
-        <v>309900</v>
+        <v>306900</v>
       </c>
       <c r="H35" s="3">
-        <v>56800</v>
+        <v>56200</v>
       </c>
       <c r="I35" s="3">
-        <v>256700</v>
+        <v>254200</v>
       </c>
       <c r="J35" s="3">
-        <v>55600</v>
+        <v>55100</v>
       </c>
       <c r="K35" s="3">
         <v>488000</v>
@@ -2237,25 +2237,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>463700</v>
+        <v>459100</v>
       </c>
       <c r="E41" s="3">
-        <v>1108400</v>
+        <v>1097500</v>
       </c>
       <c r="F41" s="3">
-        <v>766500</v>
+        <v>759000</v>
       </c>
       <c r="G41" s="3">
-        <v>1297600</v>
+        <v>1284900</v>
       </c>
       <c r="H41" s="3">
-        <v>812700</v>
+        <v>804700</v>
       </c>
       <c r="I41" s="3">
-        <v>516900</v>
+        <v>511900</v>
       </c>
       <c r="J41" s="3">
-        <v>493300</v>
+        <v>488400</v>
       </c>
       <c r="K41" s="3">
         <v>692900</v>
@@ -2343,25 +2343,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1430100</v>
+        <v>1416100</v>
       </c>
       <c r="E43" s="3">
-        <v>1517700</v>
+        <v>1502800</v>
       </c>
       <c r="F43" s="3">
-        <v>1515300</v>
+        <v>1500400</v>
       </c>
       <c r="G43" s="3">
-        <v>1322500</v>
+        <v>1309500</v>
       </c>
       <c r="H43" s="3">
-        <v>1285800</v>
+        <v>1273200</v>
       </c>
       <c r="I43" s="3">
-        <v>1508200</v>
+        <v>1493400</v>
       </c>
       <c r="J43" s="3">
-        <v>1505800</v>
+        <v>1491100</v>
       </c>
       <c r="K43" s="3">
         <v>1437000</v>
@@ -2396,25 +2396,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>121800</v>
+        <v>120600</v>
       </c>
       <c r="E44" s="3">
-        <v>115900</v>
+        <v>114800</v>
       </c>
       <c r="F44" s="3">
-        <v>149000</v>
+        <v>147600</v>
       </c>
       <c r="G44" s="3">
-        <v>152600</v>
+        <v>151100</v>
       </c>
       <c r="H44" s="3">
-        <v>205800</v>
+        <v>203800</v>
       </c>
       <c r="I44" s="3">
-        <v>199900</v>
+        <v>197900</v>
       </c>
       <c r="J44" s="3">
-        <v>250800</v>
+        <v>248300</v>
       </c>
       <c r="K44" s="3">
         <v>200100</v>
@@ -2449,25 +2449,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1103600</v>
+        <v>1092800</v>
       </c>
       <c r="E45" s="3">
-        <v>1059900</v>
+        <v>1049500</v>
       </c>
       <c r="F45" s="3">
-        <v>1041000</v>
+        <v>1030700</v>
       </c>
       <c r="G45" s="3">
-        <v>1091800</v>
+        <v>1081100</v>
       </c>
       <c r="H45" s="3">
-        <v>1102500</v>
+        <v>1091700</v>
       </c>
       <c r="I45" s="3">
-        <v>1058700</v>
+        <v>1048300</v>
       </c>
       <c r="J45" s="3">
-        <v>988900</v>
+        <v>979200</v>
       </c>
       <c r="K45" s="3">
         <v>997900</v>
@@ -2502,25 +2502,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3119300</v>
+        <v>3088700</v>
       </c>
       <c r="E46" s="3">
-        <v>3801800</v>
+        <v>3764600</v>
       </c>
       <c r="F46" s="3">
-        <v>3471800</v>
+        <v>3437800</v>
       </c>
       <c r="G46" s="3">
-        <v>3864500</v>
+        <v>3826600</v>
       </c>
       <c r="H46" s="3">
-        <v>3406800</v>
+        <v>3373300</v>
       </c>
       <c r="I46" s="3">
-        <v>3283700</v>
+        <v>3251500</v>
       </c>
       <c r="J46" s="3">
-        <v>3238800</v>
+        <v>3207000</v>
       </c>
       <c r="K46" s="3">
         <v>3327900</v>
@@ -2555,25 +2555,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>388000</v>
+        <v>384200</v>
       </c>
       <c r="E47" s="3">
-        <v>429400</v>
+        <v>425200</v>
       </c>
       <c r="F47" s="3">
-        <v>365500</v>
+        <v>361900</v>
       </c>
       <c r="G47" s="3">
-        <v>434100</v>
+        <v>429900</v>
       </c>
       <c r="H47" s="3">
-        <v>533500</v>
+        <v>528300</v>
       </c>
       <c r="I47" s="3">
-        <v>522800</v>
+        <v>517700</v>
       </c>
       <c r="J47" s="3">
-        <v>1142700</v>
+        <v>1131500</v>
       </c>
       <c r="K47" s="3">
         <v>713600</v>
@@ -2608,25 +2608,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>430600</v>
+        <v>426400</v>
       </c>
       <c r="E48" s="3">
-        <v>432900</v>
+        <v>428700</v>
       </c>
       <c r="F48" s="3">
-        <v>535900</v>
+        <v>530600</v>
       </c>
       <c r="G48" s="3">
-        <v>609200</v>
+        <v>603200</v>
       </c>
       <c r="H48" s="3">
-        <v>753500</v>
+        <v>746100</v>
       </c>
       <c r="I48" s="3">
-        <v>731000</v>
+        <v>723900</v>
       </c>
       <c r="J48" s="3">
-        <v>759400</v>
+        <v>752000</v>
       </c>
       <c r="K48" s="3">
         <v>289100</v>
@@ -2661,25 +2661,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3801800</v>
+        <v>3764600</v>
       </c>
       <c r="E49" s="3">
-        <v>3275500</v>
+        <v>3243300</v>
       </c>
       <c r="F49" s="3">
-        <v>3177300</v>
+        <v>3146100</v>
       </c>
       <c r="G49" s="3">
-        <v>3243500</v>
+        <v>3211700</v>
       </c>
       <c r="H49" s="3">
-        <v>3558200</v>
+        <v>3523300</v>
       </c>
       <c r="I49" s="3">
-        <v>3430400</v>
+        <v>3396800</v>
       </c>
       <c r="J49" s="3">
-        <v>3622000</v>
+        <v>3586500</v>
       </c>
       <c r="K49" s="3">
         <v>3670700</v>
@@ -2820,25 +2820,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1096500</v>
+        <v>1085800</v>
       </c>
       <c r="E52" s="3">
-        <v>746400</v>
+        <v>739100</v>
       </c>
       <c r="F52" s="3">
-        <v>631700</v>
+        <v>625500</v>
       </c>
       <c r="G52" s="3">
-        <v>662400</v>
+        <v>655900</v>
       </c>
       <c r="H52" s="3">
-        <v>639900</v>
+        <v>633700</v>
       </c>
       <c r="I52" s="3">
-        <v>1081200</v>
+        <v>1070600</v>
       </c>
       <c r="J52" s="3">
-        <v>658900</v>
+        <v>652400</v>
       </c>
       <c r="K52" s="3">
         <v>1642000</v>
@@ -2926,25 +2926,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>8836300</v>
+        <v>8749600</v>
       </c>
       <c r="E54" s="3">
-        <v>8686000</v>
+        <v>8600900</v>
       </c>
       <c r="F54" s="3">
-        <v>8182100</v>
+        <v>8101900</v>
       </c>
       <c r="G54" s="3">
-        <v>8813800</v>
+        <v>8727400</v>
       </c>
       <c r="H54" s="3">
-        <v>8891900</v>
+        <v>8804700</v>
       </c>
       <c r="I54" s="3">
-        <v>9049200</v>
+        <v>8960400</v>
       </c>
       <c r="J54" s="3">
-        <v>9421800</v>
+        <v>9329400</v>
       </c>
       <c r="K54" s="3">
         <v>9643300</v>
@@ -3021,25 +3021,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1459700</v>
+        <v>1445400</v>
       </c>
       <c r="E57" s="3">
-        <v>1485700</v>
+        <v>1471200</v>
       </c>
       <c r="F57" s="3">
-        <v>1240900</v>
+        <v>1228700</v>
       </c>
       <c r="G57" s="3">
-        <v>1414700</v>
+        <v>1400900</v>
       </c>
       <c r="H57" s="3">
-        <v>1239700</v>
+        <v>1227500</v>
       </c>
       <c r="I57" s="3">
-        <v>1511700</v>
+        <v>1496900</v>
       </c>
       <c r="J57" s="3">
-        <v>1430100</v>
+        <v>1416100</v>
       </c>
       <c r="K57" s="3">
         <v>1707900</v>
@@ -3074,25 +3074,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>177400</v>
+        <v>175700</v>
       </c>
       <c r="E58" s="3">
-        <v>183300</v>
+        <v>181600</v>
       </c>
       <c r="F58" s="3">
-        <v>184500</v>
+        <v>182700</v>
       </c>
       <c r="G58" s="3">
-        <v>300500</v>
+        <v>297500</v>
       </c>
       <c r="H58" s="3">
-        <v>345400</v>
+        <v>342000</v>
       </c>
       <c r="I58" s="3">
-        <v>108800</v>
+        <v>107800</v>
       </c>
       <c r="J58" s="3">
-        <v>166800</v>
+        <v>165200</v>
       </c>
       <c r="K58" s="3">
         <v>56100</v>
@@ -3127,25 +3127,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>80400</v>
+        <v>79600</v>
       </c>
       <c r="E59" s="3">
-        <v>199900</v>
+        <v>197900</v>
       </c>
       <c r="F59" s="3">
-        <v>152600</v>
+        <v>151100</v>
       </c>
       <c r="G59" s="3">
-        <v>143100</v>
+        <v>141700</v>
       </c>
       <c r="H59" s="3">
-        <v>170300</v>
+        <v>168700</v>
       </c>
       <c r="I59" s="3">
-        <v>144300</v>
+        <v>142900</v>
       </c>
       <c r="J59" s="3">
-        <v>63900</v>
+        <v>63300</v>
       </c>
       <c r="K59" s="3">
         <v>140300</v>
@@ -3180,25 +3180,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1717600</v>
+        <v>1700700</v>
       </c>
       <c r="E60" s="3">
-        <v>1869000</v>
+        <v>1850700</v>
       </c>
       <c r="F60" s="3">
-        <v>1578000</v>
+        <v>1562500</v>
       </c>
       <c r="G60" s="3">
-        <v>1858300</v>
+        <v>1840100</v>
       </c>
       <c r="H60" s="3">
-        <v>1755400</v>
+        <v>1738200</v>
       </c>
       <c r="I60" s="3">
-        <v>1764900</v>
+        <v>1747600</v>
       </c>
       <c r="J60" s="3">
-        <v>1660800</v>
+        <v>1644500</v>
       </c>
       <c r="K60" s="3">
         <v>1904300</v>
@@ -3233,25 +3233,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1361500</v>
+        <v>1348200</v>
       </c>
       <c r="E61" s="3">
-        <v>1472700</v>
+        <v>1458300</v>
       </c>
       <c r="F61" s="3">
-        <v>1489300</v>
+        <v>1474700</v>
       </c>
       <c r="G61" s="3">
-        <v>1652500</v>
+        <v>1636300</v>
       </c>
       <c r="H61" s="3">
-        <v>1833500</v>
+        <v>1815500</v>
       </c>
       <c r="I61" s="3">
-        <v>1859500</v>
+        <v>1841300</v>
       </c>
       <c r="J61" s="3">
-        <v>2210800</v>
+        <v>2189200</v>
       </c>
       <c r="K61" s="3">
         <v>822200</v>
@@ -3286,25 +3286,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>443600</v>
+        <v>439200</v>
       </c>
       <c r="E62" s="3">
-        <v>281500</v>
+        <v>278800</v>
       </c>
       <c r="F62" s="3">
-        <v>337100</v>
+        <v>333800</v>
       </c>
       <c r="G62" s="3">
-        <v>412800</v>
+        <v>408800</v>
       </c>
       <c r="H62" s="3">
-        <v>343000</v>
+        <v>339700</v>
       </c>
       <c r="I62" s="3">
-        <v>311100</v>
+        <v>308100</v>
       </c>
       <c r="J62" s="3">
-        <v>473200</v>
+        <v>468500</v>
       </c>
       <c r="K62" s="3">
         <v>1396800</v>
@@ -3498,25 +3498,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>3535700</v>
+        <v>3501000</v>
       </c>
       <c r="E66" s="3">
-        <v>3635100</v>
+        <v>3599400</v>
       </c>
       <c r="F66" s="3">
-        <v>3416200</v>
+        <v>3382700</v>
       </c>
       <c r="G66" s="3">
-        <v>3934300</v>
+        <v>3895700</v>
       </c>
       <c r="H66" s="3">
-        <v>3943800</v>
+        <v>3905100</v>
       </c>
       <c r="I66" s="3">
-        <v>3947300</v>
+        <v>3908600</v>
       </c>
       <c r="J66" s="3">
-        <v>4356600</v>
+        <v>4313900</v>
       </c>
       <c r="K66" s="3">
         <v>4134200</v>
@@ -3784,25 +3784,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1120200</v>
+        <v>1109200</v>
       </c>
       <c r="E72" s="3">
-        <v>1239700</v>
+        <v>1227500</v>
       </c>
       <c r="F72" s="3">
-        <v>945100</v>
+        <v>935900</v>
       </c>
       <c r="G72" s="3">
-        <v>1044500</v>
+        <v>1034300</v>
       </c>
       <c r="H72" s="3">
-        <v>835100</v>
+        <v>826900</v>
       </c>
       <c r="I72" s="3">
-        <v>1090600</v>
+        <v>1079900</v>
       </c>
       <c r="J72" s="3">
-        <v>935700</v>
+        <v>926500</v>
       </c>
       <c r="K72" s="3">
         <v>1280900</v>
@@ -3996,25 +3996,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>5300600</v>
+        <v>5248600</v>
       </c>
       <c r="E76" s="3">
-        <v>5051000</v>
+        <v>5001500</v>
       </c>
       <c r="F76" s="3">
-        <v>4765900</v>
+        <v>4719200</v>
       </c>
       <c r="G76" s="3">
-        <v>4879500</v>
+        <v>4831600</v>
       </c>
       <c r="H76" s="3">
-        <v>4948100</v>
+        <v>4899500</v>
       </c>
       <c r="I76" s="3">
-        <v>5101800</v>
+        <v>5051800</v>
       </c>
       <c r="J76" s="3">
-        <v>5065200</v>
+        <v>5015500</v>
       </c>
       <c r="K76" s="3">
         <v>5509100</v>
@@ -4160,25 +4160,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>155000</v>
+        <v>153400</v>
       </c>
       <c r="E81" s="3">
-        <v>168000</v>
+        <v>166300</v>
       </c>
       <c r="F81" s="3">
-        <v>20100</v>
+        <v>19900</v>
       </c>
       <c r="G81" s="3">
-        <v>309900</v>
+        <v>306900</v>
       </c>
       <c r="H81" s="3">
-        <v>56800</v>
+        <v>56200</v>
       </c>
       <c r="I81" s="3">
-        <v>256700</v>
+        <v>254200</v>
       </c>
       <c r="J81" s="3">
-        <v>55600</v>
+        <v>55100</v>
       </c>
       <c r="K81" s="3">
         <v>488000</v>
@@ -4234,25 +4234,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>120700</v>
+        <v>119500</v>
       </c>
       <c r="E83" s="3">
-        <v>261400</v>
+        <v>258900</v>
       </c>
       <c r="F83" s="3">
-        <v>221200</v>
+        <v>219000</v>
       </c>
       <c r="G83" s="3">
-        <v>165600</v>
+        <v>164000</v>
       </c>
       <c r="H83" s="3">
-        <v>195200</v>
+        <v>193300</v>
       </c>
       <c r="I83" s="3">
-        <v>196400</v>
+        <v>194400</v>
       </c>
       <c r="J83" s="3">
-        <v>186900</v>
+        <v>185100</v>
       </c>
       <c r="K83" s="3">
         <v>158600</v>
@@ -4552,25 +4552,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-39000</v>
+        <v>-38700</v>
       </c>
       <c r="E89" s="3">
-        <v>474300</v>
+        <v>469700</v>
       </c>
       <c r="F89" s="3">
-        <v>-88700</v>
+        <v>-87800</v>
       </c>
       <c r="G89" s="3">
-        <v>629300</v>
+        <v>623100</v>
       </c>
       <c r="H89" s="3">
-        <v>-169200</v>
+        <v>-167500</v>
       </c>
       <c r="I89" s="3">
-        <v>634000</v>
+        <v>627800</v>
       </c>
       <c r="J89" s="3">
-        <v>-197500</v>
+        <v>-195600</v>
       </c>
       <c r="K89" s="3">
         <v>774600</v>
@@ -4626,25 +4626,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-24800</v>
+        <v>-24600</v>
       </c>
       <c r="E91" s="3">
-        <v>-39000</v>
+        <v>-38700</v>
       </c>
       <c r="F91" s="3">
-        <v>-36700</v>
+        <v>-36300</v>
       </c>
       <c r="G91" s="3">
-        <v>-27200</v>
+        <v>-26900</v>
       </c>
       <c r="H91" s="3">
-        <v>-35500</v>
+        <v>-35100</v>
       </c>
       <c r="I91" s="3">
-        <v>-20100</v>
+        <v>-19900</v>
       </c>
       <c r="J91" s="3">
-        <v>-45000</v>
+        <v>-44500</v>
       </c>
       <c r="K91" s="3">
         <v>-46400</v>
@@ -4785,25 +4785,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-179800</v>
+        <v>-178000</v>
       </c>
       <c r="E94" s="3">
         <v>0</v>
       </c>
       <c r="F94" s="3">
-        <v>-94600</v>
+        <v>-93700</v>
       </c>
       <c r="G94" s="3">
-        <v>14200</v>
+        <v>14100</v>
       </c>
       <c r="H94" s="3">
-        <v>684900</v>
+        <v>678200</v>
       </c>
       <c r="I94" s="3">
-        <v>-126600</v>
+        <v>-125300</v>
       </c>
       <c r="J94" s="3">
-        <v>-257900</v>
+        <v>-255300</v>
       </c>
       <c r="K94" s="3">
         <v>113500</v>
@@ -4859,25 +4859,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-126600</v>
+        <v>-125300</v>
       </c>
       <c r="E96" s="3">
-        <v>-55600</v>
+        <v>-55100</v>
       </c>
       <c r="F96" s="3">
-        <v>-120700</v>
+        <v>-119500</v>
       </c>
       <c r="G96" s="3">
-        <v>-53200</v>
+        <v>-52700</v>
       </c>
       <c r="H96" s="3">
-        <v>-119500</v>
+        <v>-118300</v>
       </c>
       <c r="I96" s="3">
-        <v>-54400</v>
+        <v>-53900</v>
       </c>
       <c r="J96" s="3">
-        <v>-119500</v>
+        <v>-118300</v>
       </c>
       <c r="K96" s="3">
         <v>-52500</v>
@@ -5071,25 +5071,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-488500</v>
+        <v>-483700</v>
       </c>
       <c r="E100" s="3">
-        <v>-124200</v>
+        <v>-123000</v>
       </c>
       <c r="F100" s="3">
-        <v>-365500</v>
+        <v>-361900</v>
       </c>
       <c r="G100" s="3">
-        <v>-119500</v>
+        <v>-118300</v>
       </c>
       <c r="H100" s="3">
-        <v>-234200</v>
+        <v>-231900</v>
       </c>
       <c r="I100" s="3">
-        <v>-434100</v>
+        <v>-429900</v>
       </c>
       <c r="J100" s="3">
-        <v>313500</v>
+        <v>310400</v>
       </c>
       <c r="K100" s="3">
         <v>-557500</v>
@@ -5124,25 +5124,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>62700</v>
+        <v>62100</v>
       </c>
       <c r="E101" s="3">
-        <v>-8300</v>
+        <v>-8200</v>
       </c>
       <c r="F101" s="3">
         <v>-1200</v>
       </c>
       <c r="G101" s="3">
-        <v>-16600</v>
+        <v>-16400</v>
       </c>
       <c r="H101" s="3">
-        <v>14200</v>
+        <v>14100</v>
       </c>
       <c r="I101" s="3">
-        <v>-36700</v>
+        <v>-36300</v>
       </c>
       <c r="J101" s="3">
-        <v>-2400</v>
+        <v>-2300</v>
       </c>
       <c r="K101" s="3">
         <v>-56100</v>
@@ -5177,25 +5177,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-644700</v>
+        <v>-638400</v>
       </c>
       <c r="E102" s="3">
-        <v>341900</v>
+        <v>338500</v>
       </c>
       <c r="F102" s="3">
-        <v>-550000</v>
+        <v>-544700</v>
       </c>
       <c r="G102" s="3">
-        <v>507500</v>
+        <v>502500</v>
       </c>
       <c r="H102" s="3">
-        <v>295700</v>
+        <v>292800</v>
       </c>
       <c r="I102" s="3">
-        <v>36700</v>
+        <v>36300</v>
       </c>
       <c r="J102" s="3">
-        <v>-144300</v>
+        <v>-142900</v>
       </c>
       <c r="K102" s="3">
         <v>274500</v>

--- a/AAII_Financials/Quarterly/PSO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PSO_QTR_FIN.xlsx
@@ -752,25 +752,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2094300</v>
+        <v>2132200</v>
       </c>
       <c r="E8" s="3">
-        <v>2144700</v>
+        <v>2183500</v>
       </c>
       <c r="F8" s="3">
-        <v>1870600</v>
+        <v>1904400</v>
       </c>
       <c r="G8" s="3">
-        <v>2231300</v>
+        <v>2271700</v>
       </c>
       <c r="H8" s="3">
-        <v>1747600</v>
+        <v>1779200</v>
       </c>
       <c r="I8" s="3">
-        <v>2389500</v>
+        <v>2432700</v>
       </c>
       <c r="J8" s="3">
-        <v>2142300</v>
+        <v>2181100</v>
       </c>
       <c r="K8" s="3">
         <v>2761900</v>
@@ -805,25 +805,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1128000</v>
+        <v>1148400</v>
       </c>
       <c r="E9" s="3">
-        <v>1064700</v>
+        <v>1084000</v>
       </c>
       <c r="F9" s="3">
-        <v>981500</v>
+        <v>999300</v>
       </c>
       <c r="G9" s="3">
-        <v>1076400</v>
+        <v>1095900</v>
       </c>
       <c r="H9" s="3">
-        <v>993300</v>
+        <v>1011200</v>
       </c>
       <c r="I9" s="3">
-        <v>1117400</v>
+        <v>1137700</v>
       </c>
       <c r="J9" s="3">
-        <v>1058900</v>
+        <v>1078000</v>
       </c>
       <c r="K9" s="3">
         <v>1257700</v>
@@ -858,25 +858,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>966300</v>
+        <v>983800</v>
       </c>
       <c r="E10" s="3">
-        <v>1079900</v>
+        <v>1099500</v>
       </c>
       <c r="F10" s="3">
-        <v>889000</v>
+        <v>905100</v>
       </c>
       <c r="G10" s="3">
-        <v>1154900</v>
+        <v>1175800</v>
       </c>
       <c r="H10" s="3">
-        <v>754300</v>
+        <v>768000</v>
       </c>
       <c r="I10" s="3">
-        <v>1272000</v>
+        <v>1295100</v>
       </c>
       <c r="J10" s="3">
-        <v>1083500</v>
+        <v>1103100</v>
       </c>
       <c r="K10" s="3">
         <v>1504100</v>
@@ -1038,25 +1038,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-16400</v>
+        <v>-16700</v>
       </c>
       <c r="E14" s="3">
-        <v>-80800</v>
+        <v>-82300</v>
       </c>
       <c r="F14" s="3">
-        <v>7000</v>
+        <v>7200</v>
       </c>
       <c r="G14" s="3">
-        <v>3500</v>
+        <v>3600</v>
       </c>
       <c r="H14" s="3">
-        <v>-212000</v>
+        <v>-215800</v>
       </c>
       <c r="I14" s="3">
-        <v>-11700</v>
+        <v>-11900</v>
       </c>
       <c r="J14" s="3">
-        <v>-7000</v>
+        <v>-7200</v>
       </c>
       <c r="K14" s="3">
         <v>-28100</v>
@@ -1162,25 +1162,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1920900</v>
+        <v>1955700</v>
       </c>
       <c r="E17" s="3">
-        <v>1940800</v>
+        <v>1976000</v>
       </c>
       <c r="F17" s="3">
-        <v>1860000</v>
+        <v>1893700</v>
       </c>
       <c r="G17" s="3">
-        <v>1875300</v>
+        <v>1909200</v>
       </c>
       <c r="H17" s="3">
-        <v>1622300</v>
+        <v>1651600</v>
       </c>
       <c r="I17" s="3">
-        <v>2110700</v>
+        <v>2148900</v>
       </c>
       <c r="J17" s="3">
-        <v>2099000</v>
+        <v>2137000</v>
       </c>
       <c r="K17" s="3">
         <v>2371500</v>
@@ -1215,25 +1215,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>173400</v>
+        <v>176500</v>
       </c>
       <c r="E18" s="3">
-        <v>203800</v>
+        <v>207500</v>
       </c>
       <c r="F18" s="3">
-        <v>10500</v>
+        <v>10700</v>
       </c>
       <c r="G18" s="3">
-        <v>356100</v>
+        <v>362500</v>
       </c>
       <c r="H18" s="3">
-        <v>125300</v>
+        <v>127600</v>
       </c>
       <c r="I18" s="3">
-        <v>278800</v>
+        <v>283800</v>
       </c>
       <c r="J18" s="3">
-        <v>43300</v>
+        <v>44100</v>
       </c>
       <c r="K18" s="3">
         <v>390400</v>
@@ -1289,25 +1289,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>36300</v>
+        <v>37000</v>
       </c>
       <c r="E20" s="3">
-        <v>-24600</v>
+        <v>-1200</v>
       </c>
       <c r="F20" s="3">
-        <v>-5900</v>
+        <v>-6000</v>
       </c>
       <c r="G20" s="3">
-        <v>17600</v>
+        <v>17900</v>
       </c>
       <c r="H20" s="3">
-        <v>-84300</v>
+        <v>-85900</v>
       </c>
       <c r="I20" s="3">
-        <v>-22300</v>
+        <v>-22700</v>
       </c>
       <c r="J20" s="3">
-        <v>-28100</v>
+        <v>-28600</v>
       </c>
       <c r="K20" s="3">
         <v>-29300</v>
@@ -1342,25 +1342,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>359600</v>
+        <v>366100</v>
       </c>
       <c r="E21" s="3">
-        <v>438100</v>
+        <v>469800</v>
       </c>
       <c r="F21" s="3">
-        <v>223700</v>
+        <v>227800</v>
       </c>
       <c r="G21" s="3">
-        <v>537600</v>
+        <v>547400</v>
       </c>
       <c r="H21" s="3">
-        <v>234300</v>
+        <v>238500</v>
       </c>
       <c r="I21" s="3">
-        <v>451000</v>
+        <v>459100</v>
       </c>
       <c r="J21" s="3">
-        <v>200300</v>
+        <v>203900</v>
       </c>
       <c r="K21" s="3">
         <v>519700</v>
@@ -1448,25 +1448,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>209700</v>
+        <v>213500</v>
       </c>
       <c r="E23" s="3">
-        <v>179200</v>
+        <v>206300</v>
       </c>
       <c r="F23" s="3">
-        <v>4700</v>
+        <v>4800</v>
       </c>
       <c r="G23" s="3">
-        <v>373600</v>
+        <v>380400</v>
       </c>
       <c r="H23" s="3">
-        <v>41000</v>
+        <v>41700</v>
       </c>
       <c r="I23" s="3">
-        <v>256500</v>
+        <v>261200</v>
       </c>
       <c r="J23" s="3">
-        <v>15200</v>
+        <v>15500</v>
       </c>
       <c r="K23" s="3">
         <v>361100</v>
@@ -1501,25 +1501,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>56200</v>
+        <v>57200</v>
       </c>
       <c r="E24" s="3">
-        <v>12900</v>
+        <v>15500</v>
       </c>
       <c r="F24" s="3">
-        <v>-16400</v>
+        <v>-16700</v>
       </c>
       <c r="G24" s="3">
-        <v>66800</v>
+        <v>68000</v>
       </c>
       <c r="H24" s="3">
-        <v>-15200</v>
+        <v>-15500</v>
       </c>
       <c r="I24" s="3">
         <v>1200</v>
       </c>
       <c r="J24" s="3">
-        <v>-41000</v>
+        <v>-41700</v>
       </c>
       <c r="K24" s="3">
         <v>-128100</v>
@@ -1607,25 +1607,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>153400</v>
+        <v>156200</v>
       </c>
       <c r="E26" s="3">
-        <v>166300</v>
+        <v>190800</v>
       </c>
       <c r="F26" s="3">
-        <v>21100</v>
+        <v>21500</v>
       </c>
       <c r="G26" s="3">
-        <v>306900</v>
+        <v>312400</v>
       </c>
       <c r="H26" s="3">
-        <v>56200</v>
+        <v>57200</v>
       </c>
       <c r="I26" s="3">
-        <v>255300</v>
+        <v>260000</v>
       </c>
       <c r="J26" s="3">
-        <v>56200</v>
+        <v>57200</v>
       </c>
       <c r="K26" s="3">
         <v>489200</v>
@@ -1660,25 +1660,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>153400</v>
+        <v>156200</v>
       </c>
       <c r="E27" s="3">
-        <v>166300</v>
+        <v>190800</v>
       </c>
       <c r="F27" s="3">
-        <v>19900</v>
+        <v>20300</v>
       </c>
       <c r="G27" s="3">
-        <v>306900</v>
+        <v>312400</v>
       </c>
       <c r="H27" s="3">
-        <v>56200</v>
+        <v>57200</v>
       </c>
       <c r="I27" s="3">
-        <v>254200</v>
+        <v>258800</v>
       </c>
       <c r="J27" s="3">
-        <v>55100</v>
+        <v>56000</v>
       </c>
       <c r="K27" s="3">
         <v>488000</v>
@@ -1925,25 +1925,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-36300</v>
+        <v>-37000</v>
       </c>
       <c r="E32" s="3">
-        <v>24600</v>
+        <v>1200</v>
       </c>
       <c r="F32" s="3">
-        <v>5900</v>
+        <v>6000</v>
       </c>
       <c r="G32" s="3">
-        <v>-17600</v>
+        <v>-17900</v>
       </c>
       <c r="H32" s="3">
-        <v>84300</v>
+        <v>85900</v>
       </c>
       <c r="I32" s="3">
-        <v>22300</v>
+        <v>22700</v>
       </c>
       <c r="J32" s="3">
-        <v>28100</v>
+        <v>28600</v>
       </c>
       <c r="K32" s="3">
         <v>29300</v>
@@ -1978,25 +1978,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>153400</v>
+        <v>156200</v>
       </c>
       <c r="E33" s="3">
-        <v>166300</v>
+        <v>190800</v>
       </c>
       <c r="F33" s="3">
-        <v>19900</v>
+        <v>20300</v>
       </c>
       <c r="G33" s="3">
-        <v>306900</v>
+        <v>312400</v>
       </c>
       <c r="H33" s="3">
-        <v>56200</v>
+        <v>57200</v>
       </c>
       <c r="I33" s="3">
-        <v>254200</v>
+        <v>258800</v>
       </c>
       <c r="J33" s="3">
-        <v>55100</v>
+        <v>56000</v>
       </c>
       <c r="K33" s="3">
         <v>488000</v>
@@ -2084,25 +2084,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>153400</v>
+        <v>156200</v>
       </c>
       <c r="E35" s="3">
-        <v>166300</v>
+        <v>190800</v>
       </c>
       <c r="F35" s="3">
-        <v>19900</v>
+        <v>20300</v>
       </c>
       <c r="G35" s="3">
-        <v>306900</v>
+        <v>312400</v>
       </c>
       <c r="H35" s="3">
-        <v>56200</v>
+        <v>57200</v>
       </c>
       <c r="I35" s="3">
-        <v>254200</v>
+        <v>258800</v>
       </c>
       <c r="J35" s="3">
-        <v>55100</v>
+        <v>56000</v>
       </c>
       <c r="K35" s="3">
         <v>488000</v>
@@ -2237,25 +2237,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>459100</v>
+        <v>467500</v>
       </c>
       <c r="E41" s="3">
-        <v>1097500</v>
+        <v>1117400</v>
       </c>
       <c r="F41" s="3">
-        <v>759000</v>
+        <v>772700</v>
       </c>
       <c r="G41" s="3">
-        <v>1284900</v>
+        <v>1308200</v>
       </c>
       <c r="H41" s="3">
-        <v>804700</v>
+        <v>819300</v>
       </c>
       <c r="I41" s="3">
-        <v>511900</v>
+        <v>521100</v>
       </c>
       <c r="J41" s="3">
-        <v>488400</v>
+        <v>497300</v>
       </c>
       <c r="K41" s="3">
         <v>692900</v>
@@ -2343,25 +2343,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1416100</v>
+        <v>1441700</v>
       </c>
       <c r="E43" s="3">
-        <v>1502800</v>
+        <v>1530000</v>
       </c>
       <c r="F43" s="3">
-        <v>1500400</v>
+        <v>1527600</v>
       </c>
       <c r="G43" s="3">
-        <v>1309500</v>
+        <v>1333200</v>
       </c>
       <c r="H43" s="3">
-        <v>1273200</v>
+        <v>1296300</v>
       </c>
       <c r="I43" s="3">
-        <v>1493400</v>
+        <v>1520500</v>
       </c>
       <c r="J43" s="3">
-        <v>1491100</v>
+        <v>1518100</v>
       </c>
       <c r="K43" s="3">
         <v>1437000</v>
@@ -2396,25 +2396,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>120600</v>
+        <v>122800</v>
       </c>
       <c r="E44" s="3">
-        <v>114800</v>
+        <v>116900</v>
       </c>
       <c r="F44" s="3">
-        <v>147600</v>
+        <v>150300</v>
       </c>
       <c r="G44" s="3">
-        <v>151100</v>
+        <v>153800</v>
       </c>
       <c r="H44" s="3">
-        <v>203800</v>
+        <v>207500</v>
       </c>
       <c r="I44" s="3">
-        <v>197900</v>
+        <v>201500</v>
       </c>
       <c r="J44" s="3">
-        <v>248300</v>
+        <v>252800</v>
       </c>
       <c r="K44" s="3">
         <v>200100</v>
@@ -2449,25 +2449,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1092800</v>
+        <v>1112600</v>
       </c>
       <c r="E45" s="3">
-        <v>1049500</v>
+        <v>1068500</v>
       </c>
       <c r="F45" s="3">
-        <v>1030700</v>
+        <v>1049400</v>
       </c>
       <c r="G45" s="3">
-        <v>1081100</v>
+        <v>1100700</v>
       </c>
       <c r="H45" s="3">
-        <v>1091700</v>
+        <v>1111400</v>
       </c>
       <c r="I45" s="3">
-        <v>1048300</v>
+        <v>1067300</v>
       </c>
       <c r="J45" s="3">
-        <v>979200</v>
+        <v>996900</v>
       </c>
       <c r="K45" s="3">
         <v>997900</v>
@@ -2502,25 +2502,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3088700</v>
+        <v>3144600</v>
       </c>
       <c r="E46" s="3">
-        <v>3764600</v>
+        <v>3832700</v>
       </c>
       <c r="F46" s="3">
-        <v>3437800</v>
+        <v>3500000</v>
       </c>
       <c r="G46" s="3">
-        <v>3826600</v>
+        <v>3895900</v>
       </c>
       <c r="H46" s="3">
-        <v>3373300</v>
+        <v>3434400</v>
       </c>
       <c r="I46" s="3">
-        <v>3251500</v>
+        <v>3310400</v>
       </c>
       <c r="J46" s="3">
-        <v>3207000</v>
+        <v>3265100</v>
       </c>
       <c r="K46" s="3">
         <v>3327900</v>
@@ -2555,25 +2555,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>384200</v>
+        <v>391100</v>
       </c>
       <c r="E47" s="3">
-        <v>425200</v>
+        <v>432900</v>
       </c>
       <c r="F47" s="3">
-        <v>361900</v>
+        <v>368500</v>
       </c>
       <c r="G47" s="3">
-        <v>429900</v>
+        <v>437700</v>
       </c>
       <c r="H47" s="3">
-        <v>528300</v>
+        <v>537800</v>
       </c>
       <c r="I47" s="3">
-        <v>517700</v>
+        <v>527100</v>
       </c>
       <c r="J47" s="3">
-        <v>1131500</v>
+        <v>1152000</v>
       </c>
       <c r="K47" s="3">
         <v>713600</v>
@@ -2608,25 +2608,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>426400</v>
+        <v>434100</v>
       </c>
       <c r="E48" s="3">
-        <v>428700</v>
+        <v>436500</v>
       </c>
       <c r="F48" s="3">
-        <v>530600</v>
+        <v>540200</v>
       </c>
       <c r="G48" s="3">
-        <v>603200</v>
+        <v>614100</v>
       </c>
       <c r="H48" s="3">
-        <v>746100</v>
+        <v>759600</v>
       </c>
       <c r="I48" s="3">
-        <v>723900</v>
+        <v>737000</v>
       </c>
       <c r="J48" s="3">
-        <v>752000</v>
+        <v>765600</v>
       </c>
       <c r="K48" s="3">
         <v>289100</v>
@@ -2661,25 +2661,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3764600</v>
+        <v>3832700</v>
       </c>
       <c r="E49" s="3">
-        <v>3243300</v>
+        <v>3302100</v>
       </c>
       <c r="F49" s="3">
-        <v>3146100</v>
+        <v>3203100</v>
       </c>
       <c r="G49" s="3">
-        <v>3211700</v>
+        <v>3269900</v>
       </c>
       <c r="H49" s="3">
-        <v>3523300</v>
+        <v>3587100</v>
       </c>
       <c r="I49" s="3">
-        <v>3396800</v>
+        <v>3458300</v>
       </c>
       <c r="J49" s="3">
-        <v>3586500</v>
+        <v>3651500</v>
       </c>
       <c r="K49" s="3">
         <v>3670700</v>
@@ -2820,25 +2820,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1085800</v>
+        <v>1105500</v>
       </c>
       <c r="E52" s="3">
-        <v>739100</v>
+        <v>752500</v>
       </c>
       <c r="F52" s="3">
-        <v>625500</v>
+        <v>636800</v>
       </c>
       <c r="G52" s="3">
-        <v>655900</v>
+        <v>667800</v>
       </c>
       <c r="H52" s="3">
-        <v>633700</v>
+        <v>645100</v>
       </c>
       <c r="I52" s="3">
-        <v>1070600</v>
+        <v>1090000</v>
       </c>
       <c r="J52" s="3">
-        <v>652400</v>
+        <v>664200</v>
       </c>
       <c r="K52" s="3">
         <v>1642000</v>
@@ -2926,25 +2926,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>8749600</v>
+        <v>8908000</v>
       </c>
       <c r="E54" s="3">
-        <v>8600900</v>
+        <v>8756600</v>
       </c>
       <c r="F54" s="3">
-        <v>8101900</v>
+        <v>8248600</v>
       </c>
       <c r="G54" s="3">
-        <v>8727400</v>
+        <v>8885400</v>
       </c>
       <c r="H54" s="3">
-        <v>8804700</v>
+        <v>8964100</v>
       </c>
       <c r="I54" s="3">
-        <v>8960400</v>
+        <v>9122700</v>
       </c>
       <c r="J54" s="3">
-        <v>9329400</v>
+        <v>9498300</v>
       </c>
       <c r="K54" s="3">
         <v>9643300</v>
@@ -3021,25 +3021,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1445400</v>
+        <v>1471600</v>
       </c>
       <c r="E57" s="3">
-        <v>1471200</v>
+        <v>1497800</v>
       </c>
       <c r="F57" s="3">
-        <v>1228700</v>
+        <v>1250900</v>
       </c>
       <c r="G57" s="3">
-        <v>1400900</v>
+        <v>1426200</v>
       </c>
       <c r="H57" s="3">
-        <v>1227500</v>
+        <v>1249800</v>
       </c>
       <c r="I57" s="3">
-        <v>1496900</v>
+        <v>1524000</v>
       </c>
       <c r="J57" s="3">
-        <v>1416100</v>
+        <v>1441700</v>
       </c>
       <c r="K57" s="3">
         <v>1707900</v>
@@ -3074,25 +3074,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>175700</v>
+        <v>178900</v>
       </c>
       <c r="E58" s="3">
-        <v>181600</v>
+        <v>184800</v>
       </c>
       <c r="F58" s="3">
-        <v>182700</v>
+        <v>186000</v>
       </c>
       <c r="G58" s="3">
-        <v>297500</v>
+        <v>302900</v>
       </c>
       <c r="H58" s="3">
-        <v>342000</v>
+        <v>348200</v>
       </c>
       <c r="I58" s="3">
-        <v>107800</v>
+        <v>109700</v>
       </c>
       <c r="J58" s="3">
-        <v>165200</v>
+        <v>168100</v>
       </c>
       <c r="K58" s="3">
         <v>56100</v>
@@ -3127,25 +3127,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>79600</v>
+        <v>81100</v>
       </c>
       <c r="E59" s="3">
-        <v>197900</v>
+        <v>201500</v>
       </c>
       <c r="F59" s="3">
-        <v>151100</v>
+        <v>153800</v>
       </c>
       <c r="G59" s="3">
-        <v>141700</v>
+        <v>144300</v>
       </c>
       <c r="H59" s="3">
-        <v>168700</v>
+        <v>171700</v>
       </c>
       <c r="I59" s="3">
-        <v>142900</v>
+        <v>145500</v>
       </c>
       <c r="J59" s="3">
-        <v>63300</v>
+        <v>64400</v>
       </c>
       <c r="K59" s="3">
         <v>140300</v>
@@ -3180,25 +3180,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1700700</v>
+        <v>1731500</v>
       </c>
       <c r="E60" s="3">
-        <v>1850700</v>
+        <v>1884200</v>
       </c>
       <c r="F60" s="3">
-        <v>1562500</v>
+        <v>1590800</v>
       </c>
       <c r="G60" s="3">
-        <v>1840100</v>
+        <v>1873400</v>
       </c>
       <c r="H60" s="3">
-        <v>1738200</v>
+        <v>1769700</v>
       </c>
       <c r="I60" s="3">
-        <v>1747600</v>
+        <v>1779200</v>
       </c>
       <c r="J60" s="3">
-        <v>1644500</v>
+        <v>1674300</v>
       </c>
       <c r="K60" s="3">
         <v>1904300</v>
@@ -3233,25 +3233,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1348200</v>
+        <v>1372600</v>
       </c>
       <c r="E61" s="3">
-        <v>1458300</v>
+        <v>1484700</v>
       </c>
       <c r="F61" s="3">
-        <v>1474700</v>
+        <v>1501400</v>
       </c>
       <c r="G61" s="3">
-        <v>1636300</v>
+        <v>1665900</v>
       </c>
       <c r="H61" s="3">
-        <v>1815500</v>
+        <v>1848400</v>
       </c>
       <c r="I61" s="3">
-        <v>1841300</v>
+        <v>1874600</v>
       </c>
       <c r="J61" s="3">
-        <v>2189200</v>
+        <v>2228800</v>
       </c>
       <c r="K61" s="3">
         <v>822200</v>
@@ -3286,25 +3286,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>439200</v>
+        <v>447200</v>
       </c>
       <c r="E62" s="3">
-        <v>278800</v>
+        <v>283800</v>
       </c>
       <c r="F62" s="3">
-        <v>333800</v>
+        <v>339900</v>
       </c>
       <c r="G62" s="3">
-        <v>408800</v>
+        <v>416200</v>
       </c>
       <c r="H62" s="3">
-        <v>339700</v>
+        <v>345800</v>
       </c>
       <c r="I62" s="3">
-        <v>308100</v>
+        <v>313600</v>
       </c>
       <c r="J62" s="3">
-        <v>468500</v>
+        <v>477000</v>
       </c>
       <c r="K62" s="3">
         <v>1396800</v>
@@ -3498,25 +3498,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>3501000</v>
+        <v>3564400</v>
       </c>
       <c r="E66" s="3">
-        <v>3599400</v>
+        <v>3664600</v>
       </c>
       <c r="F66" s="3">
-        <v>3382700</v>
+        <v>3444000</v>
       </c>
       <c r="G66" s="3">
-        <v>3895700</v>
+        <v>3966300</v>
       </c>
       <c r="H66" s="3">
-        <v>3905100</v>
+        <v>3975800</v>
       </c>
       <c r="I66" s="3">
-        <v>3908600</v>
+        <v>3979400</v>
       </c>
       <c r="J66" s="3">
-        <v>4313900</v>
+        <v>4392000</v>
       </c>
       <c r="K66" s="3">
         <v>4134200</v>
@@ -3784,25 +3784,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1109200</v>
+        <v>1129300</v>
       </c>
       <c r="E72" s="3">
-        <v>1227500</v>
+        <v>1249800</v>
       </c>
       <c r="F72" s="3">
-        <v>935900</v>
+        <v>952800</v>
       </c>
       <c r="G72" s="3">
-        <v>1034300</v>
+        <v>1053000</v>
       </c>
       <c r="H72" s="3">
-        <v>826900</v>
+        <v>841900</v>
       </c>
       <c r="I72" s="3">
-        <v>1079900</v>
+        <v>1099500</v>
       </c>
       <c r="J72" s="3">
-        <v>926500</v>
+        <v>943300</v>
       </c>
       <c r="K72" s="3">
         <v>1280900</v>
@@ -3996,25 +3996,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>5248600</v>
+        <v>5343600</v>
       </c>
       <c r="E76" s="3">
-        <v>5001500</v>
+        <v>5092000</v>
       </c>
       <c r="F76" s="3">
-        <v>4719200</v>
+        <v>4804600</v>
       </c>
       <c r="G76" s="3">
-        <v>4831600</v>
+        <v>4919100</v>
       </c>
       <c r="H76" s="3">
-        <v>4899500</v>
+        <v>4988300</v>
       </c>
       <c r="I76" s="3">
-        <v>5051800</v>
+        <v>5143300</v>
       </c>
       <c r="J76" s="3">
-        <v>5015500</v>
+        <v>5106300</v>
       </c>
       <c r="K76" s="3">
         <v>5509100</v>
@@ -4160,25 +4160,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>153400</v>
+        <v>156200</v>
       </c>
       <c r="E81" s="3">
-        <v>166300</v>
+        <v>190800</v>
       </c>
       <c r="F81" s="3">
-        <v>19900</v>
+        <v>20300</v>
       </c>
       <c r="G81" s="3">
-        <v>306900</v>
+        <v>312400</v>
       </c>
       <c r="H81" s="3">
-        <v>56200</v>
+        <v>57200</v>
       </c>
       <c r="I81" s="3">
-        <v>254200</v>
+        <v>258800</v>
       </c>
       <c r="J81" s="3">
-        <v>55100</v>
+        <v>56000</v>
       </c>
       <c r="K81" s="3">
         <v>488000</v>
@@ -4234,25 +4234,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>119500</v>
+        <v>121600</v>
       </c>
       <c r="E83" s="3">
-        <v>258900</v>
+        <v>263500</v>
       </c>
       <c r="F83" s="3">
-        <v>219000</v>
+        <v>223000</v>
       </c>
       <c r="G83" s="3">
-        <v>164000</v>
+        <v>167000</v>
       </c>
       <c r="H83" s="3">
-        <v>193300</v>
+        <v>196800</v>
       </c>
       <c r="I83" s="3">
-        <v>194400</v>
+        <v>198000</v>
       </c>
       <c r="J83" s="3">
-        <v>185100</v>
+        <v>188400</v>
       </c>
       <c r="K83" s="3">
         <v>158600</v>
@@ -4552,25 +4552,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-38700</v>
+        <v>-39400</v>
       </c>
       <c r="E89" s="3">
-        <v>469700</v>
+        <v>478200</v>
       </c>
       <c r="F89" s="3">
-        <v>-87800</v>
+        <v>-89400</v>
       </c>
       <c r="G89" s="3">
-        <v>623100</v>
+        <v>634400</v>
       </c>
       <c r="H89" s="3">
-        <v>-167500</v>
+        <v>-170500</v>
       </c>
       <c r="I89" s="3">
-        <v>627800</v>
+        <v>639200</v>
       </c>
       <c r="J89" s="3">
-        <v>-195600</v>
+        <v>-199100</v>
       </c>
       <c r="K89" s="3">
         <v>774600</v>
@@ -4626,25 +4626,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-24600</v>
+        <v>-25000</v>
       </c>
       <c r="E91" s="3">
-        <v>-38700</v>
+        <v>-39400</v>
       </c>
       <c r="F91" s="3">
-        <v>-36300</v>
+        <v>-37000</v>
       </c>
       <c r="G91" s="3">
-        <v>-26900</v>
+        <v>-27400</v>
       </c>
       <c r="H91" s="3">
-        <v>-35100</v>
+        <v>-35800</v>
       </c>
       <c r="I91" s="3">
-        <v>-19900</v>
+        <v>-20300</v>
       </c>
       <c r="J91" s="3">
-        <v>-44500</v>
+        <v>-45300</v>
       </c>
       <c r="K91" s="3">
         <v>-46400</v>
@@ -4785,25 +4785,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-178000</v>
+        <v>-181300</v>
       </c>
       <c r="E94" s="3">
         <v>0</v>
       </c>
       <c r="F94" s="3">
-        <v>-93700</v>
+        <v>-95400</v>
       </c>
       <c r="G94" s="3">
-        <v>14100</v>
+        <v>14300</v>
       </c>
       <c r="H94" s="3">
-        <v>678200</v>
+        <v>690500</v>
       </c>
       <c r="I94" s="3">
-        <v>-125300</v>
+        <v>-127600</v>
       </c>
       <c r="J94" s="3">
-        <v>-255300</v>
+        <v>-260000</v>
       </c>
       <c r="K94" s="3">
         <v>113500</v>
@@ -4859,25 +4859,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-125300</v>
+        <v>-127600</v>
       </c>
       <c r="E96" s="3">
-        <v>-55100</v>
+        <v>-56000</v>
       </c>
       <c r="F96" s="3">
-        <v>-119500</v>
+        <v>-121600</v>
       </c>
       <c r="G96" s="3">
-        <v>-52700</v>
+        <v>-53700</v>
       </c>
       <c r="H96" s="3">
-        <v>-118300</v>
+        <v>-120400</v>
       </c>
       <c r="I96" s="3">
-        <v>-53900</v>
+        <v>-54900</v>
       </c>
       <c r="J96" s="3">
-        <v>-118300</v>
+        <v>-120400</v>
       </c>
       <c r="K96" s="3">
         <v>-52500</v>
@@ -5071,25 +5071,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-483700</v>
+        <v>-492500</v>
       </c>
       <c r="E100" s="3">
-        <v>-123000</v>
+        <v>-125200</v>
       </c>
       <c r="F100" s="3">
-        <v>-361900</v>
+        <v>-368500</v>
       </c>
       <c r="G100" s="3">
-        <v>-118300</v>
+        <v>-120400</v>
       </c>
       <c r="H100" s="3">
-        <v>-231900</v>
+        <v>-236100</v>
       </c>
       <c r="I100" s="3">
-        <v>-429900</v>
+        <v>-437700</v>
       </c>
       <c r="J100" s="3">
-        <v>310400</v>
+        <v>316000</v>
       </c>
       <c r="K100" s="3">
         <v>-557500</v>
@@ -5124,25 +5124,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>62100</v>
+        <v>63200</v>
       </c>
       <c r="E101" s="3">
-        <v>-8200</v>
+        <v>-8300</v>
       </c>
       <c r="F101" s="3">
         <v>-1200</v>
       </c>
       <c r="G101" s="3">
-        <v>-16400</v>
+        <v>-16700</v>
       </c>
       <c r="H101" s="3">
-        <v>14100</v>
+        <v>14300</v>
       </c>
       <c r="I101" s="3">
-        <v>-36300</v>
+        <v>-37000</v>
       </c>
       <c r="J101" s="3">
-        <v>-2300</v>
+        <v>-2400</v>
       </c>
       <c r="K101" s="3">
         <v>-56100</v>
@@ -5177,25 +5177,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-638400</v>
+        <v>-649900</v>
       </c>
       <c r="E102" s="3">
-        <v>338500</v>
+        <v>344600</v>
       </c>
       <c r="F102" s="3">
-        <v>-544700</v>
+        <v>-554500</v>
       </c>
       <c r="G102" s="3">
-        <v>502500</v>
+        <v>511600</v>
       </c>
       <c r="H102" s="3">
-        <v>292800</v>
+        <v>298100</v>
       </c>
       <c r="I102" s="3">
-        <v>36300</v>
+        <v>37000</v>
       </c>
       <c r="J102" s="3">
-        <v>-142900</v>
+        <v>-145500</v>
       </c>
       <c r="K102" s="3">
         <v>274500</v>

--- a/AAII_Financials/Quarterly/PSO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PSO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
   <si>
     <t>PSO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,248 +665,261 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42551</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42369</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42185</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2132200</v>
+        <v>2547400</v>
       </c>
       <c r="E8" s="3">
-        <v>2183500</v>
+        <v>2218600</v>
       </c>
       <c r="F8" s="3">
-        <v>1904400</v>
+        <v>2271900</v>
       </c>
       <c r="G8" s="3">
-        <v>2271700</v>
+        <v>1981600</v>
       </c>
       <c r="H8" s="3">
-        <v>1779200</v>
+        <v>2363700</v>
       </c>
       <c r="I8" s="3">
-        <v>2432700</v>
+        <v>1851300</v>
       </c>
       <c r="J8" s="3">
+        <v>2531200</v>
+      </c>
+      <c r="K8" s="3">
         <v>2181100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2761900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2482500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3489700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2725400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3308100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2412400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>3223000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2629600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>3282800</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1148400</v>
+        <v>1343800</v>
       </c>
       <c r="E9" s="3">
-        <v>1084000</v>
+        <v>1194900</v>
       </c>
       <c r="F9" s="3">
-        <v>999300</v>
+        <v>1127900</v>
       </c>
       <c r="G9" s="3">
-        <v>1095900</v>
+        <v>1039800</v>
       </c>
       <c r="H9" s="3">
-        <v>1011200</v>
+        <v>1140300</v>
       </c>
       <c r="I9" s="3">
-        <v>1137700</v>
+        <v>1052200</v>
       </c>
       <c r="J9" s="3">
+        <v>1183700</v>
+      </c>
+      <c r="K9" s="3">
         <v>1078000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1257700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1214000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1518400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1322100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1454500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1179000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1322600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1273300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1370800</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>983800</v>
+        <v>1203600</v>
       </c>
       <c r="E10" s="3">
-        <v>1099500</v>
+        <v>1023700</v>
       </c>
       <c r="F10" s="3">
-        <v>905100</v>
+        <v>1144000</v>
       </c>
       <c r="G10" s="3">
-        <v>1175800</v>
+        <v>941800</v>
       </c>
       <c r="H10" s="3">
-        <v>768000</v>
+        <v>1223400</v>
       </c>
       <c r="I10" s="3">
-        <v>1295100</v>
+        <v>799100</v>
       </c>
       <c r="J10" s="3">
+        <v>1347500</v>
+      </c>
+      <c r="K10" s="3">
         <v>1103100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1504100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1268500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1971200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1403300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1853600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1233300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1900400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1356300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1912000</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -926,8 +939,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -979,8 +993,11 @@
       <c r="S12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1032,61 +1049,67 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-16700</v>
+        <v>-12400</v>
       </c>
       <c r="E14" s="3">
-        <v>-82300</v>
+        <v>-17400</v>
       </c>
       <c r="F14" s="3">
-        <v>7200</v>
+        <v>-85600</v>
       </c>
       <c r="G14" s="3">
-        <v>3600</v>
+        <v>7400</v>
       </c>
       <c r="H14" s="3">
-        <v>-215800</v>
+        <v>3700</v>
       </c>
       <c r="I14" s="3">
-        <v>-11900</v>
+        <v>-224600</v>
       </c>
       <c r="J14" s="3">
+        <v>-12400</v>
+      </c>
+      <c r="K14" s="3">
         <v>-7200</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-28100</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-275500</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-181100</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>3138100</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
       <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>1107400</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
       <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
         <v>101400</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1138,8 +1161,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1156,114 +1182,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1955700</v>
+        <v>2394700</v>
       </c>
       <c r="E17" s="3">
-        <v>1976000</v>
+        <v>2034900</v>
       </c>
       <c r="F17" s="3">
-        <v>1893700</v>
+        <v>2056000</v>
       </c>
       <c r="G17" s="3">
-        <v>1909200</v>
+        <v>1970400</v>
       </c>
       <c r="H17" s="3">
-        <v>1651600</v>
+        <v>1986500</v>
       </c>
       <c r="I17" s="3">
-        <v>2148900</v>
+        <v>1718500</v>
       </c>
       <c r="J17" s="3">
+        <v>2235900</v>
+      </c>
+      <c r="K17" s="3">
         <v>2137000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2371500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2172400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2874100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2704100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>6031100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2782100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>3581600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2799500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2775800</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>176500</v>
+        <v>152600</v>
       </c>
       <c r="E18" s="3">
-        <v>207500</v>
+        <v>183600</v>
       </c>
       <c r="F18" s="3">
-        <v>10700</v>
+        <v>215900</v>
       </c>
       <c r="G18" s="3">
-        <v>362500</v>
+        <v>11200</v>
       </c>
       <c r="H18" s="3">
-        <v>127600</v>
+        <v>377200</v>
       </c>
       <c r="I18" s="3">
-        <v>283800</v>
+        <v>132800</v>
       </c>
       <c r="J18" s="3">
+        <v>295300</v>
+      </c>
+      <c r="K18" s="3">
         <v>44100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>390400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>310100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>615600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>21300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-2723100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-369700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-358700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-169900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>507000</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1283,114 +1316,121 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>37000</v>
+        <v>26100</v>
       </c>
       <c r="E20" s="3">
+        <v>38500</v>
+      </c>
+      <c r="F20" s="3">
         <v>-1200</v>
       </c>
-      <c r="F20" s="3">
-        <v>-6000</v>
-      </c>
       <c r="G20" s="3">
-        <v>17900</v>
+        <v>-6200</v>
       </c>
       <c r="H20" s="3">
-        <v>-85900</v>
+        <v>50900</v>
       </c>
       <c r="I20" s="3">
-        <v>-22700</v>
+        <v>-89300</v>
       </c>
       <c r="J20" s="3">
+        <v>-23600</v>
+      </c>
+      <c r="K20" s="3">
         <v>-28600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-29300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-41300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-5700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-34600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-49300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-25900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-33900</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-4000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-123800</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>366100</v>
+        <v>410700</v>
       </c>
       <c r="E21" s="3">
-        <v>469800</v>
+        <v>380900</v>
       </c>
       <c r="F21" s="3">
-        <v>227800</v>
+        <v>488900</v>
       </c>
       <c r="G21" s="3">
-        <v>547400</v>
+        <v>237000</v>
       </c>
       <c r="H21" s="3">
-        <v>238500</v>
+        <v>616700</v>
       </c>
       <c r="I21" s="3">
-        <v>459100</v>
+        <v>248200</v>
       </c>
       <c r="J21" s="3">
+        <v>477700</v>
+      </c>
+      <c r="K21" s="3">
         <v>203900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>519700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>432600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>833500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>193100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-2550600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-157700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>954800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>46100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>722900</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1442,114 +1482,123 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>213500</v>
+        <v>178700</v>
       </c>
       <c r="E23" s="3">
-        <v>206300</v>
+        <v>222100</v>
       </c>
       <c r="F23" s="3">
-        <v>4800</v>
+        <v>214700</v>
       </c>
       <c r="G23" s="3">
-        <v>380400</v>
+        <v>5000</v>
       </c>
       <c r="H23" s="3">
-        <v>41700</v>
+        <v>428100</v>
       </c>
       <c r="I23" s="3">
-        <v>261200</v>
+        <v>43400</v>
       </c>
       <c r="J23" s="3">
+        <v>271700</v>
+      </c>
+      <c r="K23" s="3">
         <v>15500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>361100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>268900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>609900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-13300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-2772300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-395600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-392600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-173800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>383200</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>57200</v>
+        <v>38500</v>
       </c>
       <c r="E24" s="3">
-        <v>15500</v>
+        <v>59600</v>
       </c>
       <c r="F24" s="3">
-        <v>-16700</v>
+        <v>16100</v>
       </c>
       <c r="G24" s="3">
-        <v>68000</v>
+        <v>-17400</v>
       </c>
       <c r="H24" s="3">
-        <v>-15500</v>
+        <v>78200</v>
       </c>
       <c r="I24" s="3">
+        <v>-16100</v>
+      </c>
+      <c r="J24" s="3">
         <v>1200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-41700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-128100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>17300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>17000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>8000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-167500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-111200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-53500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-52700</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>86900</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1601,114 +1650,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>156200</v>
+        <v>140200</v>
       </c>
       <c r="E26" s="3">
-        <v>190800</v>
+        <v>162500</v>
       </c>
       <c r="F26" s="3">
-        <v>21500</v>
+        <v>198500</v>
       </c>
       <c r="G26" s="3">
-        <v>312400</v>
+        <v>22300</v>
       </c>
       <c r="H26" s="3">
+        <v>349900</v>
+      </c>
+      <c r="I26" s="3">
+        <v>59600</v>
+      </c>
+      <c r="J26" s="3">
+        <v>270500</v>
+      </c>
+      <c r="K26" s="3">
         <v>57200</v>
       </c>
-      <c r="I26" s="3">
-        <v>260000</v>
-      </c>
-      <c r="J26" s="3">
-        <v>57200</v>
-      </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>489200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>251600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>592900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-21300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-2604800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-284400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-339100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-121100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>296300</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>156200</v>
+        <v>137700</v>
       </c>
       <c r="E27" s="3">
-        <v>190800</v>
+        <v>162500</v>
       </c>
       <c r="F27" s="3">
-        <v>20300</v>
+        <v>198500</v>
       </c>
       <c r="G27" s="3">
-        <v>312400</v>
+        <v>21100</v>
       </c>
       <c r="H27" s="3">
-        <v>57200</v>
+        <v>349900</v>
       </c>
       <c r="I27" s="3">
-        <v>258800</v>
+        <v>59600</v>
       </c>
       <c r="J27" s="3">
+        <v>269300</v>
+      </c>
+      <c r="K27" s="3">
         <v>56000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>488000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>250200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>591500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-22600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-2606100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-285700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-339100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-121100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>297600</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1760,8 +1818,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1786,35 +1847,38 @@
       <c r="J29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
+      <c r="K29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L29" s="3">
         <v>0</v>
       </c>
       <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
         <v>7100</v>
       </c>
-      <c r="N29" s="3" t="s">
+      <c r="O29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
-      </c>
       <c r="P29" s="3">
         <v>0</v>
       </c>
       <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
         <v>1515600</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>17100</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>23700</v>
       </c>
     </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1866,8 +1930,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1919,114 +1986,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-37000</v>
+        <v>-26100</v>
       </c>
       <c r="E32" s="3">
+        <v>-38500</v>
+      </c>
+      <c r="F32" s="3">
         <v>1200</v>
       </c>
-      <c r="F32" s="3">
-        <v>6000</v>
-      </c>
       <c r="G32" s="3">
-        <v>-17900</v>
+        <v>6200</v>
       </c>
       <c r="H32" s="3">
-        <v>85900</v>
+        <v>-50900</v>
       </c>
       <c r="I32" s="3">
-        <v>22700</v>
+        <v>89300</v>
       </c>
       <c r="J32" s="3">
+        <v>23600</v>
+      </c>
+      <c r="K32" s="3">
         <v>28600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>29300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>41300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>5700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>34600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>49300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>25900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>33900</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>4000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>123800</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>156200</v>
+        <v>137700</v>
       </c>
       <c r="E33" s="3">
-        <v>190800</v>
+        <v>162500</v>
       </c>
       <c r="F33" s="3">
-        <v>20300</v>
+        <v>198500</v>
       </c>
       <c r="G33" s="3">
-        <v>312400</v>
+        <v>21100</v>
       </c>
       <c r="H33" s="3">
-        <v>57200</v>
+        <v>349900</v>
       </c>
       <c r="I33" s="3">
-        <v>258800</v>
+        <v>59600</v>
       </c>
       <c r="J33" s="3">
+        <v>269300</v>
+      </c>
+      <c r="K33" s="3">
         <v>56000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>488000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>250200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>598600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-22600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-2606100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-285700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1176500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-104000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>321300</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2078,119 +2154,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>156200</v>
+        <v>137700</v>
       </c>
       <c r="E35" s="3">
-        <v>190800</v>
+        <v>162500</v>
       </c>
       <c r="F35" s="3">
-        <v>20300</v>
+        <v>198500</v>
       </c>
       <c r="G35" s="3">
-        <v>312400</v>
+        <v>21100</v>
       </c>
       <c r="H35" s="3">
-        <v>57200</v>
+        <v>349900</v>
       </c>
       <c r="I35" s="3">
-        <v>258800</v>
+        <v>59600</v>
       </c>
       <c r="J35" s="3">
+        <v>269300</v>
+      </c>
+      <c r="K35" s="3">
         <v>56000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>488000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>250200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>598600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-22600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-2606100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-285700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1176500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-104000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>321300</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42551</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42369</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42185</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2210,8 +2295,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2231,61 +2317,65 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>467500</v>
+        <v>692400</v>
       </c>
       <c r="E41" s="3">
-        <v>1117400</v>
+        <v>486400</v>
       </c>
       <c r="F41" s="3">
-        <v>772700</v>
+        <v>1162600</v>
       </c>
       <c r="G41" s="3">
-        <v>1308200</v>
+        <v>804000</v>
       </c>
       <c r="H41" s="3">
-        <v>819300</v>
+        <v>1361200</v>
       </c>
       <c r="I41" s="3">
-        <v>521100</v>
+        <v>852400</v>
       </c>
       <c r="J41" s="3">
+        <v>542200</v>
+      </c>
+      <c r="K41" s="3">
         <v>497300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>692900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>439300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>733000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>609800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1796900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1267000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>2221200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>475400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>697900</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2317,399 +2407,423 @@
         <v>0</v>
       </c>
       <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3">
         <v>11300</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>14600</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>12300</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>40100</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>36500</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>34200</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>21100</v>
       </c>
     </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1441700</v>
+        <v>1424400</v>
       </c>
       <c r="E43" s="3">
-        <v>1530000</v>
+        <v>1500100</v>
       </c>
       <c r="F43" s="3">
-        <v>1527600</v>
+        <v>1591900</v>
       </c>
       <c r="G43" s="3">
-        <v>1333200</v>
+        <v>1589500</v>
       </c>
       <c r="H43" s="3">
-        <v>1296300</v>
+        <v>1387200</v>
       </c>
       <c r="I43" s="3">
-        <v>1520500</v>
+        <v>1348700</v>
       </c>
       <c r="J43" s="3">
+        <v>1582000</v>
+      </c>
+      <c r="K43" s="3">
         <v>1518100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1437000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1409600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1570800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1642900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1671300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1736200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1674700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1677600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1725000</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>122800</v>
+        <v>130300</v>
       </c>
       <c r="E44" s="3">
-        <v>116900</v>
+        <v>127800</v>
       </c>
       <c r="F44" s="3">
-        <v>150300</v>
+        <v>121600</v>
       </c>
       <c r="G44" s="3">
-        <v>153800</v>
+        <v>156300</v>
       </c>
       <c r="H44" s="3">
-        <v>207500</v>
+        <v>160100</v>
       </c>
       <c r="I44" s="3">
-        <v>201500</v>
+        <v>215900</v>
       </c>
       <c r="J44" s="3">
+        <v>209700</v>
+      </c>
+      <c r="K44" s="3">
         <v>252800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>200100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>222300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>209400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>316900</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>289400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>354200</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>275200</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>330500</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>295000</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1112600</v>
+        <v>1229600</v>
       </c>
       <c r="E45" s="3">
-        <v>1068500</v>
+        <v>1157700</v>
       </c>
       <c r="F45" s="3">
-        <v>1049400</v>
+        <v>1111800</v>
       </c>
       <c r="G45" s="3">
-        <v>1100700</v>
+        <v>1091900</v>
       </c>
       <c r="H45" s="3">
+        <v>1145300</v>
+      </c>
+      <c r="I45" s="3">
+        <v>1156400</v>
+      </c>
+      <c r="J45" s="3">
+        <v>1110500</v>
+      </c>
+      <c r="K45" s="3">
+        <v>996900</v>
+      </c>
+      <c r="L45" s="3">
+        <v>997900</v>
+      </c>
+      <c r="M45" s="3">
+        <v>1026300</v>
+      </c>
+      <c r="N45" s="3">
+        <v>1048600</v>
+      </c>
+      <c r="O45" s="3">
+        <v>1319400</v>
+      </c>
+      <c r="P45" s="3">
+        <v>1261200</v>
+      </c>
+      <c r="Q45" s="3">
+        <v>1221700</v>
+      </c>
+      <c r="R45" s="3">
+        <v>1138700</v>
+      </c>
+      <c r="S45" s="3">
+        <v>1114000</v>
+      </c>
+      <c r="T45" s="3">
         <v>1111400</v>
       </c>
-      <c r="I45" s="3">
-        <v>1067300</v>
-      </c>
-      <c r="J45" s="3">
-        <v>996900</v>
-      </c>
-      <c r="K45" s="3">
-        <v>997900</v>
-      </c>
-      <c r="L45" s="3">
-        <v>1026300</v>
-      </c>
-      <c r="M45" s="3">
-        <v>1048600</v>
-      </c>
-      <c r="N45" s="3">
-        <v>1319400</v>
-      </c>
-      <c r="O45" s="3">
-        <v>1261200</v>
-      </c>
-      <c r="P45" s="3">
-        <v>1221700</v>
-      </c>
-      <c r="Q45" s="3">
-        <v>1138700</v>
-      </c>
-      <c r="R45" s="3">
-        <v>1114000</v>
-      </c>
-      <c r="S45" s="3">
-        <v>1111400</v>
-      </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3144600</v>
+        <v>3476700</v>
       </c>
       <c r="E46" s="3">
-        <v>3832700</v>
+        <v>3272000</v>
       </c>
       <c r="F46" s="3">
-        <v>3500000</v>
+        <v>3987900</v>
       </c>
       <c r="G46" s="3">
-        <v>3895900</v>
+        <v>3641700</v>
       </c>
       <c r="H46" s="3">
-        <v>3434400</v>
+        <v>4053700</v>
       </c>
       <c r="I46" s="3">
-        <v>3310400</v>
+        <v>3573500</v>
       </c>
       <c r="J46" s="3">
+        <v>3444500</v>
+      </c>
+      <c r="K46" s="3">
         <v>3265100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3327900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3097500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3573200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>3903700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>5031100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>4619200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>5346400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>3631700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>3850300</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>391100</v>
+        <v>419400</v>
       </c>
       <c r="E47" s="3">
-        <v>432900</v>
+        <v>407000</v>
       </c>
       <c r="F47" s="3">
-        <v>368500</v>
+        <v>450400</v>
       </c>
       <c r="G47" s="3">
-        <v>437700</v>
+        <v>383400</v>
       </c>
       <c r="H47" s="3">
-        <v>537800</v>
+        <v>455400</v>
       </c>
       <c r="I47" s="3">
-        <v>527100</v>
+        <v>559600</v>
       </c>
       <c r="J47" s="3">
+        <v>548400</v>
+      </c>
+      <c r="K47" s="3">
         <v>1152000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>713600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>764100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>817900</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>1141000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>1743900</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>1772400</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>1775200</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>1603900</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>1651300</v>
       </c>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>434100</v>
+        <v>384600</v>
       </c>
       <c r="E48" s="3">
-        <v>436500</v>
+        <v>451700</v>
       </c>
       <c r="F48" s="3">
-        <v>540200</v>
+        <v>454100</v>
       </c>
       <c r="G48" s="3">
-        <v>614100</v>
+        <v>562100</v>
       </c>
       <c r="H48" s="3">
-        <v>759600</v>
+        <v>639000</v>
       </c>
       <c r="I48" s="3">
-        <v>737000</v>
+        <v>790400</v>
       </c>
       <c r="J48" s="3">
+        <v>766800</v>
+      </c>
+      <c r="K48" s="3">
         <v>765600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>289100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>356700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>397600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>407400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>422400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>438300</v>
-      </c>
-      <c r="Q48" s="3">
-        <v>417400</v>
       </c>
       <c r="R48" s="3">
         <v>417400</v>
       </c>
       <c r="S48" s="3">
+        <v>417400</v>
+      </c>
+      <c r="T48" s="3">
         <v>439800</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3832700</v>
+        <v>3942000</v>
       </c>
       <c r="E49" s="3">
-        <v>3302100</v>
+        <v>3987900</v>
       </c>
       <c r="F49" s="3">
-        <v>3203100</v>
+        <v>3435800</v>
       </c>
       <c r="G49" s="3">
-        <v>3269900</v>
+        <v>3332800</v>
       </c>
       <c r="H49" s="3">
-        <v>3587100</v>
+        <v>3402300</v>
       </c>
       <c r="I49" s="3">
-        <v>3458300</v>
+        <v>3732300</v>
       </c>
       <c r="J49" s="3">
+        <v>3598300</v>
+      </c>
+      <c r="K49" s="3">
         <v>3651500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>3670700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>4082500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>4194400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>4348400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>4239200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>7260400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>6735500</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>7816500</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>8308900</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2761,8 +2875,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2814,61 +2931,67 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1105500</v>
+        <v>864800</v>
       </c>
       <c r="E52" s="3">
-        <v>752500</v>
+        <v>1150200</v>
       </c>
       <c r="F52" s="3">
-        <v>636800</v>
+        <v>782900</v>
       </c>
       <c r="G52" s="3">
-        <v>667800</v>
+        <v>662600</v>
       </c>
       <c r="H52" s="3">
-        <v>645100</v>
+        <v>694800</v>
       </c>
       <c r="I52" s="3">
-        <v>1090000</v>
+        <v>671300</v>
       </c>
       <c r="J52" s="3">
+        <v>1134100</v>
+      </c>
+      <c r="K52" s="3">
         <v>664200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1642000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1863500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>2179300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1978500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>960600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1199700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>901300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>886200</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>757200</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2920,61 +3043,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>8908000</v>
+        <v>9087600</v>
       </c>
       <c r="E54" s="3">
-        <v>8756600</v>
+        <v>9268800</v>
       </c>
       <c r="F54" s="3">
-        <v>8248600</v>
+        <v>9111200</v>
       </c>
       <c r="G54" s="3">
-        <v>8885400</v>
+        <v>8582600</v>
       </c>
       <c r="H54" s="3">
-        <v>8964100</v>
+        <v>9245200</v>
       </c>
       <c r="I54" s="3">
-        <v>9122700</v>
+        <v>9327100</v>
       </c>
       <c r="J54" s="3">
+        <v>9492100</v>
+      </c>
+      <c r="K54" s="3">
         <v>9498300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>9643300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>10164300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>11162400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>11778900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>12397300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>15290100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>15175600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>14355600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>15007500</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2994,8 +3123,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3015,326 +3145,345 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1471600</v>
+        <v>1556000</v>
       </c>
       <c r="E57" s="3">
-        <v>1497800</v>
+        <v>1531100</v>
       </c>
       <c r="F57" s="3">
-        <v>1250900</v>
+        <v>1558400</v>
       </c>
       <c r="G57" s="3">
-        <v>1426200</v>
+        <v>1301600</v>
       </c>
       <c r="H57" s="3">
-        <v>1249800</v>
+        <v>1484000</v>
       </c>
       <c r="I57" s="3">
-        <v>1524000</v>
+        <v>1300400</v>
       </c>
       <c r="J57" s="3">
+        <v>1585700</v>
+      </c>
+      <c r="K57" s="3">
         <v>1441700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1707900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1561400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1899100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1772100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2006300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1891400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1813000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1721000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>2108200</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>178900</v>
+        <v>106700</v>
       </c>
       <c r="E58" s="3">
-        <v>184800</v>
+        <v>186100</v>
       </c>
       <c r="F58" s="3">
-        <v>186000</v>
+        <v>192300</v>
       </c>
       <c r="G58" s="3">
-        <v>302900</v>
+        <v>193600</v>
       </c>
       <c r="H58" s="3">
-        <v>348200</v>
+        <v>315200</v>
       </c>
       <c r="I58" s="3">
-        <v>109700</v>
+        <v>362300</v>
       </c>
       <c r="J58" s="3">
+        <v>114200</v>
+      </c>
+      <c r="K58" s="3">
         <v>168100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>56100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>43900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>26900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>354200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>54200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>148700</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>367800</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>965200</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>450300</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>81100</v>
+        <v>172500</v>
       </c>
       <c r="E59" s="3">
-        <v>201500</v>
+        <v>84400</v>
       </c>
       <c r="F59" s="3">
-        <v>153800</v>
+        <v>209700</v>
       </c>
       <c r="G59" s="3">
-        <v>144300</v>
+        <v>160100</v>
       </c>
       <c r="H59" s="3">
-        <v>171700</v>
+        <v>150100</v>
       </c>
       <c r="I59" s="3">
-        <v>145500</v>
+        <v>178700</v>
       </c>
       <c r="J59" s="3">
+        <v>151400</v>
+      </c>
+      <c r="K59" s="3">
         <v>64400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>140300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>374000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>362300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>279600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>309100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>181000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>306500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>221200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>321300</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1731500</v>
+        <v>1835100</v>
       </c>
       <c r="E60" s="3">
-        <v>1884200</v>
+        <v>1801600</v>
       </c>
       <c r="F60" s="3">
-        <v>1590800</v>
+        <v>1960500</v>
       </c>
       <c r="G60" s="3">
-        <v>1873400</v>
+        <v>1655200</v>
       </c>
       <c r="H60" s="3">
-        <v>1769700</v>
+        <v>1949300</v>
       </c>
       <c r="I60" s="3">
-        <v>1779200</v>
+        <v>1841300</v>
       </c>
       <c r="J60" s="3">
+        <v>1851300</v>
+      </c>
+      <c r="K60" s="3">
         <v>1674300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1904300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1979300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2288200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2405800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2369600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2221000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2487300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2907500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2879800</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1372600</v>
+        <v>1419500</v>
       </c>
       <c r="E61" s="3">
-        <v>1484700</v>
+        <v>1428200</v>
       </c>
       <c r="F61" s="3">
-        <v>1501400</v>
+        <v>1544800</v>
       </c>
       <c r="G61" s="3">
-        <v>1665900</v>
+        <v>1562200</v>
       </c>
       <c r="H61" s="3">
-        <v>1848400</v>
+        <v>1733400</v>
       </c>
       <c r="I61" s="3">
-        <v>1874600</v>
+        <v>1923200</v>
       </c>
       <c r="J61" s="3">
+        <v>1950500</v>
+      </c>
+      <c r="K61" s="3">
         <v>2228800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>822200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1422900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1508500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2417800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2985400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>3004500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2671200</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>2532200</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>2479500</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>447200</v>
+        <v>354900</v>
       </c>
       <c r="E62" s="3">
-        <v>283800</v>
+        <v>465300</v>
       </c>
       <c r="F62" s="3">
-        <v>339900</v>
+        <v>295300</v>
       </c>
       <c r="G62" s="3">
-        <v>416200</v>
+        <v>353600</v>
       </c>
       <c r="H62" s="3">
-        <v>345800</v>
+        <v>433000</v>
       </c>
       <c r="I62" s="3">
-        <v>313600</v>
+        <v>359800</v>
       </c>
       <c r="J62" s="3">
+        <v>326300</v>
+      </c>
+      <c r="K62" s="3">
         <v>477000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1396800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1308500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1675500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1680200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1687300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1713000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1646000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1800100</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1767100</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3386,8 +3535,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3439,8 +3591,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3492,61 +3647,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>3564400</v>
+        <v>3625600</v>
       </c>
       <c r="E66" s="3">
-        <v>3664600</v>
+        <v>3708800</v>
       </c>
       <c r="F66" s="3">
-        <v>3444000</v>
+        <v>3813000</v>
       </c>
       <c r="G66" s="3">
-        <v>3966300</v>
+        <v>3583400</v>
       </c>
       <c r="H66" s="3">
-        <v>3975800</v>
+        <v>4126900</v>
       </c>
       <c r="I66" s="3">
-        <v>3979400</v>
+        <v>4136800</v>
       </c>
       <c r="J66" s="3">
+        <v>4140500</v>
+      </c>
+      <c r="K66" s="3">
         <v>4392000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4134200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4722700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>5483600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>6510500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>7047200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>6942400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>6809800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>7247600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>7134400</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3566,8 +3727,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3619,8 +3781,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3672,8 +3837,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3725,8 +3893,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3778,61 +3949,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1129300</v>
+        <v>1127900</v>
       </c>
       <c r="E72" s="3">
-        <v>1249800</v>
+        <v>1175000</v>
       </c>
       <c r="F72" s="3">
-        <v>952800</v>
+        <v>1300400</v>
       </c>
       <c r="G72" s="3">
-        <v>1053000</v>
+        <v>991400</v>
       </c>
       <c r="H72" s="3">
-        <v>841900</v>
+        <v>1095600</v>
       </c>
       <c r="I72" s="3">
-        <v>1099500</v>
+        <v>876000</v>
       </c>
       <c r="J72" s="3">
+        <v>1144000</v>
+      </c>
+      <c r="K72" s="3">
         <v>943300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1280900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1011600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>943900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>555200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>881800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>4151200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>4823300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>3531600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>4213700</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3884,8 +4061,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3937,8 +4117,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3990,61 +4173,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>5343600</v>
+        <v>5462000</v>
       </c>
       <c r="E76" s="3">
-        <v>5092000</v>
+        <v>5560000</v>
       </c>
       <c r="F76" s="3">
-        <v>4804600</v>
+        <v>5298200</v>
       </c>
       <c r="G76" s="3">
-        <v>4919100</v>
+        <v>4999200</v>
       </c>
       <c r="H76" s="3">
-        <v>4988300</v>
+        <v>5118300</v>
       </c>
       <c r="I76" s="3">
-        <v>5143300</v>
+        <v>5190300</v>
       </c>
       <c r="J76" s="3">
+        <v>5351600</v>
+      </c>
+      <c r="K76" s="3">
         <v>5106300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>5509100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>5441500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>5678800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>5268300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>5350100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>8347700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>8365800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>7108000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>7873100</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4096,119 +4285,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42551</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42369</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42185</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>156200</v>
+        <v>137700</v>
       </c>
       <c r="E81" s="3">
-        <v>190800</v>
+        <v>162500</v>
       </c>
       <c r="F81" s="3">
-        <v>20300</v>
+        <v>198500</v>
       </c>
       <c r="G81" s="3">
-        <v>312400</v>
+        <v>21100</v>
       </c>
       <c r="H81" s="3">
-        <v>57200</v>
+        <v>349900</v>
       </c>
       <c r="I81" s="3">
-        <v>258800</v>
+        <v>59600</v>
       </c>
       <c r="J81" s="3">
+        <v>269300</v>
+      </c>
+      <c r="K81" s="3">
         <v>56000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>488000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>250200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>598600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-22600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-2606100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-285700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1176500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-104000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>321300</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4228,61 +4426,65 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>121600</v>
+        <v>197300</v>
       </c>
       <c r="E83" s="3">
-        <v>263500</v>
+        <v>126600</v>
       </c>
       <c r="F83" s="3">
-        <v>223000</v>
+        <v>274200</v>
       </c>
       <c r="G83" s="3">
-        <v>167000</v>
+        <v>232000</v>
       </c>
       <c r="H83" s="3">
-        <v>196800</v>
+        <v>188600</v>
       </c>
       <c r="I83" s="3">
-        <v>198000</v>
+        <v>204700</v>
       </c>
       <c r="J83" s="3">
+        <v>206000</v>
+      </c>
+      <c r="K83" s="3">
         <v>188400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>158600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>163700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>103300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>206400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>118200</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>237900</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>1250800</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>219900</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>256800</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4334,8 +4536,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4387,8 +4592,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4440,8 +4648,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4493,8 +4704,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4546,61 +4760,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-39400</v>
+        <v>488900</v>
       </c>
       <c r="E89" s="3">
-        <v>478200</v>
+        <v>-40900</v>
       </c>
       <c r="F89" s="3">
-        <v>-89400</v>
+        <v>497600</v>
       </c>
       <c r="G89" s="3">
-        <v>634400</v>
+        <v>-93100</v>
       </c>
       <c r="H89" s="3">
-        <v>-170500</v>
+        <v>660100</v>
       </c>
       <c r="I89" s="3">
-        <v>639200</v>
+        <v>-177400</v>
       </c>
       <c r="J89" s="3">
+        <v>665100</v>
+      </c>
+      <c r="K89" s="3">
         <v>-199100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>774600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-230300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>846200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-399400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>902800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-417600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>763000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-492500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>999400</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4620,61 +4840,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-25000</v>
+        <v>-80000</v>
       </c>
       <c r="E91" s="3">
-        <v>-39400</v>
+        <v>-67000</v>
       </c>
       <c r="F91" s="3">
-        <v>-37000</v>
+        <v>-106000</v>
       </c>
       <c r="G91" s="3">
-        <v>-27400</v>
+        <v>-70000</v>
       </c>
       <c r="H91" s="3">
-        <v>-35800</v>
+        <v>-56000</v>
       </c>
       <c r="I91" s="3">
-        <v>-20300</v>
+        <v>-78000</v>
       </c>
       <c r="J91" s="3">
+        <v>-98000</v>
+      </c>
+      <c r="K91" s="3">
         <v>-45300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-46400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-42600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-70800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-42600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-53000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-58200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-65200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-125100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-160600</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4726,8 +4950,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4779,61 +5006,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-181300</v>
+        <v>204700</v>
       </c>
       <c r="E94" s="3">
-        <v>0</v>
+        <v>-188600</v>
       </c>
       <c r="F94" s="3">
-        <v>-95400</v>
+        <v>0</v>
       </c>
       <c r="G94" s="3">
-        <v>14300</v>
+        <v>-99300</v>
       </c>
       <c r="H94" s="3">
-        <v>690500</v>
+        <v>14900</v>
       </c>
       <c r="I94" s="3">
-        <v>-127600</v>
+        <v>718400</v>
       </c>
       <c r="J94" s="3">
+        <v>-132800</v>
+      </c>
+      <c r="K94" s="3">
         <v>-260000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>113500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>157100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>1016000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-89200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-24600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-27100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>1753000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-15800</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-92200</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4853,61 +5086,65 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-127600</v>
+        <v>-60800</v>
       </c>
       <c r="E96" s="3">
-        <v>-56000</v>
+        <v>-132800</v>
       </c>
       <c r="F96" s="3">
-        <v>-121600</v>
+        <v>-58300</v>
       </c>
       <c r="G96" s="3">
-        <v>-53700</v>
+        <v>-126600</v>
       </c>
       <c r="H96" s="3">
+        <v>-55800</v>
+      </c>
+      <c r="I96" s="3">
+        <v>-125300</v>
+      </c>
+      <c r="J96" s="3">
+        <v>-57100</v>
+      </c>
+      <c r="K96" s="3">
         <v>-120400</v>
       </c>
-      <c r="I96" s="3">
-        <v>-54900</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-120400</v>
-      </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-52500</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-123800</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-58000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-368800</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-181000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-358100</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-190400</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-364800</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-181700</v>
       </c>
     </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4959,8 +5196,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5012,8 +5252,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5065,163 +5308,175 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-492500</v>
+        <v>-485200</v>
       </c>
       <c r="E100" s="3">
-        <v>-125200</v>
+        <v>-512500</v>
       </c>
       <c r="F100" s="3">
-        <v>-368500</v>
+        <v>-130300</v>
       </c>
       <c r="G100" s="3">
-        <v>-120400</v>
+        <v>-383400</v>
       </c>
       <c r="H100" s="3">
-        <v>-236100</v>
+        <v>-125300</v>
       </c>
       <c r="I100" s="3">
-        <v>-437700</v>
+        <v>-245700</v>
       </c>
       <c r="J100" s="3">
+        <v>-455400</v>
+      </c>
+      <c r="K100" s="3">
         <v>316000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-557500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-362100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1661300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-778900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-219200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-671000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-811300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>339700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-809800</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>63200</v>
+        <v>-21100</v>
       </c>
       <c r="E101" s="3">
-        <v>-8300</v>
+        <v>65800</v>
       </c>
       <c r="F101" s="3">
+        <v>-8700</v>
+      </c>
+      <c r="G101" s="3">
         <v>-1200</v>
       </c>
-      <c r="G101" s="3">
-        <v>-16700</v>
-      </c>
       <c r="H101" s="3">
-        <v>14300</v>
+        <v>-17400</v>
       </c>
       <c r="I101" s="3">
-        <v>-37000</v>
+        <v>14900</v>
       </c>
       <c r="J101" s="3">
+        <v>-38500</v>
+      </c>
+      <c r="K101" s="3">
         <v>-2400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-56100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-4000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>41000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-17300</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>14800</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>89200</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>17000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-42100</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-649900</v>
+        <v>187400</v>
       </c>
       <c r="E102" s="3">
-        <v>344600</v>
+        <v>-676200</v>
       </c>
       <c r="F102" s="3">
-        <v>-554500</v>
+        <v>358600</v>
       </c>
       <c r="G102" s="3">
-        <v>511600</v>
+        <v>-577000</v>
       </c>
       <c r="H102" s="3">
-        <v>298100</v>
+        <v>532300</v>
       </c>
       <c r="I102" s="3">
-        <v>37000</v>
+        <v>310200</v>
       </c>
       <c r="J102" s="3">
+        <v>38500</v>
+      </c>
+      <c r="K102" s="3">
         <v>-145500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>274500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-439300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>242000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-1284800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>673700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-1026500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>1721700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-210700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>102700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PSO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PSO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
   <si>
     <t>PSO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,261 +665,274 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42551</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42369</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42185</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2547400</v>
+        <v>2381300</v>
       </c>
       <c r="E8" s="3">
-        <v>2218600</v>
+        <v>2601800</v>
       </c>
       <c r="F8" s="3">
-        <v>2271900</v>
+        <v>2265900</v>
       </c>
       <c r="G8" s="3">
-        <v>1981600</v>
+        <v>2320400</v>
       </c>
       <c r="H8" s="3">
-        <v>2363700</v>
+        <v>2023900</v>
       </c>
       <c r="I8" s="3">
-        <v>1851300</v>
+        <v>2414200</v>
       </c>
       <c r="J8" s="3">
+        <v>1890800</v>
+      </c>
+      <c r="K8" s="3">
         <v>2531200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2181100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2761900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2482500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3489700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2725400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3308100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2412400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>3223000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2629600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>3282800</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1343800</v>
+        <v>1216600</v>
       </c>
       <c r="E9" s="3">
-        <v>1194900</v>
+        <v>1372500</v>
       </c>
       <c r="F9" s="3">
-        <v>1127900</v>
+        <v>1220400</v>
       </c>
       <c r="G9" s="3">
-        <v>1039800</v>
+        <v>1152000</v>
       </c>
       <c r="H9" s="3">
-        <v>1140300</v>
+        <v>1062000</v>
       </c>
       <c r="I9" s="3">
-        <v>1052200</v>
+        <v>1164600</v>
       </c>
       <c r="J9" s="3">
+        <v>1074700</v>
+      </c>
+      <c r="K9" s="3">
         <v>1183700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1078000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1257700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1214000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1518400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1322100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1454500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1179000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1322600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1273300</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1370800</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1203600</v>
+        <v>1164600</v>
       </c>
       <c r="E10" s="3">
-        <v>1023700</v>
+        <v>1229300</v>
       </c>
       <c r="F10" s="3">
-        <v>1144000</v>
+        <v>1045500</v>
       </c>
       <c r="G10" s="3">
-        <v>941800</v>
+        <v>1168500</v>
       </c>
       <c r="H10" s="3">
-        <v>1223400</v>
+        <v>961900</v>
       </c>
       <c r="I10" s="3">
-        <v>799100</v>
+        <v>1249600</v>
       </c>
       <c r="J10" s="3">
+        <v>816100</v>
+      </c>
+      <c r="K10" s="3">
         <v>1347500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1103100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1504100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1268500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1971200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1403300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1853600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1233300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1900400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1356300</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1912000</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -940,8 +953,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -996,8 +1010,11 @@
       <c r="T12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1052,64 +1069,70 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>8900</v>
+      </c>
+      <c r="E14" s="3">
+        <v>-12700</v>
+      </c>
+      <c r="F14" s="3">
+        <v>-17700</v>
+      </c>
+      <c r="G14" s="3">
+        <v>-87400</v>
+      </c>
+      <c r="H14" s="3">
+        <v>7600</v>
+      </c>
+      <c r="I14" s="3">
+        <v>3800</v>
+      </c>
+      <c r="J14" s="3">
+        <v>-229400</v>
+      </c>
+      <c r="K14" s="3">
         <v>-12400</v>
       </c>
-      <c r="E14" s="3">
-        <v>-17400</v>
-      </c>
-      <c r="F14" s="3">
-        <v>-85600</v>
-      </c>
-      <c r="G14" s="3">
-        <v>7400</v>
-      </c>
-      <c r="H14" s="3">
-        <v>3700</v>
-      </c>
-      <c r="I14" s="3">
-        <v>-224600</v>
-      </c>
-      <c r="J14" s="3">
-        <v>-12400</v>
-      </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-7200</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-28100</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-275500</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>-181100</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
       <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>3138100</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
       <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
         <v>1107400</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
       <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
         <v>101400</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1164,8 +1187,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1183,120 +1209,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2394700</v>
+        <v>2103700</v>
       </c>
       <c r="E17" s="3">
-        <v>2034900</v>
+        <v>2445900</v>
       </c>
       <c r="F17" s="3">
-        <v>2056000</v>
+        <v>2078400</v>
       </c>
       <c r="G17" s="3">
-        <v>1970400</v>
+        <v>2099900</v>
       </c>
       <c r="H17" s="3">
-        <v>1986500</v>
+        <v>2012500</v>
       </c>
       <c r="I17" s="3">
-        <v>1718500</v>
+        <v>2028900</v>
       </c>
       <c r="J17" s="3">
+        <v>1755200</v>
+      </c>
+      <c r="K17" s="3">
         <v>2235900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2137000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2371500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2172400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2874100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2704100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>6031100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2782100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>3581600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2799500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2775800</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>152600</v>
+        <v>277500</v>
       </c>
       <c r="E18" s="3">
-        <v>183600</v>
+        <v>155900</v>
       </c>
       <c r="F18" s="3">
-        <v>215900</v>
+        <v>187600</v>
       </c>
       <c r="G18" s="3">
-        <v>11200</v>
+        <v>220500</v>
       </c>
       <c r="H18" s="3">
-        <v>377200</v>
+        <v>11400</v>
       </c>
       <c r="I18" s="3">
-        <v>132800</v>
+        <v>385300</v>
       </c>
       <c r="J18" s="3">
+        <v>135600</v>
+      </c>
+      <c r="K18" s="3">
         <v>295300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>44100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>390400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>310100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>615600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>21300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-2723100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-369700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-358700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-169900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>507000</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1317,120 +1350,127 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>26100</v>
+        <v>21500</v>
       </c>
       <c r="E20" s="3">
-        <v>38500</v>
+        <v>26600</v>
       </c>
       <c r="F20" s="3">
-        <v>-1200</v>
+        <v>46900</v>
       </c>
       <c r="G20" s="3">
-        <v>-6200</v>
+        <v>-1300</v>
       </c>
       <c r="H20" s="3">
-        <v>50900</v>
+        <v>-6300</v>
       </c>
       <c r="I20" s="3">
-        <v>-89300</v>
+        <v>52000</v>
       </c>
       <c r="J20" s="3">
+        <v>-91200</v>
+      </c>
+      <c r="K20" s="3">
         <v>-23600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-28600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-29300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-41300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-5700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-34600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-49300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-25900</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-33900</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-4000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-123800</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>410700</v>
+        <v>458800</v>
       </c>
       <c r="E21" s="3">
-        <v>380900</v>
+        <v>419500</v>
       </c>
       <c r="F21" s="3">
-        <v>488900</v>
+        <v>396700</v>
       </c>
       <c r="G21" s="3">
-        <v>237000</v>
+        <v>499300</v>
       </c>
       <c r="H21" s="3">
-        <v>616700</v>
+        <v>242100</v>
       </c>
       <c r="I21" s="3">
-        <v>248200</v>
+        <v>629800</v>
       </c>
       <c r="J21" s="3">
+        <v>253500</v>
+      </c>
+      <c r="K21" s="3">
         <v>477700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>203900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>519700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>432600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>833500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>193100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-2550600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-157700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>954800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>46100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>722900</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1485,120 +1525,129 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>178700</v>
+        <v>299100</v>
       </c>
       <c r="E23" s="3">
-        <v>222100</v>
+        <v>182500</v>
       </c>
       <c r="F23" s="3">
-        <v>214700</v>
+        <v>234500</v>
       </c>
       <c r="G23" s="3">
-        <v>5000</v>
+        <v>219200</v>
       </c>
       <c r="H23" s="3">
-        <v>428100</v>
+        <v>5100</v>
       </c>
       <c r="I23" s="3">
-        <v>43400</v>
+        <v>437200</v>
       </c>
       <c r="J23" s="3">
+        <v>44400</v>
+      </c>
+      <c r="K23" s="3">
         <v>271700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>15500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>361100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>268900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>609900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-13300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-2772300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-395600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-392600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-173800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>383200</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>38500</v>
+        <v>62100</v>
       </c>
       <c r="E24" s="3">
-        <v>59600</v>
+        <v>39300</v>
       </c>
       <c r="F24" s="3">
-        <v>16100</v>
+        <v>62100</v>
       </c>
       <c r="G24" s="3">
-        <v>-17400</v>
+        <v>16500</v>
       </c>
       <c r="H24" s="3">
-        <v>78200</v>
+        <v>-17700</v>
       </c>
       <c r="I24" s="3">
-        <v>-16100</v>
+        <v>79800</v>
       </c>
       <c r="J24" s="3">
+        <v>-16500</v>
+      </c>
+      <c r="K24" s="3">
         <v>1200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-41700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-128100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>17300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>17000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>8000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-167500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-111200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-53500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-52700</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>86900</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1653,120 +1702,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>140200</v>
+        <v>237000</v>
       </c>
       <c r="E26" s="3">
-        <v>162500</v>
+        <v>143200</v>
       </c>
       <c r="F26" s="3">
-        <v>198500</v>
+        <v>172400</v>
       </c>
       <c r="G26" s="3">
-        <v>22300</v>
+        <v>202800</v>
       </c>
       <c r="H26" s="3">
-        <v>349900</v>
+        <v>22800</v>
       </c>
       <c r="I26" s="3">
-        <v>59600</v>
+        <v>357400</v>
       </c>
       <c r="J26" s="3">
+        <v>60800</v>
+      </c>
+      <c r="K26" s="3">
         <v>270500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>57200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>489200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>251600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>592900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-21300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-2604800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-284400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-339100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-121100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>296300</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>137700</v>
+        <v>235700</v>
       </c>
       <c r="E27" s="3">
-        <v>162500</v>
+        <v>140700</v>
       </c>
       <c r="F27" s="3">
-        <v>198500</v>
+        <v>172400</v>
       </c>
       <c r="G27" s="3">
-        <v>21100</v>
+        <v>202800</v>
       </c>
       <c r="H27" s="3">
-        <v>349900</v>
+        <v>21500</v>
       </c>
       <c r="I27" s="3">
-        <v>59600</v>
+        <v>357400</v>
       </c>
       <c r="J27" s="3">
+        <v>60800</v>
+      </c>
+      <c r="K27" s="3">
         <v>269300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>56000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>488000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>250200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>591500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-22600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-2606100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-285700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-339100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-121100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>297600</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1821,8 +1879,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1850,35 +1911,38 @@
       <c r="K29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
+      <c r="L29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M29" s="3">
         <v>0</v>
       </c>
       <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
         <v>7100</v>
       </c>
-      <c r="O29" s="3" t="s">
+      <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P29" s="3">
-        <v>0</v>
-      </c>
       <c r="Q29" s="3">
         <v>0</v>
       </c>
       <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
         <v>1515600</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>17100</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>23700</v>
       </c>
     </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1933,8 +1997,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1989,120 +2056,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-26100</v>
+        <v>-21500</v>
       </c>
       <c r="E32" s="3">
-        <v>-38500</v>
+        <v>-26600</v>
       </c>
       <c r="F32" s="3">
-        <v>1200</v>
+        <v>-46900</v>
       </c>
       <c r="G32" s="3">
-        <v>6200</v>
+        <v>1300</v>
       </c>
       <c r="H32" s="3">
-        <v>-50900</v>
+        <v>6300</v>
       </c>
       <c r="I32" s="3">
-        <v>89300</v>
+        <v>-52000</v>
       </c>
       <c r="J32" s="3">
+        <v>91200</v>
+      </c>
+      <c r="K32" s="3">
         <v>23600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>28600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>29300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>41300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>5700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>34600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>49300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>25900</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>33900</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>4000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>123800</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>137700</v>
+        <v>235700</v>
       </c>
       <c r="E33" s="3">
-        <v>162500</v>
+        <v>140700</v>
       </c>
       <c r="F33" s="3">
-        <v>198500</v>
+        <v>172400</v>
       </c>
       <c r="G33" s="3">
-        <v>21100</v>
+        <v>202800</v>
       </c>
       <c r="H33" s="3">
-        <v>349900</v>
+        <v>21500</v>
       </c>
       <c r="I33" s="3">
-        <v>59600</v>
+        <v>357400</v>
       </c>
       <c r="J33" s="3">
+        <v>60800</v>
+      </c>
+      <c r="K33" s="3">
         <v>269300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>56000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>488000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>250200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>598600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-22600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-2606100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-285700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1176500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-104000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>321300</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2157,125 +2233,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>137700</v>
+        <v>235700</v>
       </c>
       <c r="E35" s="3">
-        <v>162500</v>
+        <v>140700</v>
       </c>
       <c r="F35" s="3">
-        <v>198500</v>
+        <v>172400</v>
       </c>
       <c r="G35" s="3">
-        <v>21100</v>
+        <v>202800</v>
       </c>
       <c r="H35" s="3">
-        <v>349900</v>
+        <v>21500</v>
       </c>
       <c r="I35" s="3">
-        <v>59600</v>
+        <v>357400</v>
       </c>
       <c r="J35" s="3">
+        <v>60800</v>
+      </c>
+      <c r="K35" s="3">
         <v>269300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>56000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>488000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>250200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>598600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-22600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-2606100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-285700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1176500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-104000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>321300</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42551</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42369</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42185</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2296,8 +2381,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2318,64 +2404,68 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>692400</v>
+        <v>449900</v>
       </c>
       <c r="E41" s="3">
-        <v>486400</v>
+        <v>707200</v>
       </c>
       <c r="F41" s="3">
-        <v>1162600</v>
+        <v>496800</v>
       </c>
       <c r="G41" s="3">
-        <v>804000</v>
+        <v>1187500</v>
       </c>
       <c r="H41" s="3">
-        <v>1361200</v>
+        <v>821200</v>
       </c>
       <c r="I41" s="3">
-        <v>852400</v>
+        <v>1390200</v>
       </c>
       <c r="J41" s="3">
+        <v>870600</v>
+      </c>
+      <c r="K41" s="3">
         <v>542200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>497300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>692900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>439300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>733000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>609800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1796900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1267000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>2221200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>475400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>697900</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2410,420 +2500,444 @@
         <v>0</v>
       </c>
       <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3">
         <v>11300</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>14600</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>12300</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>40100</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>36500</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>34200</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>21100</v>
       </c>
     </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1424400</v>
+        <v>1356000</v>
       </c>
       <c r="E43" s="3">
-        <v>1500100</v>
+        <v>1454900</v>
       </c>
       <c r="F43" s="3">
-        <v>1591900</v>
+        <v>1532200</v>
       </c>
       <c r="G43" s="3">
-        <v>1589500</v>
+        <v>1625900</v>
       </c>
       <c r="H43" s="3">
-        <v>1387200</v>
+        <v>1623400</v>
       </c>
       <c r="I43" s="3">
-        <v>1348700</v>
+        <v>1416800</v>
       </c>
       <c r="J43" s="3">
+        <v>1377600</v>
+      </c>
+      <c r="K43" s="3">
         <v>1582000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1518100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1437000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1409600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1570800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1642900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1671300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1736200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1674700</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1677600</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1725000</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>130300</v>
+        <v>139400</v>
       </c>
       <c r="E44" s="3">
-        <v>127800</v>
+        <v>133100</v>
       </c>
       <c r="F44" s="3">
-        <v>121600</v>
+        <v>130500</v>
       </c>
       <c r="G44" s="3">
-        <v>156300</v>
+        <v>124200</v>
       </c>
       <c r="H44" s="3">
-        <v>160100</v>
+        <v>159700</v>
       </c>
       <c r="I44" s="3">
-        <v>215900</v>
+        <v>163500</v>
       </c>
       <c r="J44" s="3">
+        <v>220500</v>
+      </c>
+      <c r="K44" s="3">
         <v>209700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>252800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>200100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>222300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>209400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>316900</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>289400</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>354200</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>275200</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>330500</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>295000</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1229600</v>
+        <v>1221700</v>
       </c>
       <c r="E45" s="3">
-        <v>1157700</v>
+        <v>1255900</v>
       </c>
       <c r="F45" s="3">
-        <v>1111800</v>
+        <v>1182400</v>
       </c>
       <c r="G45" s="3">
-        <v>1091900</v>
+        <v>1135500</v>
       </c>
       <c r="H45" s="3">
-        <v>1145300</v>
+        <v>1115200</v>
       </c>
       <c r="I45" s="3">
-        <v>1156400</v>
+        <v>1169700</v>
       </c>
       <c r="J45" s="3">
+        <v>1181100</v>
+      </c>
+      <c r="K45" s="3">
         <v>1110500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>996900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>997900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1026300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1048600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1319400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1261200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1221700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1138700</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1114000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1111400</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3476700</v>
+        <v>3167000</v>
       </c>
       <c r="E46" s="3">
-        <v>3272000</v>
+        <v>3551000</v>
       </c>
       <c r="F46" s="3">
-        <v>3987900</v>
+        <v>3341900</v>
       </c>
       <c r="G46" s="3">
-        <v>3641700</v>
+        <v>4073100</v>
       </c>
       <c r="H46" s="3">
-        <v>4053700</v>
+        <v>3719500</v>
       </c>
       <c r="I46" s="3">
-        <v>3573500</v>
+        <v>4140300</v>
       </c>
       <c r="J46" s="3">
+        <v>3649800</v>
+      </c>
+      <c r="K46" s="3">
         <v>3444500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3265100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3327900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3097500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>3573200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>3903700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>5031100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>4619200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>5346400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>3631700</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>3850300</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>419400</v>
+        <v>423300</v>
       </c>
       <c r="E47" s="3">
-        <v>407000</v>
+        <v>428300</v>
       </c>
       <c r="F47" s="3">
-        <v>450400</v>
+        <v>415700</v>
       </c>
       <c r="G47" s="3">
-        <v>383400</v>
+        <v>460000</v>
       </c>
       <c r="H47" s="3">
-        <v>455400</v>
+        <v>391600</v>
       </c>
       <c r="I47" s="3">
-        <v>559600</v>
+        <v>465100</v>
       </c>
       <c r="J47" s="3">
+        <v>571600</v>
+      </c>
+      <c r="K47" s="3">
         <v>548400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1152000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>713600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>764100</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>817900</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>1141000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>1743900</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>1772400</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>1775200</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>1603900</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>1651300</v>
       </c>
     </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>384600</v>
+        <v>362400</v>
       </c>
       <c r="E48" s="3">
-        <v>451700</v>
+        <v>392900</v>
       </c>
       <c r="F48" s="3">
-        <v>454100</v>
+        <v>461300</v>
       </c>
       <c r="G48" s="3">
-        <v>562100</v>
+        <v>463800</v>
       </c>
       <c r="H48" s="3">
-        <v>639000</v>
+        <v>574100</v>
       </c>
       <c r="I48" s="3">
-        <v>790400</v>
+        <v>652700</v>
       </c>
       <c r="J48" s="3">
+        <v>807300</v>
+      </c>
+      <c r="K48" s="3">
         <v>766800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>765600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>289100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>356700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>397600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>407400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>422400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>438300</v>
-      </c>
-      <c r="R48" s="3">
-        <v>417400</v>
       </c>
       <c r="S48" s="3">
         <v>417400</v>
       </c>
       <c r="T48" s="3">
+        <v>417400</v>
+      </c>
+      <c r="U48" s="3">
         <v>439800</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3942000</v>
+        <v>3961600</v>
       </c>
       <c r="E49" s="3">
-        <v>3987900</v>
+        <v>4026200</v>
       </c>
       <c r="F49" s="3">
-        <v>3435800</v>
+        <v>4073100</v>
       </c>
       <c r="G49" s="3">
-        <v>3332800</v>
+        <v>3509200</v>
       </c>
       <c r="H49" s="3">
-        <v>3402300</v>
+        <v>3404000</v>
       </c>
       <c r="I49" s="3">
-        <v>3732300</v>
+        <v>3474900</v>
       </c>
       <c r="J49" s="3">
+        <v>3812000</v>
+      </c>
+      <c r="K49" s="3">
         <v>3598300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>3651500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>3670700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>4082500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>4194400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>4348400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>4239200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>7260400</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>6735500</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>7816500</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>8308900</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2878,8 +2992,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2934,64 +3051,70 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>864800</v>
+        <v>807300</v>
       </c>
       <c r="E52" s="3">
-        <v>1150200</v>
+        <v>883300</v>
       </c>
       <c r="F52" s="3">
-        <v>782900</v>
+        <v>1174800</v>
       </c>
       <c r="G52" s="3">
-        <v>662600</v>
+        <v>799700</v>
       </c>
       <c r="H52" s="3">
-        <v>694800</v>
+        <v>676700</v>
       </c>
       <c r="I52" s="3">
-        <v>671300</v>
+        <v>709700</v>
       </c>
       <c r="J52" s="3">
+        <v>685600</v>
+      </c>
+      <c r="K52" s="3">
         <v>1134100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>664200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1642000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1863500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>2179300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1978500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>960600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1199700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>901300</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>886200</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>757200</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3046,64 +3169,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>9087600</v>
+        <v>8721600</v>
       </c>
       <c r="E54" s="3">
-        <v>9268800</v>
+        <v>9281700</v>
       </c>
       <c r="F54" s="3">
-        <v>9111200</v>
+        <v>9466700</v>
       </c>
       <c r="G54" s="3">
-        <v>8582600</v>
+        <v>9305800</v>
       </c>
       <c r="H54" s="3">
-        <v>9245200</v>
+        <v>8765900</v>
       </c>
       <c r="I54" s="3">
-        <v>9327100</v>
+        <v>9442700</v>
       </c>
       <c r="J54" s="3">
+        <v>9526300</v>
+      </c>
+      <c r="K54" s="3">
         <v>9492100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>9498300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>9643300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>10164300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>11162400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>11778900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>12397300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>15290100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>15175600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>14355600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>15007500</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3124,8 +3253,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3146,344 +3276,363 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1556000</v>
+        <v>1292600</v>
       </c>
       <c r="E57" s="3">
-        <v>1531100</v>
+        <v>1589200</v>
       </c>
       <c r="F57" s="3">
-        <v>1558400</v>
+        <v>1563800</v>
       </c>
       <c r="G57" s="3">
-        <v>1301600</v>
+        <v>1591700</v>
       </c>
       <c r="H57" s="3">
-        <v>1484000</v>
+        <v>1329400</v>
       </c>
       <c r="I57" s="3">
-        <v>1300400</v>
+        <v>1515700</v>
       </c>
       <c r="J57" s="3">
+        <v>1328100</v>
+      </c>
+      <c r="K57" s="3">
         <v>1585700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1441700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1707900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1561400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1899100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1772100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2006300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1891400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1813000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1721000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>2108200</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>106700</v>
+        <v>95000</v>
       </c>
       <c r="E58" s="3">
-        <v>186100</v>
+        <v>109000</v>
       </c>
       <c r="F58" s="3">
-        <v>192300</v>
+        <v>190100</v>
       </c>
       <c r="G58" s="3">
-        <v>193600</v>
+        <v>196400</v>
       </c>
       <c r="H58" s="3">
-        <v>315200</v>
+        <v>197700</v>
       </c>
       <c r="I58" s="3">
-        <v>362300</v>
+        <v>321900</v>
       </c>
       <c r="J58" s="3">
+        <v>370100</v>
+      </c>
+      <c r="K58" s="3">
         <v>114200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>168100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>56100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>43900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>26900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>354200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>54200</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>148700</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>367800</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>965200</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>450300</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>172500</v>
+        <v>87400</v>
       </c>
       <c r="E59" s="3">
-        <v>84400</v>
+        <v>176200</v>
       </c>
       <c r="F59" s="3">
-        <v>209700</v>
+        <v>86200</v>
       </c>
       <c r="G59" s="3">
-        <v>160100</v>
+        <v>214200</v>
       </c>
       <c r="H59" s="3">
-        <v>150100</v>
+        <v>163500</v>
       </c>
       <c r="I59" s="3">
-        <v>178700</v>
+        <v>153300</v>
       </c>
       <c r="J59" s="3">
+        <v>182500</v>
+      </c>
+      <c r="K59" s="3">
         <v>151400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>64400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>140300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>374000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>362300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>279600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>309100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>181000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>306500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>221200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>321300</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1835100</v>
+        <v>1475100</v>
       </c>
       <c r="E60" s="3">
-        <v>1801600</v>
+        <v>1874300</v>
       </c>
       <c r="F60" s="3">
-        <v>1960500</v>
+        <v>1840100</v>
       </c>
       <c r="G60" s="3">
-        <v>1655200</v>
+        <v>2002300</v>
       </c>
       <c r="H60" s="3">
-        <v>1949300</v>
+        <v>1690600</v>
       </c>
       <c r="I60" s="3">
-        <v>1841300</v>
+        <v>1990900</v>
       </c>
       <c r="J60" s="3">
+        <v>1880700</v>
+      </c>
+      <c r="K60" s="3">
         <v>1851300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1674300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1904300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1979300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2288200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2405800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2369600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2221000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2487300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2907500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>2879800</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1419500</v>
+        <v>1657600</v>
       </c>
       <c r="E61" s="3">
-        <v>1428200</v>
+        <v>1449800</v>
       </c>
       <c r="F61" s="3">
-        <v>1544800</v>
+        <v>1458700</v>
       </c>
       <c r="G61" s="3">
-        <v>1562200</v>
+        <v>1577800</v>
       </c>
       <c r="H61" s="3">
-        <v>1733400</v>
+        <v>1595500</v>
       </c>
       <c r="I61" s="3">
-        <v>1923200</v>
+        <v>1770400</v>
       </c>
       <c r="J61" s="3">
+        <v>1964300</v>
+      </c>
+      <c r="K61" s="3">
         <v>1950500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2228800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>822200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1422900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1508500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2417800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2985400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>3004500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>2671200</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>2532200</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>2479500</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>354900</v>
+        <v>281300</v>
       </c>
       <c r="E62" s="3">
-        <v>465300</v>
+        <v>362400</v>
       </c>
       <c r="F62" s="3">
-        <v>295300</v>
+        <v>475200</v>
       </c>
       <c r="G62" s="3">
-        <v>353600</v>
+        <v>301600</v>
       </c>
       <c r="H62" s="3">
-        <v>433000</v>
+        <v>361200</v>
       </c>
       <c r="I62" s="3">
-        <v>359800</v>
+        <v>442300</v>
       </c>
       <c r="J62" s="3">
+        <v>367500</v>
+      </c>
+      <c r="K62" s="3">
         <v>326300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>477000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1396800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1308500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1675500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1680200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1687300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1713000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1646000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1800100</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1767100</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3538,8 +3687,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3594,8 +3746,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3650,64 +3805,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>3625600</v>
+        <v>3430600</v>
       </c>
       <c r="E66" s="3">
-        <v>3708800</v>
+        <v>3703100</v>
       </c>
       <c r="F66" s="3">
-        <v>3813000</v>
+        <v>3788000</v>
       </c>
       <c r="G66" s="3">
-        <v>3583400</v>
+        <v>3894400</v>
       </c>
       <c r="H66" s="3">
-        <v>4126900</v>
+        <v>3660000</v>
       </c>
       <c r="I66" s="3">
-        <v>4136800</v>
+        <v>4215000</v>
       </c>
       <c r="J66" s="3">
+        <v>4225200</v>
+      </c>
+      <c r="K66" s="3">
         <v>4140500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4392000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4134200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4722700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>5483600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>6510500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>7047200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>6942400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>6809800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>7247600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>7134400</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3728,8 +3889,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3784,8 +3946,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3840,8 +4005,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3896,8 +4064,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3952,64 +4123,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1127900</v>
+        <v>1229300</v>
       </c>
       <c r="E72" s="3">
-        <v>1175000</v>
+        <v>1152000</v>
       </c>
       <c r="F72" s="3">
-        <v>1300400</v>
+        <v>1200100</v>
       </c>
       <c r="G72" s="3">
-        <v>991400</v>
+        <v>1328100</v>
       </c>
       <c r="H72" s="3">
-        <v>1095600</v>
+        <v>1012600</v>
       </c>
       <c r="I72" s="3">
-        <v>876000</v>
+        <v>1119000</v>
       </c>
       <c r="J72" s="3">
+        <v>894700</v>
+      </c>
+      <c r="K72" s="3">
         <v>1144000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>943300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1280900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1011600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>943900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>555200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>881800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>4151200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>4823300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>3531600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>4213700</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4064,8 +4241,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4120,8 +4300,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4176,64 +4359,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>5462000</v>
+        <v>5291000</v>
       </c>
       <c r="E76" s="3">
-        <v>5560000</v>
+        <v>5578700</v>
       </c>
       <c r="F76" s="3">
-        <v>5298200</v>
+        <v>5678800</v>
       </c>
       <c r="G76" s="3">
-        <v>4999200</v>
+        <v>5411400</v>
       </c>
       <c r="H76" s="3">
-        <v>5118300</v>
+        <v>5106000</v>
       </c>
       <c r="I76" s="3">
-        <v>5190300</v>
+        <v>5227600</v>
       </c>
       <c r="J76" s="3">
+        <v>5301100</v>
+      </c>
+      <c r="K76" s="3">
         <v>5351600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>5106300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>5509100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>5441500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>5678800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>5268300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>5350100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>8347700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>8365800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>7108000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>7873100</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4288,125 +4477,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42551</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42369</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42185</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>137700</v>
+        <v>235700</v>
       </c>
       <c r="E81" s="3">
-        <v>162500</v>
+        <v>140700</v>
       </c>
       <c r="F81" s="3">
-        <v>198500</v>
+        <v>172400</v>
       </c>
       <c r="G81" s="3">
-        <v>21100</v>
+        <v>202800</v>
       </c>
       <c r="H81" s="3">
-        <v>349900</v>
+        <v>21500</v>
       </c>
       <c r="I81" s="3">
-        <v>59600</v>
+        <v>357400</v>
       </c>
       <c r="J81" s="3">
+        <v>60800</v>
+      </c>
+      <c r="K81" s="3">
         <v>269300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>56000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>488000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>250200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>598600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-22600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-2606100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-285700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1176500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-104000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>321300</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4427,64 +4625,68 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>197300</v>
+        <v>129300</v>
       </c>
       <c r="E83" s="3">
-        <v>126600</v>
+        <v>201500</v>
       </c>
       <c r="F83" s="3">
-        <v>274200</v>
+        <v>129300</v>
       </c>
       <c r="G83" s="3">
-        <v>232000</v>
+        <v>280100</v>
       </c>
       <c r="H83" s="3">
-        <v>188600</v>
+        <v>237000</v>
       </c>
       <c r="I83" s="3">
-        <v>204700</v>
+        <v>192600</v>
       </c>
       <c r="J83" s="3">
+        <v>209100</v>
+      </c>
+      <c r="K83" s="3">
         <v>206000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>188400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>158600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>163700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>103300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>206400</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>118200</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>237900</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>1250800</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>219900</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>256800</v>
       </c>
     </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4539,8 +4741,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4595,8 +4800,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4651,8 +4859,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4707,8 +4918,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4763,64 +4977,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>488900</v>
+        <v>16500</v>
       </c>
       <c r="E89" s="3">
-        <v>-40900</v>
+        <v>499300</v>
       </c>
       <c r="F89" s="3">
-        <v>497600</v>
+        <v>-41800</v>
       </c>
       <c r="G89" s="3">
-        <v>-93100</v>
+        <v>508200</v>
       </c>
       <c r="H89" s="3">
-        <v>660100</v>
+        <v>-95000</v>
       </c>
       <c r="I89" s="3">
-        <v>-177400</v>
+        <v>674200</v>
       </c>
       <c r="J89" s="3">
+        <v>-181200</v>
+      </c>
+      <c r="K89" s="3">
         <v>665100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-199100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>774600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-230300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>846200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-399400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>902800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-417600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>763000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-492500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>999400</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4841,64 +5061,68 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-63000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-80000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-67000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-106000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-70000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-56000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-78000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-98000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-45300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-46400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-42600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-70800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-42600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-53000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-58200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-65200</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-125100</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-160600</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4953,8 +5177,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5009,64 +5236,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>204700</v>
+        <v>-309200</v>
       </c>
       <c r="E94" s="3">
-        <v>-188600</v>
+        <v>209100</v>
       </c>
       <c r="F94" s="3">
-        <v>0</v>
+        <v>-192600</v>
       </c>
       <c r="G94" s="3">
-        <v>-99300</v>
+        <v>0</v>
       </c>
       <c r="H94" s="3">
-        <v>14900</v>
+        <v>-101400</v>
       </c>
       <c r="I94" s="3">
-        <v>718400</v>
+        <v>15200</v>
       </c>
       <c r="J94" s="3">
+        <v>733800</v>
+      </c>
+      <c r="K94" s="3">
         <v>-132800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-260000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>113500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>157100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>1016000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-89200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-24600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-27100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>1753000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-15800</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-92200</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5087,64 +5320,68 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-60800</v>
+        <v>-134300</v>
       </c>
       <c r="E96" s="3">
-        <v>-132800</v>
+        <v>-62100</v>
       </c>
       <c r="F96" s="3">
-        <v>-58300</v>
+        <v>-135600</v>
       </c>
       <c r="G96" s="3">
-        <v>-126600</v>
+        <v>-59600</v>
       </c>
       <c r="H96" s="3">
-        <v>-55800</v>
+        <v>-129300</v>
       </c>
       <c r="I96" s="3">
-        <v>-125300</v>
+        <v>-57000</v>
       </c>
       <c r="J96" s="3">
+        <v>-128000</v>
+      </c>
+      <c r="K96" s="3">
         <v>-57100</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-120400</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-52500</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-123800</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-58000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-368800</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-181000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-358100</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-190400</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-364800</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-181700</v>
       </c>
     </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5199,8 +5436,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5255,8 +5495,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5311,172 +5554,184 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-485200</v>
+        <v>62100</v>
       </c>
       <c r="E100" s="3">
-        <v>-512500</v>
+        <v>-495500</v>
       </c>
       <c r="F100" s="3">
-        <v>-130300</v>
+        <v>-523400</v>
       </c>
       <c r="G100" s="3">
-        <v>-383400</v>
+        <v>-133100</v>
       </c>
       <c r="H100" s="3">
-        <v>-125300</v>
+        <v>-391600</v>
       </c>
       <c r="I100" s="3">
-        <v>-245700</v>
+        <v>-128000</v>
       </c>
       <c r="J100" s="3">
+        <v>-250900</v>
+      </c>
+      <c r="K100" s="3">
         <v>-455400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>316000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-557500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-362100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1661300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-778900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-219200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-671000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-811300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>339700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-809800</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-21100</v>
+        <v>-16500</v>
       </c>
       <c r="E101" s="3">
-        <v>65800</v>
+        <v>-21500</v>
       </c>
       <c r="F101" s="3">
-        <v>-8700</v>
+        <v>67200</v>
       </c>
       <c r="G101" s="3">
-        <v>-1200</v>
+        <v>-8900</v>
       </c>
       <c r="H101" s="3">
-        <v>-17400</v>
+        <v>-1300</v>
       </c>
       <c r="I101" s="3">
-        <v>14900</v>
+        <v>-17700</v>
       </c>
       <c r="J101" s="3">
+        <v>15200</v>
+      </c>
+      <c r="K101" s="3">
         <v>-38500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-2400</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-56100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-4000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>41000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-17300</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>14800</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>89200</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>17000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-42100</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>187400</v>
+        <v>-247100</v>
       </c>
       <c r="E102" s="3">
-        <v>-676200</v>
+        <v>191400</v>
       </c>
       <c r="F102" s="3">
-        <v>358600</v>
+        <v>-690700</v>
       </c>
       <c r="G102" s="3">
-        <v>-577000</v>
+        <v>366200</v>
       </c>
       <c r="H102" s="3">
-        <v>532300</v>
+        <v>-589300</v>
       </c>
       <c r="I102" s="3">
-        <v>310200</v>
+        <v>543700</v>
       </c>
       <c r="J102" s="3">
+        <v>316800</v>
+      </c>
+      <c r="K102" s="3">
         <v>38500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-145500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>274500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-439300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>242000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-1284800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>673700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-1026500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>1721700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-210700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>102700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PSO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PSO_QTR_FIN.xlsx
@@ -760,25 +760,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2381300</v>
+        <v>2331100</v>
       </c>
       <c r="E8" s="3">
-        <v>2601800</v>
+        <v>2547000</v>
       </c>
       <c r="F8" s="3">
-        <v>2265900</v>
+        <v>2218200</v>
       </c>
       <c r="G8" s="3">
-        <v>2320400</v>
+        <v>2271500</v>
       </c>
       <c r="H8" s="3">
-        <v>2023900</v>
+        <v>1981200</v>
       </c>
       <c r="I8" s="3">
-        <v>2414200</v>
+        <v>2363300</v>
       </c>
       <c r="J8" s="3">
-        <v>1890800</v>
+        <v>1851000</v>
       </c>
       <c r="K8" s="3">
         <v>2531200</v>
@@ -819,25 +819,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1216600</v>
+        <v>1191000</v>
       </c>
       <c r="E9" s="3">
-        <v>1372500</v>
+        <v>1343600</v>
       </c>
       <c r="F9" s="3">
-        <v>1220400</v>
+        <v>1194700</v>
       </c>
       <c r="G9" s="3">
-        <v>1152000</v>
+        <v>1127700</v>
       </c>
       <c r="H9" s="3">
-        <v>1062000</v>
+        <v>1039600</v>
       </c>
       <c r="I9" s="3">
-        <v>1164600</v>
+        <v>1140100</v>
       </c>
       <c r="J9" s="3">
-        <v>1074700</v>
+        <v>1052000</v>
       </c>
       <c r="K9" s="3">
         <v>1183700</v>
@@ -878,25 +878,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1164600</v>
+        <v>1140100</v>
       </c>
       <c r="E10" s="3">
-        <v>1229300</v>
+        <v>1203400</v>
       </c>
       <c r="F10" s="3">
-        <v>1045500</v>
+        <v>1023500</v>
       </c>
       <c r="G10" s="3">
-        <v>1168500</v>
+        <v>1143800</v>
       </c>
       <c r="H10" s="3">
-        <v>961900</v>
+        <v>941600</v>
       </c>
       <c r="I10" s="3">
-        <v>1249600</v>
+        <v>1223200</v>
       </c>
       <c r="J10" s="3">
-        <v>816100</v>
+        <v>798900</v>
       </c>
       <c r="K10" s="3">
         <v>1347500</v>
@@ -1078,25 +1078,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>8900</v>
+        <v>8700</v>
       </c>
       <c r="E14" s="3">
-        <v>-12700</v>
+        <v>-12400</v>
       </c>
       <c r="F14" s="3">
-        <v>-17700</v>
+        <v>-17400</v>
       </c>
       <c r="G14" s="3">
-        <v>-87400</v>
+        <v>-85600</v>
       </c>
       <c r="H14" s="3">
-        <v>7600</v>
+        <v>7400</v>
       </c>
       <c r="I14" s="3">
-        <v>3800</v>
+        <v>3700</v>
       </c>
       <c r="J14" s="3">
-        <v>-229400</v>
+        <v>-224500</v>
       </c>
       <c r="K14" s="3">
         <v>-12400</v>
@@ -1216,25 +1216,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2103700</v>
+        <v>2059400</v>
       </c>
       <c r="E17" s="3">
-        <v>2445900</v>
+        <v>2394400</v>
       </c>
       <c r="F17" s="3">
-        <v>2078400</v>
+        <v>2034600</v>
       </c>
       <c r="G17" s="3">
-        <v>2099900</v>
+        <v>2055700</v>
       </c>
       <c r="H17" s="3">
-        <v>2012500</v>
+        <v>1970100</v>
       </c>
       <c r="I17" s="3">
-        <v>2028900</v>
+        <v>1986200</v>
       </c>
       <c r="J17" s="3">
-        <v>1755200</v>
+        <v>1718200</v>
       </c>
       <c r="K17" s="3">
         <v>2235900</v>
@@ -1275,25 +1275,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>277500</v>
+        <v>271700</v>
       </c>
       <c r="E18" s="3">
-        <v>155900</v>
+        <v>152600</v>
       </c>
       <c r="F18" s="3">
-        <v>187600</v>
+        <v>183600</v>
       </c>
       <c r="G18" s="3">
-        <v>220500</v>
+        <v>215900</v>
       </c>
       <c r="H18" s="3">
-        <v>11400</v>
+        <v>11200</v>
       </c>
       <c r="I18" s="3">
-        <v>385300</v>
+        <v>377100</v>
       </c>
       <c r="J18" s="3">
-        <v>135600</v>
+        <v>132700</v>
       </c>
       <c r="K18" s="3">
         <v>295300</v>
@@ -1357,25 +1357,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>21500</v>
+        <v>21100</v>
       </c>
       <c r="E20" s="3">
-        <v>26600</v>
+        <v>26100</v>
       </c>
       <c r="F20" s="3">
-        <v>46900</v>
+        <v>45900</v>
       </c>
       <c r="G20" s="3">
-        <v>-1300</v>
+        <v>-1200</v>
       </c>
       <c r="H20" s="3">
-        <v>-6300</v>
+        <v>-6200</v>
       </c>
       <c r="I20" s="3">
-        <v>52000</v>
+        <v>50900</v>
       </c>
       <c r="J20" s="3">
-        <v>-91200</v>
+        <v>-89300</v>
       </c>
       <c r="K20" s="3">
         <v>-23600</v>
@@ -1416,25 +1416,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>458800</v>
+        <v>449100</v>
       </c>
       <c r="E21" s="3">
-        <v>419500</v>
+        <v>410600</v>
       </c>
       <c r="F21" s="3">
-        <v>396700</v>
+        <v>388300</v>
       </c>
       <c r="G21" s="3">
-        <v>499300</v>
+        <v>488800</v>
       </c>
       <c r="H21" s="3">
-        <v>242100</v>
+        <v>237000</v>
       </c>
       <c r="I21" s="3">
-        <v>629800</v>
+        <v>616600</v>
       </c>
       <c r="J21" s="3">
-        <v>253500</v>
+        <v>248100</v>
       </c>
       <c r="K21" s="3">
         <v>477700</v>
@@ -1534,25 +1534,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>299100</v>
+        <v>292800</v>
       </c>
       <c r="E23" s="3">
-        <v>182500</v>
+        <v>178600</v>
       </c>
       <c r="F23" s="3">
-        <v>234500</v>
+        <v>229500</v>
       </c>
       <c r="G23" s="3">
-        <v>219200</v>
+        <v>214600</v>
       </c>
       <c r="H23" s="3">
-        <v>5100</v>
+        <v>5000</v>
       </c>
       <c r="I23" s="3">
-        <v>437200</v>
+        <v>428000</v>
       </c>
       <c r="J23" s="3">
-        <v>44400</v>
+        <v>43400</v>
       </c>
       <c r="K23" s="3">
         <v>271700</v>
@@ -1593,25 +1593,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>62100</v>
+        <v>60800</v>
       </c>
       <c r="E24" s="3">
-        <v>39300</v>
+        <v>38500</v>
       </c>
       <c r="F24" s="3">
-        <v>62100</v>
+        <v>60800</v>
       </c>
       <c r="G24" s="3">
-        <v>16500</v>
+        <v>16100</v>
       </c>
       <c r="H24" s="3">
-        <v>-17700</v>
+        <v>-17400</v>
       </c>
       <c r="I24" s="3">
-        <v>79800</v>
+        <v>78200</v>
       </c>
       <c r="J24" s="3">
-        <v>-16500</v>
+        <v>-16100</v>
       </c>
       <c r="K24" s="3">
         <v>1200</v>
@@ -1711,25 +1711,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>237000</v>
+        <v>232000</v>
       </c>
       <c r="E26" s="3">
-        <v>143200</v>
+        <v>140200</v>
       </c>
       <c r="F26" s="3">
-        <v>172400</v>
+        <v>168700</v>
       </c>
       <c r="G26" s="3">
-        <v>202800</v>
+        <v>198500</v>
       </c>
       <c r="H26" s="3">
-        <v>22800</v>
+        <v>22300</v>
       </c>
       <c r="I26" s="3">
-        <v>357400</v>
+        <v>349800</v>
       </c>
       <c r="J26" s="3">
-        <v>60800</v>
+        <v>59500</v>
       </c>
       <c r="K26" s="3">
         <v>270500</v>
@@ -1770,25 +1770,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>235700</v>
+        <v>230800</v>
       </c>
       <c r="E27" s="3">
-        <v>140700</v>
+        <v>137700</v>
       </c>
       <c r="F27" s="3">
-        <v>172400</v>
+        <v>168700</v>
       </c>
       <c r="G27" s="3">
-        <v>202800</v>
+        <v>198500</v>
       </c>
       <c r="H27" s="3">
-        <v>21500</v>
+        <v>21100</v>
       </c>
       <c r="I27" s="3">
-        <v>357400</v>
+        <v>349800</v>
       </c>
       <c r="J27" s="3">
-        <v>60800</v>
+        <v>59500</v>
       </c>
       <c r="K27" s="3">
         <v>269300</v>
@@ -2065,25 +2065,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-21500</v>
+        <v>-21100</v>
       </c>
       <c r="E32" s="3">
-        <v>-26600</v>
+        <v>-26100</v>
       </c>
       <c r="F32" s="3">
-        <v>-46900</v>
+        <v>-45900</v>
       </c>
       <c r="G32" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="H32" s="3">
-        <v>6300</v>
+        <v>6200</v>
       </c>
       <c r="I32" s="3">
-        <v>-52000</v>
+        <v>-50900</v>
       </c>
       <c r="J32" s="3">
-        <v>91200</v>
+        <v>89300</v>
       </c>
       <c r="K32" s="3">
         <v>23600</v>
@@ -2124,25 +2124,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>235700</v>
+        <v>230800</v>
       </c>
       <c r="E33" s="3">
-        <v>140700</v>
+        <v>137700</v>
       </c>
       <c r="F33" s="3">
-        <v>172400</v>
+        <v>168700</v>
       </c>
       <c r="G33" s="3">
-        <v>202800</v>
+        <v>198500</v>
       </c>
       <c r="H33" s="3">
-        <v>21500</v>
+        <v>21100</v>
       </c>
       <c r="I33" s="3">
-        <v>357400</v>
+        <v>349800</v>
       </c>
       <c r="J33" s="3">
-        <v>60800</v>
+        <v>59500</v>
       </c>
       <c r="K33" s="3">
         <v>269300</v>
@@ -2242,25 +2242,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>235700</v>
+        <v>230800</v>
       </c>
       <c r="E35" s="3">
-        <v>140700</v>
+        <v>137700</v>
       </c>
       <c r="F35" s="3">
-        <v>172400</v>
+        <v>168700</v>
       </c>
       <c r="G35" s="3">
-        <v>202800</v>
+        <v>198500</v>
       </c>
       <c r="H35" s="3">
-        <v>21500</v>
+        <v>21100</v>
       </c>
       <c r="I35" s="3">
-        <v>357400</v>
+        <v>349800</v>
       </c>
       <c r="J35" s="3">
-        <v>60800</v>
+        <v>59500</v>
       </c>
       <c r="K35" s="3">
         <v>269300</v>
@@ -2411,25 +2411,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>449900</v>
+        <v>440400</v>
       </c>
       <c r="E41" s="3">
-        <v>707200</v>
+        <v>692300</v>
       </c>
       <c r="F41" s="3">
-        <v>496800</v>
+        <v>486300</v>
       </c>
       <c r="G41" s="3">
-        <v>1187500</v>
+        <v>1162400</v>
       </c>
       <c r="H41" s="3">
-        <v>821200</v>
+        <v>803900</v>
       </c>
       <c r="I41" s="3">
-        <v>1390200</v>
+        <v>1360900</v>
       </c>
       <c r="J41" s="3">
-        <v>870600</v>
+        <v>852300</v>
       </c>
       <c r="K41" s="3">
         <v>542200</v>
@@ -2529,25 +2529,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1356000</v>
+        <v>1327400</v>
       </c>
       <c r="E43" s="3">
-        <v>1454900</v>
+        <v>1424200</v>
       </c>
       <c r="F43" s="3">
-        <v>1532200</v>
+        <v>1499900</v>
       </c>
       <c r="G43" s="3">
-        <v>1625900</v>
+        <v>1591700</v>
       </c>
       <c r="H43" s="3">
-        <v>1623400</v>
+        <v>1589200</v>
       </c>
       <c r="I43" s="3">
-        <v>1416800</v>
+        <v>1387000</v>
       </c>
       <c r="J43" s="3">
-        <v>1377600</v>
+        <v>1348500</v>
       </c>
       <c r="K43" s="3">
         <v>1582000</v>
@@ -2588,25 +2588,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>139400</v>
+        <v>136500</v>
       </c>
       <c r="E44" s="3">
-        <v>133100</v>
+        <v>130300</v>
       </c>
       <c r="F44" s="3">
-        <v>130500</v>
+        <v>127800</v>
       </c>
       <c r="G44" s="3">
-        <v>124200</v>
+        <v>121600</v>
       </c>
       <c r="H44" s="3">
-        <v>159700</v>
+        <v>156300</v>
       </c>
       <c r="I44" s="3">
-        <v>163500</v>
+        <v>160000</v>
       </c>
       <c r="J44" s="3">
-        <v>220500</v>
+        <v>215900</v>
       </c>
       <c r="K44" s="3">
         <v>209700</v>
@@ -2647,25 +2647,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1221700</v>
+        <v>1195900</v>
       </c>
       <c r="E45" s="3">
-        <v>1255900</v>
+        <v>1229400</v>
       </c>
       <c r="F45" s="3">
-        <v>1182400</v>
+        <v>1157500</v>
       </c>
       <c r="G45" s="3">
-        <v>1135500</v>
+        <v>1111600</v>
       </c>
       <c r="H45" s="3">
-        <v>1115200</v>
+        <v>1091700</v>
       </c>
       <c r="I45" s="3">
-        <v>1169700</v>
+        <v>1145100</v>
       </c>
       <c r="J45" s="3">
-        <v>1181100</v>
+        <v>1156200</v>
       </c>
       <c r="K45" s="3">
         <v>1110500</v>
@@ -2706,25 +2706,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3167000</v>
+        <v>3100300</v>
       </c>
       <c r="E46" s="3">
-        <v>3551000</v>
+        <v>3476200</v>
       </c>
       <c r="F46" s="3">
-        <v>3341900</v>
+        <v>3271500</v>
       </c>
       <c r="G46" s="3">
-        <v>4073100</v>
+        <v>3987300</v>
       </c>
       <c r="H46" s="3">
-        <v>3719500</v>
+        <v>3641200</v>
       </c>
       <c r="I46" s="3">
-        <v>4140300</v>
+        <v>4053000</v>
       </c>
       <c r="J46" s="3">
-        <v>3649800</v>
+        <v>3572900</v>
       </c>
       <c r="K46" s="3">
         <v>3444500</v>
@@ -2765,25 +2765,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>423300</v>
+        <v>414400</v>
       </c>
       <c r="E47" s="3">
-        <v>428300</v>
+        <v>419300</v>
       </c>
       <c r="F47" s="3">
-        <v>415700</v>
+        <v>406900</v>
       </c>
       <c r="G47" s="3">
-        <v>460000</v>
+        <v>450300</v>
       </c>
       <c r="H47" s="3">
-        <v>391600</v>
+        <v>383300</v>
       </c>
       <c r="I47" s="3">
-        <v>465100</v>
+        <v>455300</v>
       </c>
       <c r="J47" s="3">
-        <v>571600</v>
+        <v>559500</v>
       </c>
       <c r="K47" s="3">
         <v>548400</v>
@@ -2824,25 +2824,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>362400</v>
+        <v>354800</v>
       </c>
       <c r="E48" s="3">
-        <v>392900</v>
+        <v>384600</v>
       </c>
       <c r="F48" s="3">
-        <v>461300</v>
+        <v>451600</v>
       </c>
       <c r="G48" s="3">
-        <v>463800</v>
+        <v>454100</v>
       </c>
       <c r="H48" s="3">
-        <v>574100</v>
+        <v>562000</v>
       </c>
       <c r="I48" s="3">
-        <v>652700</v>
+        <v>638900</v>
       </c>
       <c r="J48" s="3">
-        <v>807300</v>
+        <v>790300</v>
       </c>
       <c r="K48" s="3">
         <v>766800</v>
@@ -2883,25 +2883,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3961600</v>
+        <v>3878100</v>
       </c>
       <c r="E49" s="3">
-        <v>4026200</v>
+        <v>3941400</v>
       </c>
       <c r="F49" s="3">
-        <v>4073100</v>
+        <v>3987300</v>
       </c>
       <c r="G49" s="3">
-        <v>3509200</v>
+        <v>3435200</v>
       </c>
       <c r="H49" s="3">
-        <v>3404000</v>
+        <v>3332300</v>
       </c>
       <c r="I49" s="3">
-        <v>3474900</v>
+        <v>3401700</v>
       </c>
       <c r="J49" s="3">
-        <v>3812000</v>
+        <v>3731700</v>
       </c>
       <c r="K49" s="3">
         <v>3598300</v>
@@ -3060,25 +3060,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>807300</v>
+        <v>790300</v>
       </c>
       <c r="E52" s="3">
-        <v>883300</v>
+        <v>864700</v>
       </c>
       <c r="F52" s="3">
-        <v>1174800</v>
+        <v>1150000</v>
       </c>
       <c r="G52" s="3">
-        <v>799700</v>
+        <v>782800</v>
       </c>
       <c r="H52" s="3">
-        <v>676700</v>
+        <v>662500</v>
       </c>
       <c r="I52" s="3">
-        <v>709700</v>
+        <v>694700</v>
       </c>
       <c r="J52" s="3">
-        <v>685600</v>
+        <v>671200</v>
       </c>
       <c r="K52" s="3">
         <v>1134100</v>
@@ -3178,25 +3178,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>8721600</v>
+        <v>8537800</v>
       </c>
       <c r="E54" s="3">
-        <v>9281700</v>
+        <v>9086200</v>
       </c>
       <c r="F54" s="3">
-        <v>9466700</v>
+        <v>9267300</v>
       </c>
       <c r="G54" s="3">
-        <v>9305800</v>
+        <v>9109700</v>
       </c>
       <c r="H54" s="3">
-        <v>8765900</v>
+        <v>8581200</v>
       </c>
       <c r="I54" s="3">
-        <v>9442700</v>
+        <v>9243700</v>
       </c>
       <c r="J54" s="3">
-        <v>9526300</v>
+        <v>9325600</v>
       </c>
       <c r="K54" s="3">
         <v>9492100</v>
@@ -3283,25 +3283,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1292600</v>
+        <v>1265400</v>
       </c>
       <c r="E57" s="3">
-        <v>1589200</v>
+        <v>1555700</v>
       </c>
       <c r="F57" s="3">
-        <v>1563800</v>
+        <v>1530900</v>
       </c>
       <c r="G57" s="3">
-        <v>1591700</v>
+        <v>1558200</v>
       </c>
       <c r="H57" s="3">
-        <v>1329400</v>
+        <v>1301400</v>
       </c>
       <c r="I57" s="3">
-        <v>1515700</v>
+        <v>1483800</v>
       </c>
       <c r="J57" s="3">
-        <v>1328100</v>
+        <v>1300100</v>
       </c>
       <c r="K57" s="3">
         <v>1585700</v>
@@ -3342,25 +3342,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>95000</v>
+        <v>93000</v>
       </c>
       <c r="E58" s="3">
-        <v>109000</v>
+        <v>106700</v>
       </c>
       <c r="F58" s="3">
-        <v>190100</v>
+        <v>186100</v>
       </c>
       <c r="G58" s="3">
-        <v>196400</v>
+        <v>192300</v>
       </c>
       <c r="H58" s="3">
-        <v>197700</v>
+        <v>193500</v>
       </c>
       <c r="I58" s="3">
-        <v>321900</v>
+        <v>315100</v>
       </c>
       <c r="J58" s="3">
-        <v>370100</v>
+        <v>362300</v>
       </c>
       <c r="K58" s="3">
         <v>114200</v>
@@ -3401,25 +3401,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>87400</v>
+        <v>85600</v>
       </c>
       <c r="E59" s="3">
-        <v>176200</v>
+        <v>172400</v>
       </c>
       <c r="F59" s="3">
-        <v>86200</v>
+        <v>84400</v>
       </c>
       <c r="G59" s="3">
-        <v>214200</v>
+        <v>209700</v>
       </c>
       <c r="H59" s="3">
-        <v>163500</v>
+        <v>160000</v>
       </c>
       <c r="I59" s="3">
-        <v>153300</v>
+        <v>150100</v>
       </c>
       <c r="J59" s="3">
-        <v>182500</v>
+        <v>178600</v>
       </c>
       <c r="K59" s="3">
         <v>151400</v>
@@ -3460,25 +3460,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1475100</v>
+        <v>1444100</v>
       </c>
       <c r="E60" s="3">
-        <v>1874300</v>
+        <v>1834800</v>
       </c>
       <c r="F60" s="3">
-        <v>1840100</v>
+        <v>1801400</v>
       </c>
       <c r="G60" s="3">
-        <v>2002300</v>
+        <v>1960100</v>
       </c>
       <c r="H60" s="3">
-        <v>1690600</v>
+        <v>1655000</v>
       </c>
       <c r="I60" s="3">
-        <v>1990900</v>
+        <v>1949000</v>
       </c>
       <c r="J60" s="3">
-        <v>1880700</v>
+        <v>1841100</v>
       </c>
       <c r="K60" s="3">
         <v>1851300</v>
@@ -3519,25 +3519,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1657600</v>
+        <v>1622700</v>
       </c>
       <c r="E61" s="3">
-        <v>1449800</v>
+        <v>1419200</v>
       </c>
       <c r="F61" s="3">
-        <v>1458700</v>
+        <v>1427900</v>
       </c>
       <c r="G61" s="3">
-        <v>1577800</v>
+        <v>1544500</v>
       </c>
       <c r="H61" s="3">
-        <v>1595500</v>
+        <v>1561900</v>
       </c>
       <c r="I61" s="3">
-        <v>1770400</v>
+        <v>1733100</v>
       </c>
       <c r="J61" s="3">
-        <v>1964300</v>
+        <v>1922900</v>
       </c>
       <c r="K61" s="3">
         <v>1950500</v>
@@ -3578,25 +3578,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>281300</v>
+        <v>275400</v>
       </c>
       <c r="E62" s="3">
-        <v>362400</v>
+        <v>354800</v>
       </c>
       <c r="F62" s="3">
-        <v>475200</v>
+        <v>465200</v>
       </c>
       <c r="G62" s="3">
-        <v>301600</v>
+        <v>295300</v>
       </c>
       <c r="H62" s="3">
-        <v>361200</v>
+        <v>353600</v>
       </c>
       <c r="I62" s="3">
-        <v>442300</v>
+        <v>433000</v>
       </c>
       <c r="J62" s="3">
-        <v>367500</v>
+        <v>359800</v>
       </c>
       <c r="K62" s="3">
         <v>326300</v>
@@ -3814,25 +3814,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>3430600</v>
+        <v>3358300</v>
       </c>
       <c r="E66" s="3">
-        <v>3703100</v>
+        <v>3625000</v>
       </c>
       <c r="F66" s="3">
-        <v>3788000</v>
+        <v>3708200</v>
       </c>
       <c r="G66" s="3">
-        <v>3894400</v>
+        <v>3812400</v>
       </c>
       <c r="H66" s="3">
-        <v>3660000</v>
+        <v>3582900</v>
       </c>
       <c r="I66" s="3">
-        <v>4215000</v>
+        <v>4126200</v>
       </c>
       <c r="J66" s="3">
-        <v>4225200</v>
+        <v>4136200</v>
       </c>
       <c r="K66" s="3">
         <v>4140500</v>
@@ -4132,25 +4132,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1229300</v>
+        <v>1203400</v>
       </c>
       <c r="E72" s="3">
-        <v>1152000</v>
+        <v>1127700</v>
       </c>
       <c r="F72" s="3">
-        <v>1200100</v>
+        <v>1174800</v>
       </c>
       <c r="G72" s="3">
-        <v>1328100</v>
+        <v>1300100</v>
       </c>
       <c r="H72" s="3">
-        <v>1012600</v>
+        <v>991200</v>
       </c>
       <c r="I72" s="3">
-        <v>1119000</v>
+        <v>1095400</v>
       </c>
       <c r="J72" s="3">
-        <v>894700</v>
+        <v>875900</v>
       </c>
       <c r="K72" s="3">
         <v>1144000</v>
@@ -4368,25 +4368,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>5291000</v>
+        <v>5179500</v>
       </c>
       <c r="E76" s="3">
-        <v>5578700</v>
+        <v>5461100</v>
       </c>
       <c r="F76" s="3">
-        <v>5678800</v>
+        <v>5559100</v>
       </c>
       <c r="G76" s="3">
-        <v>5411400</v>
+        <v>5297400</v>
       </c>
       <c r="H76" s="3">
-        <v>5106000</v>
+        <v>4998400</v>
       </c>
       <c r="I76" s="3">
-        <v>5227600</v>
+        <v>5117500</v>
       </c>
       <c r="J76" s="3">
-        <v>5301100</v>
+        <v>5189400</v>
       </c>
       <c r="K76" s="3">
         <v>5351600</v>
@@ -4550,25 +4550,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>235700</v>
+        <v>230800</v>
       </c>
       <c r="E81" s="3">
-        <v>140700</v>
+        <v>137700</v>
       </c>
       <c r="F81" s="3">
-        <v>172400</v>
+        <v>168700</v>
       </c>
       <c r="G81" s="3">
-        <v>202800</v>
+        <v>198500</v>
       </c>
       <c r="H81" s="3">
-        <v>21500</v>
+        <v>21100</v>
       </c>
       <c r="I81" s="3">
-        <v>357400</v>
+        <v>349800</v>
       </c>
       <c r="J81" s="3">
-        <v>60800</v>
+        <v>59500</v>
       </c>
       <c r="K81" s="3">
         <v>269300</v>
@@ -4632,25 +4632,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>129300</v>
+        <v>126500</v>
       </c>
       <c r="E83" s="3">
-        <v>201500</v>
+        <v>197300</v>
       </c>
       <c r="F83" s="3">
-        <v>129300</v>
+        <v>126500</v>
       </c>
       <c r="G83" s="3">
-        <v>280100</v>
+        <v>274200</v>
       </c>
       <c r="H83" s="3">
-        <v>237000</v>
+        <v>232000</v>
       </c>
       <c r="I83" s="3">
-        <v>192600</v>
+        <v>188600</v>
       </c>
       <c r="J83" s="3">
-        <v>209100</v>
+        <v>204700</v>
       </c>
       <c r="K83" s="3">
         <v>206000</v>
@@ -4986,25 +4986,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>16500</v>
+        <v>16100</v>
       </c>
       <c r="E89" s="3">
-        <v>499300</v>
+        <v>488800</v>
       </c>
       <c r="F89" s="3">
-        <v>-41800</v>
+        <v>-40900</v>
       </c>
       <c r="G89" s="3">
-        <v>508200</v>
+        <v>497500</v>
       </c>
       <c r="H89" s="3">
-        <v>-95000</v>
+        <v>-93000</v>
       </c>
       <c r="I89" s="3">
-        <v>674200</v>
+        <v>660000</v>
       </c>
       <c r="J89" s="3">
-        <v>-181200</v>
+        <v>-177400</v>
       </c>
       <c r="K89" s="3">
         <v>665100</v>
@@ -5245,25 +5245,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-309200</v>
+        <v>-302700</v>
       </c>
       <c r="E94" s="3">
-        <v>209100</v>
+        <v>204700</v>
       </c>
       <c r="F94" s="3">
-        <v>-192600</v>
+        <v>-188600</v>
       </c>
       <c r="G94" s="3">
         <v>0</v>
       </c>
       <c r="H94" s="3">
-        <v>-101400</v>
+        <v>-99200</v>
       </c>
       <c r="I94" s="3">
-        <v>15200</v>
+        <v>14900</v>
       </c>
       <c r="J94" s="3">
-        <v>733800</v>
+        <v>718300</v>
       </c>
       <c r="K94" s="3">
         <v>-132800</v>
@@ -5327,25 +5327,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-134300</v>
+        <v>-131500</v>
       </c>
       <c r="E96" s="3">
-        <v>-62100</v>
+        <v>-60800</v>
       </c>
       <c r="F96" s="3">
-        <v>-135600</v>
+        <v>-132700</v>
       </c>
       <c r="G96" s="3">
-        <v>-59600</v>
+        <v>-58300</v>
       </c>
       <c r="H96" s="3">
-        <v>-129300</v>
+        <v>-126500</v>
       </c>
       <c r="I96" s="3">
-        <v>-57000</v>
+        <v>-55800</v>
       </c>
       <c r="J96" s="3">
-        <v>-128000</v>
+        <v>-125300</v>
       </c>
       <c r="K96" s="3">
         <v>-57100</v>
@@ -5563,25 +5563,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>62100</v>
+        <v>60800</v>
       </c>
       <c r="E100" s="3">
-        <v>-495500</v>
+        <v>-485100</v>
       </c>
       <c r="F100" s="3">
-        <v>-523400</v>
+        <v>-512400</v>
       </c>
       <c r="G100" s="3">
-        <v>-133100</v>
+        <v>-130300</v>
       </c>
       <c r="H100" s="3">
-        <v>-391600</v>
+        <v>-383300</v>
       </c>
       <c r="I100" s="3">
-        <v>-128000</v>
+        <v>-125300</v>
       </c>
       <c r="J100" s="3">
-        <v>-250900</v>
+        <v>-245600</v>
       </c>
       <c r="K100" s="3">
         <v>-455400</v>
@@ -5622,25 +5622,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-16500</v>
+        <v>-16100</v>
       </c>
       <c r="E101" s="3">
-        <v>-21500</v>
+        <v>-21100</v>
       </c>
       <c r="F101" s="3">
-        <v>67200</v>
+        <v>65800</v>
       </c>
       <c r="G101" s="3">
-        <v>-8900</v>
+        <v>-8700</v>
       </c>
       <c r="H101" s="3">
-        <v>-1300</v>
+        <v>-1200</v>
       </c>
       <c r="I101" s="3">
-        <v>-17700</v>
+        <v>-17400</v>
       </c>
       <c r="J101" s="3">
-        <v>15200</v>
+        <v>14900</v>
       </c>
       <c r="K101" s="3">
         <v>-38500</v>
@@ -5681,25 +5681,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-247100</v>
+        <v>-241900</v>
       </c>
       <c r="E102" s="3">
-        <v>191400</v>
+        <v>187300</v>
       </c>
       <c r="F102" s="3">
-        <v>-690700</v>
+        <v>-676100</v>
       </c>
       <c r="G102" s="3">
-        <v>366200</v>
+        <v>358500</v>
       </c>
       <c r="H102" s="3">
-        <v>-589300</v>
+        <v>-576900</v>
       </c>
       <c r="I102" s="3">
-        <v>543700</v>
+        <v>532200</v>
       </c>
       <c r="J102" s="3">
-        <v>316800</v>
+        <v>310200</v>
       </c>
       <c r="K102" s="3">
         <v>38500</v>
